--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="400">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1382,10 +1382,85 @@
     <t>百度联盟收入--每月总金额</t>
   </si>
   <si>
-    <t>月表</t>
-  </si>
-  <si>
     <t>一个月一条数据</t>
+  </si>
+  <si>
+    <t>leads转化率来源为-自行录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lleads转化率来源为-来电咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销中心在职职能人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销中心在职人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度联盟月收入预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度联盟收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝关键词</t>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=Salmon&gt;郭晔&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>Lead数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭晔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下下是生成监控的入库脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止到当天当月的累计金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止到当天当月累计金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止到当天当月的量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1880,7 +1955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2067,16 +2142,79 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2136,70 +2274,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2209,6 +2292,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2228,7 +2379,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2520,8 +2671,8 @@
   <dimension ref="A1:O380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G355" sqref="G355"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E372" sqref="E372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2587,7 +2738,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2617,7 +2768,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -2645,7 +2796,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -2688,7 +2839,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="153" t="s">
+      <c r="D6" s="174" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2714,7 +2865,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="136"/>
+      <c r="D7" s="157"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -2738,7 +2889,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="136"/>
+      <c r="D8" s="157"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -2762,7 +2913,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="136"/>
+      <c r="D9" s="157"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -2786,7 +2937,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="136"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -2828,7 +2979,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="170" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2854,7 +3005,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="134"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -2878,7 +3029,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="134"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -2902,7 +3053,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="134"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2926,7 +3077,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="134"/>
+      <c r="D16" s="145"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -2950,7 +3101,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="134"/>
+      <c r="D17" s="145"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -2974,7 +3125,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="134"/>
+      <c r="D18" s="145"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -2998,7 +3149,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="134"/>
+      <c r="D19" s="145"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3022,7 +3173,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="134"/>
+      <c r="D20" s="145"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3046,7 +3197,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="135"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3084,7 +3235,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="150" t="s">
+      <c r="D23" s="171" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3106,7 +3257,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="151"/>
+      <c r="D24" s="172"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3134,7 +3285,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="151"/>
+      <c r="D25" s="172"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3162,7 +3313,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="151"/>
+      <c r="D26" s="172"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3182,7 +3333,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="151"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3210,7 +3361,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="151"/>
+      <c r="D28" s="172"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3238,7 +3389,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="151"/>
+      <c r="D29" s="172"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3266,7 +3417,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="152"/>
+      <c r="D30" s="173"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3372,7 +3523,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="135" t="s">
+      <c r="D35" s="146" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3392,7 +3543,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="136"/>
+      <c r="D36" s="157"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3410,7 +3561,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="136"/>
+      <c r="D37" s="157"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3428,7 +3579,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="136"/>
+      <c r="D38" s="157"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3462,7 +3613,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="141" t="s">
+      <c r="D40" s="162" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3488,7 +3639,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="142"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -3512,7 +3663,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="142"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -3536,7 +3687,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="143"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -3574,7 +3725,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="137" t="s">
+      <c r="D45" s="158" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -3600,7 +3751,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="138"/>
+      <c r="D46" s="159"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3624,7 +3775,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="138"/>
+      <c r="D47" s="159"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -3648,7 +3799,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="138"/>
+      <c r="D48" s="159"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -3672,7 +3823,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="138"/>
+      <c r="D49" s="159"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -3696,7 +3847,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="138"/>
+      <c r="D50" s="159"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -3720,7 +3871,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="138"/>
+      <c r="D51" s="159"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -3744,7 +3895,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="138"/>
+      <c r="D52" s="159"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -3768,7 +3919,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="138"/>
+      <c r="D53" s="159"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -3792,7 +3943,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="138"/>
+      <c r="D54" s="159"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -3816,7 +3967,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="138"/>
+      <c r="D55" s="159"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -3840,7 +3991,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="139"/>
+      <c r="D56" s="160"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -3922,7 +4073,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="140" t="s">
+      <c r="D60" s="161" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -3952,7 +4103,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="134"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -3980,7 +4131,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="134"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4008,7 +4159,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="134"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4032,7 +4183,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="134"/>
+      <c r="D64" s="145"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4056,7 +4207,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="135"/>
+      <c r="D65" s="146"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4094,7 +4245,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="144" t="s">
+      <c r="D67" s="165" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4124,7 +4275,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="145"/>
+      <c r="D68" s="166"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4152,7 +4303,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="146"/>
+      <c r="D69" s="167"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4194,7 +4345,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="147" t="s">
+      <c r="D71" s="168" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4224,7 +4375,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="148"/>
+      <c r="D72" s="169"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4252,7 +4403,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="148"/>
+      <c r="D73" s="169"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4280,7 +4431,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="148"/>
+      <c r="D74" s="169"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4308,7 +4459,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="136"/>
+      <c r="D75" s="157"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4336,7 +4487,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="136"/>
+      <c r="D76" s="157"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4422,7 +4573,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="137" t="s">
+      <c r="D80" s="158" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4452,7 +4603,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="138"/>
+      <c r="D81" s="159"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4476,7 +4627,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="138"/>
+      <c r="D82" s="159"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4504,7 +4655,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="138"/>
+      <c r="D83" s="159"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -4528,7 +4679,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="138"/>
+      <c r="D84" s="159"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -4556,7 +4707,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="139"/>
+      <c r="D85" s="160"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -4638,7 +4789,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="157" t="s">
+      <c r="D89" s="133" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -4668,7 +4819,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="158"/>
+      <c r="D90" s="134"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -4696,7 +4847,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="158"/>
+      <c r="D91" s="134"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -4724,7 +4875,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="158"/>
+      <c r="D92" s="134"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -4752,7 +4903,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="158"/>
+      <c r="D93" s="134"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -4780,7 +4931,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="159"/>
+      <c r="D94" s="135"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -4822,7 +4973,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="161" t="s">
+      <c r="D96" s="137" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -4848,7 +4999,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="162"/>
+      <c r="D97" s="138"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -4872,7 +5023,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="162"/>
+      <c r="D98" s="138"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -4896,7 +5047,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="162"/>
+      <c r="D99" s="138"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -4920,7 +5071,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="162"/>
+      <c r="D100" s="138"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -4944,7 +5095,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="162"/>
+      <c r="D101" s="138"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -4968,7 +5119,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="162"/>
+      <c r="D102" s="138"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -4992,7 +5143,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="163"/>
+      <c r="D103" s="139"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5019,7 +5170,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="154" t="s">
+      <c r="D105" s="175" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5045,7 +5196,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="154"/>
+      <c r="D106" s="175"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5069,7 +5220,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="154"/>
+      <c r="D107" s="175"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5093,7 +5244,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="154"/>
+      <c r="D108" s="175"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5115,7 +5266,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="154"/>
+      <c r="D109" s="175"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5141,7 +5292,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="168" t="s">
+      <c r="D111" s="144" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5167,7 +5318,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="134"/>
+      <c r="D112" s="145"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5191,7 +5342,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="134"/>
+      <c r="D113" s="145"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5215,7 +5366,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="134"/>
+      <c r="D114" s="145"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5239,7 +5390,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="134"/>
+      <c r="D115" s="145"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5263,7 +5414,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="135"/>
+      <c r="D116" s="146"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5293,7 +5444,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="160" t="s">
+      <c r="D119" s="136" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5319,7 +5470,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="160"/>
+      <c r="D120" s="136"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5343,7 +5494,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="160"/>
+      <c r="D121" s="136"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5367,7 +5518,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="160"/>
+      <c r="D122" s="136"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5391,7 +5542,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="160"/>
+      <c r="D123" s="136"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5415,7 +5566,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="160"/>
+      <c r="D124" s="136"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5439,7 +5590,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="160"/>
+      <c r="D125" s="136"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5463,7 +5614,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="160"/>
+      <c r="D126" s="136"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5487,7 +5638,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="160"/>
+      <c r="D127" s="136"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -5511,7 +5662,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="160"/>
+      <c r="D128" s="136"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -5535,7 +5686,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="160"/>
+      <c r="D129" s="136"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -5559,7 +5710,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="160"/>
+      <c r="D130" s="136"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -5583,7 +5734,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="160"/>
+      <c r="D131" s="136"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -5607,7 +5758,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="160"/>
+      <c r="D132" s="136"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -5631,7 +5782,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="160"/>
+      <c r="D133" s="136"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -5655,7 +5806,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="160"/>
+      <c r="D134" s="136"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -5763,7 +5914,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="155" t="s">
+      <c r="D140" s="148" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -5789,7 +5940,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="155"/>
+      <c r="D141" s="148"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -5813,7 +5964,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="155"/>
+      <c r="D142" s="148"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -5837,7 +5988,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="155"/>
+      <c r="D143" s="148"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -5861,7 +6012,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="155"/>
+      <c r="D144" s="148"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -5885,7 +6036,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="155"/>
+      <c r="D145" s="148"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -5909,7 +6060,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="155"/>
+      <c r="D146" s="148"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -5933,7 +6084,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="155"/>
+      <c r="D147" s="148"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -5957,7 +6108,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="155"/>
+      <c r="D148" s="148"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -5981,7 +6132,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="155"/>
+      <c r="D149" s="148"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6005,7 +6156,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="155"/>
+      <c r="D150" s="148"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6029,7 +6180,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="155"/>
+      <c r="D151" s="148"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6053,7 +6204,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="155"/>
+      <c r="D152" s="148"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6077,7 +6228,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="155"/>
+      <c r="D153" s="148"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6101,7 +6252,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="155"/>
+      <c r="D154" s="148"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6125,7 +6276,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="155"/>
+      <c r="D155" s="148"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6149,7 +6300,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="155"/>
+      <c r="D156" s="148"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6173,7 +6324,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="155"/>
+      <c r="D157" s="148"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6197,7 +6348,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="155"/>
+      <c r="D158" s="148"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6221,7 +6372,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="155"/>
+      <c r="D159" s="148"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6245,7 +6396,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="155"/>
+      <c r="D160" s="148"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6269,7 +6420,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="155"/>
+      <c r="D161" s="148"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6293,7 +6444,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="155"/>
+      <c r="D162" s="148"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6317,7 +6468,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="155"/>
+      <c r="D163" s="148"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6341,7 +6492,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="155"/>
+      <c r="D164" s="148"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6365,7 +6516,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="155"/>
+      <c r="D165" s="148"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6389,7 +6540,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="155"/>
+      <c r="D166" s="148"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6413,7 +6564,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="155"/>
+      <c r="D167" s="148"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6437,7 +6588,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="155"/>
+      <c r="D168" s="148"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6461,7 +6612,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="155"/>
+      <c r="D169" s="148"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6485,7 +6636,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="155"/>
+      <c r="D170" s="148"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -6509,7 +6660,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="155"/>
+      <c r="D171" s="148"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -6533,7 +6684,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="155"/>
+      <c r="D172" s="148"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -6557,7 +6708,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="155"/>
+      <c r="D173" s="148"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -6581,7 +6732,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="155"/>
+      <c r="D174" s="148"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -6605,7 +6756,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="155"/>
+      <c r="D175" s="148"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -6629,7 +6780,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="155"/>
+      <c r="D176" s="148"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -6653,7 +6804,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="155"/>
+      <c r="D177" s="148"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -6677,7 +6828,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="155"/>
+      <c r="D178" s="148"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -6701,7 +6852,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="155"/>
+      <c r="D179" s="148"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -6725,7 +6876,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="155"/>
+      <c r="D180" s="148"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -6749,7 +6900,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="155"/>
+      <c r="D181" s="148"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -6773,7 +6924,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="155"/>
+      <c r="D182" s="148"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -6797,7 +6948,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="155"/>
+      <c r="D183" s="148"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -6821,7 +6972,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="155"/>
+      <c r="D184" s="148"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -6845,7 +6996,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="155"/>
+      <c r="D185" s="148"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -6869,7 +7020,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="155"/>
+      <c r="D186" s="148"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -6893,7 +7044,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="155"/>
+      <c r="D187" s="148"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -6917,7 +7068,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="155"/>
+      <c r="D188" s="148"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -6941,7 +7092,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="155"/>
+      <c r="D189" s="148"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -6965,7 +7116,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="155"/>
+      <c r="D190" s="148"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -6989,7 +7140,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="155"/>
+      <c r="D191" s="148"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7013,7 +7164,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="155"/>
+      <c r="D192" s="148"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7037,7 +7188,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="155"/>
+      <c r="D193" s="148"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7061,7 +7212,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="155"/>
+      <c r="D194" s="148"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7085,7 +7236,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="155"/>
+      <c r="D195" s="148"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7109,7 +7260,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="155"/>
+      <c r="D196" s="148"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7133,7 +7284,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="155"/>
+      <c r="D197" s="148"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7157,7 +7308,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="155"/>
+      <c r="D198" s="148"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7181,7 +7332,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="155"/>
+      <c r="D199" s="148"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7205,7 +7356,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="155"/>
+      <c r="D200" s="148"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7229,7 +7380,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="155"/>
+      <c r="D201" s="148"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7253,7 +7404,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="155"/>
+      <c r="D202" s="148"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7277,7 +7428,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="155"/>
+      <c r="D203" s="148"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7301,7 +7452,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="155"/>
+      <c r="D204" s="148"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7325,7 +7476,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="155"/>
+      <c r="D205" s="148"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7349,7 +7500,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="155"/>
+      <c r="D206" s="148"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7373,7 +7524,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="155"/>
+      <c r="D207" s="148"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7397,7 +7548,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="155"/>
+      <c r="D208" s="148"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7421,7 +7572,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="155"/>
+      <c r="D209" s="148"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7445,7 +7596,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="155"/>
+      <c r="D210" s="148"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7469,7 +7620,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="155"/>
+      <c r="D211" s="148"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -7550,7 +7701,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="169" t="s">
+      <c r="D217" s="147" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -7575,7 +7726,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="134"/>
+      <c r="D218" s="145"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -7598,7 +7749,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="134"/>
+      <c r="D219" s="145"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -7621,7 +7772,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="135"/>
+      <c r="D220" s="146"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -7644,7 +7795,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="174" t="s">
+      <c r="D222" s="153" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -7670,7 +7821,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="174"/>
+      <c r="D223" s="153"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -7698,7 +7849,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="174"/>
+      <c r="D224" s="153"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -7726,7 +7877,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="174"/>
+      <c r="D225" s="153"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -7750,7 +7901,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="174"/>
+      <c r="D226" s="153"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -7778,7 +7929,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="174"/>
+      <c r="D227" s="153"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -7806,7 +7957,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="173" t="s">
+      <c r="D229" s="152" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -7840,7 +7991,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="173"/>
+      <c r="D230" s="152"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -7872,7 +8023,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="173"/>
+      <c r="D231" s="152"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -7904,7 +8055,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="173"/>
+      <c r="D232" s="152"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -7936,7 +8087,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="173"/>
+      <c r="D233" s="152"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -7968,7 +8119,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="173"/>
+      <c r="D234" s="152"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8000,7 +8151,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="173"/>
+      <c r="D235" s="152"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8032,7 +8183,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="173"/>
+      <c r="D236" s="152"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8064,7 +8215,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="173"/>
+      <c r="D237" s="152"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8096,7 +8247,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="173"/>
+      <c r="D238" s="152"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8128,7 +8279,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="173"/>
+      <c r="D239" s="152"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8160,7 +8311,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="173"/>
+      <c r="D240" s="152"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8192,7 +8343,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="173"/>
+      <c r="D241" s="152"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8224,7 +8375,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="173"/>
+      <c r="D242" s="152"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8256,7 +8407,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="173"/>
+      <c r="D243" s="152"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8288,7 +8439,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="173"/>
+      <c r="D244" s="152"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8320,7 +8471,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="173"/>
+      <c r="D245" s="152"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8356,7 +8507,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="156" t="s">
+      <c r="D247" s="176" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8382,7 +8533,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="156"/>
+      <c r="D248" s="176"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8406,7 +8557,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="156"/>
+      <c r="D249" s="176"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8430,7 +8581,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="149" t="s">
+      <c r="D251" s="170" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8456,7 +8607,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="135"/>
+      <c r="D252" s="146"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8480,7 +8631,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="155" t="s">
+      <c r="D254" s="148" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8502,7 +8653,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="155"/>
+      <c r="D255" s="148"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -8522,7 +8673,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="155"/>
+      <c r="D256" s="148"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -8542,7 +8693,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="155"/>
+      <c r="D257" s="148"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -8562,7 +8713,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="155"/>
+      <c r="D258" s="148"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -8582,7 +8733,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="155"/>
+      <c r="D259" s="148"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -8602,7 +8753,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="155"/>
+      <c r="D260" s="148"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -8622,7 +8773,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="155"/>
+      <c r="D261" s="148"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -8642,7 +8793,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="155"/>
+      <c r="D262" s="148"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -8662,7 +8813,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="155"/>
+      <c r="D263" s="148"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -8682,7 +8833,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="155"/>
+      <c r="D264" s="148"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -8702,7 +8853,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="155"/>
+      <c r="D265" s="148"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -8722,7 +8873,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="155"/>
+      <c r="D266" s="148"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -8742,7 +8893,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="155"/>
+      <c r="D267" s="148"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -8762,7 +8913,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="155"/>
+      <c r="D268" s="148"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -8782,7 +8933,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="155"/>
+      <c r="D269" s="148"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -8802,7 +8953,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="155"/>
+      <c r="D270" s="148"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -8822,7 +8973,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="155"/>
+      <c r="D271" s="148"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -8842,7 +8993,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="155"/>
+      <c r="D272" s="148"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -8862,7 +9013,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="155"/>
+      <c r="D273" s="148"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -8882,7 +9033,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="155"/>
+      <c r="D274" s="148"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -8902,7 +9053,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="155"/>
+      <c r="D275" s="148"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -8922,7 +9073,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="155"/>
+      <c r="D276" s="148"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -8942,7 +9093,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="155"/>
+      <c r="D277" s="148"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -8962,7 +9113,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="155"/>
+      <c r="D278" s="148"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -8982,7 +9133,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="155"/>
+      <c r="D279" s="148"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9002,7 +9153,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="155"/>
+      <c r="D280" s="148"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9022,7 +9173,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="155"/>
+      <c r="D281" s="148"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9042,7 +9193,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="155"/>
+      <c r="D282" s="148"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9062,7 +9213,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="155"/>
+      <c r="D283" s="148"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9082,7 +9233,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="155"/>
+      <c r="D284" s="148"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9102,7 +9253,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="155"/>
+      <c r="D285" s="148"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9122,7 +9273,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="155"/>
+      <c r="D286" s="148"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9142,7 +9293,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="155"/>
+      <c r="D287" s="148"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9162,7 +9313,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="155"/>
+      <c r="D288" s="148"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9182,7 +9333,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="155"/>
+      <c r="D289" s="148"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9202,7 +9353,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="155"/>
+      <c r="D290" s="148"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9222,7 +9373,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="155"/>
+      <c r="D291" s="148"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9242,7 +9393,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="155"/>
+      <c r="D292" s="148"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9262,7 +9413,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="155"/>
+      <c r="D293" s="148"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9282,7 +9433,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="155"/>
+      <c r="D294" s="148"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9302,7 +9453,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="155"/>
+      <c r="D295" s="148"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9322,7 +9473,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="155"/>
+      <c r="D296" s="148"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9342,7 +9493,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="155"/>
+      <c r="D297" s="148"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9362,7 +9513,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="155"/>
+      <c r="D298" s="148"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9382,7 +9533,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="155"/>
+      <c r="D299" s="148"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9402,7 +9553,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="155"/>
+      <c r="D300" s="148"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9422,7 +9573,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="155"/>
+      <c r="D301" s="148"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9442,7 +9593,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="155"/>
+      <c r="D302" s="148"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9462,7 +9613,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="155"/>
+      <c r="D303" s="148"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9482,7 +9633,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="155"/>
+      <c r="D304" s="148"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9502,7 +9653,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="155"/>
+      <c r="D305" s="148"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -9522,7 +9673,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="155"/>
+      <c r="D306" s="148"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -9542,7 +9693,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="155"/>
+      <c r="D307" s="148"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -9562,7 +9713,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="155"/>
+      <c r="D308" s="148"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -9582,7 +9733,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="155"/>
+      <c r="D309" s="148"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -9602,7 +9753,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="155"/>
+      <c r="D310" s="148"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -9622,7 +9773,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="155"/>
+      <c r="D311" s="148"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -9642,7 +9793,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="155"/>
+      <c r="D312" s="148"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -9662,7 +9813,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="155"/>
+      <c r="D313" s="148"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -9682,7 +9833,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="155"/>
+      <c r="D314" s="148"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -9702,7 +9853,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="155"/>
+      <c r="D315" s="148"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -9722,7 +9873,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="155"/>
+      <c r="D316" s="148"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -9742,7 +9893,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="155"/>
+      <c r="D317" s="148"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -9762,7 +9913,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="155"/>
+      <c r="D318" s="148"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -9782,7 +9933,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="155"/>
+      <c r="D319" s="148"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -9802,7 +9953,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="155"/>
+      <c r="D320" s="148"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -9822,7 +9973,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="155"/>
+      <c r="D321" s="148"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -9842,7 +9993,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="155"/>
+      <c r="D322" s="148"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -9862,7 +10013,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="155"/>
+      <c r="D323" s="148"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -9882,7 +10033,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="155"/>
+      <c r="D324" s="148"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -9902,7 +10053,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="155"/>
+      <c r="D325" s="148"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -9922,7 +10073,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="170" t="s">
+      <c r="D328" s="149" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -9949,7 +10100,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="171"/>
+      <c r="D329" s="150"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -9974,7 +10125,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="171"/>
+      <c r="D330" s="150"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -9999,7 +10150,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="171"/>
+      <c r="D331" s="150"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10024,7 +10175,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="171"/>
+      <c r="D332" s="150"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10049,7 +10200,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="171"/>
+      <c r="D333" s="150"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10074,7 +10225,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="171"/>
+      <c r="D334" s="150"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10099,7 +10250,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="171"/>
+      <c r="D335" s="150"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10124,7 +10275,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="135"/>
+      <c r="D336" s="146"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10148,7 +10299,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="167" t="s">
+      <c r="D338" s="143" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10168,7 +10319,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="167"/>
+      <c r="D339" s="143"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10186,7 +10337,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="167"/>
+      <c r="D340" s="143"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10204,7 +10355,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="167"/>
+      <c r="D341" s="143"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10230,7 +10381,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="175" t="s">
+      <c r="D343" s="154" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10252,7 +10403,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="175"/>
+      <c r="D344" s="154"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10267,7 +10418,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="164" t="s">
+      <c r="A346" s="140" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10276,7 +10427,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="170" t="s">
+      <c r="D346" s="149" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10291,14 +10442,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="165"/>
+      <c r="A347" s="141"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="171"/>
+      <c r="D347" s="150"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10311,14 +10462,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="165"/>
+      <c r="A348" s="141"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="171"/>
+      <c r="D348" s="150"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10331,14 +10482,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="165"/>
+      <c r="A349" s="141"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="171"/>
+      <c r="D349" s="150"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10351,14 +10502,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="165"/>
+      <c r="A350" s="141"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="171"/>
+      <c r="D350" s="150"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10371,14 +10522,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="165"/>
+      <c r="A351" s="141"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="171"/>
+      <c r="D351" s="150"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10391,14 +10542,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="165"/>
+      <c r="A352" s="141"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="171"/>
+      <c r="D352" s="150"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -10411,14 +10562,14 @@
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A353" s="166"/>
+      <c r="A353" s="142"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="172"/>
+      <c r="D353" s="151"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -10440,7 +10591,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="132" t="s">
+      <c r="D355" s="155" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10460,7 +10611,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="132"/>
+      <c r="D356" s="155"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10478,7 +10629,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="132"/>
+      <c r="D357" s="155"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10496,7 +10647,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="132"/>
+      <c r="D358" s="155"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -10514,21 +10665,25 @@
       <c r="C360" s="122" t="s">
         <v>376</v>
       </c>
-      <c r="D360" s="176" t="s">
+      <c r="D360" s="132" t="s">
         <v>377</v>
       </c>
       <c r="E360" s="122"/>
       <c r="F360" s="122"/>
       <c r="G360" s="122" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="H360" s="122" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="I360" s="122"/>
       <c r="J360" s="122"/>
-      <c r="K360" s="122"/>
-      <c r="L360" s="122"/>
+      <c r="K360" s="122" t="s">
+        <v>394</v>
+      </c>
+      <c r="L360" s="27" t="s">
+        <v>273</v>
+      </c>
       <c r="M360" s="58"/>
       <c r="N360" s="58"/>
       <c r="O360" s="58"/>
@@ -10543,7 +10698,7 @@
       <c r="C361" s="122" t="s">
         <v>378</v>
       </c>
-      <c r="D361" s="176" t="s">
+      <c r="D361" s="132" t="s">
         <v>377</v>
       </c>
       <c r="E361" s="122"/>
@@ -10553,80 +10708,270 @@
       <c r="I361" s="122"/>
       <c r="J361" s="122"/>
       <c r="K361" s="122" t="s">
+        <v>395</v>
+      </c>
+      <c r="L361" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="M361" s="58" t="s">
         <v>379</v>
-      </c>
-      <c r="L361" s="122" t="s">
-        <v>321</v>
-      </c>
-      <c r="M361" s="58" t="s">
-        <v>380</v>
       </c>
       <c r="N361" s="58"/>
       <c r="O361" s="58"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="177" t="s">
+        <v>267</v>
+      </c>
+      <c r="B362" s="122">
+        <v>311</v>
+      </c>
+      <c r="C362" s="116" t="s">
+        <v>380</v>
+      </c>
+      <c r="D362" s="180" t="s">
+        <v>389</v>
+      </c>
+      <c r="E362" s="122"/>
+      <c r="F362" s="122"/>
+      <c r="G362" s="122"/>
+      <c r="H362" s="122"/>
+      <c r="I362" s="122"/>
+      <c r="J362" s="122"/>
+      <c r="K362" s="122" t="s">
+        <v>396</v>
+      </c>
+      <c r="L362" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="177" t="s">
+        <v>267</v>
+      </c>
+      <c r="B363" s="122">
+        <v>312</v>
+      </c>
+      <c r="C363" s="116" t="s">
+        <v>381</v>
+      </c>
+      <c r="D363" s="180"/>
+      <c r="E363" s="122"/>
+      <c r="F363" s="122"/>
+      <c r="G363" s="122"/>
+      <c r="H363" s="122"/>
+      <c r="I363" s="122"/>
+      <c r="J363" s="122"/>
+      <c r="K363" s="122" t="s">
+        <v>396</v>
+      </c>
+      <c r="L363" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="177" t="s">
+        <v>267</v>
+      </c>
+      <c r="B364" s="177">
+        <v>313</v>
+      </c>
+      <c r="C364" s="118" t="s">
+        <v>382</v>
+      </c>
+      <c r="D364" s="179" t="s">
+        <v>93</v>
+      </c>
+      <c r="E364" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F364" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="G364" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H364" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="I364" s="122"/>
+      <c r="J364" s="122"/>
+      <c r="K364" s="122"/>
+      <c r="L364" s="27"/>
+    </row>
+    <row r="365" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="177" t="s">
+        <v>267</v>
+      </c>
+      <c r="B365" s="177">
+        <v>314</v>
+      </c>
+      <c r="C365" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="D365" s="179" t="s">
+        <v>93</v>
+      </c>
+      <c r="E365" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="F365" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="G365" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H365" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="I365" s="122"/>
+      <c r="J365" s="122"/>
+      <c r="K365" s="122"/>
+    </row>
+    <row r="366" spans="1:15" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="177" t="s">
+        <v>267</v>
+      </c>
+      <c r="B366" s="177">
+        <v>315</v>
+      </c>
+      <c r="C366" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="D366" s="132" t="s">
+        <v>385</v>
+      </c>
+      <c r="E366" s="122"/>
+      <c r="F366" s="122"/>
+      <c r="G366" s="122"/>
+      <c r="H366" s="122"/>
+      <c r="I366" s="122"/>
+      <c r="J366" s="122"/>
+      <c r="K366" s="122" t="s">
+        <v>392</v>
+      </c>
+      <c r="L366" s="27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A368" s="178" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D369"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370"/>
       <c r="D370"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371"/>
       <c r="D371"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372"/>
       <c r="D372"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373"/>
       <c r="D373"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374"/>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>393</v>
+      </c>
       <c r="D374"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375"/>
       <c r="D375"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376"/>
-      <c r="D376"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377"/>
-      <c r="D377"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378"/>
-      <c r="D378"/>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="B376" s="127">
+        <v>306</v>
+      </c>
+      <c r="C376" s="131" t="s">
+        <v>370</v>
+      </c>
+      <c r="D376" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="E376" t="s">
+        <v>387</v>
+      </c>
+      <c r="F376" t="s">
+        <v>387</v>
+      </c>
+      <c r="G376" t="str">
+        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B376&amp;",'"&amp;C376&amp;"','"&amp;D376&amp;"','"&amp;E376&amp;"','"&amp;F376&amp;"','0','"&amp;A376&amp;"');")</f>
+        <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,306,'互通宝在投词量','互通宝关键词','h','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="B377" s="127">
+        <v>307</v>
+      </c>
+      <c r="C377" s="131" t="s">
+        <v>371</v>
+      </c>
+      <c r="D377" s="58" t="s">
+        <v>386</v>
+      </c>
+      <c r="E377" t="s">
+        <v>387</v>
+      </c>
+      <c r="F377" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="G377" s="58" t="str">
+        <f t="shared" ref="G377:G378" si="0">CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B377&amp;",'"&amp;C377&amp;"','"&amp;D377&amp;"','"&amp;E377&amp;"','"&amp;F377&amp;"','0','"&amp;A377&amp;"');")</f>
+        <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,307,'竞价词top50-人数','互通宝关键词','h','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="B378" s="177">
+        <v>315</v>
+      </c>
+      <c r="C378" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="D378" s="132" t="s">
+        <v>385</v>
+      </c>
+      <c r="E378" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="F378" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="G378" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,315,'百度联盟月收入预算','百度联盟收入','m','y','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379"/>
       <c r="D379"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380"/>
       <c r="D380"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
-  <mergeCells count="29">
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="D119:D134"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D217:D220"/>
-    <mergeCell ref="D140:D211"/>
-    <mergeCell ref="D346:D353"/>
-    <mergeCell ref="D229:D245"/>
-    <mergeCell ref="D222:D227"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="D328:D336"/>
+  <mergeCells count="30">
+    <mergeCell ref="D362:D363"/>
     <mergeCell ref="D355:D358"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D35:D38"/>
@@ -10643,6 +10988,19 @@
     <mergeCell ref="D254:D325"/>
     <mergeCell ref="D247:D249"/>
     <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="D119:D134"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="D140:D211"/>
+    <mergeCell ref="D346:D353"/>
+    <mergeCell ref="D229:D245"/>
+    <mergeCell ref="D222:D227"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="D328:D336"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="402">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1409,9 +1409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>互通宝关键词</t>
-  </si>
-  <si>
     <t>h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1427,10 +1424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当月累计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1459,7 +1452,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
+    <t>P4PCPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天累计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1467,7 +1476,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1798,6 +1807,56 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1955,7 +2014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2142,79 +2201,16 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2274,17 +2270,99 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -2668,11 +2746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O380"/>
+  <dimension ref="A1:M378"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E372" sqref="E372"/>
+      <selection pane="bottomLeft" activeCell="G376" sqref="G376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2738,7 +2816,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="133" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2768,7 +2846,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -2796,7 +2874,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="146"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -2839,7 +2917,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="153" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2865,7 +2943,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="157"/>
+      <c r="D7" s="136"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -2889,7 +2967,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="136"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -2913,7 +2991,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="157"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -2937,7 +3015,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="157"/>
+      <c r="D10" s="136"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -2979,7 +3057,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="170" t="s">
+      <c r="D12" s="149" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3005,7 +3083,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="145"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3029,7 +3107,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="145"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3053,7 +3131,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="145"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3077,7 +3155,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="145"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3101,7 +3179,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="145"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3125,7 +3203,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="145"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3149,7 +3227,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="145"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3173,7 +3251,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="145"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3197,7 +3275,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="146"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3235,7 +3313,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="171" t="s">
+      <c r="D23" s="150" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3257,7 +3335,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="172"/>
+      <c r="D24" s="151"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3285,7 +3363,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="172"/>
+      <c r="D25" s="151"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3313,7 +3391,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="172"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3333,7 +3411,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="151"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3361,7 +3439,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="172"/>
+      <c r="D28" s="151"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3389,7 +3467,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="172"/>
+      <c r="D29" s="151"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3417,7 +3495,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="173"/>
+      <c r="D30" s="152"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3523,7 +3601,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="146" t="s">
+      <c r="D35" s="135" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3543,7 +3621,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="157"/>
+      <c r="D36" s="136"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3561,7 +3639,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="157"/>
+      <c r="D37" s="136"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3579,7 +3657,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="157"/>
+      <c r="D38" s="136"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3613,7 +3691,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="162" t="s">
+      <c r="D40" s="141" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3639,7 +3717,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="163"/>
+      <c r="D41" s="142"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -3663,7 +3741,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="163"/>
+      <c r="D42" s="142"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -3687,7 +3765,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="164"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -3725,7 +3803,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="158" t="s">
+      <c r="D45" s="137" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -3751,7 +3829,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="159"/>
+      <c r="D46" s="138"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3775,7 +3853,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="159"/>
+      <c r="D47" s="138"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -3799,7 +3877,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="159"/>
+      <c r="D48" s="138"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -3823,7 +3901,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="159"/>
+      <c r="D49" s="138"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -3847,7 +3925,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="159"/>
+      <c r="D50" s="138"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -3871,7 +3949,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="159"/>
+      <c r="D51" s="138"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -3895,7 +3973,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="159"/>
+      <c r="D52" s="138"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -3919,7 +3997,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="159"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -3943,7 +4021,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="159"/>
+      <c r="D54" s="138"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -3967,7 +4045,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="159"/>
+      <c r="D55" s="138"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -3991,7 +4069,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="160"/>
+      <c r="D56" s="139"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4073,7 +4151,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="161" t="s">
+      <c r="D60" s="140" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4103,7 +4181,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="145"/>
+      <c r="D61" s="134"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4131,7 +4209,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="145"/>
+      <c r="D62" s="134"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4159,7 +4237,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="145"/>
+      <c r="D63" s="134"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4183,7 +4261,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="145"/>
+      <c r="D64" s="134"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4207,7 +4285,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="146"/>
+      <c r="D65" s="135"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4245,7 +4323,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="165" t="s">
+      <c r="D67" s="144" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4275,7 +4353,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="166"/>
+      <c r="D68" s="145"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4303,7 +4381,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="167"/>
+      <c r="D69" s="146"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4345,7 +4423,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="168" t="s">
+      <c r="D71" s="147" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4375,7 +4453,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="169"/>
+      <c r="D72" s="148"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4403,7 +4481,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="169"/>
+      <c r="D73" s="148"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4431,7 +4509,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="169"/>
+      <c r="D74" s="148"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4459,7 +4537,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="157"/>
+      <c r="D75" s="136"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4487,7 +4565,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="157"/>
+      <c r="D76" s="136"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4573,7 +4651,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="158" t="s">
+      <c r="D80" s="137" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4603,7 +4681,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="159"/>
+      <c r="D81" s="138"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4627,7 +4705,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="159"/>
+      <c r="D82" s="138"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4655,7 +4733,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="159"/>
+      <c r="D83" s="138"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -4679,7 +4757,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="159"/>
+      <c r="D84" s="138"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -4707,7 +4785,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="160"/>
+      <c r="D85" s="139"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -4789,7 +4867,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="133" t="s">
+      <c r="D89" s="157" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -4819,7 +4897,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="134"/>
+      <c r="D90" s="158"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -4847,7 +4925,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="134"/>
+      <c r="D91" s="158"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -4875,7 +4953,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="134"/>
+      <c r="D92" s="158"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -4903,7 +4981,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="134"/>
+      <c r="D93" s="158"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -4931,7 +5009,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="135"/>
+      <c r="D94" s="159"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -4973,7 +5051,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="137" t="s">
+      <c r="D96" s="161" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -4999,7 +5077,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="138"/>
+      <c r="D97" s="162"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5023,7 +5101,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="138"/>
+      <c r="D98" s="162"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5047,7 +5125,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="138"/>
+      <c r="D99" s="162"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5071,7 +5149,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="138"/>
+      <c r="D100" s="162"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5095,7 +5173,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="138"/>
+      <c r="D101" s="162"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5119,7 +5197,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="138"/>
+      <c r="D102" s="162"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5143,7 +5221,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="139"/>
+      <c r="D103" s="163"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5170,7 +5248,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="175" t="s">
+      <c r="D105" s="154" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5196,7 +5274,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="175"/>
+      <c r="D106" s="154"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5220,7 +5298,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="175"/>
+      <c r="D107" s="154"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5244,7 +5322,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="175"/>
+      <c r="D108" s="154"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5266,7 +5344,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="175"/>
+      <c r="D109" s="154"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5292,7 +5370,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="144" t="s">
+      <c r="D111" s="168" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5318,7 +5396,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="145"/>
+      <c r="D112" s="134"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5342,7 +5420,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="145"/>
+      <c r="D113" s="134"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5366,7 +5444,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="145"/>
+      <c r="D114" s="134"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5390,7 +5468,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="145"/>
+      <c r="D115" s="134"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5414,7 +5492,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="146"/>
+      <c r="D116" s="135"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5444,7 +5522,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="136" t="s">
+      <c r="D119" s="160" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5470,7 +5548,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="136"/>
+      <c r="D120" s="160"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5494,7 +5572,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="136"/>
+      <c r="D121" s="160"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5518,7 +5596,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="136"/>
+      <c r="D122" s="160"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5542,7 +5620,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="136"/>
+      <c r="D123" s="160"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5566,7 +5644,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="136"/>
+      <c r="D124" s="160"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5590,7 +5668,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="136"/>
+      <c r="D125" s="160"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5614,7 +5692,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="136"/>
+      <c r="D126" s="160"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5638,7 +5716,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="136"/>
+      <c r="D127" s="160"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -5662,7 +5740,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="136"/>
+      <c r="D128" s="160"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -5686,7 +5764,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="136"/>
+      <c r="D129" s="160"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -5710,7 +5788,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="136"/>
+      <c r="D130" s="160"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -5734,7 +5812,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="136"/>
+      <c r="D131" s="160"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -5758,7 +5836,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="136"/>
+      <c r="D132" s="160"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -5782,7 +5860,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="136"/>
+      <c r="D133" s="160"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -5806,7 +5884,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="136"/>
+      <c r="D134" s="160"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -5914,7 +5992,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="148" t="s">
+      <c r="D140" s="155" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -5940,7 +6018,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="148"/>
+      <c r="D141" s="155"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -5964,7 +6042,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="148"/>
+      <c r="D142" s="155"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -5988,7 +6066,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="148"/>
+      <c r="D143" s="155"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6012,7 +6090,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="148"/>
+      <c r="D144" s="155"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6036,7 +6114,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="148"/>
+      <c r="D145" s="155"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6060,7 +6138,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="148"/>
+      <c r="D146" s="155"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6084,7 +6162,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="148"/>
+      <c r="D147" s="155"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6108,7 +6186,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="148"/>
+      <c r="D148" s="155"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6132,7 +6210,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="148"/>
+      <c r="D149" s="155"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6156,7 +6234,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="148"/>
+      <c r="D150" s="155"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6180,7 +6258,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="148"/>
+      <c r="D151" s="155"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6204,7 +6282,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="148"/>
+      <c r="D152" s="155"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6228,7 +6306,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="148"/>
+      <c r="D153" s="155"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6252,7 +6330,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="148"/>
+      <c r="D154" s="155"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6276,7 +6354,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="148"/>
+      <c r="D155" s="155"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6300,7 +6378,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="148"/>
+      <c r="D156" s="155"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6324,7 +6402,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="148"/>
+      <c r="D157" s="155"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6348,7 +6426,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="148"/>
+      <c r="D158" s="155"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6372,7 +6450,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="148"/>
+      <c r="D159" s="155"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6396,7 +6474,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="148"/>
+      <c r="D160" s="155"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6420,7 +6498,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="148"/>
+      <c r="D161" s="155"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6444,7 +6522,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="148"/>
+      <c r="D162" s="155"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6468,7 +6546,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="148"/>
+      <c r="D163" s="155"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6492,7 +6570,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="148"/>
+      <c r="D164" s="155"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6516,7 +6594,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="148"/>
+      <c r="D165" s="155"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6540,7 +6618,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="148"/>
+      <c r="D166" s="155"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6564,7 +6642,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="148"/>
+      <c r="D167" s="155"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6588,7 +6666,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="148"/>
+      <c r="D168" s="155"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6612,7 +6690,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="148"/>
+      <c r="D169" s="155"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6636,7 +6714,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="148"/>
+      <c r="D170" s="155"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -6660,7 +6738,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="148"/>
+      <c r="D171" s="155"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -6684,7 +6762,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="148"/>
+      <c r="D172" s="155"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -6708,7 +6786,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="148"/>
+      <c r="D173" s="155"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -6732,7 +6810,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="148"/>
+      <c r="D174" s="155"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -6756,7 +6834,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="148"/>
+      <c r="D175" s="155"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -6780,7 +6858,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="148"/>
+      <c r="D176" s="155"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -6804,7 +6882,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="148"/>
+      <c r="D177" s="155"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -6828,7 +6906,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="148"/>
+      <c r="D178" s="155"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -6852,7 +6930,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="148"/>
+      <c r="D179" s="155"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -6876,7 +6954,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="148"/>
+      <c r="D180" s="155"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -6900,7 +6978,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="148"/>
+      <c r="D181" s="155"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -6924,7 +7002,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="148"/>
+      <c r="D182" s="155"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -6948,7 +7026,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="148"/>
+      <c r="D183" s="155"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -6972,7 +7050,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="148"/>
+      <c r="D184" s="155"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -6996,7 +7074,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="148"/>
+      <c r="D185" s="155"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7020,7 +7098,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="148"/>
+      <c r="D186" s="155"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7044,7 +7122,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="148"/>
+      <c r="D187" s="155"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7068,7 +7146,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="148"/>
+      <c r="D188" s="155"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7092,7 +7170,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="148"/>
+      <c r="D189" s="155"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7116,7 +7194,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="148"/>
+      <c r="D190" s="155"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7140,7 +7218,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="148"/>
+      <c r="D191" s="155"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7164,7 +7242,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="148"/>
+      <c r="D192" s="155"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7188,7 +7266,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="148"/>
+      <c r="D193" s="155"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7212,7 +7290,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="148"/>
+      <c r="D194" s="155"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7236,7 +7314,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="148"/>
+      <c r="D195" s="155"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7260,7 +7338,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="148"/>
+      <c r="D196" s="155"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7284,7 +7362,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="148"/>
+      <c r="D197" s="155"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7308,7 +7386,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="148"/>
+      <c r="D198" s="155"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7332,7 +7410,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="148"/>
+      <c r="D199" s="155"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7356,7 +7434,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="148"/>
+      <c r="D200" s="155"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7380,7 +7458,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="148"/>
+      <c r="D201" s="155"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7404,7 +7482,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="148"/>
+      <c r="D202" s="155"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7428,7 +7506,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="148"/>
+      <c r="D203" s="155"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7452,7 +7530,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="148"/>
+      <c r="D204" s="155"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7476,7 +7554,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="148"/>
+      <c r="D205" s="155"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7500,7 +7578,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="148"/>
+      <c r="D206" s="155"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7524,7 +7602,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="148"/>
+      <c r="D207" s="155"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7548,7 +7626,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="148"/>
+      <c r="D208" s="155"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7572,7 +7650,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="148"/>
+      <c r="D209" s="155"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7596,7 +7674,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="148"/>
+      <c r="D210" s="155"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7620,7 +7698,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="148"/>
+      <c r="D211" s="155"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -7701,7 +7779,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="147" t="s">
+      <c r="D217" s="169" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -7726,7 +7804,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="145"/>
+      <c r="D218" s="134"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -7749,7 +7827,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="145"/>
+      <c r="D219" s="134"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -7772,7 +7850,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="146"/>
+      <c r="D220" s="135"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -7795,7 +7873,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="153" t="s">
+      <c r="D222" s="174" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -7821,7 +7899,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="153"/>
+      <c r="D223" s="174"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -7849,7 +7927,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="153"/>
+      <c r="D224" s="174"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -7877,7 +7955,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="153"/>
+      <c r="D225" s="174"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -7901,7 +7979,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="153"/>
+      <c r="D226" s="174"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -7929,7 +8007,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="153"/>
+      <c r="D227" s="174"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -7957,7 +8035,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="152" t="s">
+      <c r="D229" s="173" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -7991,7 +8069,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="152"/>
+      <c r="D230" s="173"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8023,7 +8101,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="152"/>
+      <c r="D231" s="173"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8055,7 +8133,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="152"/>
+      <c r="D232" s="173"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8087,7 +8165,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="152"/>
+      <c r="D233" s="173"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8119,7 +8197,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="152"/>
+      <c r="D234" s="173"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8151,7 +8229,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="152"/>
+      <c r="D235" s="173"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8183,7 +8261,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="152"/>
+      <c r="D236" s="173"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8215,7 +8293,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="152"/>
+      <c r="D237" s="173"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8247,7 +8325,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="152"/>
+      <c r="D238" s="173"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8279,7 +8357,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="152"/>
+      <c r="D239" s="173"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8311,7 +8389,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="152"/>
+      <c r="D240" s="173"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8343,7 +8421,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="152"/>
+      <c r="D241" s="173"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8375,7 +8453,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="152"/>
+      <c r="D242" s="173"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8407,7 +8485,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="152"/>
+      <c r="D243" s="173"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8439,7 +8517,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="152"/>
+      <c r="D244" s="173"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8471,7 +8549,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="152"/>
+      <c r="D245" s="173"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8507,7 +8585,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="176" t="s">
+      <c r="D247" s="156" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8533,7 +8611,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="176"/>
+      <c r="D248" s="156"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8557,7 +8635,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="176"/>
+      <c r="D249" s="156"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8581,7 +8659,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="170" t="s">
+      <c r="D251" s="149" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8607,7 +8685,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="146"/>
+      <c r="D252" s="135"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8631,7 +8709,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="148" t="s">
+      <c r="D254" s="155" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8653,7 +8731,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="148"/>
+      <c r="D255" s="155"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -8673,7 +8751,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="148"/>
+      <c r="D256" s="155"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -8693,7 +8771,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="148"/>
+      <c r="D257" s="155"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -8713,7 +8791,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="148"/>
+      <c r="D258" s="155"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -8733,7 +8811,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="148"/>
+      <c r="D259" s="155"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -8753,7 +8831,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="148"/>
+      <c r="D260" s="155"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -8773,7 +8851,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="148"/>
+      <c r="D261" s="155"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -8793,7 +8871,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="148"/>
+      <c r="D262" s="155"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -8813,7 +8891,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="148"/>
+      <c r="D263" s="155"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -8833,7 +8911,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="148"/>
+      <c r="D264" s="155"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -8853,7 +8931,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="148"/>
+      <c r="D265" s="155"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -8873,7 +8951,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="148"/>
+      <c r="D266" s="155"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -8893,7 +8971,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="148"/>
+      <c r="D267" s="155"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -8913,7 +8991,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="148"/>
+      <c r="D268" s="155"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -8933,7 +9011,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="148"/>
+      <c r="D269" s="155"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -8953,7 +9031,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="148"/>
+      <c r="D270" s="155"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -8973,7 +9051,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="148"/>
+      <c r="D271" s="155"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -8993,7 +9071,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="148"/>
+      <c r="D272" s="155"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9013,7 +9091,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="148"/>
+      <c r="D273" s="155"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9033,7 +9111,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="148"/>
+      <c r="D274" s="155"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9053,7 +9131,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="148"/>
+      <c r="D275" s="155"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9073,7 +9151,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="148"/>
+      <c r="D276" s="155"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9093,7 +9171,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="148"/>
+      <c r="D277" s="155"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9113,7 +9191,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="148"/>
+      <c r="D278" s="155"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9133,7 +9211,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="148"/>
+      <c r="D279" s="155"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9153,7 +9231,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="148"/>
+      <c r="D280" s="155"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9173,7 +9251,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="148"/>
+      <c r="D281" s="155"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9193,7 +9271,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="148"/>
+      <c r="D282" s="155"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9213,7 +9291,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="148"/>
+      <c r="D283" s="155"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9233,7 +9311,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="148"/>
+      <c r="D284" s="155"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9253,7 +9331,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="148"/>
+      <c r="D285" s="155"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9273,7 +9351,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="148"/>
+      <c r="D286" s="155"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9293,7 +9371,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="148"/>
+      <c r="D287" s="155"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9313,7 +9391,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="148"/>
+      <c r="D288" s="155"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9333,7 +9411,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="148"/>
+      <c r="D289" s="155"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9353,7 +9431,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="148"/>
+      <c r="D290" s="155"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9373,7 +9451,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="148"/>
+      <c r="D291" s="155"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9393,7 +9471,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="148"/>
+      <c r="D292" s="155"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9413,7 +9491,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="148"/>
+      <c r="D293" s="155"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9433,7 +9511,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="148"/>
+      <c r="D294" s="155"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9453,7 +9531,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="148"/>
+      <c r="D295" s="155"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9473,7 +9551,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="148"/>
+      <c r="D296" s="155"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9493,7 +9571,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="148"/>
+      <c r="D297" s="155"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9513,7 +9591,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="148"/>
+      <c r="D298" s="155"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9533,7 +9611,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="148"/>
+      <c r="D299" s="155"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9553,7 +9631,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="148"/>
+      <c r="D300" s="155"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9573,7 +9651,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="148"/>
+      <c r="D301" s="155"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9593,7 +9671,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="148"/>
+      <c r="D302" s="155"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9613,7 +9691,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="148"/>
+      <c r="D303" s="155"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9633,7 +9711,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="148"/>
+      <c r="D304" s="155"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9653,7 +9731,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="148"/>
+      <c r="D305" s="155"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -9673,7 +9751,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="148"/>
+      <c r="D306" s="155"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -9693,7 +9771,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="148"/>
+      <c r="D307" s="155"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -9713,7 +9791,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="148"/>
+      <c r="D308" s="155"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -9733,7 +9811,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="148"/>
+      <c r="D309" s="155"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -9753,7 +9831,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="148"/>
+      <c r="D310" s="155"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -9773,7 +9851,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="148"/>
+      <c r="D311" s="155"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -9793,7 +9871,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="148"/>
+      <c r="D312" s="155"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -9813,7 +9891,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="148"/>
+      <c r="D313" s="155"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -9833,7 +9911,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="148"/>
+      <c r="D314" s="155"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -9853,7 +9931,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="148"/>
+      <c r="D315" s="155"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -9873,7 +9951,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="148"/>
+      <c r="D316" s="155"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -9893,7 +9971,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="148"/>
+      <c r="D317" s="155"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -9913,7 +9991,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="148"/>
+      <c r="D318" s="155"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -9933,7 +10011,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="148"/>
+      <c r="D319" s="155"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -9953,7 +10031,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="148"/>
+      <c r="D320" s="155"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -9973,7 +10051,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="148"/>
+      <c r="D321" s="155"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -9993,7 +10071,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="148"/>
+      <c r="D322" s="155"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10013,7 +10091,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="148"/>
+      <c r="D323" s="155"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10033,7 +10111,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="148"/>
+      <c r="D324" s="155"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10053,7 +10131,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="148"/>
+      <c r="D325" s="155"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10073,7 +10151,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="149" t="s">
+      <c r="D328" s="170" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10100,7 +10178,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="150"/>
+      <c r="D329" s="171"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10125,7 +10203,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="150"/>
+      <c r="D330" s="171"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10150,7 +10228,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="150"/>
+      <c r="D331" s="171"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10175,7 +10253,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="150"/>
+      <c r="D332" s="171"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10200,7 +10278,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="150"/>
+      <c r="D333" s="171"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10225,7 +10303,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="150"/>
+      <c r="D334" s="171"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10250,7 +10328,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="150"/>
+      <c r="D335" s="171"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10275,7 +10353,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="146"/>
+      <c r="D336" s="135"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10299,7 +10377,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="143" t="s">
+      <c r="D338" s="167" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10319,7 +10397,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="143"/>
+      <c r="D339" s="167"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10337,7 +10415,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="143"/>
+      <c r="D340" s="167"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10355,7 +10433,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="143"/>
+      <c r="D341" s="167"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10381,7 +10459,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="154" t="s">
+      <c r="D343" s="175" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10403,7 +10481,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="154"/>
+      <c r="D344" s="175"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10418,7 +10496,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="140" t="s">
+      <c r="A346" s="164" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10427,7 +10505,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="149" t="s">
+      <c r="D346" s="170" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10442,14 +10520,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="141"/>
+      <c r="A347" s="165"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="150"/>
+      <c r="D347" s="171"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10462,14 +10540,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="141"/>
+      <c r="A348" s="165"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="150"/>
+      <c r="D348" s="171"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10482,14 +10560,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="141"/>
+      <c r="A349" s="165"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="150"/>
+      <c r="D349" s="171"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10502,14 +10580,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="141"/>
+      <c r="A350" s="165"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="150"/>
+      <c r="D350" s="171"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10522,14 +10600,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="141"/>
+      <c r="A351" s="165"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="150"/>
+      <c r="D351" s="171"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10542,14 +10620,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="141"/>
+      <c r="A352" s="165"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="150"/>
+      <c r="D352" s="171"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -10561,15 +10639,15 @@
         <v>306</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A353" s="142"/>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A353" s="166"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="151"/>
+      <c r="D353" s="172"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -10581,7 +10659,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="127" t="s">
         <v>365</v>
       </c>
@@ -10591,7 +10669,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="155" t="s">
+      <c r="D355" s="132" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10601,7 +10679,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="127" t="s">
         <v>365</v>
       </c>
@@ -10611,7 +10689,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="155"/>
+      <c r="D356" s="132"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10619,7 +10697,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="127" t="s">
         <v>365</v>
       </c>
@@ -10629,7 +10707,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="155"/>
+      <c r="D357" s="132"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10637,7 +10715,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="127" t="s">
         <v>365</v>
       </c>
@@ -10647,7 +10725,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="155"/>
+      <c r="D358" s="132"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -10655,208 +10733,221 @@
         <v>369</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A360" s="122" t="s">
+    <row r="359" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:13" s="183" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="181" t="s">
         <v>375</v>
       </c>
-      <c r="B360" s="122">
+      <c r="B360" s="181">
         <v>309</v>
       </c>
-      <c r="C360" s="122" t="s">
+      <c r="C360" s="181" t="s">
         <v>376</v>
       </c>
-      <c r="D360" s="132" t="s">
+      <c r="D360" s="182" t="s">
         <v>377</v>
       </c>
-      <c r="E360" s="122"/>
-      <c r="F360" s="122"/>
-      <c r="G360" s="122" t="s">
+      <c r="E360" s="181"/>
+      <c r="F360" s="181"/>
+      <c r="G360" s="181" t="s">
+        <v>396</v>
+      </c>
+      <c r="H360" s="181" t="s">
+        <v>273</v>
+      </c>
+      <c r="I360" s="181"/>
+      <c r="J360" s="181"/>
+      <c r="K360" s="181" t="s">
+        <v>392</v>
+      </c>
+      <c r="L360" s="84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" s="183" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="181" t="s">
+        <v>375</v>
+      </c>
+      <c r="B361" s="181">
+        <v>310</v>
+      </c>
+      <c r="C361" s="181" t="s">
+        <v>378</v>
+      </c>
+      <c r="D361" s="182" t="s">
+        <v>377</v>
+      </c>
+      <c r="E361" s="181"/>
+      <c r="F361" s="181"/>
+      <c r="G361" s="181"/>
+      <c r="H361" s="181"/>
+      <c r="I361" s="181"/>
+      <c r="J361" s="181"/>
+      <c r="K361" s="181" t="s">
+        <v>393</v>
+      </c>
+      <c r="L361" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="M361" s="183" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" s="180" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="B362" s="176">
+        <v>311</v>
+      </c>
+      <c r="C362" s="177" t="s">
+        <v>380</v>
+      </c>
+      <c r="D362" s="178" t="s">
+        <v>388</v>
+      </c>
+      <c r="E362" s="176"/>
+      <c r="F362" s="176"/>
+      <c r="G362" s="176"/>
+      <c r="H362" s="176"/>
+      <c r="I362" s="176"/>
+      <c r="J362" s="176"/>
+      <c r="K362" s="176" t="s">
+        <v>394</v>
+      </c>
+      <c r="L362" s="179" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" s="180" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="B363" s="176">
+        <v>312</v>
+      </c>
+      <c r="C363" s="177" t="s">
+        <v>381</v>
+      </c>
+      <c r="D363" s="178"/>
+      <c r="E363" s="176"/>
+      <c r="F363" s="176"/>
+      <c r="G363" s="176"/>
+      <c r="H363" s="176"/>
+      <c r="I363" s="176"/>
+      <c r="J363" s="176"/>
+      <c r="K363" s="176" t="s">
+        <v>394</v>
+      </c>
+      <c r="L363" s="179" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" s="192" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="187" t="s">
+        <v>267</v>
+      </c>
+      <c r="B364" s="187">
+        <v>313</v>
+      </c>
+      <c r="C364" s="188" t="s">
+        <v>382</v>
+      </c>
+      <c r="D364" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="E364" s="190" t="s">
+        <v>77</v>
+      </c>
+      <c r="F364" s="190" t="s">
+        <v>75</v>
+      </c>
+      <c r="G364" s="190" t="s">
+        <v>77</v>
+      </c>
+      <c r="H364" s="187" t="s">
+        <v>75</v>
+      </c>
+      <c r="I364" s="190"/>
+      <c r="J364" s="190"/>
+      <c r="K364" s="190"/>
+      <c r="L364" s="191"/>
+    </row>
+    <row r="365" spans="1:13" s="192" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="187" t="s">
+        <v>267</v>
+      </c>
+      <c r="B365" s="187">
+        <v>314</v>
+      </c>
+      <c r="C365" s="190" t="s">
+        <v>383</v>
+      </c>
+      <c r="D365" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="E365" s="190" t="s">
+        <v>77</v>
+      </c>
+      <c r="F365" s="190" t="s">
+        <v>75</v>
+      </c>
+      <c r="G365" s="190" t="s">
+        <v>77</v>
+      </c>
+      <c r="H365" s="187" t="s">
+        <v>75</v>
+      </c>
+      <c r="I365" s="190"/>
+      <c r="J365" s="190"/>
+      <c r="K365" s="190"/>
+    </row>
+    <row r="366" spans="1:13" s="183" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="184" t="s">
+        <v>267</v>
+      </c>
+      <c r="B366" s="184">
+        <v>315</v>
+      </c>
+      <c r="C366" s="185" t="s">
+        <v>384</v>
+      </c>
+      <c r="D366" s="182" t="s">
+        <v>385</v>
+      </c>
+      <c r="E366" s="186"/>
+      <c r="F366" s="186"/>
+      <c r="G366" s="186"/>
+      <c r="H366" s="186"/>
+      <c r="I366" s="186"/>
+      <c r="J366" s="186"/>
+      <c r="K366" s="186" t="s">
+        <v>390</v>
+      </c>
+      <c r="L366" s="84" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="193" t="s">
+        <v>389</v>
+      </c>
+      <c r="B368" s="194">
+        <v>316</v>
+      </c>
+      <c r="C368" s="195" t="s">
+        <v>397</v>
+      </c>
+      <c r="D368" s="196" t="s">
         <v>398</v>
       </c>
-      <c r="H360" s="122" t="s">
-        <v>273</v>
-      </c>
-      <c r="I360" s="122"/>
-      <c r="J360" s="122"/>
-      <c r="K360" s="122" t="s">
-        <v>394</v>
-      </c>
-      <c r="L360" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="M360" s="58"/>
-      <c r="N360" s="58"/>
-      <c r="O360" s="58"/>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A361" s="122" t="s">
-        <v>375</v>
-      </c>
-      <c r="B361" s="122">
-        <v>310</v>
-      </c>
-      <c r="C361" s="122" t="s">
-        <v>378</v>
-      </c>
-      <c r="D361" s="132" t="s">
-        <v>377</v>
-      </c>
-      <c r="E361" s="122"/>
-      <c r="F361" s="122"/>
-      <c r="G361" s="122"/>
-      <c r="H361" s="122"/>
-      <c r="I361" s="122"/>
-      <c r="J361" s="122"/>
-      <c r="K361" s="122" t="s">
-        <v>395</v>
-      </c>
-      <c r="L361" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="M361" s="58" t="s">
-        <v>379</v>
-      </c>
-      <c r="N361" s="58"/>
-      <c r="O361" s="58"/>
-    </row>
-    <row r="362" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="B362" s="122">
-        <v>311</v>
-      </c>
-      <c r="C362" s="116" t="s">
-        <v>380</v>
-      </c>
-      <c r="D362" s="180" t="s">
-        <v>389</v>
-      </c>
-      <c r="E362" s="122"/>
-      <c r="F362" s="122"/>
-      <c r="G362" s="122"/>
-      <c r="H362" s="122"/>
-      <c r="I362" s="122"/>
-      <c r="J362" s="122"/>
-      <c r="K362" s="122" t="s">
-        <v>396</v>
-      </c>
-      <c r="L362" s="27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="B363" s="122">
-        <v>312</v>
-      </c>
-      <c r="C363" s="116" t="s">
-        <v>381</v>
-      </c>
-      <c r="D363" s="180"/>
-      <c r="E363" s="122"/>
-      <c r="F363" s="122"/>
-      <c r="G363" s="122"/>
-      <c r="H363" s="122"/>
-      <c r="I363" s="122"/>
-      <c r="J363" s="122"/>
-      <c r="K363" s="122" t="s">
-        <v>396</v>
-      </c>
-      <c r="L363" s="27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="364" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="B364" s="177">
-        <v>313</v>
-      </c>
-      <c r="C364" s="118" t="s">
-        <v>382</v>
-      </c>
-      <c r="D364" s="179" t="s">
-        <v>93</v>
-      </c>
-      <c r="E364" s="124" t="s">
-        <v>77</v>
-      </c>
-      <c r="F364" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="G364" s="124" t="s">
-        <v>77</v>
-      </c>
-      <c r="H364" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="I364" s="122"/>
-      <c r="J364" s="122"/>
-      <c r="K364" s="122"/>
-      <c r="L364" s="27"/>
-    </row>
-    <row r="365" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="B365" s="177">
-        <v>314</v>
-      </c>
-      <c r="C365" s="122" t="s">
-        <v>383</v>
-      </c>
-      <c r="D365" s="179" t="s">
-        <v>93</v>
-      </c>
-      <c r="E365" s="124" t="s">
-        <v>77</v>
-      </c>
-      <c r="F365" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="G365" s="124" t="s">
-        <v>77</v>
-      </c>
-      <c r="H365" s="177" t="s">
-        <v>75</v>
-      </c>
-      <c r="I365" s="122"/>
-      <c r="J365" s="122"/>
-      <c r="K365" s="122"/>
-    </row>
-    <row r="366" spans="1:15" s="58" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="B366" s="177">
-        <v>315</v>
-      </c>
-      <c r="C366" s="118" t="s">
-        <v>384</v>
-      </c>
-      <c r="D366" s="132" t="s">
-        <v>385</v>
-      </c>
-      <c r="E366" s="122"/>
-      <c r="F366" s="122"/>
-      <c r="G366" s="122"/>
-      <c r="H366" s="122"/>
-      <c r="I366" s="122"/>
-      <c r="J366" s="122"/>
-      <c r="K366" s="122" t="s">
-        <v>392</v>
-      </c>
-      <c r="L366" s="27" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A368" s="178" t="s">
-        <v>390</v>
+      <c r="E368" s="194"/>
+      <c r="F368" s="194"/>
+      <c r="G368" s="194" t="s">
+        <v>400</v>
+      </c>
+      <c r="H368" s="194" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
@@ -10880,7 +10971,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D374"/>
     </row>
@@ -10890,87 +10981,53 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="58" t="s">
-        <v>388</v>
-      </c>
-      <c r="B376" s="127">
-        <v>306</v>
-      </c>
-      <c r="C376" s="131" t="s">
-        <v>370</v>
-      </c>
-      <c r="D376" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="B376" s="194">
+        <v>316</v>
+      </c>
+      <c r="C376" s="195" t="s">
+        <v>397</v>
+      </c>
+      <c r="D376" s="196" t="s">
+        <v>398</v>
+      </c>
+      <c r="E376" t="s">
+        <v>401</v>
+      </c>
+      <c r="F376" t="s">
         <v>386</v>
-      </c>
-      <c r="E376" t="s">
-        <v>387</v>
-      </c>
-      <c r="F376" t="s">
-        <v>387</v>
       </c>
       <c r="G376" t="str">
         <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B376&amp;",'"&amp;C376&amp;"','"&amp;D376&amp;"','"&amp;E376&amp;"','"&amp;F376&amp;"','0','"&amp;A376&amp;"');")</f>
-        <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,306,'互通宝在投词量','互通宝关键词','h','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
+        <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,316,'P4PCPC','P4P','d','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A377" s="58" t="s">
-        <v>388</v>
-      </c>
-      <c r="B377" s="127">
-        <v>307</v>
-      </c>
-      <c r="C377" s="131" t="s">
-        <v>371</v>
-      </c>
-      <c r="D377" s="58" t="s">
-        <v>386</v>
-      </c>
-      <c r="E377" t="s">
-        <v>387</v>
-      </c>
-      <c r="F377" s="58" t="s">
-        <v>387</v>
-      </c>
-      <c r="G377" s="58" t="str">
-        <f t="shared" ref="G377:G378" si="0">CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B377&amp;",'"&amp;C377&amp;"','"&amp;D377&amp;"','"&amp;E377&amp;"','"&amp;F377&amp;"','0','"&amp;A377&amp;"');")</f>
-        <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,307,'竞价词top50-人数','互通宝关键词','h','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
-      </c>
+      <c r="A377"/>
+      <c r="D377"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A378" s="58" t="s">
-        <v>388</v>
-      </c>
-      <c r="B378" s="177">
-        <v>315</v>
-      </c>
-      <c r="C378" s="118" t="s">
-        <v>384</v>
-      </c>
-      <c r="D378" s="132" t="s">
-        <v>385</v>
-      </c>
-      <c r="E378" s="58" t="s">
-        <v>391</v>
-      </c>
-      <c r="F378" s="58" t="s">
-        <v>399</v>
-      </c>
-      <c r="G378" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,315,'百度联盟月收入预算','百度联盟收入','m','y','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A379"/>
-      <c r="D379"/>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A380"/>
-      <c r="D380"/>
+      <c r="A378"/>
+      <c r="D378"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <mergeCells count="30">
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="D119:D134"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="D140:D211"/>
+    <mergeCell ref="D346:D353"/>
+    <mergeCell ref="D229:D245"/>
+    <mergeCell ref="D222:D227"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="D328:D336"/>
     <mergeCell ref="D362:D363"/>
     <mergeCell ref="D355:D358"/>
     <mergeCell ref="D2:D4"/>
@@ -10987,20 +11044,6 @@
     <mergeCell ref="D105:D109"/>
     <mergeCell ref="D254:D325"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="D119:D134"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D217:D220"/>
-    <mergeCell ref="D140:D211"/>
-    <mergeCell ref="D346:D353"/>
-    <mergeCell ref="D229:D245"/>
-    <mergeCell ref="D222:D227"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="D328:D336"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="418">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1469,6 +1469,70 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网定投累计总消耗   --每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网定投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从开始到当前时刻的量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周-截止当前周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网定投周度竞拍中用户数  --每天统计每周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网定投周度竞拍中关键词数  --每天统计每周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网定投累计参加全网定投的用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯P4P消耗 --每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4P消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯P4P消耗 --每天  每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯P4P消耗 --累计  每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网定投 --每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网定投 --每天  每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全网定投周度累计消耗  --每天统计每周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天统计每周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通全网定投累计总用户数  --每天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2014,7 +2078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2201,16 +2265,109 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2252,9 +2409,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2270,99 +2424,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -2370,74 +2438,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2457,7 +2457,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2746,11 +2746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M378"/>
+  <dimension ref="A1:M391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G376" sqref="G376"/>
+      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2816,7 +2816,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="178" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2846,7 +2846,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="167"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="153" t="s">
+      <c r="D6" s="195" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2943,7 +2943,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="136"/>
+      <c r="D7" s="179"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="136"/>
+      <c r="D8" s="179"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="136"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="136"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="153" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3083,7 +3083,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="134"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="134"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="134"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="134"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3179,7 +3179,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="134"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="134"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="134"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="134"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="135"/>
+      <c r="D21" s="154"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="150" t="s">
+      <c r="D23" s="192" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3335,7 +3335,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="151"/>
+      <c r="D24" s="193"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="151"/>
+      <c r="D25" s="193"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="151"/>
+      <c r="D26" s="193"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3411,7 +3411,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="151"/>
+      <c r="D27" s="193"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="151"/>
+      <c r="D28" s="193"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="151"/>
+      <c r="D29" s="193"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="152"/>
+      <c r="D30" s="194"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="135" t="s">
+      <c r="D35" s="154" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3621,7 +3621,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="136"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3639,7 +3639,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="136"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3657,7 +3657,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="136"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3691,7 +3691,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="141" t="s">
+      <c r="D40" s="184" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3717,7 +3717,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="142"/>
+      <c r="D41" s="185"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -3741,7 +3741,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="142"/>
+      <c r="D42" s="185"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -3765,7 +3765,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="143"/>
+      <c r="D43" s="186"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -3803,7 +3803,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="137" t="s">
+      <c r="D45" s="180" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -3829,7 +3829,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="138"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3853,7 +3853,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="138"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -3877,7 +3877,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="138"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -3901,7 +3901,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="138"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -3925,7 +3925,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="138"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -3949,7 +3949,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="138"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -3973,7 +3973,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="138"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -3997,7 +3997,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="138"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4021,7 +4021,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="138"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4045,7 +4045,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="138"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4069,7 +4069,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="139"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4151,7 +4151,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="140" t="s">
+      <c r="D60" s="183" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4181,7 +4181,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="134"/>
+      <c r="D61" s="167"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="134"/>
+      <c r="D62" s="167"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="134"/>
+      <c r="D63" s="167"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4261,7 +4261,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="134"/>
+      <c r="D64" s="167"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4285,7 +4285,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="135"/>
+      <c r="D65" s="154"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4323,7 +4323,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="144" t="s">
+      <c r="D67" s="187" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4353,7 +4353,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="145"/>
+      <c r="D68" s="188"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="146"/>
+      <c r="D69" s="189"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4423,7 +4423,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="147" t="s">
+      <c r="D71" s="190" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4453,7 +4453,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="148"/>
+      <c r="D72" s="191"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="148"/>
+      <c r="D73" s="191"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="148"/>
+      <c r="D74" s="191"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="136"/>
+      <c r="D75" s="179"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="136"/>
+      <c r="D76" s="179"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="137" t="s">
+      <c r="D80" s="180" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4681,7 +4681,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="138"/>
+      <c r="D81" s="181"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4705,7 +4705,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="138"/>
+      <c r="D82" s="181"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="138"/>
+      <c r="D83" s="181"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -4757,7 +4757,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="138"/>
+      <c r="D84" s="181"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="139"/>
+      <c r="D85" s="182"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -4867,7 +4867,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="157" t="s">
+      <c r="D89" s="155" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -4897,7 +4897,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="158"/>
+      <c r="D90" s="156"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="158"/>
+      <c r="D91" s="156"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -4953,7 +4953,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="158"/>
+      <c r="D92" s="156"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="158"/>
+      <c r="D93" s="156"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="159"/>
+      <c r="D94" s="157"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="161" t="s">
+      <c r="D96" s="159" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5077,7 +5077,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="162"/>
+      <c r="D97" s="160"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5101,7 +5101,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="162"/>
+      <c r="D98" s="160"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5125,7 +5125,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="162"/>
+      <c r="D99" s="160"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5149,7 +5149,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="162"/>
+      <c r="D100" s="160"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5173,7 +5173,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="162"/>
+      <c r="D101" s="160"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5197,7 +5197,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="162"/>
+      <c r="D102" s="160"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5221,7 +5221,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="163"/>
+      <c r="D103" s="161"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5248,7 +5248,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="154" t="s">
+      <c r="D105" s="196" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5274,7 +5274,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="154"/>
+      <c r="D106" s="196"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5298,7 +5298,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="154"/>
+      <c r="D107" s="196"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5322,7 +5322,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="154"/>
+      <c r="D108" s="196"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5344,7 +5344,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="154"/>
+      <c r="D109" s="196"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5370,7 +5370,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="168" t="s">
+      <c r="D111" s="166" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5396,7 +5396,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="134"/>
+      <c r="D112" s="167"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5420,7 +5420,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="134"/>
+      <c r="D113" s="167"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5444,7 +5444,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="134"/>
+      <c r="D114" s="167"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5468,7 +5468,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="134"/>
+      <c r="D115" s="167"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5492,7 +5492,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="135"/>
+      <c r="D116" s="154"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5522,7 +5522,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="160" t="s">
+      <c r="D119" s="158" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5548,7 +5548,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="160"/>
+      <c r="D120" s="158"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5572,7 +5572,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="160"/>
+      <c r="D121" s="158"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5596,7 +5596,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="160"/>
+      <c r="D122" s="158"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5620,7 +5620,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="160"/>
+      <c r="D123" s="158"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5644,7 +5644,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="160"/>
+      <c r="D124" s="158"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5668,7 +5668,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="160"/>
+      <c r="D125" s="158"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5692,7 +5692,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="160"/>
+      <c r="D126" s="158"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5716,7 +5716,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="160"/>
+      <c r="D127" s="158"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -5740,7 +5740,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="160"/>
+      <c r="D128" s="158"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -5764,7 +5764,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="160"/>
+      <c r="D129" s="158"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -5788,7 +5788,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="160"/>
+      <c r="D130" s="158"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -5812,7 +5812,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="160"/>
+      <c r="D131" s="158"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -5836,7 +5836,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="160"/>
+      <c r="D132" s="158"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -5860,7 +5860,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="160"/>
+      <c r="D133" s="158"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -5884,7 +5884,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="160"/>
+      <c r="D134" s="158"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -5992,7 +5992,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="155" t="s">
+      <c r="D140" s="169" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6018,7 +6018,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="155"/>
+      <c r="D141" s="169"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6042,7 +6042,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="155"/>
+      <c r="D142" s="169"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6066,7 +6066,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="155"/>
+      <c r="D143" s="169"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6090,7 +6090,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="155"/>
+      <c r="D144" s="169"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6114,7 +6114,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="155"/>
+      <c r="D145" s="169"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6138,7 +6138,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="155"/>
+      <c r="D146" s="169"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6162,7 +6162,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="155"/>
+      <c r="D147" s="169"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6186,7 +6186,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="155"/>
+      <c r="D148" s="169"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6210,7 +6210,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="155"/>
+      <c r="D149" s="169"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6234,7 +6234,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="155"/>
+      <c r="D150" s="169"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6258,7 +6258,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="155"/>
+      <c r="D151" s="169"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6282,7 +6282,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="155"/>
+      <c r="D152" s="169"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6306,7 +6306,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="155"/>
+      <c r="D153" s="169"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6330,7 +6330,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="155"/>
+      <c r="D154" s="169"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6354,7 +6354,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="155"/>
+      <c r="D155" s="169"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6378,7 +6378,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="155"/>
+      <c r="D156" s="169"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6402,7 +6402,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="155"/>
+      <c r="D157" s="169"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6426,7 +6426,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="155"/>
+      <c r="D158" s="169"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6450,7 +6450,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="155"/>
+      <c r="D159" s="169"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6474,7 +6474,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="155"/>
+      <c r="D160" s="169"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6498,7 +6498,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="155"/>
+      <c r="D161" s="169"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6522,7 +6522,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="155"/>
+      <c r="D162" s="169"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6546,7 +6546,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="155"/>
+      <c r="D163" s="169"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6570,7 +6570,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="155"/>
+      <c r="D164" s="169"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6594,7 +6594,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="155"/>
+      <c r="D165" s="169"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6618,7 +6618,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="155"/>
+      <c r="D166" s="169"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6642,7 +6642,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="155"/>
+      <c r="D167" s="169"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6666,7 +6666,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="155"/>
+      <c r="D168" s="169"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6690,7 +6690,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="155"/>
+      <c r="D169" s="169"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6714,7 +6714,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="155"/>
+      <c r="D170" s="169"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -6738,7 +6738,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="155"/>
+      <c r="D171" s="169"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -6762,7 +6762,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="155"/>
+      <c r="D172" s="169"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -6786,7 +6786,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="155"/>
+      <c r="D173" s="169"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -6810,7 +6810,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="155"/>
+      <c r="D174" s="169"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -6834,7 +6834,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="155"/>
+      <c r="D175" s="169"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -6858,7 +6858,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="155"/>
+      <c r="D176" s="169"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -6882,7 +6882,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="155"/>
+      <c r="D177" s="169"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -6906,7 +6906,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="155"/>
+      <c r="D178" s="169"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -6930,7 +6930,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="155"/>
+      <c r="D179" s="169"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -6954,7 +6954,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="155"/>
+      <c r="D180" s="169"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -6978,7 +6978,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="155"/>
+      <c r="D181" s="169"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7002,7 +7002,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="155"/>
+      <c r="D182" s="169"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7026,7 +7026,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="155"/>
+      <c r="D183" s="169"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7050,7 +7050,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="155"/>
+      <c r="D184" s="169"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7074,7 +7074,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="155"/>
+      <c r="D185" s="169"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7098,7 +7098,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="155"/>
+      <c r="D186" s="169"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7122,7 +7122,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="155"/>
+      <c r="D187" s="169"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7146,7 +7146,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="155"/>
+      <c r="D188" s="169"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7170,7 +7170,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="155"/>
+      <c r="D189" s="169"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7194,7 +7194,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="155"/>
+      <c r="D190" s="169"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7218,7 +7218,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="155"/>
+      <c r="D191" s="169"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7242,7 +7242,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="155"/>
+      <c r="D192" s="169"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7266,7 +7266,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="155"/>
+      <c r="D193" s="169"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7290,7 +7290,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="155"/>
+      <c r="D194" s="169"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7314,7 +7314,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="155"/>
+      <c r="D195" s="169"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7338,7 +7338,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="155"/>
+      <c r="D196" s="169"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7362,7 +7362,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="155"/>
+      <c r="D197" s="169"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7386,7 +7386,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="155"/>
+      <c r="D198" s="169"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7410,7 +7410,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="155"/>
+      <c r="D199" s="169"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7434,7 +7434,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="155"/>
+      <c r="D200" s="169"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7458,7 +7458,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="155"/>
+      <c r="D201" s="169"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7482,7 +7482,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="155"/>
+      <c r="D202" s="169"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7506,7 +7506,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="155"/>
+      <c r="D203" s="169"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7530,7 +7530,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="155"/>
+      <c r="D204" s="169"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7554,7 +7554,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="155"/>
+      <c r="D205" s="169"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7578,7 +7578,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="155"/>
+      <c r="D206" s="169"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7602,7 +7602,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="155"/>
+      <c r="D207" s="169"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7626,7 +7626,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="155"/>
+      <c r="D208" s="169"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7650,7 +7650,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="155"/>
+      <c r="D209" s="169"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7674,7 +7674,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="155"/>
+      <c r="D210" s="169"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7698,7 +7698,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="155"/>
+      <c r="D211" s="169"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -7779,7 +7779,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="169" t="s">
+      <c r="D217" s="168" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -7804,7 +7804,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="134"/>
+      <c r="D218" s="167"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -7827,7 +7827,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="134"/>
+      <c r="D219" s="167"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -7850,7 +7850,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="135"/>
+      <c r="D220" s="154"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8585,7 +8585,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="156" t="s">
+      <c r="D247" s="197" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8611,7 +8611,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="156"/>
+      <c r="D248" s="197"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8635,7 +8635,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="156"/>
+      <c r="D249" s="197"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8659,7 +8659,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="149" t="s">
+      <c r="D251" s="153" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8685,7 +8685,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="135"/>
+      <c r="D252" s="154"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8709,7 +8709,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="155" t="s">
+      <c r="D254" s="169" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8731,7 +8731,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="155"/>
+      <c r="D255" s="169"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -8751,7 +8751,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="155"/>
+      <c r="D256" s="169"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -8771,7 +8771,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="155"/>
+      <c r="D257" s="169"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -8791,7 +8791,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="155"/>
+      <c r="D258" s="169"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -8811,7 +8811,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="155"/>
+      <c r="D259" s="169"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -8831,7 +8831,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="155"/>
+      <c r="D260" s="169"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -8851,7 +8851,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="155"/>
+      <c r="D261" s="169"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -8871,7 +8871,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="155"/>
+      <c r="D262" s="169"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -8891,7 +8891,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="155"/>
+      <c r="D263" s="169"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -8911,7 +8911,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="155"/>
+      <c r="D264" s="169"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -8931,7 +8931,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="155"/>
+      <c r="D265" s="169"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -8951,7 +8951,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="155"/>
+      <c r="D266" s="169"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -8971,7 +8971,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="155"/>
+      <c r="D267" s="169"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -8991,7 +8991,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="155"/>
+      <c r="D268" s="169"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9011,7 +9011,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="155"/>
+      <c r="D269" s="169"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9031,7 +9031,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="155"/>
+      <c r="D270" s="169"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9051,7 +9051,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="155"/>
+      <c r="D271" s="169"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9071,7 +9071,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="155"/>
+      <c r="D272" s="169"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9091,7 +9091,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="155"/>
+      <c r="D273" s="169"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9111,7 +9111,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="155"/>
+      <c r="D274" s="169"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9131,7 +9131,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="155"/>
+      <c r="D275" s="169"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9151,7 +9151,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="155"/>
+      <c r="D276" s="169"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9171,7 +9171,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="155"/>
+      <c r="D277" s="169"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9191,7 +9191,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="155"/>
+      <c r="D278" s="169"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9211,7 +9211,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="155"/>
+      <c r="D279" s="169"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9231,7 +9231,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="155"/>
+      <c r="D280" s="169"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9251,7 +9251,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="155"/>
+      <c r="D281" s="169"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9271,7 +9271,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="155"/>
+      <c r="D282" s="169"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9291,7 +9291,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="155"/>
+      <c r="D283" s="169"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9311,7 +9311,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="155"/>
+      <c r="D284" s="169"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9331,7 +9331,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="155"/>
+      <c r="D285" s="169"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9351,7 +9351,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="155"/>
+      <c r="D286" s="169"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9371,7 +9371,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="155"/>
+      <c r="D287" s="169"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9391,7 +9391,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="155"/>
+      <c r="D288" s="169"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9411,7 +9411,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="155"/>
+      <c r="D289" s="169"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9431,7 +9431,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="155"/>
+      <c r="D290" s="169"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9451,7 +9451,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="155"/>
+      <c r="D291" s="169"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9471,7 +9471,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="155"/>
+      <c r="D292" s="169"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9491,7 +9491,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="155"/>
+      <c r="D293" s="169"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9511,7 +9511,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="155"/>
+      <c r="D294" s="169"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9531,7 +9531,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="155"/>
+      <c r="D295" s="169"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9551,7 +9551,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="155"/>
+      <c r="D296" s="169"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9571,7 +9571,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="155"/>
+      <c r="D297" s="169"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9591,7 +9591,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="155"/>
+      <c r="D298" s="169"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9611,7 +9611,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="155"/>
+      <c r="D299" s="169"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9631,7 +9631,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="155"/>
+      <c r="D300" s="169"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9651,7 +9651,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="155"/>
+      <c r="D301" s="169"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9671,7 +9671,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="155"/>
+      <c r="D302" s="169"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9691,7 +9691,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="155"/>
+      <c r="D303" s="169"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9711,7 +9711,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="155"/>
+      <c r="D304" s="169"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9731,7 +9731,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="155"/>
+      <c r="D305" s="169"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -9751,7 +9751,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="155"/>
+      <c r="D306" s="169"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -9771,7 +9771,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="155"/>
+      <c r="D307" s="169"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -9791,7 +9791,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="155"/>
+      <c r="D308" s="169"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -9811,7 +9811,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="155"/>
+      <c r="D309" s="169"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -9831,7 +9831,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="155"/>
+      <c r="D310" s="169"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -9851,7 +9851,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="155"/>
+      <c r="D311" s="169"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -9871,7 +9871,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="155"/>
+      <c r="D312" s="169"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -9891,7 +9891,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="155"/>
+      <c r="D313" s="169"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -9911,7 +9911,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="155"/>
+      <c r="D314" s="169"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -9931,7 +9931,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="155"/>
+      <c r="D315" s="169"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -9951,7 +9951,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="155"/>
+      <c r="D316" s="169"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -9971,7 +9971,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="155"/>
+      <c r="D317" s="169"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -9991,7 +9991,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="155"/>
+      <c r="D318" s="169"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10011,7 +10011,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="155"/>
+      <c r="D319" s="169"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10031,7 +10031,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="155"/>
+      <c r="D320" s="169"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10051,7 +10051,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="155"/>
+      <c r="D321" s="169"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10071,7 +10071,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="155"/>
+      <c r="D322" s="169"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10091,7 +10091,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="155"/>
+      <c r="D323" s="169"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10111,7 +10111,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="155"/>
+      <c r="D324" s="169"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10131,7 +10131,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="155"/>
+      <c r="D325" s="169"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10353,7 +10353,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="135"/>
+      <c r="D336" s="154"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10377,7 +10377,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="167" t="s">
+      <c r="D338" s="165" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10397,7 +10397,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="167"/>
+      <c r="D339" s="165"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10415,7 +10415,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="167"/>
+      <c r="D340" s="165"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10433,7 +10433,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="167"/>
+      <c r="D341" s="165"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10496,7 +10496,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="164" t="s">
+      <c r="A346" s="162" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10520,7 +10520,7 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="165"/>
+      <c r="A347" s="163"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
@@ -10540,7 +10540,7 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="165"/>
+      <c r="A348" s="163"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
@@ -10560,7 +10560,7 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="165"/>
+      <c r="A349" s="163"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
@@ -10580,7 +10580,7 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="165"/>
+      <c r="A350" s="163"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
@@ -10600,7 +10600,7 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="165"/>
+      <c r="A351" s="163"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
@@ -10620,7 +10620,7 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="165"/>
+      <c r="A352" s="163"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
@@ -10640,7 +10640,7 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="166"/>
+      <c r="A353" s="164"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
@@ -10669,7 +10669,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="132" t="s">
+      <c r="D355" s="177" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10689,7 +10689,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="132"/>
+      <c r="D356" s="177"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="132"/>
+      <c r="D357" s="177"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10725,7 +10725,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="132"/>
+      <c r="D358" s="177"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -10734,300 +10734,570 @@
       </c>
     </row>
     <row r="359" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" spans="1:13" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="181" t="s">
+    <row r="360" spans="1:13" s="138" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="136" t="s">
         <v>375</v>
       </c>
-      <c r="B360" s="181">
+      <c r="B360" s="136">
         <v>309</v>
       </c>
-      <c r="C360" s="181" t="s">
+      <c r="C360" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="D360" s="182" t="s">
+      <c r="D360" s="137" t="s">
         <v>377</v>
       </c>
-      <c r="E360" s="181"/>
-      <c r="F360" s="181"/>
-      <c r="G360" s="181" t="s">
+      <c r="E360" s="136"/>
+      <c r="F360" s="136"/>
+      <c r="G360" s="136" t="s">
         <v>396</v>
       </c>
-      <c r="H360" s="181" t="s">
+      <c r="H360" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="I360" s="181"/>
-      <c r="J360" s="181"/>
-      <c r="K360" s="181" t="s">
+      <c r="I360" s="136"/>
+      <c r="J360" s="136"/>
+      <c r="K360" s="136" t="s">
         <v>392</v>
       </c>
       <c r="L360" s="84" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="361" spans="1:13" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="181" t="s">
+    <row r="361" spans="1:13" s="138" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="136" t="s">
         <v>375</v>
       </c>
-      <c r="B361" s="181">
+      <c r="B361" s="136">
         <v>310</v>
       </c>
-      <c r="C361" s="181" t="s">
+      <c r="C361" s="136" t="s">
         <v>378</v>
       </c>
-      <c r="D361" s="182" t="s">
+      <c r="D361" s="137" t="s">
         <v>377</v>
       </c>
-      <c r="E361" s="181"/>
-      <c r="F361" s="181"/>
-      <c r="G361" s="181"/>
-      <c r="H361" s="181"/>
-      <c r="I361" s="181"/>
-      <c r="J361" s="181"/>
-      <c r="K361" s="181" t="s">
+      <c r="E361" s="136"/>
+      <c r="F361" s="136"/>
+      <c r="G361" s="136"/>
+      <c r="H361" s="136"/>
+      <c r="I361" s="136"/>
+      <c r="J361" s="136"/>
+      <c r="K361" s="136" t="s">
         <v>393</v>
       </c>
       <c r="L361" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="M361" s="183" t="s">
+      <c r="M361" s="138" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="362" spans="1:13" s="180" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="B362" s="176">
+      <c r="B362" s="132">
         <v>311</v>
       </c>
-      <c r="C362" s="177" t="s">
+      <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="178" t="s">
+      <c r="D362" s="176" t="s">
         <v>388</v>
       </c>
-      <c r="E362" s="176"/>
-      <c r="F362" s="176"/>
-      <c r="G362" s="176"/>
-      <c r="H362" s="176"/>
-      <c r="I362" s="176"/>
-      <c r="J362" s="176"/>
-      <c r="K362" s="176" t="s">
+      <c r="E362" s="132"/>
+      <c r="F362" s="132"/>
+      <c r="G362" s="132"/>
+      <c r="H362" s="132"/>
+      <c r="I362" s="132"/>
+      <c r="J362" s="132"/>
+      <c r="K362" s="132" t="s">
         <v>394</v>
       </c>
-      <c r="L362" s="179" t="s">
+      <c r="L362" s="134" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="363" spans="1:13" s="180" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="B363" s="176">
+      <c r="B363" s="132">
         <v>312</v>
       </c>
-      <c r="C363" s="177" t="s">
+      <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="178"/>
-      <c r="E363" s="176"/>
-      <c r="F363" s="176"/>
-      <c r="G363" s="176"/>
-      <c r="H363" s="176"/>
-      <c r="I363" s="176"/>
-      <c r="J363" s="176"/>
-      <c r="K363" s="176" t="s">
+      <c r="D363" s="176"/>
+      <c r="E363" s="132"/>
+      <c r="F363" s="132"/>
+      <c r="G363" s="132"/>
+      <c r="H363" s="132"/>
+      <c r="I363" s="132"/>
+      <c r="J363" s="132"/>
+      <c r="K363" s="132" t="s">
         <v>394</v>
       </c>
-      <c r="L363" s="179" t="s">
+      <c r="L363" s="134" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="364" spans="1:13" s="192" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="187" t="s">
-        <v>267</v>
-      </c>
-      <c r="B364" s="187">
+    <row r="364" spans="1:13" s="147" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B364" s="142">
         <v>313</v>
       </c>
-      <c r="C364" s="188" t="s">
+      <c r="C364" s="143" t="s">
         <v>382</v>
       </c>
-      <c r="D364" s="189" t="s">
+      <c r="D364" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="E364" s="190" t="s">
+      <c r="E364" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="F364" s="190" t="s">
+      <c r="F364" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="G364" s="190" t="s">
+      <c r="G364" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="H364" s="187" t="s">
+      <c r="H364" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="I364" s="190"/>
-      <c r="J364" s="190"/>
-      <c r="K364" s="190"/>
-      <c r="L364" s="191"/>
-    </row>
-    <row r="365" spans="1:13" s="192" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="187" t="s">
-        <v>267</v>
-      </c>
-      <c r="B365" s="187">
+      <c r="I364" s="145"/>
+      <c r="J364" s="145"/>
+      <c r="K364" s="145"/>
+      <c r="L364" s="146"/>
+    </row>
+    <row r="365" spans="1:13" s="147" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B365" s="142">
         <v>314</v>
       </c>
-      <c r="C365" s="190" t="s">
+      <c r="C365" s="145" t="s">
         <v>383</v>
       </c>
-      <c r="D365" s="189" t="s">
+      <c r="D365" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="E365" s="190" t="s">
+      <c r="E365" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="F365" s="190" t="s">
+      <c r="F365" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="G365" s="190" t="s">
+      <c r="G365" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="H365" s="187" t="s">
+      <c r="H365" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="I365" s="190"/>
-      <c r="J365" s="190"/>
-      <c r="K365" s="190"/>
-    </row>
-    <row r="366" spans="1:13" s="183" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="184" t="s">
-        <v>267</v>
-      </c>
-      <c r="B366" s="184">
+      <c r="I365" s="145"/>
+      <c r="J365" s="145"/>
+      <c r="K365" s="145"/>
+    </row>
+    <row r="366" spans="1:13" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="139" t="s">
+        <v>267</v>
+      </c>
+      <c r="B366" s="139">
         <v>315</v>
       </c>
-      <c r="C366" s="185" t="s">
+      <c r="C366" s="140" t="s">
         <v>384</v>
       </c>
-      <c r="D366" s="182" t="s">
+      <c r="D366" s="137" t="s">
         <v>385</v>
       </c>
-      <c r="E366" s="186"/>
-      <c r="F366" s="186"/>
-      <c r="G366" s="186"/>
-      <c r="H366" s="186"/>
-      <c r="I366" s="186"/>
-      <c r="J366" s="186"/>
-      <c r="K366" s="186" t="s">
+      <c r="E366" s="141"/>
+      <c r="F366" s="141"/>
+      <c r="G366" s="141"/>
+      <c r="H366" s="141"/>
+      <c r="I366" s="141"/>
+      <c r="J366" s="141"/>
+      <c r="K366" s="141" t="s">
         <v>390</v>
       </c>
       <c r="L366" s="84" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="368" spans="1:13" s="197" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="193" t="s">
+    <row r="368" spans="1:13" s="152" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="148" t="s">
         <v>389</v>
       </c>
-      <c r="B368" s="194">
+      <c r="B368" s="149">
         <v>316</v>
       </c>
-      <c r="C368" s="195" t="s">
+      <c r="C368" s="150" t="s">
         <v>397</v>
       </c>
-      <c r="D368" s="196" t="s">
+      <c r="D368" s="151" t="s">
         <v>398</v>
       </c>
-      <c r="E368" s="194"/>
-      <c r="F368" s="194"/>
-      <c r="G368" s="194" t="s">
+      <c r="E368" s="149"/>
+      <c r="F368" s="149"/>
+      <c r="G368" s="149" t="s">
         <v>400</v>
       </c>
-      <c r="H368" s="194" t="s">
+      <c r="H368" s="149" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D369"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A370"/>
-      <c r="D370"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A371"/>
-      <c r="D371"/>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A372"/>
-      <c r="D372"/>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A373"/>
-      <c r="D373"/>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B369" s="122">
+        <v>317</v>
+      </c>
+      <c r="C369" s="122" t="s">
+        <v>402</v>
+      </c>
+      <c r="D369" s="122" t="s">
+        <v>403</v>
+      </c>
+      <c r="E369" s="122"/>
+      <c r="F369" s="122"/>
+      <c r="G369" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="H369" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="I369" s="122"/>
+      <c r="J369" s="122"/>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A370" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B370" s="122">
+        <v>318</v>
+      </c>
+      <c r="C370" s="122" t="s">
+        <v>415</v>
+      </c>
+      <c r="D370" s="122" t="s">
+        <v>403</v>
+      </c>
+      <c r="E370" s="122"/>
+      <c r="F370" s="122"/>
+      <c r="G370" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="H370" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="I370" s="122" t="s">
+        <v>405</v>
+      </c>
+      <c r="J370" s="122" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A371" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B371" s="122">
+        <v>319</v>
+      </c>
+      <c r="C371" s="122" t="s">
+        <v>406</v>
+      </c>
+      <c r="D371" s="122" t="s">
+        <v>403</v>
+      </c>
+      <c r="E371" s="122"/>
+      <c r="F371" s="122"/>
+      <c r="G371" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="H371" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="I371" s="122" t="s">
+        <v>405</v>
+      </c>
+      <c r="J371" s="122" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B372" s="122">
+        <v>320</v>
+      </c>
+      <c r="C372" s="122" t="s">
+        <v>407</v>
+      </c>
+      <c r="D372" s="122" t="s">
+        <v>403</v>
+      </c>
+      <c r="E372" s="122"/>
+      <c r="F372" s="122"/>
+      <c r="G372" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="H372" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="I372" s="122" t="s">
+        <v>405</v>
+      </c>
+      <c r="J372" s="122" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A373" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B373" s="122">
+        <v>321</v>
+      </c>
+      <c r="C373" s="122" t="s">
+        <v>417</v>
+      </c>
+      <c r="D373" s="122" t="s">
+        <v>403</v>
+      </c>
+      <c r="E373" s="122"/>
+      <c r="F373" s="122"/>
+      <c r="G373" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="H373" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="I373" s="122"/>
+      <c r="J373" s="122"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A374" s="198" t="s">
+        <v>268</v>
+      </c>
+      <c r="B374" s="198">
+        <v>322</v>
+      </c>
+      <c r="C374" s="198" t="s">
+        <v>408</v>
+      </c>
+      <c r="D374" s="122" t="s">
+        <v>403</v>
+      </c>
+      <c r="E374" s="122"/>
+      <c r="F374" s="122"/>
+      <c r="G374" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="H374" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="I374" s="122"/>
+      <c r="J374" s="122"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B375" s="58"/>
+      <c r="C375" s="58"/>
+      <c r="E375" s="58"/>
+      <c r="F375" s="58"/>
+      <c r="G375" s="58"/>
+      <c r="H375" s="58"/>
+      <c r="I375" s="58"/>
+      <c r="J375" s="58"/>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A376" s="198" t="s">
+        <v>268</v>
+      </c>
+      <c r="B376" s="122">
+        <v>323</v>
+      </c>
+      <c r="C376" s="122" t="s">
+        <v>409</v>
+      </c>
+      <c r="D376" s="199" t="s">
+        <v>410</v>
+      </c>
+      <c r="E376" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="F376" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="G376" s="122"/>
+      <c r="H376" s="122"/>
+      <c r="I376" s="122"/>
+      <c r="J376" s="122"/>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A377" s="198" t="s">
+        <v>268</v>
+      </c>
+      <c r="B377" s="122">
+        <v>324</v>
+      </c>
+      <c r="C377" s="122" t="s">
+        <v>411</v>
+      </c>
+      <c r="D377" s="199" t="s">
+        <v>410</v>
+      </c>
+      <c r="E377" s="122"/>
+      <c r="F377" s="122"/>
+      <c r="G377" s="122"/>
+      <c r="H377" s="122"/>
+      <c r="I377" s="122"/>
+      <c r="J377" s="122"/>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378" s="198" t="s">
+        <v>268</v>
+      </c>
+      <c r="B378" s="122">
+        <v>325</v>
+      </c>
+      <c r="C378" s="122" t="s">
+        <v>412</v>
+      </c>
+      <c r="D378" s="199" t="s">
+        <v>410</v>
+      </c>
+      <c r="E378" s="122"/>
+      <c r="F378" s="122"/>
+      <c r="G378" s="122"/>
+      <c r="H378" s="122"/>
+      <c r="I378" s="122"/>
+      <c r="J378" s="122"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A379" s="198" t="s">
+        <v>268</v>
+      </c>
+      <c r="B379" s="122">
+        <v>326</v>
+      </c>
+      <c r="C379" s="122" t="s">
+        <v>413</v>
+      </c>
+      <c r="D379" s="199" t="s">
+        <v>410</v>
+      </c>
+      <c r="E379" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="F379" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="G379" s="122"/>
+      <c r="H379" s="122"/>
+      <c r="I379" s="122"/>
+      <c r="J379" s="122"/>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A380" s="198" t="s">
+        <v>268</v>
+      </c>
+      <c r="B380" s="122">
+        <v>327</v>
+      </c>
+      <c r="C380" s="122" t="s">
+        <v>414</v>
+      </c>
+      <c r="D380" s="199" t="s">
+        <v>410</v>
+      </c>
+      <c r="E380" s="122"/>
+      <c r="F380" s="122"/>
+      <c r="G380" s="122"/>
+      <c r="H380" s="122"/>
+      <c r="I380" s="122"/>
+      <c r="J380" s="122"/>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B381" s="58"/>
+      <c r="C381" s="58"/>
+      <c r="E381" s="58"/>
+      <c r="F381" s="58"/>
+      <c r="G381" s="58"/>
+      <c r="H381" s="58"/>
+      <c r="I381" s="58"/>
+      <c r="J381" s="58"/>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D382"/>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A383"/>
+      <c r="D383"/>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A384"/>
+      <c r="D384"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385"/>
+      <c r="D385"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386"/>
+      <c r="D386"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>391</v>
       </c>
-      <c r="D374"/>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A375"/>
-      <c r="D375"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A376" s="58" t="s">
+      <c r="D387"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388"/>
+      <c r="D388"/>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="B376" s="194">
+      <c r="B389" s="149">
         <v>316</v>
       </c>
-      <c r="C376" s="195" t="s">
+      <c r="C389" s="150" t="s">
         <v>397</v>
       </c>
-      <c r="D376" s="196" t="s">
+      <c r="D389" s="151" t="s">
         <v>398</v>
       </c>
-      <c r="E376" t="s">
+      <c r="E389" t="s">
         <v>401</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F389" t="s">
         <v>386</v>
       </c>
-      <c r="G376" t="str">
-        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B376&amp;",'"&amp;C376&amp;"','"&amp;D376&amp;"','"&amp;E376&amp;"','"&amp;F376&amp;"','0','"&amp;A376&amp;"');")</f>
+      <c r="G389" t="str">
+        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B389&amp;",'"&amp;C389&amp;"','"&amp;D389&amp;"','"&amp;E389&amp;"','"&amp;F389&amp;"','0','"&amp;A389&amp;"');")</f>
         <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,316,'P4PCPC','P4P','d','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A377"/>
-      <c r="D377"/>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A378"/>
-      <c r="D378"/>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390"/>
+      <c r="D390"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391"/>
+      <c r="D391"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <mergeCells count="30">
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="D119:D134"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D217:D220"/>
-    <mergeCell ref="D140:D211"/>
-    <mergeCell ref="D346:D353"/>
-    <mergeCell ref="D229:D245"/>
-    <mergeCell ref="D222:D227"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="D328:D336"/>
     <mergeCell ref="D362:D363"/>
     <mergeCell ref="D355:D358"/>
     <mergeCell ref="D2:D4"/>
@@ -11044,6 +11314,20 @@
     <mergeCell ref="D105:D109"/>
     <mergeCell ref="D254:D325"/>
     <mergeCell ref="D247:D249"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="D119:D134"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="D140:D211"/>
+    <mergeCell ref="D346:D353"/>
+    <mergeCell ref="D229:D245"/>
+    <mergeCell ref="D222:D227"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="D328:D336"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="435">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1535,12 +1535,69 @@
     <t>开通全网定投累计总用户数  --每天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>黄西环49</t>
+  </si>
+  <si>
+    <t>电销新签人均在线时长</t>
+  </si>
+  <si>
+    <t>人均在线时长</t>
+  </si>
+  <si>
+    <t>当前小时的量</t>
+  </si>
+  <si>
+    <t>当天的量</t>
+  </si>
+  <si>
+    <t>当月</t>
+  </si>
+  <si>
+    <t>电销增值人均在线时长</t>
+  </si>
+  <si>
+    <t>黄西环50</t>
+  </si>
+  <si>
+    <t>电销新签人均有效通话次数 </t>
+  </si>
+  <si>
+    <t>人均有效通话次数</t>
+  </si>
+  <si>
+    <t>电销增值人均有效通话次数 </t>
+  </si>
+  <si>
+    <t>电销新签销售业绩实际值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售业绩预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电销增值销售业绩实际值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电销新签销售业绩预估值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电销增值销售业绩预估值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月给一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1921,6 +1978,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2078,7 +2141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2292,73 +2355,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2368,6 +2398,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2409,6 +2445,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2424,12 +2463,68 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2438,6 +2533,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2457,7 +2620,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2746,11 +2909,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M391"/>
+  <dimension ref="A1:M401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C384" sqref="C384"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C390" sqref="C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2816,7 +2979,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="169" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2846,7 +3009,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="167"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -2874,7 +3037,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="154"/>
+      <c r="D4" s="171"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -2917,7 +3080,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="195" t="s">
+      <c r="D6" s="189" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2943,7 +3106,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="179"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -2967,7 +3130,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="179"/>
+      <c r="D8" s="172"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -2991,7 +3154,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="179"/>
+      <c r="D9" s="172"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3015,7 +3178,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="179"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3057,7 +3220,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="185" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3083,7 +3246,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="170"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3107,7 +3270,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="170"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3131,7 +3294,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="170"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3155,7 +3318,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="167"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3179,7 +3342,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="170"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3203,7 +3366,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="167"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3227,7 +3390,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="167"/>
+      <c r="D19" s="170"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3251,7 +3414,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="167"/>
+      <c r="D20" s="170"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3275,7 +3438,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="171"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3313,7 +3476,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="192" t="s">
+      <c r="D23" s="186" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3335,7 +3498,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="193"/>
+      <c r="D24" s="187"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3363,7 +3526,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="193"/>
+      <c r="D25" s="187"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3391,7 +3554,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="193"/>
+      <c r="D26" s="187"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3411,7 +3574,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="193"/>
+      <c r="D27" s="187"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3439,7 +3602,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="193"/>
+      <c r="D28" s="187"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3467,7 +3630,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="193"/>
+      <c r="D29" s="187"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3495,7 +3658,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="194"/>
+      <c r="D30" s="188"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3601,7 +3764,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="154" t="s">
+      <c r="D35" s="171" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3621,7 +3784,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="179"/>
+      <c r="D36" s="172"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3639,7 +3802,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="179"/>
+      <c r="D37" s="172"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3657,7 +3820,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="179"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3691,7 +3854,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="184" t="s">
+      <c r="D40" s="177" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3717,7 +3880,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="185"/>
+      <c r="D41" s="178"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -3741,7 +3904,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="185"/>
+      <c r="D42" s="178"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -3765,7 +3928,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="186"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -3803,7 +3966,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="180" t="s">
+      <c r="D45" s="173" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -3829,7 +3992,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="181"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3853,7 +4016,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="181"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -3877,7 +4040,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="181"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -3901,7 +4064,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="181"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -3925,7 +4088,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="181"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -3949,7 +4112,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="181"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -3973,7 +4136,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="181"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -3997,7 +4160,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="181"/>
+      <c r="D53" s="174"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4021,7 +4184,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="181"/>
+      <c r="D54" s="174"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4045,7 +4208,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="181"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4069,7 +4232,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="182"/>
+      <c r="D56" s="175"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4151,7 +4314,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="183" t="s">
+      <c r="D60" s="176" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4181,7 +4344,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="167"/>
+      <c r="D61" s="170"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4209,7 +4372,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="167"/>
+      <c r="D62" s="170"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4237,7 +4400,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="167"/>
+      <c r="D63" s="170"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4261,7 +4424,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="167"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4285,7 +4448,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="154"/>
+      <c r="D65" s="171"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4323,7 +4486,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="187" t="s">
+      <c r="D67" s="180" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4353,7 +4516,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="188"/>
+      <c r="D68" s="181"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,7 +4544,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="189"/>
+      <c r="D69" s="182"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4423,7 +4586,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="190" t="s">
+      <c r="D71" s="183" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4453,7 +4616,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="191"/>
+      <c r="D72" s="184"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4481,7 +4644,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="191"/>
+      <c r="D73" s="184"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4509,7 +4672,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="191"/>
+      <c r="D74" s="184"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4537,7 +4700,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="179"/>
+      <c r="D75" s="172"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4565,7 +4728,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="179"/>
+      <c r="D76" s="172"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4651,7 +4814,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="180" t="s">
+      <c r="D80" s="173" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4681,7 +4844,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="181"/>
+      <c r="D81" s="174"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4705,7 +4868,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="181"/>
+      <c r="D82" s="174"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4733,7 +4896,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="181"/>
+      <c r="D83" s="174"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -4757,7 +4920,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="181"/>
+      <c r="D84" s="174"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -4785,7 +4948,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="182"/>
+      <c r="D85" s="175"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -4867,7 +5030,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="155" t="s">
+      <c r="D89" s="193" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -4897,7 +5060,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="156"/>
+      <c r="D90" s="194"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -4925,7 +5088,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="156"/>
+      <c r="D91" s="194"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -4953,7 +5116,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="156"/>
+      <c r="D92" s="194"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -4981,7 +5144,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="156"/>
+      <c r="D93" s="194"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5009,7 +5172,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="157"/>
+      <c r="D94" s="195"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5051,7 +5214,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="159" t="s">
+      <c r="D96" s="197" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5077,7 +5240,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="160"/>
+      <c r="D97" s="198"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5101,7 +5264,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="160"/>
+      <c r="D98" s="198"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5125,7 +5288,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="160"/>
+      <c r="D99" s="198"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5149,7 +5312,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="160"/>
+      <c r="D100" s="198"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5173,7 +5336,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="160"/>
+      <c r="D101" s="198"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5197,7 +5360,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="160"/>
+      <c r="D102" s="198"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5221,7 +5384,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="161"/>
+      <c r="D103" s="199"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5248,7 +5411,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="196" t="s">
+      <c r="D105" s="190" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5274,7 +5437,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="196"/>
+      <c r="D106" s="190"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5298,7 +5461,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="196"/>
+      <c r="D107" s="190"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5322,7 +5485,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="196"/>
+      <c r="D108" s="190"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5344,7 +5507,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="196"/>
+      <c r="D109" s="190"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5370,7 +5533,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="166" t="s">
+      <c r="D111" s="204" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5396,7 +5559,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="167"/>
+      <c r="D112" s="170"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5420,7 +5583,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="167"/>
+      <c r="D113" s="170"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5444,7 +5607,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="167"/>
+      <c r="D114" s="170"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5468,7 +5631,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="167"/>
+      <c r="D115" s="170"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5492,7 +5655,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="154"/>
+      <c r="D116" s="171"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5522,7 +5685,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="158" t="s">
+      <c r="D119" s="196" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5548,7 +5711,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="158"/>
+      <c r="D120" s="196"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5572,7 +5735,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="158"/>
+      <c r="D121" s="196"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5596,7 +5759,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="158"/>
+      <c r="D122" s="196"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5620,7 +5783,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="158"/>
+      <c r="D123" s="196"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5644,7 +5807,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="158"/>
+      <c r="D124" s="196"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5668,7 +5831,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="158"/>
+      <c r="D125" s="196"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5692,7 +5855,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="158"/>
+      <c r="D126" s="196"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5716,7 +5879,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="158"/>
+      <c r="D127" s="196"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -5740,7 +5903,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="158"/>
+      <c r="D128" s="196"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -5764,7 +5927,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="158"/>
+      <c r="D129" s="196"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -5788,7 +5951,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="158"/>
+      <c r="D130" s="196"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -5812,7 +5975,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="158"/>
+      <c r="D131" s="196"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -5836,7 +5999,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="158"/>
+      <c r="D132" s="196"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -5860,7 +6023,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="158"/>
+      <c r="D133" s="196"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -5884,7 +6047,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="158"/>
+      <c r="D134" s="196"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -5992,7 +6155,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="169" t="s">
+      <c r="D140" s="191" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6018,7 +6181,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="169"/>
+      <c r="D141" s="191"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6042,7 +6205,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="169"/>
+      <c r="D142" s="191"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6066,7 +6229,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="169"/>
+      <c r="D143" s="191"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6090,7 +6253,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="169"/>
+      <c r="D144" s="191"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6114,7 +6277,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="169"/>
+      <c r="D145" s="191"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6138,7 +6301,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="169"/>
+      <c r="D146" s="191"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6162,7 +6325,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="169"/>
+      <c r="D147" s="191"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6186,7 +6349,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="169"/>
+      <c r="D148" s="191"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6210,7 +6373,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="169"/>
+      <c r="D149" s="191"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6234,7 +6397,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="169"/>
+      <c r="D150" s="191"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6258,7 +6421,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="169"/>
+      <c r="D151" s="191"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6282,7 +6445,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="169"/>
+      <c r="D152" s="191"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6306,7 +6469,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="169"/>
+      <c r="D153" s="191"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6330,7 +6493,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="169"/>
+      <c r="D154" s="191"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6354,7 +6517,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="169"/>
+      <c r="D155" s="191"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6378,7 +6541,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="169"/>
+      <c r="D156" s="191"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6402,7 +6565,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="169"/>
+      <c r="D157" s="191"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6426,7 +6589,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="169"/>
+      <c r="D158" s="191"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6450,7 +6613,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="169"/>
+      <c r="D159" s="191"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6474,7 +6637,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="169"/>
+      <c r="D160" s="191"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6498,7 +6661,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="169"/>
+      <c r="D161" s="191"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6522,7 +6685,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="169"/>
+      <c r="D162" s="191"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6546,7 +6709,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="169"/>
+      <c r="D163" s="191"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6570,7 +6733,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="169"/>
+      <c r="D164" s="191"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6594,7 +6757,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="169"/>
+      <c r="D165" s="191"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6618,7 +6781,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="169"/>
+      <c r="D166" s="191"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6642,7 +6805,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="169"/>
+      <c r="D167" s="191"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6666,7 +6829,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="169"/>
+      <c r="D168" s="191"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6690,7 +6853,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="169"/>
+      <c r="D169" s="191"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6714,7 +6877,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="169"/>
+      <c r="D170" s="191"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -6738,7 +6901,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="169"/>
+      <c r="D171" s="191"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -6762,7 +6925,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="169"/>
+      <c r="D172" s="191"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -6786,7 +6949,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="169"/>
+      <c r="D173" s="191"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -6810,7 +6973,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="169"/>
+      <c r="D174" s="191"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -6834,7 +6997,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="169"/>
+      <c r="D175" s="191"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -6858,7 +7021,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="169"/>
+      <c r="D176" s="191"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -6882,7 +7045,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="169"/>
+      <c r="D177" s="191"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -6906,7 +7069,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="169"/>
+      <c r="D178" s="191"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -6930,7 +7093,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="169"/>
+      <c r="D179" s="191"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -6954,7 +7117,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="169"/>
+      <c r="D180" s="191"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -6978,7 +7141,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="169"/>
+      <c r="D181" s="191"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7002,7 +7165,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="169"/>
+      <c r="D182" s="191"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7026,7 +7189,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="169"/>
+      <c r="D183" s="191"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7050,7 +7213,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="169"/>
+      <c r="D184" s="191"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7074,7 +7237,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="169"/>
+      <c r="D185" s="191"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7098,7 +7261,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="169"/>
+      <c r="D186" s="191"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7122,7 +7285,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="169"/>
+      <c r="D187" s="191"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7146,7 +7309,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="169"/>
+      <c r="D188" s="191"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7170,7 +7333,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="169"/>
+      <c r="D189" s="191"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7194,7 +7357,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="169"/>
+      <c r="D190" s="191"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7218,7 +7381,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="169"/>
+      <c r="D191" s="191"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7242,7 +7405,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="169"/>
+      <c r="D192" s="191"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7266,7 +7429,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="169"/>
+      <c r="D193" s="191"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7290,7 +7453,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="169"/>
+      <c r="D194" s="191"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7314,7 +7477,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="169"/>
+      <c r="D195" s="191"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7338,7 +7501,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="169"/>
+      <c r="D196" s="191"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7362,7 +7525,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="169"/>
+      <c r="D197" s="191"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7386,7 +7549,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="169"/>
+      <c r="D198" s="191"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7410,7 +7573,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="169"/>
+      <c r="D199" s="191"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7434,7 +7597,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="169"/>
+      <c r="D200" s="191"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7458,7 +7621,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="169"/>
+      <c r="D201" s="191"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7482,7 +7645,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="169"/>
+      <c r="D202" s="191"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7506,7 +7669,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="169"/>
+      <c r="D203" s="191"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7530,7 +7693,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="169"/>
+      <c r="D204" s="191"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7554,7 +7717,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="169"/>
+      <c r="D205" s="191"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7578,7 +7741,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="169"/>
+      <c r="D206" s="191"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7602,7 +7765,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="169"/>
+      <c r="D207" s="191"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7626,7 +7789,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="169"/>
+      <c r="D208" s="191"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7650,7 +7813,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="169"/>
+      <c r="D209" s="191"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7674,7 +7837,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="169"/>
+      <c r="D210" s="191"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7698,7 +7861,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="169"/>
+      <c r="D211" s="191"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -7779,7 +7942,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="168" t="s">
+      <c r="D217" s="205" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -7804,7 +7967,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="167"/>
+      <c r="D218" s="170"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -7827,7 +7990,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="167"/>
+      <c r="D219" s="170"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -7850,7 +8013,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="154"/>
+      <c r="D220" s="171"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -7873,7 +8036,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="174" t="s">
+      <c r="D222" s="210" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -7899,7 +8062,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="174"/>
+      <c r="D223" s="210"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -7927,7 +8090,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="174"/>
+      <c r="D224" s="210"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -7955,7 +8118,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="174"/>
+      <c r="D225" s="210"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -7979,7 +8142,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="174"/>
+      <c r="D226" s="210"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8007,7 +8170,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="174"/>
+      <c r="D227" s="210"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8035,7 +8198,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="173" t="s">
+      <c r="D229" s="209" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8069,7 +8232,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="173"/>
+      <c r="D230" s="209"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8101,7 +8264,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="173"/>
+      <c r="D231" s="209"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8133,7 +8296,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="173"/>
+      <c r="D232" s="209"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8165,7 +8328,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="173"/>
+      <c r="D233" s="209"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8197,7 +8360,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="173"/>
+      <c r="D234" s="209"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8229,7 +8392,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="173"/>
+      <c r="D235" s="209"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8261,7 +8424,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="173"/>
+      <c r="D236" s="209"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8293,7 +8456,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="173"/>
+      <c r="D237" s="209"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8325,7 +8488,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="173"/>
+      <c r="D238" s="209"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8357,7 +8520,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="173"/>
+      <c r="D239" s="209"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8389,7 +8552,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="173"/>
+      <c r="D240" s="209"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8421,7 +8584,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="173"/>
+      <c r="D241" s="209"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8453,7 +8616,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="173"/>
+      <c r="D242" s="209"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8485,7 +8648,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="173"/>
+      <c r="D243" s="209"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8517,7 +8680,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="173"/>
+      <c r="D244" s="209"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8549,7 +8712,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="173"/>
+      <c r="D245" s="209"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8585,7 +8748,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="197" t="s">
+      <c r="D247" s="192" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8611,7 +8774,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="197"/>
+      <c r="D248" s="192"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8635,7 +8798,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="197"/>
+      <c r="D249" s="192"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8659,7 +8822,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="153" t="s">
+      <c r="D251" s="185" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8685,7 +8848,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="154"/>
+      <c r="D252" s="171"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8709,7 +8872,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="169" t="s">
+      <c r="D254" s="191" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8731,7 +8894,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="169"/>
+      <c r="D255" s="191"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -8751,7 +8914,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="169"/>
+      <c r="D256" s="191"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -8771,7 +8934,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="169"/>
+      <c r="D257" s="191"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -8791,7 +8954,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="169"/>
+      <c r="D258" s="191"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -8811,7 +8974,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="169"/>
+      <c r="D259" s="191"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -8831,7 +8994,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="169"/>
+      <c r="D260" s="191"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -8851,7 +9014,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="169"/>
+      <c r="D261" s="191"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -8871,7 +9034,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="169"/>
+      <c r="D262" s="191"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -8891,7 +9054,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="169"/>
+      <c r="D263" s="191"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -8911,7 +9074,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="169"/>
+      <c r="D264" s="191"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -8931,7 +9094,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="169"/>
+      <c r="D265" s="191"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -8951,7 +9114,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="169"/>
+      <c r="D266" s="191"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -8971,7 +9134,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="169"/>
+      <c r="D267" s="191"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -8991,7 +9154,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="169"/>
+      <c r="D268" s="191"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9011,7 +9174,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="169"/>
+      <c r="D269" s="191"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9031,7 +9194,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="169"/>
+      <c r="D270" s="191"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9051,7 +9214,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="169"/>
+      <c r="D271" s="191"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9071,7 +9234,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="169"/>
+      <c r="D272" s="191"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9091,7 +9254,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="169"/>
+      <c r="D273" s="191"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9111,7 +9274,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="169"/>
+      <c r="D274" s="191"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9131,7 +9294,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="169"/>
+      <c r="D275" s="191"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9151,7 +9314,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="169"/>
+      <c r="D276" s="191"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9171,7 +9334,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="169"/>
+      <c r="D277" s="191"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9191,7 +9354,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="169"/>
+      <c r="D278" s="191"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9211,7 +9374,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="169"/>
+      <c r="D279" s="191"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9231,7 +9394,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="169"/>
+      <c r="D280" s="191"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9251,7 +9414,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="169"/>
+      <c r="D281" s="191"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9271,7 +9434,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="169"/>
+      <c r="D282" s="191"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9291,7 +9454,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="169"/>
+      <c r="D283" s="191"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9311,7 +9474,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="169"/>
+      <c r="D284" s="191"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9331,7 +9494,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="169"/>
+      <c r="D285" s="191"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9351,7 +9514,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="169"/>
+      <c r="D286" s="191"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9371,7 +9534,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="169"/>
+      <c r="D287" s="191"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9391,7 +9554,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="169"/>
+      <c r="D288" s="191"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9411,7 +9574,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="169"/>
+      <c r="D289" s="191"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9431,7 +9594,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="169"/>
+      <c r="D290" s="191"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9451,7 +9614,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="169"/>
+      <c r="D291" s="191"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9471,7 +9634,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="169"/>
+      <c r="D292" s="191"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9491,7 +9654,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="169"/>
+      <c r="D293" s="191"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9511,7 +9674,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="169"/>
+      <c r="D294" s="191"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9531,7 +9694,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="169"/>
+      <c r="D295" s="191"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9551,7 +9714,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="169"/>
+      <c r="D296" s="191"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9571,7 +9734,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="169"/>
+      <c r="D297" s="191"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9591,7 +9754,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="169"/>
+      <c r="D298" s="191"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9611,7 +9774,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="169"/>
+      <c r="D299" s="191"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9631,7 +9794,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="169"/>
+      <c r="D300" s="191"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9651,7 +9814,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="169"/>
+      <c r="D301" s="191"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9671,7 +9834,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="169"/>
+      <c r="D302" s="191"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9691,7 +9854,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="169"/>
+      <c r="D303" s="191"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9711,7 +9874,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="169"/>
+      <c r="D304" s="191"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9731,7 +9894,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="169"/>
+      <c r="D305" s="191"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -9751,7 +9914,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="169"/>
+      <c r="D306" s="191"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -9771,7 +9934,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="169"/>
+      <c r="D307" s="191"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -9791,7 +9954,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="169"/>
+      <c r="D308" s="191"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -9811,7 +9974,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="169"/>
+      <c r="D309" s="191"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -9831,7 +9994,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="169"/>
+      <c r="D310" s="191"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -9851,7 +10014,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="169"/>
+      <c r="D311" s="191"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -9871,7 +10034,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="169"/>
+      <c r="D312" s="191"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -9891,7 +10054,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="169"/>
+      <c r="D313" s="191"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -9911,7 +10074,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="169"/>
+      <c r="D314" s="191"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -9931,7 +10094,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="169"/>
+      <c r="D315" s="191"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -9951,7 +10114,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="169"/>
+      <c r="D316" s="191"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -9971,7 +10134,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="169"/>
+      <c r="D317" s="191"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -9991,7 +10154,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="169"/>
+      <c r="D318" s="191"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10011,7 +10174,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="169"/>
+      <c r="D319" s="191"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10031,7 +10194,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="169"/>
+      <c r="D320" s="191"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10051,7 +10214,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="169"/>
+      <c r="D321" s="191"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10071,7 +10234,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="169"/>
+      <c r="D322" s="191"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10091,7 +10254,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="169"/>
+      <c r="D323" s="191"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10111,7 +10274,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="169"/>
+      <c r="D324" s="191"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10131,7 +10294,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="169"/>
+      <c r="D325" s="191"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10151,7 +10314,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="170" t="s">
+      <c r="D328" s="206" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10178,7 +10341,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="171"/>
+      <c r="D329" s="207"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10203,7 +10366,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="171"/>
+      <c r="D330" s="207"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10228,7 +10391,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="171"/>
+      <c r="D331" s="207"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10253,7 +10416,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="171"/>
+      <c r="D332" s="207"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10278,7 +10441,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="171"/>
+      <c r="D333" s="207"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10303,7 +10466,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="171"/>
+      <c r="D334" s="207"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10328,7 +10491,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="171"/>
+      <c r="D335" s="207"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10353,7 +10516,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="154"/>
+      <c r="D336" s="171"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10377,7 +10540,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="165" t="s">
+      <c r="D338" s="203" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10397,7 +10560,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="165"/>
+      <c r="D339" s="203"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10415,7 +10578,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="165"/>
+      <c r="D340" s="203"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10433,7 +10596,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="165"/>
+      <c r="D341" s="203"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10459,7 +10622,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="175" t="s">
+      <c r="D343" s="211" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10481,7 +10644,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="175"/>
+      <c r="D344" s="211"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10496,7 +10659,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="162" t="s">
+      <c r="A346" s="200" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10505,7 +10668,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="170" t="s">
+      <c r="D346" s="206" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10520,14 +10683,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="163"/>
+      <c r="A347" s="201"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="171"/>
+      <c r="D347" s="207"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10540,14 +10703,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="163"/>
+      <c r="A348" s="201"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="171"/>
+      <c r="D348" s="207"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10560,14 +10723,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="163"/>
+      <c r="A349" s="201"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="171"/>
+      <c r="D349" s="207"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10580,14 +10743,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="163"/>
+      <c r="A350" s="201"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="171"/>
+      <c r="D350" s="207"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10600,14 +10763,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="163"/>
+      <c r="A351" s="201"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="171"/>
+      <c r="D351" s="207"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10620,14 +10783,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="163"/>
+      <c r="A352" s="201"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="171"/>
+      <c r="D352" s="207"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -10640,14 +10803,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="164"/>
+      <c r="A353" s="202"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="172"/>
+      <c r="D353" s="208"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -10669,7 +10832,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="177" t="s">
+      <c r="D355" s="168" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10689,7 +10852,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="177"/>
+      <c r="D356" s="168"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10707,7 +10870,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="177"/>
+      <c r="D357" s="168"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10725,7 +10888,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="177"/>
+      <c r="D358" s="168"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -10803,7 +10966,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="176" t="s">
+      <c r="D362" s="167" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -10829,7 +10992,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="176"/>
+      <c r="D363" s="167"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -10950,7 +11113,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="122" t="s">
         <v>268</v>
       </c>
@@ -10968,13 +11131,13 @@
       <c r="G369" s="124" t="s">
         <v>404</v>
       </c>
-      <c r="H369" s="198" t="s">
+      <c r="H369" s="153" t="s">
         <v>146</v>
       </c>
       <c r="I369" s="122"/>
       <c r="J369" s="122"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="122" t="s">
         <v>268</v>
       </c>
@@ -10992,7 +11155,7 @@
       <c r="G370" s="124" t="s">
         <v>404</v>
       </c>
-      <c r="H370" s="198" t="s">
+      <c r="H370" s="153" t="s">
         <v>146</v>
       </c>
       <c r="I370" s="122" t="s">
@@ -11002,7 +11165,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="122" t="s">
         <v>268</v>
       </c>
@@ -11020,7 +11183,7 @@
       <c r="G371" s="124" t="s">
         <v>404</v>
       </c>
-      <c r="H371" s="198" t="s">
+      <c r="H371" s="153" t="s">
         <v>146</v>
       </c>
       <c r="I371" s="122" t="s">
@@ -11030,7 +11193,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="122" t="s">
         <v>268</v>
       </c>
@@ -11048,7 +11211,7 @@
       <c r="G372" s="124" t="s">
         <v>404</v>
       </c>
-      <c r="H372" s="198" t="s">
+      <c r="H372" s="153" t="s">
         <v>146</v>
       </c>
       <c r="I372" s="122" t="s">
@@ -11058,7 +11221,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="122" t="s">
         <v>268</v>
       </c>
@@ -11076,20 +11239,20 @@
       <c r="G373" s="124" t="s">
         <v>404</v>
       </c>
-      <c r="H373" s="198" t="s">
+      <c r="H373" s="153" t="s">
         <v>146</v>
       </c>
       <c r="I373" s="122"/>
       <c r="J373" s="122"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A374" s="198" t="s">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A374" s="153" t="s">
         <v>268</v>
       </c>
-      <c r="B374" s="198">
+      <c r="B374" s="153">
         <v>322</v>
       </c>
-      <c r="C374" s="198" t="s">
+      <c r="C374" s="153" t="s">
         <v>408</v>
       </c>
       <c r="D374" s="122" t="s">
@@ -11100,13 +11263,13 @@
       <c r="G374" s="124" t="s">
         <v>404</v>
       </c>
-      <c r="H374" s="198" t="s">
+      <c r="H374" s="153" t="s">
         <v>146</v>
       </c>
       <c r="I374" s="122"/>
       <c r="J374" s="122"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B375" s="58"/>
       <c r="C375" s="58"/>
       <c r="E375" s="58"/>
@@ -11116,8 +11279,8 @@
       <c r="I375" s="58"/>
       <c r="J375" s="58"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A376" s="198" t="s">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A376" s="153" t="s">
         <v>268</v>
       </c>
       <c r="B376" s="122">
@@ -11126,7 +11289,7 @@
       <c r="C376" s="122" t="s">
         <v>409</v>
       </c>
-      <c r="D376" s="199" t="s">
+      <c r="D376" s="154" t="s">
         <v>410</v>
       </c>
       <c r="E376" s="124" t="s">
@@ -11140,8 +11303,8 @@
       <c r="I376" s="122"/>
       <c r="J376" s="122"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A377" s="198" t="s">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A377" s="153" t="s">
         <v>268</v>
       </c>
       <c r="B377" s="122">
@@ -11150,7 +11313,7 @@
       <c r="C377" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="D377" s="199" t="s">
+      <c r="D377" s="154" t="s">
         <v>410</v>
       </c>
       <c r="E377" s="122"/>
@@ -11160,8 +11323,8 @@
       <c r="I377" s="122"/>
       <c r="J377" s="122"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A378" s="198" t="s">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A378" s="153" t="s">
         <v>268</v>
       </c>
       <c r="B378" s="122">
@@ -11170,7 +11333,7 @@
       <c r="C378" s="122" t="s">
         <v>412</v>
       </c>
-      <c r="D378" s="199" t="s">
+      <c r="D378" s="154" t="s">
         <v>410</v>
       </c>
       <c r="E378" s="122"/>
@@ -11180,8 +11343,8 @@
       <c r="I378" s="122"/>
       <c r="J378" s="122"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A379" s="198" t="s">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A379" s="153" t="s">
         <v>268</v>
       </c>
       <c r="B379" s="122">
@@ -11190,7 +11353,7 @@
       <c r="C379" s="122" t="s">
         <v>413</v>
       </c>
-      <c r="D379" s="199" t="s">
+      <c r="D379" s="154" t="s">
         <v>410</v>
       </c>
       <c r="E379" s="124" t="s">
@@ -11204,8 +11367,8 @@
       <c r="I379" s="122"/>
       <c r="J379" s="122"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A380" s="198" t="s">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A380" s="153" t="s">
         <v>268</v>
       </c>
       <c r="B380" s="122">
@@ -11214,7 +11377,7 @@
       <c r="C380" s="122" t="s">
         <v>414</v>
       </c>
-      <c r="D380" s="199" t="s">
+      <c r="D380" s="154" t="s">
         <v>410</v>
       </c>
       <c r="E380" s="122"/>
@@ -11224,7 +11387,7 @@
       <c r="I380" s="122"/>
       <c r="J380" s="122"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B381" s="58"/>
       <c r="C381" s="58"/>
       <c r="E381" s="58"/>
@@ -11234,70 +11397,364 @@
       <c r="I381" s="58"/>
       <c r="J381" s="58"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D382"/>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A383"/>
-      <c r="D383"/>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A384"/>
-      <c r="D384"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A385"/>
-      <c r="D385"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A386"/>
-      <c r="D386"/>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A382" s="155" t="s">
+        <v>418</v>
+      </c>
+      <c r="B382" s="156">
+        <v>328</v>
+      </c>
+      <c r="C382" s="157" t="s">
+        <v>419</v>
+      </c>
+      <c r="D382" s="157" t="s">
+        <v>420</v>
+      </c>
+      <c r="E382" s="157" t="s">
+        <v>421</v>
+      </c>
+      <c r="F382" s="157" t="s">
+        <v>321</v>
+      </c>
+      <c r="G382" s="157" t="s">
+        <v>422</v>
+      </c>
+      <c r="H382" s="157" t="s">
+        <v>321</v>
+      </c>
+      <c r="I382" s="157"/>
+      <c r="J382" s="157"/>
+      <c r="K382" s="157" t="s">
+        <v>423</v>
+      </c>
+      <c r="L382" s="157" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A383" s="158" t="s">
+        <v>418</v>
+      </c>
+      <c r="B383" s="159">
+        <v>329</v>
+      </c>
+      <c r="C383" s="160" t="s">
+        <v>424</v>
+      </c>
+      <c r="D383" s="160" t="s">
+        <v>420</v>
+      </c>
+      <c r="E383" s="160" t="s">
+        <v>421</v>
+      </c>
+      <c r="F383" s="160" t="s">
+        <v>321</v>
+      </c>
+      <c r="G383" s="160" t="s">
+        <v>422</v>
+      </c>
+      <c r="H383" s="160" t="s">
+        <v>321</v>
+      </c>
+      <c r="I383" s="160"/>
+      <c r="J383" s="160"/>
+      <c r="K383" s="160" t="s">
+        <v>423</v>
+      </c>
+      <c r="L383" s="160" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A384" s="158" t="s">
+        <v>425</v>
+      </c>
+      <c r="B384" s="159">
+        <v>330</v>
+      </c>
+      <c r="C384" s="160" t="s">
+        <v>426</v>
+      </c>
+      <c r="D384" s="160" t="s">
+        <v>427</v>
+      </c>
+      <c r="E384" s="160" t="s">
+        <v>421</v>
+      </c>
+      <c r="F384" s="160" t="s">
+        <v>321</v>
+      </c>
+      <c r="G384" s="160" t="s">
+        <v>422</v>
+      </c>
+      <c r="H384" s="160" t="s">
+        <v>321</v>
+      </c>
+      <c r="I384" s="160"/>
+      <c r="J384" s="160"/>
+      <c r="K384" s="160" t="s">
+        <v>423</v>
+      </c>
+      <c r="L384" s="160" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A385" s="158" t="s">
+        <v>425</v>
+      </c>
+      <c r="B385" s="159">
+        <v>331</v>
+      </c>
+      <c r="C385" s="160" t="s">
+        <v>428</v>
+      </c>
+      <c r="D385" s="160" t="s">
+        <v>427</v>
+      </c>
+      <c r="E385" s="160" t="s">
+        <v>421</v>
+      </c>
+      <c r="F385" s="160" t="s">
+        <v>321</v>
+      </c>
+      <c r="G385" s="160" t="s">
+        <v>422</v>
+      </c>
+      <c r="H385" s="160" t="s">
+        <v>321</v>
+      </c>
+      <c r="I385" s="160"/>
+      <c r="J385" s="160"/>
+      <c r="K385" s="160" t="s">
+        <v>423</v>
+      </c>
+      <c r="L385" s="160" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="162"/>
+      <c r="B386" s="163"/>
+      <c r="C386" s="162"/>
+      <c r="D386" s="162"/>
+      <c r="E386" s="162"/>
+      <c r="F386" s="162"/>
+      <c r="G386" s="162"/>
+      <c r="H386" s="162"/>
+      <c r="I386" s="162"/>
+      <c r="J386" s="162"/>
+      <c r="K386" s="162"/>
+      <c r="L386" s="162"/>
+    </row>
+    <row r="387" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="B387" s="164">
+        <v>332</v>
+      </c>
+      <c r="C387" s="165" t="s">
+        <v>429</v>
+      </c>
+      <c r="D387" s="166" t="s">
+        <v>430</v>
+      </c>
+      <c r="E387" s="165"/>
+      <c r="F387" s="165"/>
+      <c r="G387" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="H387" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I387" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="J387" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="K387" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="L387" s="165" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="B388" s="164">
+        <v>333</v>
+      </c>
+      <c r="C388" s="165" t="s">
+        <v>431</v>
+      </c>
+      <c r="D388" s="166"/>
+      <c r="E388" s="165"/>
+      <c r="F388" s="165"/>
+      <c r="G388" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="H388" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I388" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="J388" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="K388" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="L388" s="165" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="B389" s="164">
+        <v>334</v>
+      </c>
+      <c r="C389" s="165" t="s">
+        <v>432</v>
+      </c>
+      <c r="D389" s="166"/>
+      <c r="E389" s="165"/>
+      <c r="F389" s="165"/>
+      <c r="G389" s="165"/>
+      <c r="H389" s="165"/>
+      <c r="I389" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="J389" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="K389" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="L389" s="165" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="B390" s="164">
+        <v>335</v>
+      </c>
+      <c r="C390" s="165" t="s">
+        <v>433</v>
+      </c>
+      <c r="D390" s="166"/>
+      <c r="E390" s="165"/>
+      <c r="F390" s="165"/>
+      <c r="G390" s="165"/>
+      <c r="H390" s="165"/>
+      <c r="I390" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="J390" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="K390" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="L390" s="165" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D391" s="108"/>
+    </row>
+    <row r="392" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D392" s="108"/>
+    </row>
+    <row r="393" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="162"/>
+      <c r="B393" s="163"/>
+      <c r="C393" s="162"/>
+      <c r="D393" s="162"/>
+      <c r="E393" s="162"/>
+      <c r="F393" s="162"/>
+      <c r="G393" s="162"/>
+      <c r="H393" s="162"/>
+      <c r="I393" s="162"/>
+      <c r="J393" s="162"/>
+      <c r="K393" s="162"/>
+      <c r="L393" s="162"/>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A394" s="161"/>
+      <c r="D394"/>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>391</v>
       </c>
-      <c r="D387"/>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A388"/>
-      <c r="D388"/>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A389" s="58" t="s">
+      <c r="D395"/>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A396"/>
+      <c r="D396"/>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A397" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="B389" s="149">
+      <c r="B397" s="149">
         <v>316</v>
       </c>
-      <c r="C389" s="150" t="s">
+      <c r="C397" s="150" t="s">
         <v>397</v>
       </c>
-      <c r="D389" s="151" t="s">
+      <c r="D397" s="151" t="s">
         <v>398</v>
       </c>
-      <c r="E389" t="s">
+      <c r="E397" t="s">
         <v>401</v>
       </c>
-      <c r="F389" t="s">
+      <c r="F397" t="s">
         <v>386</v>
       </c>
-      <c r="G389" t="str">
-        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B389&amp;",'"&amp;C389&amp;"','"&amp;D389&amp;"','"&amp;E389&amp;"','"&amp;F389&amp;"','0','"&amp;A389&amp;"');")</f>
+      <c r="G397" t="str">
+        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B397&amp;",'"&amp;C397&amp;"','"&amp;D397&amp;"','"&amp;E397&amp;"','"&amp;F397&amp;"','0','"&amp;A397&amp;"');")</f>
         <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,316,'P4PCPC','P4P','d','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A390"/>
-      <c r="D390"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A391"/>
-      <c r="D391"/>
-    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A398"/>
+      <c r="D398"/>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A399"/>
+      <c r="D399"/>
+    </row>
+    <row r="401" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:L1"/>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="D140:D211"/>
+    <mergeCell ref="D346:D353"/>
+    <mergeCell ref="D229:D245"/>
+    <mergeCell ref="D222:D227"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="D328:D336"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="D119:D134"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="D387:D390"/>
     <mergeCell ref="D362:D363"/>
     <mergeCell ref="D355:D358"/>
     <mergeCell ref="D2:D4"/>
@@ -11313,21 +11770,6 @@
     <mergeCell ref="D6:D10"/>
     <mergeCell ref="D105:D109"/>
     <mergeCell ref="D254:D325"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="D119:D134"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D217:D220"/>
-    <mergeCell ref="D140:D211"/>
-    <mergeCell ref="D346:D353"/>
-    <mergeCell ref="D229:D245"/>
-    <mergeCell ref="D222:D227"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="D328:D336"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -1993,7 +1993,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2136,12 +2136,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2388,7 +2408,76 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2398,12 +2487,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2445,9 +2528,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2463,67 +2543,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2909,11 +2932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M401"/>
+  <dimension ref="A1:M399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C390" sqref="C390"/>
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A391" sqref="A391:XFD392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2979,7 +3002,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="192" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3009,7 +3032,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="170"/>
+      <c r="D3" s="171"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3037,7 +3060,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="171"/>
+      <c r="D4" s="172"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3080,7 +3103,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="189" t="s">
+      <c r="D6" s="209" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3106,7 +3129,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="172"/>
+      <c r="D7" s="193"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3130,7 +3153,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="172"/>
+      <c r="D8" s="193"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3154,7 +3177,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="172"/>
+      <c r="D9" s="193"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3178,7 +3201,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3220,7 +3243,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="185" t="s">
+      <c r="D12" s="182" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3246,7 +3269,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="170"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3270,7 +3293,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="170"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3294,7 +3317,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="170"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3318,7 +3341,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="170"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3342,7 +3365,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="170"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3366,7 +3389,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="170"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3390,7 +3413,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="170"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3414,7 +3437,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="170"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3438,7 +3461,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="171"/>
+      <c r="D21" s="172"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3476,7 +3499,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="186" t="s">
+      <c r="D23" s="206" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3498,7 +3521,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="187"/>
+      <c r="D24" s="207"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3526,7 +3549,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="187"/>
+      <c r="D25" s="207"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3554,7 +3577,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="187"/>
+      <c r="D26" s="207"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3574,7 +3597,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="187"/>
+      <c r="D27" s="207"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3602,7 +3625,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="187"/>
+      <c r="D28" s="207"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3630,7 +3653,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="187"/>
+      <c r="D29" s="207"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3658,7 +3681,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="188"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3764,7 +3787,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="171" t="s">
+      <c r="D35" s="172" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3784,7 +3807,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="172"/>
+      <c r="D36" s="193"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3802,7 +3825,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="172"/>
+      <c r="D37" s="193"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3820,7 +3843,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="193"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3854,7 +3877,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="177" t="s">
+      <c r="D40" s="198" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3880,7 +3903,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="178"/>
+      <c r="D41" s="199"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -3904,7 +3927,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="178"/>
+      <c r="D42" s="199"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -3928,7 +3951,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="179"/>
+      <c r="D43" s="200"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -3966,7 +3989,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="173" t="s">
+      <c r="D45" s="194" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -3992,7 +4015,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="174"/>
+      <c r="D46" s="195"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4016,7 +4039,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="174"/>
+      <c r="D47" s="195"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4040,7 +4063,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="174"/>
+      <c r="D48" s="195"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4064,7 +4087,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="174"/>
+      <c r="D49" s="195"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4088,7 +4111,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="174"/>
+      <c r="D50" s="195"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4112,7 +4135,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="174"/>
+      <c r="D51" s="195"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4136,7 +4159,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="174"/>
+      <c r="D52" s="195"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4160,7 +4183,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="174"/>
+      <c r="D53" s="195"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4184,7 +4207,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="174"/>
+      <c r="D54" s="195"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4208,7 +4231,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="174"/>
+      <c r="D55" s="195"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4232,7 +4255,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="175"/>
+      <c r="D56" s="196"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4314,7 +4337,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="176" t="s">
+      <c r="D60" s="197" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4344,7 +4367,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="170"/>
+      <c r="D61" s="171"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,7 +4395,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="170"/>
+      <c r="D62" s="171"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4400,7 +4423,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="170"/>
+      <c r="D63" s="171"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4424,7 +4447,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="170"/>
+      <c r="D64" s="171"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4448,7 +4471,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="171"/>
+      <c r="D65" s="172"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4486,7 +4509,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="180" t="s">
+      <c r="D67" s="201" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4516,7 +4539,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="181"/>
+      <c r="D68" s="202"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4544,7 +4567,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="182"/>
+      <c r="D69" s="203"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4586,7 +4609,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="183" t="s">
+      <c r="D71" s="204" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4616,7 +4639,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="184"/>
+      <c r="D72" s="205"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4644,7 +4667,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="184"/>
+      <c r="D73" s="205"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4672,7 +4695,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="184"/>
+      <c r="D74" s="205"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4700,7 +4723,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="172"/>
+      <c r="D75" s="193"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4728,7 +4751,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="172"/>
+      <c r="D76" s="193"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4814,7 +4837,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="173" t="s">
+      <c r="D80" s="194" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4844,7 +4867,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="174"/>
+      <c r="D81" s="195"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4868,7 +4891,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="174"/>
+      <c r="D82" s="195"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4896,7 +4919,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="174"/>
+      <c r="D83" s="195"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -4920,7 +4943,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="174"/>
+      <c r="D84" s="195"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -4948,7 +4971,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="175"/>
+      <c r="D85" s="196"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5030,7 +5053,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="193" t="s">
+      <c r="D89" s="183" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5060,7 +5083,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="194"/>
+      <c r="D90" s="184"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5088,7 +5111,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="194"/>
+      <c r="D91" s="184"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5116,7 +5139,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="194"/>
+      <c r="D92" s="184"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5144,7 +5167,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="194"/>
+      <c r="D93" s="184"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5172,7 +5195,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="195"/>
+      <c r="D94" s="185"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5214,7 +5237,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="197" t="s">
+      <c r="D96" s="187" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5240,7 +5263,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="198"/>
+      <c r="D97" s="188"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5264,7 +5287,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="198"/>
+      <c r="D98" s="188"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5288,7 +5311,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="198"/>
+      <c r="D99" s="188"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5312,7 +5335,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="198"/>
+      <c r="D100" s="188"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5336,7 +5359,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="198"/>
+      <c r="D101" s="188"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5360,7 +5383,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="198"/>
+      <c r="D102" s="188"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5384,7 +5407,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="199"/>
+      <c r="D103" s="189"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5411,7 +5434,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="190" t="s">
+      <c r="D105" s="210" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5437,7 +5460,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="190"/>
+      <c r="D106" s="210"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5461,7 +5484,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="190"/>
+      <c r="D107" s="210"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5485,7 +5508,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="190"/>
+      <c r="D108" s="210"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5507,7 +5530,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="190"/>
+      <c r="D109" s="210"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5533,7 +5556,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="204" t="s">
+      <c r="D111" s="170" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5559,7 +5582,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="170"/>
+      <c r="D112" s="171"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5583,7 +5606,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="170"/>
+      <c r="D113" s="171"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5607,7 +5630,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="170"/>
+      <c r="D114" s="171"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5631,7 +5654,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="170"/>
+      <c r="D115" s="171"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5655,7 +5678,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="171"/>
+      <c r="D116" s="172"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5685,7 +5708,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="196" t="s">
+      <c r="D119" s="186" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5711,7 +5734,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="196"/>
+      <c r="D120" s="186"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5735,7 +5758,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="196"/>
+      <c r="D121" s="186"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5759,7 +5782,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="196"/>
+      <c r="D122" s="186"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5783,7 +5806,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="196"/>
+      <c r="D123" s="186"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5807,7 +5830,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="196"/>
+      <c r="D124" s="186"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5831,7 +5854,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="196"/>
+      <c r="D125" s="186"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5855,7 +5878,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="196"/>
+      <c r="D126" s="186"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5879,7 +5902,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="196"/>
+      <c r="D127" s="186"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -5903,7 +5926,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="196"/>
+      <c r="D128" s="186"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -5927,7 +5950,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="196"/>
+      <c r="D129" s="186"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -5951,7 +5974,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="196"/>
+      <c r="D130" s="186"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -5975,7 +5998,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="196"/>
+      <c r="D131" s="186"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -5999,7 +6022,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="196"/>
+      <c r="D132" s="186"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6023,7 +6046,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="196"/>
+      <c r="D133" s="186"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6047,7 +6070,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="196"/>
+      <c r="D134" s="186"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6155,7 +6178,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="191" t="s">
+      <c r="D140" s="174" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6181,7 +6204,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="191"/>
+      <c r="D141" s="174"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6205,7 +6228,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="191"/>
+      <c r="D142" s="174"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6229,7 +6252,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="191"/>
+      <c r="D143" s="174"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6253,7 +6276,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="191"/>
+      <c r="D144" s="174"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6277,7 +6300,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="191"/>
+      <c r="D145" s="174"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6301,7 +6324,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="191"/>
+      <c r="D146" s="174"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6325,7 +6348,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="191"/>
+      <c r="D147" s="174"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6349,7 +6372,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="191"/>
+      <c r="D148" s="174"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6373,7 +6396,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="191"/>
+      <c r="D149" s="174"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6397,7 +6420,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="191"/>
+      <c r="D150" s="174"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6421,7 +6444,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="191"/>
+      <c r="D151" s="174"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6445,7 +6468,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="191"/>
+      <c r="D152" s="174"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6469,7 +6492,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="191"/>
+      <c r="D153" s="174"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6493,7 +6516,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="191"/>
+      <c r="D154" s="174"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6517,7 +6540,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="191"/>
+      <c r="D155" s="174"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6541,7 +6564,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="191"/>
+      <c r="D156" s="174"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6565,7 +6588,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="191"/>
+      <c r="D157" s="174"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6589,7 +6612,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="191"/>
+      <c r="D158" s="174"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6613,7 +6636,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="191"/>
+      <c r="D159" s="174"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6637,7 +6660,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="191"/>
+      <c r="D160" s="174"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6661,7 +6684,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="191"/>
+      <c r="D161" s="174"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6685,7 +6708,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="191"/>
+      <c r="D162" s="174"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6709,7 +6732,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="191"/>
+      <c r="D163" s="174"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6733,7 +6756,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="191"/>
+      <c r="D164" s="174"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6757,7 +6780,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="191"/>
+      <c r="D165" s="174"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6781,7 +6804,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="191"/>
+      <c r="D166" s="174"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6805,7 +6828,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="191"/>
+      <c r="D167" s="174"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6829,7 +6852,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="191"/>
+      <c r="D168" s="174"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6853,7 +6876,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="191"/>
+      <c r="D169" s="174"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6877,7 +6900,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="191"/>
+      <c r="D170" s="174"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -6901,7 +6924,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="191"/>
+      <c r="D171" s="174"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -6925,7 +6948,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="191"/>
+      <c r="D172" s="174"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -6949,7 +6972,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="191"/>
+      <c r="D173" s="174"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -6973,7 +6996,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="191"/>
+      <c r="D174" s="174"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -6997,7 +7020,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="191"/>
+      <c r="D175" s="174"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7021,7 +7044,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="191"/>
+      <c r="D176" s="174"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7045,7 +7068,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="191"/>
+      <c r="D177" s="174"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7069,7 +7092,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="191"/>
+      <c r="D178" s="174"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7093,7 +7116,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="191"/>
+      <c r="D179" s="174"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7117,7 +7140,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="191"/>
+      <c r="D180" s="174"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7141,7 +7164,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="191"/>
+      <c r="D181" s="174"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7165,7 +7188,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="191"/>
+      <c r="D182" s="174"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7189,7 +7212,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="191"/>
+      <c r="D183" s="174"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7213,7 +7236,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="191"/>
+      <c r="D184" s="174"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7237,7 +7260,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="191"/>
+      <c r="D185" s="174"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7261,7 +7284,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="191"/>
+      <c r="D186" s="174"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7285,7 +7308,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="191"/>
+      <c r="D187" s="174"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7309,7 +7332,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="191"/>
+      <c r="D188" s="174"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7333,7 +7356,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="191"/>
+      <c r="D189" s="174"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7357,7 +7380,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="191"/>
+      <c r="D190" s="174"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7381,7 +7404,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="191"/>
+      <c r="D191" s="174"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7405,7 +7428,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="191"/>
+      <c r="D192" s="174"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7429,7 +7452,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="191"/>
+      <c r="D193" s="174"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7453,7 +7476,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="191"/>
+      <c r="D194" s="174"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7477,7 +7500,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="191"/>
+      <c r="D195" s="174"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7501,7 +7524,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="191"/>
+      <c r="D196" s="174"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7525,7 +7548,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="191"/>
+      <c r="D197" s="174"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7549,7 +7572,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="191"/>
+      <c r="D198" s="174"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7573,7 +7596,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="191"/>
+      <c r="D199" s="174"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7597,7 +7620,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="191"/>
+      <c r="D200" s="174"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7621,7 +7644,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="191"/>
+      <c r="D201" s="174"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7645,7 +7668,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="191"/>
+      <c r="D202" s="174"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7669,7 +7692,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="191"/>
+      <c r="D203" s="174"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7693,7 +7716,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="191"/>
+      <c r="D204" s="174"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7717,7 +7740,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="191"/>
+      <c r="D205" s="174"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7741,7 +7764,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="191"/>
+      <c r="D206" s="174"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7765,7 +7788,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="191"/>
+      <c r="D207" s="174"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7789,7 +7812,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="191"/>
+      <c r="D208" s="174"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7813,7 +7836,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="191"/>
+      <c r="D209" s="174"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7837,7 +7860,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="191"/>
+      <c r="D210" s="174"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7861,7 +7884,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="191"/>
+      <c r="D211" s="174"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -7942,7 +7965,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="205" t="s">
+      <c r="D217" s="173" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -7967,7 +7990,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="170"/>
+      <c r="D218" s="171"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -7990,7 +8013,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="170"/>
+      <c r="D219" s="171"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8013,7 +8036,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="171"/>
+      <c r="D220" s="172"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8036,7 +8059,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="210" t="s">
+      <c r="D222" s="179" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8062,7 +8085,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="210"/>
+      <c r="D223" s="179"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8090,7 +8113,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="210"/>
+      <c r="D224" s="179"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8118,7 +8141,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="210"/>
+      <c r="D225" s="179"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8142,7 +8165,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="210"/>
+      <c r="D226" s="179"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8170,7 +8193,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="210"/>
+      <c r="D227" s="179"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8198,7 +8221,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="209" t="s">
+      <c r="D229" s="178" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8232,7 +8255,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="209"/>
+      <c r="D230" s="178"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8264,7 +8287,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="209"/>
+      <c r="D231" s="178"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8296,7 +8319,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="209"/>
+      <c r="D232" s="178"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8328,7 +8351,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="209"/>
+      <c r="D233" s="178"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8360,7 +8383,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="209"/>
+      <c r="D234" s="178"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8392,7 +8415,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="209"/>
+      <c r="D235" s="178"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8424,7 +8447,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="209"/>
+      <c r="D236" s="178"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8456,7 +8479,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="209"/>
+      <c r="D237" s="178"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8488,7 +8511,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="209"/>
+      <c r="D238" s="178"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8520,7 +8543,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="209"/>
+      <c r="D239" s="178"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8552,7 +8575,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="209"/>
+      <c r="D240" s="178"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8584,7 +8607,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="209"/>
+      <c r="D241" s="178"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8616,7 +8639,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="209"/>
+      <c r="D242" s="178"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8648,7 +8671,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="209"/>
+      <c r="D243" s="178"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8680,7 +8703,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="209"/>
+      <c r="D244" s="178"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8712,7 +8735,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="209"/>
+      <c r="D245" s="178"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8748,7 +8771,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="192" t="s">
+      <c r="D247" s="181" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8774,7 +8797,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="192"/>
+      <c r="D248" s="181"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8798,7 +8821,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="192"/>
+      <c r="D249" s="181"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8822,7 +8845,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="185" t="s">
+      <c r="D251" s="182" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8848,7 +8871,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="171"/>
+      <c r="D252" s="172"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8872,7 +8895,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="191" t="s">
+      <c r="D254" s="174" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8894,7 +8917,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="191"/>
+      <c r="D255" s="174"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -8914,7 +8937,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="191"/>
+      <c r="D256" s="174"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -8934,7 +8957,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="191"/>
+      <c r="D257" s="174"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -8954,7 +8977,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="191"/>
+      <c r="D258" s="174"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -8974,7 +8997,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="191"/>
+      <c r="D259" s="174"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -8994,7 +9017,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="191"/>
+      <c r="D260" s="174"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9014,7 +9037,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="191"/>
+      <c r="D261" s="174"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9034,7 +9057,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="191"/>
+      <c r="D262" s="174"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9054,7 +9077,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="191"/>
+      <c r="D263" s="174"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9074,7 +9097,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="191"/>
+      <c r="D264" s="174"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9094,7 +9117,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="191"/>
+      <c r="D265" s="174"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9114,7 +9137,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="191"/>
+      <c r="D266" s="174"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9134,7 +9157,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="191"/>
+      <c r="D267" s="174"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9154,7 +9177,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="191"/>
+      <c r="D268" s="174"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9174,7 +9197,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="191"/>
+      <c r="D269" s="174"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9194,7 +9217,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="191"/>
+      <c r="D270" s="174"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9214,7 +9237,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="191"/>
+      <c r="D271" s="174"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9234,7 +9257,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="191"/>
+      <c r="D272" s="174"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9254,7 +9277,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="191"/>
+      <c r="D273" s="174"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9274,7 +9297,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="191"/>
+      <c r="D274" s="174"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9294,7 +9317,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="191"/>
+      <c r="D275" s="174"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9314,7 +9337,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="191"/>
+      <c r="D276" s="174"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9334,7 +9357,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="191"/>
+      <c r="D277" s="174"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9354,7 +9377,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="191"/>
+      <c r="D278" s="174"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9374,7 +9397,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="191"/>
+      <c r="D279" s="174"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9394,7 +9417,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="191"/>
+      <c r="D280" s="174"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9414,7 +9437,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="191"/>
+      <c r="D281" s="174"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9434,7 +9457,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="191"/>
+      <c r="D282" s="174"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9454,7 +9477,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="191"/>
+      <c r="D283" s="174"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9474,7 +9497,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="191"/>
+      <c r="D284" s="174"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9494,7 +9517,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="191"/>
+      <c r="D285" s="174"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9514,7 +9537,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="191"/>
+      <c r="D286" s="174"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9534,7 +9557,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="191"/>
+      <c r="D287" s="174"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9554,7 +9577,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="191"/>
+      <c r="D288" s="174"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9574,7 +9597,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="191"/>
+      <c r="D289" s="174"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9594,7 +9617,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="191"/>
+      <c r="D290" s="174"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9614,7 +9637,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="191"/>
+      <c r="D291" s="174"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9634,7 +9657,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="191"/>
+      <c r="D292" s="174"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9654,7 +9677,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="191"/>
+      <c r="D293" s="174"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9674,7 +9697,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="191"/>
+      <c r="D294" s="174"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9694,7 +9717,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="191"/>
+      <c r="D295" s="174"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9714,7 +9737,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="191"/>
+      <c r="D296" s="174"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9734,7 +9757,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="191"/>
+      <c r="D297" s="174"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9754,7 +9777,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="191"/>
+      <c r="D298" s="174"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9774,7 +9797,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="191"/>
+      <c r="D299" s="174"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9794,7 +9817,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="191"/>
+      <c r="D300" s="174"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9814,7 +9837,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="191"/>
+      <c r="D301" s="174"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9834,7 +9857,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="191"/>
+      <c r="D302" s="174"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9854,7 +9877,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="191"/>
+      <c r="D303" s="174"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9874,7 +9897,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="191"/>
+      <c r="D304" s="174"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9894,7 +9917,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="191"/>
+      <c r="D305" s="174"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -9914,7 +9937,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="191"/>
+      <c r="D306" s="174"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -9934,7 +9957,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="191"/>
+      <c r="D307" s="174"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -9954,7 +9977,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="191"/>
+      <c r="D308" s="174"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -9974,7 +9997,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="191"/>
+      <c r="D309" s="174"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -9994,7 +10017,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="191"/>
+      <c r="D310" s="174"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10014,7 +10037,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="191"/>
+      <c r="D311" s="174"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10034,7 +10057,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="191"/>
+      <c r="D312" s="174"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10054,7 +10077,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="191"/>
+      <c r="D313" s="174"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10074,7 +10097,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="191"/>
+      <c r="D314" s="174"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10094,7 +10117,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="191"/>
+      <c r="D315" s="174"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10114,7 +10137,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="191"/>
+      <c r="D316" s="174"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10134,7 +10157,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="191"/>
+      <c r="D317" s="174"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10154,7 +10177,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="191"/>
+      <c r="D318" s="174"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10174,7 +10197,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="191"/>
+      <c r="D319" s="174"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10194,7 +10217,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="191"/>
+      <c r="D320" s="174"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10214,7 +10237,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="191"/>
+      <c r="D321" s="174"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10234,7 +10257,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="191"/>
+      <c r="D322" s="174"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10254,7 +10277,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="191"/>
+      <c r="D323" s="174"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10274,7 +10297,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="191"/>
+      <c r="D324" s="174"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10294,7 +10317,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="191"/>
+      <c r="D325" s="174"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10314,7 +10337,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="206" t="s">
+      <c r="D328" s="175" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10341,7 +10364,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="207"/>
+      <c r="D329" s="176"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10366,7 +10389,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="207"/>
+      <c r="D330" s="176"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10391,7 +10414,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="207"/>
+      <c r="D331" s="176"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10416,7 +10439,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="207"/>
+      <c r="D332" s="176"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10441,7 +10464,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="207"/>
+      <c r="D333" s="176"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10466,7 +10489,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="207"/>
+      <c r="D334" s="176"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10491,7 +10514,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="207"/>
+      <c r="D335" s="176"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10516,7 +10539,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="171"/>
+      <c r="D336" s="172"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10540,7 +10563,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="203" t="s">
+      <c r="D338" s="169" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10560,7 +10583,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="203"/>
+      <c r="D339" s="169"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10578,7 +10601,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="203"/>
+      <c r="D340" s="169"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10596,7 +10619,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="203"/>
+      <c r="D341" s="169"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10622,7 +10645,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="211" t="s">
+      <c r="D343" s="180" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10644,7 +10667,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="211"/>
+      <c r="D344" s="180"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10659,7 +10682,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="200" t="s">
+      <c r="A346" s="166" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10668,7 +10691,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="206" t="s">
+      <c r="D346" s="175" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10683,14 +10706,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="201"/>
+      <c r="A347" s="167"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="207"/>
+      <c r="D347" s="176"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10703,14 +10726,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="201"/>
+      <c r="A348" s="167"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="207"/>
+      <c r="D348" s="176"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10723,14 +10746,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="201"/>
+      <c r="A349" s="167"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="207"/>
+      <c r="D349" s="176"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10743,14 +10766,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="201"/>
+      <c r="A350" s="167"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="207"/>
+      <c r="D350" s="176"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10763,14 +10786,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="201"/>
+      <c r="A351" s="167"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="207"/>
+      <c r="D351" s="176"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10783,14 +10806,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="201"/>
+      <c r="A352" s="167"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="207"/>
+      <c r="D352" s="176"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -10803,14 +10826,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="202"/>
+      <c r="A353" s="168"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="208"/>
+      <c r="D353" s="177"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -10832,7 +10855,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="168" t="s">
+      <c r="D355" s="191" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10852,7 +10875,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="168"/>
+      <c r="D356" s="191"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10870,7 +10893,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="168"/>
+      <c r="D357" s="191"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10888,7 +10911,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="168"/>
+      <c r="D358" s="191"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -10966,7 +10989,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="167" t="s">
+      <c r="D362" s="190" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -10992,7 +11015,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="167"/>
+      <c r="D363" s="190"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11557,7 +11580,7 @@
       <c r="C387" s="165" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="166" t="s">
+      <c r="D387" s="211" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="165"/>
@@ -11591,7 +11614,7 @@
       <c r="C388" s="165" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="166"/>
+      <c r="D388" s="212"/>
       <c r="E388" s="165"/>
       <c r="F388" s="165"/>
       <c r="G388" s="124" t="s">
@@ -11623,7 +11646,7 @@
       <c r="C389" s="165" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="166"/>
+      <c r="D389" s="212"/>
       <c r="E389" s="165"/>
       <c r="F389" s="165"/>
       <c r="G389" s="165"/>
@@ -11651,7 +11674,7 @@
       <c r="C390" s="165" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="166"/>
+      <c r="D390" s="212"/>
       <c r="E390" s="165"/>
       <c r="F390" s="165"/>
       <c r="G390" s="165"/>
@@ -11670,75 +11693,88 @@
       </c>
     </row>
     <row r="391" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D391" s="108"/>
-    </row>
-    <row r="392" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D392" s="108"/>
-    </row>
-    <row r="393" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="162"/>
-      <c r="B393" s="163"/>
-      <c r="C393" s="162"/>
-      <c r="D393" s="162"/>
-      <c r="E393" s="162"/>
-      <c r="F393" s="162"/>
-      <c r="G393" s="162"/>
-      <c r="H393" s="162"/>
-      <c r="I393" s="162"/>
-      <c r="J393" s="162"/>
-      <c r="K393" s="162"/>
-      <c r="L393" s="162"/>
+      <c r="A391" s="162"/>
+      <c r="B391" s="163"/>
+      <c r="C391" s="162"/>
+      <c r="D391" s="162"/>
+      <c r="E391" s="162"/>
+      <c r="F391" s="162"/>
+      <c r="G391" s="162"/>
+      <c r="H391" s="162"/>
+      <c r="I391" s="162"/>
+      <c r="J391" s="162"/>
+      <c r="K391" s="162"/>
+      <c r="L391" s="162"/>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A392" s="161"/>
+      <c r="D392"/>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>391</v>
+      </c>
+      <c r="D393"/>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A394" s="161"/>
+      <c r="A394"/>
       <c r="D394"/>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>391</v>
-      </c>
-      <c r="D395"/>
+      <c r="A395" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="B395" s="149">
+        <v>316</v>
+      </c>
+      <c r="C395" s="150" t="s">
+        <v>397</v>
+      </c>
+      <c r="D395" s="151" t="s">
+        <v>398</v>
+      </c>
+      <c r="E395" t="s">
+        <v>401</v>
+      </c>
+      <c r="F395" t="s">
+        <v>386</v>
+      </c>
+      <c r="G395" t="str">
+        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B395&amp;",'"&amp;C395&amp;"','"&amp;D395&amp;"','"&amp;E395&amp;"','"&amp;F395&amp;"','0','"&amp;A395&amp;"');")</f>
+        <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,316,'P4PCPC','P4P','d','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
+      </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396"/>
       <c r="D396"/>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A397" s="58" t="s">
-        <v>387</v>
-      </c>
-      <c r="B397" s="149">
-        <v>316</v>
-      </c>
-      <c r="C397" s="150" t="s">
-        <v>397</v>
-      </c>
-      <c r="D397" s="151" t="s">
-        <v>398</v>
-      </c>
-      <c r="E397" t="s">
-        <v>401</v>
-      </c>
-      <c r="F397" t="s">
-        <v>386</v>
-      </c>
-      <c r="G397" t="str">
-        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B397&amp;",'"&amp;C397&amp;"','"&amp;D397&amp;"','"&amp;E397&amp;"','"&amp;F397&amp;"','0','"&amp;A397&amp;"');")</f>
-        <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,316,'P4PCPC','P4P','d','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A398"/>
-      <c r="D398"/>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A399"/>
-      <c r="D399"/>
-    </row>
-    <row r="401" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A397"/>
+      <c r="D397"/>
+    </row>
+    <row r="399" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <mergeCells count="31">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="D119:D134"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="D362:D363"/>
+    <mergeCell ref="D355:D358"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D254:D325"/>
+    <mergeCell ref="D387:D390"/>
     <mergeCell ref="A346:A353"/>
     <mergeCell ref="D338:D341"/>
     <mergeCell ref="D111:D116"/>
@@ -11751,25 +11787,6 @@
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
     <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="D119:D134"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="D362:D363"/>
-    <mergeCell ref="D355:D358"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D254:D325"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="439">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1592,12 +1592,28 @@
     <t>每月给一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>支静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道销售人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道职能人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1978,12 +1994,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC0C0C0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2161,7 +2171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2397,9 +2407,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2408,85 +2415,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2528,6 +2463,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2540,7 +2478,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2549,6 +2517,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -2556,74 +2567,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2643,7 +2586,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2934,9 +2877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M399"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A391" sqref="A391:XFD392"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E392" sqref="E392:H392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3002,7 +2945,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="192" t="s">
+      <c r="D2" s="165" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3032,7 +2975,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="171"/>
+      <c r="D3" s="166"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3060,7 +3003,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="172"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3103,7 +3046,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="209" t="s">
+      <c r="D6" s="185" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3129,7 +3072,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="193"/>
+      <c r="D7" s="168"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3153,7 +3096,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="193"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3177,7 +3120,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="193"/>
+      <c r="D9" s="168"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3201,7 +3144,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="193"/>
+      <c r="D10" s="168"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3243,7 +3186,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="181" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3269,7 +3212,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="166"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3293,7 +3236,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3317,7 +3260,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="171"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3341,7 +3284,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="171"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3365,7 +3308,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="171"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3389,7 +3332,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="171"/>
+      <c r="D18" s="166"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3413,7 +3356,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="171"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3437,7 +3380,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="171"/>
+      <c r="D20" s="166"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3461,7 +3404,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="172"/>
+      <c r="D21" s="167"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3499,7 +3442,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="206" t="s">
+      <c r="D23" s="182" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3521,7 +3464,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="207"/>
+      <c r="D24" s="183"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3549,7 +3492,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="207"/>
+      <c r="D25" s="183"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3577,7 +3520,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="207"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3597,7 +3540,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="207"/>
+      <c r="D27" s="183"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3625,7 +3568,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="207"/>
+      <c r="D28" s="183"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3653,7 +3596,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="207"/>
+      <c r="D29" s="183"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3681,7 +3624,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="208"/>
+      <c r="D30" s="184"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3787,7 +3730,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="172" t="s">
+      <c r="D35" s="167" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3807,7 +3750,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="193"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3825,7 +3768,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="193"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3843,7 +3786,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="193"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3877,7 +3820,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="198" t="s">
+      <c r="D40" s="173" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3903,7 +3846,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="199"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -3927,7 +3870,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="199"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -3951,7 +3894,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="200"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -3989,7 +3932,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="194" t="s">
+      <c r="D45" s="169" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4015,7 +3958,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="195"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4039,7 +3982,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="195"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4063,7 +4006,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="195"/>
+      <c r="D48" s="170"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4087,7 +4030,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="195"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4111,7 +4054,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="195"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4135,7 +4078,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="195"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4159,7 +4102,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="195"/>
+      <c r="D52" s="170"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4183,7 +4126,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="195"/>
+      <c r="D53" s="170"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4207,7 +4150,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="195"/>
+      <c r="D54" s="170"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4231,7 +4174,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="195"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4255,7 +4198,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="196"/>
+      <c r="D56" s="171"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4337,7 +4280,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="197" t="s">
+      <c r="D60" s="172" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4367,7 +4310,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="171"/>
+      <c r="D61" s="166"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4395,7 +4338,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="171"/>
+      <c r="D62" s="166"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4423,7 +4366,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="171"/>
+      <c r="D63" s="166"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4447,7 +4390,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="171"/>
+      <c r="D64" s="166"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4471,7 +4414,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="172"/>
+      <c r="D65" s="167"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4509,7 +4452,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="201" t="s">
+      <c r="D67" s="176" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4539,7 +4482,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="202"/>
+      <c r="D68" s="177"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4567,7 +4510,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="203"/>
+      <c r="D69" s="178"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4609,7 +4552,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="204" t="s">
+      <c r="D71" s="179" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4639,7 +4582,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="205"/>
+      <c r="D72" s="180"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4667,7 +4610,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="205"/>
+      <c r="D73" s="180"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4695,7 +4638,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="205"/>
+      <c r="D74" s="180"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4723,7 +4666,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="193"/>
+      <c r="D75" s="168"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4751,7 +4694,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="193"/>
+      <c r="D76" s="168"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4837,7 +4780,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="194" t="s">
+      <c r="D80" s="169" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4867,7 +4810,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="195"/>
+      <c r="D81" s="170"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4891,7 +4834,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="195"/>
+      <c r="D82" s="170"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4919,7 +4862,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="195"/>
+      <c r="D83" s="170"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -4943,7 +4886,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="195"/>
+      <c r="D84" s="170"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -4971,7 +4914,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="196"/>
+      <c r="D85" s="171"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5053,7 +4996,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="183" t="s">
+      <c r="D89" s="186" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5083,7 +5026,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="184"/>
+      <c r="D90" s="187"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5111,7 +5054,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="184"/>
+      <c r="D91" s="187"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5139,7 +5082,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="184"/>
+      <c r="D92" s="187"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5167,7 +5110,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="184"/>
+      <c r="D93" s="187"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5195,7 +5138,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="185"/>
+      <c r="D94" s="188"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5237,7 +5180,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="187" t="s">
+      <c r="D96" s="190" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5263,7 +5206,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="188"/>
+      <c r="D97" s="191"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5287,7 +5230,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="188"/>
+      <c r="D98" s="191"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5311,7 +5254,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="188"/>
+      <c r="D99" s="191"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5335,7 +5278,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="188"/>
+      <c r="D100" s="191"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5359,7 +5302,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="188"/>
+      <c r="D101" s="191"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5383,7 +5326,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="188"/>
+      <c r="D102" s="191"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5407,7 +5350,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="189"/>
+      <c r="D103" s="192"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5434,7 +5377,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="210" t="s">
+      <c r="D105" s="195" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5460,7 +5403,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="210"/>
+      <c r="D106" s="195"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5484,7 +5427,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="210"/>
+      <c r="D107" s="195"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5508,7 +5451,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="210"/>
+      <c r="D108" s="195"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5530,7 +5473,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="210"/>
+      <c r="D109" s="195"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5556,7 +5499,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="170" t="s">
+      <c r="D111" s="203" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5582,7 +5525,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="171"/>
+      <c r="D112" s="166"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5606,7 +5549,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="171"/>
+      <c r="D113" s="166"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5630,7 +5573,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="171"/>
+      <c r="D114" s="166"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5654,7 +5597,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="171"/>
+      <c r="D115" s="166"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5678,7 +5621,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="172"/>
+      <c r="D116" s="167"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5708,7 +5651,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="186" t="s">
+      <c r="D119" s="189" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5734,7 +5677,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="186"/>
+      <c r="D120" s="189"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5758,7 +5701,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="186"/>
+      <c r="D121" s="189"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5782,7 +5725,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="186"/>
+      <c r="D122" s="189"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5806,7 +5749,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="186"/>
+      <c r="D123" s="189"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5830,7 +5773,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="186"/>
+      <c r="D124" s="189"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5854,7 +5797,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="186"/>
+      <c r="D125" s="189"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5878,7 +5821,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="186"/>
+      <c r="D126" s="189"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5902,7 +5845,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="186"/>
+      <c r="D127" s="189"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -5926,7 +5869,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="186"/>
+      <c r="D128" s="189"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -5950,7 +5893,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="186"/>
+      <c r="D129" s="189"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -5974,7 +5917,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="186"/>
+      <c r="D130" s="189"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -5998,7 +5941,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="186"/>
+      <c r="D131" s="189"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6022,7 +5965,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="186"/>
+      <c r="D132" s="189"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6046,7 +5989,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="186"/>
+      <c r="D133" s="189"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6070,7 +6013,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="186"/>
+      <c r="D134" s="189"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6178,7 +6121,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="174" t="s">
+      <c r="D140" s="196" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6204,7 +6147,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="174"/>
+      <c r="D141" s="196"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6228,7 +6171,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="174"/>
+      <c r="D142" s="196"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6252,7 +6195,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="174"/>
+      <c r="D143" s="196"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6276,7 +6219,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="174"/>
+      <c r="D144" s="196"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6300,7 +6243,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="174"/>
+      <c r="D145" s="196"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6324,7 +6267,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="174"/>
+      <c r="D146" s="196"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6348,7 +6291,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="174"/>
+      <c r="D147" s="196"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6372,7 +6315,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="174"/>
+      <c r="D148" s="196"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6396,7 +6339,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="174"/>
+      <c r="D149" s="196"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6420,7 +6363,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="174"/>
+      <c r="D150" s="196"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6444,7 +6387,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="174"/>
+      <c r="D151" s="196"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6468,7 +6411,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="174"/>
+      <c r="D152" s="196"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6492,7 +6435,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="174"/>
+      <c r="D153" s="196"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6516,7 +6459,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="174"/>
+      <c r="D154" s="196"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6540,7 +6483,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="174"/>
+      <c r="D155" s="196"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6564,7 +6507,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="174"/>
+      <c r="D156" s="196"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6588,7 +6531,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="174"/>
+      <c r="D157" s="196"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6612,7 +6555,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="174"/>
+      <c r="D158" s="196"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6636,7 +6579,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="174"/>
+      <c r="D159" s="196"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6660,7 +6603,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="174"/>
+      <c r="D160" s="196"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6684,7 +6627,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="174"/>
+      <c r="D161" s="196"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6708,7 +6651,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="174"/>
+      <c r="D162" s="196"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6732,7 +6675,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="174"/>
+      <c r="D163" s="196"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6756,7 +6699,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="174"/>
+      <c r="D164" s="196"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6780,7 +6723,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="174"/>
+      <c r="D165" s="196"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6804,7 +6747,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="174"/>
+      <c r="D166" s="196"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6828,7 +6771,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="174"/>
+      <c r="D167" s="196"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6852,7 +6795,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="174"/>
+      <c r="D168" s="196"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6876,7 +6819,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="174"/>
+      <c r="D169" s="196"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6900,7 +6843,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="174"/>
+      <c r="D170" s="196"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -6924,7 +6867,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="174"/>
+      <c r="D171" s="196"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -6948,7 +6891,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="174"/>
+      <c r="D172" s="196"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -6972,7 +6915,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="174"/>
+      <c r="D173" s="196"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -6996,7 +6939,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="174"/>
+      <c r="D174" s="196"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7020,7 +6963,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="174"/>
+      <c r="D175" s="196"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7044,7 +6987,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="174"/>
+      <c r="D176" s="196"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7068,7 +7011,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="174"/>
+      <c r="D177" s="196"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7092,7 +7035,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="174"/>
+      <c r="D178" s="196"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7116,7 +7059,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="174"/>
+      <c r="D179" s="196"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7140,7 +7083,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="174"/>
+      <c r="D180" s="196"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7164,7 +7107,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="174"/>
+      <c r="D181" s="196"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7188,7 +7131,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="174"/>
+      <c r="D182" s="196"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7212,7 +7155,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="174"/>
+      <c r="D183" s="196"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7236,7 +7179,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="174"/>
+      <c r="D184" s="196"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7260,7 +7203,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="174"/>
+      <c r="D185" s="196"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7284,7 +7227,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="174"/>
+      <c r="D186" s="196"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7308,7 +7251,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="174"/>
+      <c r="D187" s="196"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7332,7 +7275,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="174"/>
+      <c r="D188" s="196"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7356,7 +7299,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="174"/>
+      <c r="D189" s="196"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7380,7 +7323,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="174"/>
+      <c r="D190" s="196"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7404,7 +7347,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="174"/>
+      <c r="D191" s="196"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7428,7 +7371,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="174"/>
+      <c r="D192" s="196"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7452,7 +7395,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="174"/>
+      <c r="D193" s="196"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7476,7 +7419,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="174"/>
+      <c r="D194" s="196"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7500,7 +7443,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="174"/>
+      <c r="D195" s="196"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7524,7 +7467,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="174"/>
+      <c r="D196" s="196"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7548,7 +7491,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="174"/>
+      <c r="D197" s="196"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7572,7 +7515,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="174"/>
+      <c r="D198" s="196"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7596,7 +7539,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="174"/>
+      <c r="D199" s="196"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7620,7 +7563,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="174"/>
+      <c r="D200" s="196"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7644,7 +7587,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="174"/>
+      <c r="D201" s="196"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7668,7 +7611,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="174"/>
+      <c r="D202" s="196"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7692,7 +7635,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="174"/>
+      <c r="D203" s="196"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7716,7 +7659,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="174"/>
+      <c r="D204" s="196"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7740,7 +7683,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="174"/>
+      <c r="D205" s="196"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7764,7 +7707,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="174"/>
+      <c r="D206" s="196"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7788,7 +7731,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="174"/>
+      <c r="D207" s="196"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7812,7 +7755,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="174"/>
+      <c r="D208" s="196"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7836,7 +7779,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="174"/>
+      <c r="D209" s="196"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7860,7 +7803,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="174"/>
+      <c r="D210" s="196"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7884,7 +7827,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="174"/>
+      <c r="D211" s="196"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -7965,7 +7908,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="173" t="s">
+      <c r="D217" s="204" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -7990,7 +7933,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="171"/>
+      <c r="D218" s="166"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8013,7 +7956,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="171"/>
+      <c r="D219" s="166"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8036,7 +7979,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="172"/>
+      <c r="D220" s="167"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8059,7 +8002,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="179" t="s">
+      <c r="D222" s="209" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8085,7 +8028,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="179"/>
+      <c r="D223" s="209"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8113,7 +8056,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="179"/>
+      <c r="D224" s="209"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8141,7 +8084,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="179"/>
+      <c r="D225" s="209"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8165,7 +8108,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="179"/>
+      <c r="D226" s="209"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8193,7 +8136,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="179"/>
+      <c r="D227" s="209"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8221,7 +8164,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="178" t="s">
+      <c r="D229" s="208" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8255,7 +8198,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="178"/>
+      <c r="D230" s="208"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8287,7 +8230,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="178"/>
+      <c r="D231" s="208"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8319,7 +8262,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="178"/>
+      <c r="D232" s="208"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8351,7 +8294,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="178"/>
+      <c r="D233" s="208"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8383,7 +8326,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="178"/>
+      <c r="D234" s="208"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8415,7 +8358,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="178"/>
+      <c r="D235" s="208"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8447,7 +8390,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="178"/>
+      <c r="D236" s="208"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8479,7 +8422,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="178"/>
+      <c r="D237" s="208"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8511,7 +8454,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="178"/>
+      <c r="D238" s="208"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8543,7 +8486,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="178"/>
+      <c r="D239" s="208"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8575,7 +8518,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="178"/>
+      <c r="D240" s="208"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8607,7 +8550,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="178"/>
+      <c r="D241" s="208"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8639,7 +8582,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="178"/>
+      <c r="D242" s="208"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8671,7 +8614,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="178"/>
+      <c r="D243" s="208"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8703,7 +8646,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="178"/>
+      <c r="D244" s="208"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8735,7 +8678,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="178"/>
+      <c r="D245" s="208"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8771,7 +8714,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="181" t="s">
+      <c r="D247" s="211" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8797,7 +8740,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="181"/>
+      <c r="D248" s="211"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8821,7 +8764,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="181"/>
+      <c r="D249" s="211"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8845,7 +8788,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="182" t="s">
+      <c r="D251" s="181" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8871,7 +8814,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="172"/>
+      <c r="D252" s="167"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8895,7 +8838,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="174" t="s">
+      <c r="D254" s="196" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8917,7 +8860,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="174"/>
+      <c r="D255" s="196"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -8937,7 +8880,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="174"/>
+      <c r="D256" s="196"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -8957,7 +8900,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="174"/>
+      <c r="D257" s="196"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -8977,7 +8920,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="174"/>
+      <c r="D258" s="196"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -8997,7 +8940,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="174"/>
+      <c r="D259" s="196"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9017,7 +8960,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="174"/>
+      <c r="D260" s="196"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9037,7 +8980,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="174"/>
+      <c r="D261" s="196"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9057,7 +9000,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="174"/>
+      <c r="D262" s="196"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9077,7 +9020,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="174"/>
+      <c r="D263" s="196"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9097,7 +9040,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="174"/>
+      <c r="D264" s="196"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9117,7 +9060,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="174"/>
+      <c r="D265" s="196"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9137,7 +9080,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="174"/>
+      <c r="D266" s="196"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9157,7 +9100,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="174"/>
+      <c r="D267" s="196"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9177,7 +9120,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="174"/>
+      <c r="D268" s="196"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9197,7 +9140,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="174"/>
+      <c r="D269" s="196"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9217,7 +9160,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="174"/>
+      <c r="D270" s="196"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9237,7 +9180,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="174"/>
+      <c r="D271" s="196"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9257,7 +9200,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="174"/>
+      <c r="D272" s="196"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9277,7 +9220,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="174"/>
+      <c r="D273" s="196"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9297,7 +9240,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="174"/>
+      <c r="D274" s="196"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9317,7 +9260,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="174"/>
+      <c r="D275" s="196"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9337,7 +9280,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="174"/>
+      <c r="D276" s="196"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9357,7 +9300,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="174"/>
+      <c r="D277" s="196"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9377,7 +9320,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="174"/>
+      <c r="D278" s="196"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9397,7 +9340,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="174"/>
+      <c r="D279" s="196"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9417,7 +9360,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="174"/>
+      <c r="D280" s="196"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9437,7 +9380,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="174"/>
+      <c r="D281" s="196"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9457,7 +9400,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="174"/>
+      <c r="D282" s="196"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9477,7 +9420,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="174"/>
+      <c r="D283" s="196"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9497,7 +9440,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="174"/>
+      <c r="D284" s="196"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9517,7 +9460,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="174"/>
+      <c r="D285" s="196"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9537,7 +9480,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="174"/>
+      <c r="D286" s="196"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9557,7 +9500,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="174"/>
+      <c r="D287" s="196"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9577,7 +9520,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="174"/>
+      <c r="D288" s="196"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9597,7 +9540,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="174"/>
+      <c r="D289" s="196"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9617,7 +9560,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="174"/>
+      <c r="D290" s="196"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9637,7 +9580,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="174"/>
+      <c r="D291" s="196"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9657,7 +9600,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="174"/>
+      <c r="D292" s="196"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9677,7 +9620,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="174"/>
+      <c r="D293" s="196"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9697,7 +9640,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="174"/>
+      <c r="D294" s="196"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9717,7 +9660,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="174"/>
+      <c r="D295" s="196"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9737,7 +9680,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="174"/>
+      <c r="D296" s="196"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9757,7 +9700,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="174"/>
+      <c r="D297" s="196"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9777,7 +9720,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="174"/>
+      <c r="D298" s="196"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9797,7 +9740,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="174"/>
+      <c r="D299" s="196"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9817,7 +9760,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="174"/>
+      <c r="D300" s="196"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9837,7 +9780,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="174"/>
+      <c r="D301" s="196"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9857,7 +9800,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="174"/>
+      <c r="D302" s="196"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9877,7 +9820,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="174"/>
+      <c r="D303" s="196"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9897,7 +9840,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="174"/>
+      <c r="D304" s="196"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9917,7 +9860,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="174"/>
+      <c r="D305" s="196"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -9937,7 +9880,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="174"/>
+      <c r="D306" s="196"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -9957,7 +9900,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="174"/>
+      <c r="D307" s="196"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -9977,7 +9920,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="174"/>
+      <c r="D308" s="196"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -9997,7 +9940,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="174"/>
+      <c r="D309" s="196"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10017,7 +9960,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="174"/>
+      <c r="D310" s="196"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10037,7 +9980,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="174"/>
+      <c r="D311" s="196"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10057,7 +10000,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="174"/>
+      <c r="D312" s="196"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10077,7 +10020,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="174"/>
+      <c r="D313" s="196"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10097,7 +10040,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="174"/>
+      <c r="D314" s="196"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10117,7 +10060,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="174"/>
+      <c r="D315" s="196"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10137,7 +10080,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="174"/>
+      <c r="D316" s="196"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10157,7 +10100,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="174"/>
+      <c r="D317" s="196"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10177,7 +10120,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="174"/>
+      <c r="D318" s="196"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10197,7 +10140,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="174"/>
+      <c r="D319" s="196"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10217,7 +10160,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="174"/>
+      <c r="D320" s="196"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10237,7 +10180,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="174"/>
+      <c r="D321" s="196"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10257,7 +10200,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="174"/>
+      <c r="D322" s="196"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10277,7 +10220,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="174"/>
+      <c r="D323" s="196"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10297,7 +10240,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="174"/>
+      <c r="D324" s="196"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10317,7 +10260,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="174"/>
+      <c r="D325" s="196"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10337,7 +10280,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="175" t="s">
+      <c r="D328" s="205" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10364,7 +10307,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="176"/>
+      <c r="D329" s="206"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10389,7 +10332,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="176"/>
+      <c r="D330" s="206"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10414,7 +10357,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="176"/>
+      <c r="D331" s="206"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10439,7 +10382,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="176"/>
+      <c r="D332" s="206"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10464,7 +10407,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="176"/>
+      <c r="D333" s="206"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10489,7 +10432,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="176"/>
+      <c r="D334" s="206"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10514,7 +10457,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="176"/>
+      <c r="D335" s="206"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10539,7 +10482,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="172"/>
+      <c r="D336" s="167"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10563,7 +10506,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="169" t="s">
+      <c r="D338" s="202" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10583,7 +10526,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="169"/>
+      <c r="D339" s="202"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10601,7 +10544,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="169"/>
+      <c r="D340" s="202"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10619,7 +10562,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="169"/>
+      <c r="D341" s="202"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10645,7 +10588,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="180" t="s">
+      <c r="D343" s="210" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10667,7 +10610,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="180"/>
+      <c r="D344" s="210"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10682,7 +10625,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="166" t="s">
+      <c r="A346" s="199" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10691,7 +10634,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="175" t="s">
+      <c r="D346" s="205" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10706,14 +10649,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="167"/>
+      <c r="A347" s="200"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="176"/>
+      <c r="D347" s="206"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10726,14 +10669,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="167"/>
+      <c r="A348" s="200"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="176"/>
+      <c r="D348" s="206"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10746,14 +10689,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="167"/>
+      <c r="A349" s="200"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="176"/>
+      <c r="D349" s="206"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10766,14 +10709,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="167"/>
+      <c r="A350" s="200"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="176"/>
+      <c r="D350" s="206"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10786,14 +10729,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="167"/>
+      <c r="A351" s="200"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="176"/>
+      <c r="D351" s="206"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10806,14 +10749,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="167"/>
+      <c r="A352" s="200"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="176"/>
+      <c r="D352" s="206"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -10826,14 +10769,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="168"/>
+      <c r="A353" s="201"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="177"/>
+      <c r="D353" s="207"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -10855,7 +10798,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="191" t="s">
+      <c r="D355" s="194" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10875,7 +10818,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="191"/>
+      <c r="D356" s="194"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10893,7 +10836,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="191"/>
+      <c r="D357" s="194"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10911,7 +10854,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="191"/>
+      <c r="D358" s="194"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -10989,7 +10932,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="190" t="s">
+      <c r="D362" s="193" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11015,7 +10958,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="190"/>
+      <c r="D363" s="193"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11557,34 +11500,34 @@
       </c>
     </row>
     <row r="386" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="162"/>
-      <c r="B386" s="163"/>
-      <c r="C386" s="162"/>
-      <c r="D386" s="162"/>
-      <c r="E386" s="162"/>
-      <c r="F386" s="162"/>
-      <c r="G386" s="162"/>
-      <c r="H386" s="162"/>
-      <c r="I386" s="162"/>
-      <c r="J386" s="162"/>
-      <c r="K386" s="162"/>
-      <c r="L386" s="162"/>
+      <c r="A386" s="161"/>
+      <c r="B386" s="162"/>
+      <c r="C386" s="161"/>
+      <c r="D386" s="161"/>
+      <c r="E386" s="161"/>
+      <c r="F386" s="161"/>
+      <c r="G386" s="161"/>
+      <c r="H386" s="161"/>
+      <c r="I386" s="161"/>
+      <c r="J386" s="161"/>
+      <c r="K386" s="161"/>
+      <c r="L386" s="161"/>
     </row>
     <row r="387" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="B387" s="164">
+      <c r="B387" s="163">
         <v>332</v>
       </c>
-      <c r="C387" s="165" t="s">
+      <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="211" t="s">
+      <c r="D387" s="197" t="s">
         <v>430</v>
       </c>
-      <c r="E387" s="165"/>
-      <c r="F387" s="165"/>
+      <c r="E387" s="164"/>
+      <c r="F387" s="164"/>
       <c r="G387" s="124" t="s">
         <v>282</v>
       </c>
@@ -11600,7 +11543,7 @@
       <c r="K387" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="L387" s="165" t="s">
+      <c r="L387" s="164" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11608,15 +11551,15 @@
       <c r="A388" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="B388" s="164">
+      <c r="B388" s="163">
         <v>333</v>
       </c>
-      <c r="C388" s="165" t="s">
+      <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="212"/>
-      <c r="E388" s="165"/>
-      <c r="F388" s="165"/>
+      <c r="D388" s="198"/>
+      <c r="E388" s="164"/>
+      <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
         <v>282</v>
       </c>
@@ -11632,7 +11575,7 @@
       <c r="K388" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="L388" s="165" t="s">
+      <c r="L388" s="164" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11640,17 +11583,17 @@
       <c r="A389" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="B389" s="164">
+      <c r="B389" s="163">
         <v>334</v>
       </c>
-      <c r="C389" s="165" t="s">
+      <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="212"/>
-      <c r="E389" s="165"/>
-      <c r="F389" s="165"/>
-      <c r="G389" s="165"/>
-      <c r="H389" s="165"/>
+      <c r="D389" s="198"/>
+      <c r="E389" s="164"/>
+      <c r="F389" s="164"/>
+      <c r="G389" s="164"/>
+      <c r="H389" s="164"/>
       <c r="I389" s="124" t="s">
         <v>283</v>
       </c>
@@ -11660,7 +11603,7 @@
       <c r="K389" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="L389" s="165" t="s">
+      <c r="L389" s="164" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11668,17 +11611,17 @@
       <c r="A390" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="B390" s="164">
+      <c r="B390" s="163">
         <v>335</v>
       </c>
-      <c r="C390" s="165" t="s">
+      <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="212"/>
-      <c r="E390" s="165"/>
-      <c r="F390" s="165"/>
-      <c r="G390" s="165"/>
-      <c r="H390" s="165"/>
+      <c r="D390" s="198"/>
+      <c r="E390" s="164"/>
+      <c r="F390" s="164"/>
+      <c r="G390" s="164"/>
+      <c r="H390" s="164"/>
       <c r="I390" s="124" t="s">
         <v>283</v>
       </c>
@@ -11688,27 +11631,63 @@
       <c r="K390" s="124" t="s">
         <v>327</v>
       </c>
-      <c r="L390" s="165" t="s">
+      <c r="L390" s="164" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="391" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="162"/>
-      <c r="B391" s="163"/>
-      <c r="C391" s="162"/>
-      <c r="D391" s="162"/>
-      <c r="E391" s="162"/>
-      <c r="F391" s="162"/>
-      <c r="G391" s="162"/>
-      <c r="H391" s="162"/>
-      <c r="I391" s="162"/>
-      <c r="J391" s="162"/>
-      <c r="K391" s="162"/>
-      <c r="L391" s="162"/>
+      <c r="A391" s="161" t="s">
+        <v>435</v>
+      </c>
+      <c r="B391" s="162">
+        <v>336</v>
+      </c>
+      <c r="C391" s="161" t="s">
+        <v>436</v>
+      </c>
+      <c r="D391" s="213" t="s">
+        <v>438</v>
+      </c>
+      <c r="E391" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="F391" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="G391" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H391" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="I391" s="161"/>
+      <c r="J391" s="161"/>
+      <c r="K391" s="161"/>
+      <c r="L391" s="161"/>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A392" s="161"/>
-      <c r="D392"/>
+      <c r="A392" s="161" t="s">
+        <v>435</v>
+      </c>
+      <c r="B392" s="212">
+        <v>337</v>
+      </c>
+      <c r="C392" s="212" t="s">
+        <v>437</v>
+      </c>
+      <c r="D392" s="213"/>
+      <c r="E392" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="F392" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="G392" s="145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H392" s="142" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
@@ -11755,25 +11734,8 @@
     <row r="399" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:L1"/>
-  <mergeCells count="31">
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="D119:D134"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="D362:D363"/>
-    <mergeCell ref="D355:D358"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D254:D325"/>
+  <mergeCells count="32">
+    <mergeCell ref="D391:D392"/>
     <mergeCell ref="D387:D390"/>
     <mergeCell ref="A346:A353"/>
     <mergeCell ref="D338:D341"/>
@@ -11787,6 +11749,24 @@
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
     <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="D119:D134"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="D362:D363"/>
+    <mergeCell ref="D355:D358"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D254:D325"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="450">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1606,6 +1606,50 @@
   </si>
   <si>
     <t>战斗力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mip站IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前小时的量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天的量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mip站Pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mip站uv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：百度统计后台抓取过来的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2171,7 +2215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2415,6 +2459,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2511,6 +2565,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2556,10 +2613,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -2567,6 +2620,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2586,7 +2707,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2875,11 +2996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M399"/>
+  <dimension ref="A1:M404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E392" sqref="E392:H392"/>
+      <selection pane="bottomLeft" activeCell="A394" sqref="A394:H396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2945,7 +3066,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="171" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2975,7 +3096,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="166"/>
+      <c r="D3" s="172"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3003,7 +3124,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="167"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3046,7 +3167,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="185" t="s">
+      <c r="D6" s="191" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3072,7 +3193,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="168"/>
+      <c r="D7" s="174"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3096,7 +3217,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="168"/>
+      <c r="D8" s="174"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3120,7 +3241,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="168"/>
+      <c r="D9" s="174"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3144,7 +3265,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="168"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3186,7 +3307,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="181" t="s">
+      <c r="D12" s="187" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3212,7 +3333,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="166"/>
+      <c r="D13" s="172"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3236,7 +3357,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="172"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3260,7 +3381,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="172"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3284,7 +3405,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3308,7 +3429,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3332,7 +3453,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="166"/>
+      <c r="D18" s="172"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3356,7 +3477,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="166"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3380,7 +3501,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="166"/>
+      <c r="D20" s="172"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3404,7 +3525,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="167"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3442,7 +3563,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="188" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3464,7 +3585,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="183"/>
+      <c r="D24" s="189"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3492,7 +3613,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="183"/>
+      <c r="D25" s="189"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3520,7 +3641,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="183"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3540,7 +3661,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="183"/>
+      <c r="D27" s="189"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3568,7 +3689,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="183"/>
+      <c r="D28" s="189"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3596,7 +3717,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="183"/>
+      <c r="D29" s="189"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3624,7 +3745,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="184"/>
+      <c r="D30" s="190"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3730,7 +3851,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="167" t="s">
+      <c r="D35" s="173" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3750,7 +3871,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="168"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3768,7 +3889,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="168"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3786,7 +3907,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="168"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3820,7 +3941,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="173" t="s">
+      <c r="D40" s="179" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3846,7 +3967,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="174"/>
+      <c r="D41" s="180"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -3870,7 +3991,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="174"/>
+      <c r="D42" s="180"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -3894,7 +4015,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="175"/>
+      <c r="D43" s="181"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -3932,7 +4053,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="169" t="s">
+      <c r="D45" s="175" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -3958,7 +4079,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="170"/>
+      <c r="D46" s="176"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3982,7 +4103,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="170"/>
+      <c r="D47" s="176"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4006,7 +4127,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="170"/>
+      <c r="D48" s="176"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4030,7 +4151,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="170"/>
+      <c r="D49" s="176"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4054,7 +4175,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="170"/>
+      <c r="D50" s="176"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4078,7 +4199,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="170"/>
+      <c r="D51" s="176"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4102,7 +4223,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="170"/>
+      <c r="D52" s="176"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4126,7 +4247,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="170"/>
+      <c r="D53" s="176"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4150,7 +4271,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="170"/>
+      <c r="D54" s="176"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4174,7 +4295,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="170"/>
+      <c r="D55" s="176"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4198,7 +4319,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="171"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4280,7 +4401,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="172" t="s">
+      <c r="D60" s="178" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4310,7 +4431,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="166"/>
+      <c r="D61" s="172"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4338,7 +4459,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="166"/>
+      <c r="D62" s="172"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4366,7 +4487,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="166"/>
+      <c r="D63" s="172"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4390,7 +4511,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="166"/>
+      <c r="D64" s="172"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4414,7 +4535,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="167"/>
+      <c r="D65" s="173"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4452,7 +4573,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="176" t="s">
+      <c r="D67" s="182" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4482,7 +4603,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="177"/>
+      <c r="D68" s="183"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4510,7 +4631,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="178"/>
+      <c r="D69" s="184"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4552,7 +4673,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="179" t="s">
+      <c r="D71" s="185" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4582,7 +4703,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="180"/>
+      <c r="D72" s="186"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4610,7 +4731,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="180"/>
+      <c r="D73" s="186"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4638,7 +4759,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="180"/>
+      <c r="D74" s="186"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4666,7 +4787,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="168"/>
+      <c r="D75" s="174"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4694,7 +4815,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="168"/>
+      <c r="D76" s="174"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4780,7 +4901,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="169" t="s">
+      <c r="D80" s="175" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4810,7 +4931,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="170"/>
+      <c r="D81" s="176"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4834,7 +4955,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="170"/>
+      <c r="D82" s="176"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4862,7 +4983,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="170"/>
+      <c r="D83" s="176"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -4886,7 +5007,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="170"/>
+      <c r="D84" s="176"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -4914,7 +5035,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="171"/>
+      <c r="D85" s="177"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -4996,7 +5117,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="186" t="s">
+      <c r="D89" s="192" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5026,7 +5147,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="187"/>
+      <c r="D90" s="193"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5054,7 +5175,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="187"/>
+      <c r="D91" s="193"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5082,7 +5203,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="187"/>
+      <c r="D92" s="193"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5110,7 +5231,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="187"/>
+      <c r="D93" s="193"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5138,7 +5259,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="188"/>
+      <c r="D94" s="194"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5180,7 +5301,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="190" t="s">
+      <c r="D96" s="196" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5206,7 +5327,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="191"/>
+      <c r="D97" s="197"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5230,7 +5351,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="191"/>
+      <c r="D98" s="197"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5254,7 +5375,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="191"/>
+      <c r="D99" s="197"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5278,7 +5399,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="191"/>
+      <c r="D100" s="197"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5302,7 +5423,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="191"/>
+      <c r="D101" s="197"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5326,7 +5447,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="191"/>
+      <c r="D102" s="197"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5350,7 +5471,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="192"/>
+      <c r="D103" s="198"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5377,7 +5498,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="195" t="s">
+      <c r="D105" s="201" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5403,7 +5524,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="195"/>
+      <c r="D106" s="201"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5427,7 +5548,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="195"/>
+      <c r="D107" s="201"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5451,7 +5572,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="195"/>
+      <c r="D108" s="201"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5473,7 +5594,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="195"/>
+      <c r="D109" s="201"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5499,7 +5620,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="203" t="s">
+      <c r="D111" s="210" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5525,7 +5646,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="166"/>
+      <c r="D112" s="172"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5549,7 +5670,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="166"/>
+      <c r="D113" s="172"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5573,7 +5694,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="166"/>
+      <c r="D114" s="172"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5597,7 +5718,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="166"/>
+      <c r="D115" s="172"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5621,7 +5742,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="167"/>
+      <c r="D116" s="173"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5651,7 +5772,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="189" t="s">
+      <c r="D119" s="195" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5677,7 +5798,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="189"/>
+      <c r="D120" s="195"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5701,7 +5822,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="189"/>
+      <c r="D121" s="195"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5725,7 +5846,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="189"/>
+      <c r="D122" s="195"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5749,7 +5870,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="189"/>
+      <c r="D123" s="195"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5773,7 +5894,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="189"/>
+      <c r="D124" s="195"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5797,7 +5918,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="189"/>
+      <c r="D125" s="195"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5821,7 +5942,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="189"/>
+      <c r="D126" s="195"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5845,7 +5966,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="189"/>
+      <c r="D127" s="195"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -5869,7 +5990,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="189"/>
+      <c r="D128" s="195"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -5893,7 +6014,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="189"/>
+      <c r="D129" s="195"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -5917,7 +6038,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="189"/>
+      <c r="D130" s="195"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -5941,7 +6062,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="189"/>
+      <c r="D131" s="195"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -5965,7 +6086,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="189"/>
+      <c r="D132" s="195"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -5989,7 +6110,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="189"/>
+      <c r="D133" s="195"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6013,7 +6134,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="189"/>
+      <c r="D134" s="195"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6121,7 +6242,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="196" t="s">
+      <c r="D140" s="202" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6147,7 +6268,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="196"/>
+      <c r="D141" s="202"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6171,7 +6292,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="196"/>
+      <c r="D142" s="202"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6195,7 +6316,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="196"/>
+      <c r="D143" s="202"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6219,7 +6340,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="196"/>
+      <c r="D144" s="202"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6243,7 +6364,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="196"/>
+      <c r="D145" s="202"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6267,7 +6388,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="196"/>
+      <c r="D146" s="202"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6291,7 +6412,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="196"/>
+      <c r="D147" s="202"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6315,7 +6436,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="196"/>
+      <c r="D148" s="202"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6339,7 +6460,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="196"/>
+      <c r="D149" s="202"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6363,7 +6484,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="196"/>
+      <c r="D150" s="202"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6387,7 +6508,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="196"/>
+      <c r="D151" s="202"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6411,7 +6532,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="196"/>
+      <c r="D152" s="202"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6435,7 +6556,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="196"/>
+      <c r="D153" s="202"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6459,7 +6580,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="196"/>
+      <c r="D154" s="202"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6483,7 +6604,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="196"/>
+      <c r="D155" s="202"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6507,7 +6628,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="196"/>
+      <c r="D156" s="202"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6531,7 +6652,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="196"/>
+      <c r="D157" s="202"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6555,7 +6676,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="196"/>
+      <c r="D158" s="202"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6579,7 +6700,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="196"/>
+      <c r="D159" s="202"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6603,7 +6724,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="196"/>
+      <c r="D160" s="202"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6627,7 +6748,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="196"/>
+      <c r="D161" s="202"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6651,7 +6772,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="196"/>
+      <c r="D162" s="202"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6675,7 +6796,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="196"/>
+      <c r="D163" s="202"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6699,7 +6820,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="196"/>
+      <c r="D164" s="202"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6723,7 +6844,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="196"/>
+      <c r="D165" s="202"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6747,7 +6868,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="196"/>
+      <c r="D166" s="202"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6771,7 +6892,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="196"/>
+      <c r="D167" s="202"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6795,7 +6916,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="196"/>
+      <c r="D168" s="202"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6819,7 +6940,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="196"/>
+      <c r="D169" s="202"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6843,7 +6964,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="196"/>
+      <c r="D170" s="202"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -6867,7 +6988,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="196"/>
+      <c r="D171" s="202"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -6891,7 +7012,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="196"/>
+      <c r="D172" s="202"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -6915,7 +7036,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="196"/>
+      <c r="D173" s="202"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -6939,7 +7060,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="196"/>
+      <c r="D174" s="202"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -6963,7 +7084,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="196"/>
+      <c r="D175" s="202"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -6987,7 +7108,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="196"/>
+      <c r="D176" s="202"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7011,7 +7132,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="196"/>
+      <c r="D177" s="202"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7035,7 +7156,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="196"/>
+      <c r="D178" s="202"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7059,7 +7180,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="196"/>
+      <c r="D179" s="202"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7083,7 +7204,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="196"/>
+      <c r="D180" s="202"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7107,7 +7228,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="196"/>
+      <c r="D181" s="202"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7131,7 +7252,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="196"/>
+      <c r="D182" s="202"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7155,7 +7276,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="196"/>
+      <c r="D183" s="202"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7179,7 +7300,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="196"/>
+      <c r="D184" s="202"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7203,7 +7324,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="196"/>
+      <c r="D185" s="202"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7227,7 +7348,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="196"/>
+      <c r="D186" s="202"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7251,7 +7372,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="196"/>
+      <c r="D187" s="202"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7275,7 +7396,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="196"/>
+      <c r="D188" s="202"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7299,7 +7420,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="196"/>
+      <c r="D189" s="202"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7323,7 +7444,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="196"/>
+      <c r="D190" s="202"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7347,7 +7468,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="196"/>
+      <c r="D191" s="202"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7371,7 +7492,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="196"/>
+      <c r="D192" s="202"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7395,7 +7516,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="196"/>
+      <c r="D193" s="202"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7419,7 +7540,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="196"/>
+      <c r="D194" s="202"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7443,7 +7564,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="196"/>
+      <c r="D195" s="202"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7467,7 +7588,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="196"/>
+      <c r="D196" s="202"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7491,7 +7612,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="196"/>
+      <c r="D197" s="202"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7515,7 +7636,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="196"/>
+      <c r="D198" s="202"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7539,7 +7660,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="196"/>
+      <c r="D199" s="202"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7563,7 +7684,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="196"/>
+      <c r="D200" s="202"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7587,7 +7708,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="196"/>
+      <c r="D201" s="202"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7611,7 +7732,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="196"/>
+      <c r="D202" s="202"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7635,7 +7756,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="196"/>
+      <c r="D203" s="202"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7659,7 +7780,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="196"/>
+      <c r="D204" s="202"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7683,7 +7804,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="196"/>
+      <c r="D205" s="202"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7707,7 +7828,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="196"/>
+      <c r="D206" s="202"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7731,7 +7852,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="196"/>
+      <c r="D207" s="202"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7755,7 +7876,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="196"/>
+      <c r="D208" s="202"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7779,7 +7900,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="196"/>
+      <c r="D209" s="202"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7803,7 +7924,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="196"/>
+      <c r="D210" s="202"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7827,7 +7948,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="196"/>
+      <c r="D211" s="202"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -7908,7 +8029,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="204" t="s">
+      <c r="D217" s="211" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -7933,7 +8054,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="166"/>
+      <c r="D218" s="172"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -7956,7 +8077,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="166"/>
+      <c r="D219" s="172"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -7979,7 +8100,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="167"/>
+      <c r="D220" s="173"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8002,7 +8123,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="209" t="s">
+      <c r="D222" s="216" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8028,7 +8149,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="209"/>
+      <c r="D223" s="216"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8056,7 +8177,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="209"/>
+      <c r="D224" s="216"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8084,7 +8205,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="209"/>
+      <c r="D225" s="216"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8108,7 +8229,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="209"/>
+      <c r="D226" s="216"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8136,7 +8257,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="209"/>
+      <c r="D227" s="216"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8164,7 +8285,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="208" t="s">
+      <c r="D229" s="215" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8198,7 +8319,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="208"/>
+      <c r="D230" s="215"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8230,7 +8351,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="208"/>
+      <c r="D231" s="215"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8262,7 +8383,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="208"/>
+      <c r="D232" s="215"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8294,7 +8415,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="208"/>
+      <c r="D233" s="215"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8326,7 +8447,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="208"/>
+      <c r="D234" s="215"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8358,7 +8479,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="208"/>
+      <c r="D235" s="215"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8390,7 +8511,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="208"/>
+      <c r="D236" s="215"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8422,7 +8543,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="208"/>
+      <c r="D237" s="215"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8454,7 +8575,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="208"/>
+      <c r="D238" s="215"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8486,7 +8607,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="208"/>
+      <c r="D239" s="215"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8518,7 +8639,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="208"/>
+      <c r="D240" s="215"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8550,7 +8671,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="208"/>
+      <c r="D241" s="215"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8582,7 +8703,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="208"/>
+      <c r="D242" s="215"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8614,7 +8735,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="208"/>
+      <c r="D243" s="215"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8646,7 +8767,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="208"/>
+      <c r="D244" s="215"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8678,7 +8799,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="208"/>
+      <c r="D245" s="215"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8714,7 +8835,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="211" t="s">
+      <c r="D247" s="218" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8740,7 +8861,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="211"/>
+      <c r="D248" s="218"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8764,7 +8885,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="211"/>
+      <c r="D249" s="218"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8788,7 +8909,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="181" t="s">
+      <c r="D251" s="187" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8814,7 +8935,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="167"/>
+      <c r="D252" s="173"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8838,7 +8959,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="196" t="s">
+      <c r="D254" s="202" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8860,7 +8981,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="196"/>
+      <c r="D255" s="202"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -8880,7 +9001,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="196"/>
+      <c r="D256" s="202"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -8900,7 +9021,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="196"/>
+      <c r="D257" s="202"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -8920,7 +9041,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="196"/>
+      <c r="D258" s="202"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -8940,7 +9061,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="196"/>
+      <c r="D259" s="202"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -8960,7 +9081,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="196"/>
+      <c r="D260" s="202"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -8980,7 +9101,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="196"/>
+      <c r="D261" s="202"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9000,7 +9121,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="196"/>
+      <c r="D262" s="202"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9020,7 +9141,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="196"/>
+      <c r="D263" s="202"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9040,7 +9161,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="196"/>
+      <c r="D264" s="202"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9060,7 +9181,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="196"/>
+      <c r="D265" s="202"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9080,7 +9201,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="196"/>
+      <c r="D266" s="202"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9100,7 +9221,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="196"/>
+      <c r="D267" s="202"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9120,7 +9241,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="196"/>
+      <c r="D268" s="202"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9140,7 +9261,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="196"/>
+      <c r="D269" s="202"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9160,7 +9281,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="196"/>
+      <c r="D270" s="202"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9180,7 +9301,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="196"/>
+      <c r="D271" s="202"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9200,7 +9321,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="196"/>
+      <c r="D272" s="202"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9220,7 +9341,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="196"/>
+      <c r="D273" s="202"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9240,7 +9361,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="196"/>
+      <c r="D274" s="202"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9260,7 +9381,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="196"/>
+      <c r="D275" s="202"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9280,7 +9401,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="196"/>
+      <c r="D276" s="202"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9300,7 +9421,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="196"/>
+      <c r="D277" s="202"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9320,7 +9441,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="196"/>
+      <c r="D278" s="202"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9340,7 +9461,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="196"/>
+      <c r="D279" s="202"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9360,7 +9481,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="196"/>
+      <c r="D280" s="202"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9380,7 +9501,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="196"/>
+      <c r="D281" s="202"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9400,7 +9521,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="196"/>
+      <c r="D282" s="202"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9420,7 +9541,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="196"/>
+      <c r="D283" s="202"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9440,7 +9561,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="196"/>
+      <c r="D284" s="202"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9460,7 +9581,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="196"/>
+      <c r="D285" s="202"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9480,7 +9601,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="196"/>
+      <c r="D286" s="202"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9500,7 +9621,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="196"/>
+      <c r="D287" s="202"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9520,7 +9641,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="196"/>
+      <c r="D288" s="202"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9540,7 +9661,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="196"/>
+      <c r="D289" s="202"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9560,7 +9681,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="196"/>
+      <c r="D290" s="202"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9580,7 +9701,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="196"/>
+      <c r="D291" s="202"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9600,7 +9721,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="196"/>
+      <c r="D292" s="202"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9620,7 +9741,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="196"/>
+      <c r="D293" s="202"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9640,7 +9761,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="196"/>
+      <c r="D294" s="202"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9660,7 +9781,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="196"/>
+      <c r="D295" s="202"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9680,7 +9801,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="196"/>
+      <c r="D296" s="202"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9700,7 +9821,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="196"/>
+      <c r="D297" s="202"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9720,7 +9841,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="196"/>
+      <c r="D298" s="202"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9740,7 +9861,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="196"/>
+      <c r="D299" s="202"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9760,7 +9881,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="196"/>
+      <c r="D300" s="202"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9780,7 +9901,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="196"/>
+      <c r="D301" s="202"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9800,7 +9921,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="196"/>
+      <c r="D302" s="202"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9820,7 +9941,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="196"/>
+      <c r="D303" s="202"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9840,7 +9961,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="196"/>
+      <c r="D304" s="202"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9860,7 +9981,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="196"/>
+      <c r="D305" s="202"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -9880,7 +10001,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="196"/>
+      <c r="D306" s="202"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -9900,7 +10021,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="196"/>
+      <c r="D307" s="202"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -9920,7 +10041,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="196"/>
+      <c r="D308" s="202"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -9940,7 +10061,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="196"/>
+      <c r="D309" s="202"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -9960,7 +10081,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="196"/>
+      <c r="D310" s="202"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -9980,7 +10101,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="196"/>
+      <c r="D311" s="202"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10000,7 +10121,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="196"/>
+      <c r="D312" s="202"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10020,7 +10141,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="196"/>
+      <c r="D313" s="202"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10040,7 +10161,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="196"/>
+      <c r="D314" s="202"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10060,7 +10181,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="196"/>
+      <c r="D315" s="202"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10080,7 +10201,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="196"/>
+      <c r="D316" s="202"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10100,7 +10221,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="196"/>
+      <c r="D317" s="202"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10120,7 +10241,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="196"/>
+      <c r="D318" s="202"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10140,7 +10261,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="196"/>
+      <c r="D319" s="202"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10160,7 +10281,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="196"/>
+      <c r="D320" s="202"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10180,7 +10301,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="196"/>
+      <c r="D321" s="202"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10200,7 +10321,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="196"/>
+      <c r="D322" s="202"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10220,7 +10341,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="196"/>
+      <c r="D323" s="202"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10240,7 +10361,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="196"/>
+      <c r="D324" s="202"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10260,7 +10381,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="196"/>
+      <c r="D325" s="202"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10280,7 +10401,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="205" t="s">
+      <c r="D328" s="212" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10307,7 +10428,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="206"/>
+      <c r="D329" s="213"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10332,7 +10453,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="206"/>
+      <c r="D330" s="213"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10357,7 +10478,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="206"/>
+      <c r="D331" s="213"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10382,7 +10503,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="206"/>
+      <c r="D332" s="213"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10407,7 +10528,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="206"/>
+      <c r="D333" s="213"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10432,7 +10553,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="206"/>
+      <c r="D334" s="213"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10457,7 +10578,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="206"/>
+      <c r="D335" s="213"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10482,7 +10603,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="167"/>
+      <c r="D336" s="173"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10506,7 +10627,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="202" t="s">
+      <c r="D338" s="209" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10526,7 +10647,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="202"/>
+      <c r="D339" s="209"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10544,7 +10665,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="202"/>
+      <c r="D340" s="209"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10562,7 +10683,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="202"/>
+      <c r="D341" s="209"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10588,7 +10709,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="210" t="s">
+      <c r="D343" s="217" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10610,7 +10731,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="210"/>
+      <c r="D344" s="217"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10625,7 +10746,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="199" t="s">
+      <c r="A346" s="206" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10634,7 +10755,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="205" t="s">
+      <c r="D346" s="212" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10649,14 +10770,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="200"/>
+      <c r="A347" s="207"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="206"/>
+      <c r="D347" s="213"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10669,14 +10790,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="200"/>
+      <c r="A348" s="207"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="206"/>
+      <c r="D348" s="213"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10689,14 +10810,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="200"/>
+      <c r="A349" s="207"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="206"/>
+      <c r="D349" s="213"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10709,14 +10830,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="200"/>
+      <c r="A350" s="207"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="206"/>
+      <c r="D350" s="213"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10729,14 +10850,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="200"/>
+      <c r="A351" s="207"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="206"/>
+      <c r="D351" s="213"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10749,14 +10870,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="200"/>
+      <c r="A352" s="207"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="206"/>
+      <c r="D352" s="213"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -10769,14 +10890,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="201"/>
+      <c r="A353" s="208"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="207"/>
+      <c r="D353" s="214"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -10798,7 +10919,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="194" t="s">
+      <c r="D355" s="200" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10818,7 +10939,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="194"/>
+      <c r="D356" s="200"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10836,7 +10957,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="194"/>
+      <c r="D357" s="200"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10854,7 +10975,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="194"/>
+      <c r="D358" s="200"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -10932,7 +11053,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="193" t="s">
+      <c r="D362" s="199" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -10958,7 +11079,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="193"/>
+      <c r="D363" s="199"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11523,7 +11644,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="197" t="s">
+      <c r="D387" s="204" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11557,7 +11678,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="198"/>
+      <c r="D388" s="205"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11589,7 +11710,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="198"/>
+      <c r="D389" s="205"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -11617,7 +11738,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="198"/>
+      <c r="D390" s="205"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -11645,7 +11766,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="213" t="s">
+      <c r="D391" s="203" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -11669,13 +11790,13 @@
       <c r="A392" s="161" t="s">
         <v>435</v>
       </c>
-      <c r="B392" s="212">
+      <c r="B392" s="165">
         <v>337</v>
       </c>
-      <c r="C392" s="212" t="s">
+      <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="213"/>
+      <c r="D392" s="203"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -11689,49 +11810,156 @@
         <v>75</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+    <row r="393" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="161"/>
+      <c r="B393" s="165"/>
+      <c r="C393" s="165"/>
+      <c r="D393" s="166"/>
+      <c r="E393" s="167"/>
+      <c r="F393" s="167"/>
+      <c r="G393" s="167"/>
+      <c r="H393" s="168"/>
+    </row>
+    <row r="394" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="155" t="s">
+        <v>439</v>
+      </c>
+      <c r="B394" s="163">
+        <v>338</v>
+      </c>
+      <c r="C394" s="163" t="s">
+        <v>440</v>
+      </c>
+      <c r="D394" s="169" t="s">
+        <v>441</v>
+      </c>
+      <c r="E394" s="145" t="s">
+        <v>442</v>
+      </c>
+      <c r="F394" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G394" s="145" t="s">
+        <v>444</v>
+      </c>
+      <c r="H394" s="142" t="s">
+        <v>445</v>
+      </c>
+      <c r="I394" s="170" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="155" t="s">
+        <v>439</v>
+      </c>
+      <c r="B395" s="163">
+        <v>339</v>
+      </c>
+      <c r="C395" s="163" t="s">
+        <v>446</v>
+      </c>
+      <c r="D395" s="169" t="s">
+        <v>447</v>
+      </c>
+      <c r="E395" s="145" t="s">
+        <v>442</v>
+      </c>
+      <c r="F395" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G395" s="145" t="s">
+        <v>444</v>
+      </c>
+      <c r="H395" s="142" t="s">
+        <v>445</v>
+      </c>
+      <c r="I395" s="170" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="155" t="s">
+        <v>439</v>
+      </c>
+      <c r="B396" s="163">
+        <v>340</v>
+      </c>
+      <c r="C396" s="163" t="s">
+        <v>448</v>
+      </c>
+      <c r="D396" s="169" t="s">
+        <v>441</v>
+      </c>
+      <c r="E396" s="145" t="s">
+        <v>442</v>
+      </c>
+      <c r="F396" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G396" s="145" t="s">
+        <v>444</v>
+      </c>
+      <c r="H396" s="142" t="s">
+        <v>445</v>
+      </c>
+      <c r="I396" s="170" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="161"/>
+      <c r="B397" s="165"/>
+      <c r="C397" s="165"/>
+      <c r="D397" s="166"/>
+      <c r="E397" s="167"/>
+      <c r="F397" s="167"/>
+      <c r="G397" s="167"/>
+      <c r="H397" s="168"/>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
         <v>391</v>
       </c>
-      <c r="D393"/>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A394"/>
-      <c r="D394"/>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A395" s="58" t="s">
+      <c r="D398"/>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A399"/>
+      <c r="D399"/>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A400" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="B395" s="149">
+      <c r="B400" s="149">
         <v>316</v>
       </c>
-      <c r="C395" s="150" t="s">
+      <c r="C400" s="150" t="s">
         <v>397</v>
       </c>
-      <c r="D395" s="151" t="s">
+      <c r="D400" s="151" t="s">
         <v>398</v>
       </c>
-      <c r="E395" t="s">
+      <c r="E400" t="s">
         <v>401</v>
       </c>
-      <c r="F395" t="s">
+      <c r="F400" t="s">
         <v>386</v>
       </c>
-      <c r="G395" t="str">
-        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B395&amp;",'"&amp;C395&amp;"','"&amp;D395&amp;"','"&amp;E395&amp;"','"&amp;F395&amp;"','0','"&amp;A395&amp;"');")</f>
+      <c r="G400" t="str">
+        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B400&amp;",'"&amp;C400&amp;"','"&amp;D400&amp;"','"&amp;E400&amp;"','"&amp;F400&amp;"','0','"&amp;A400&amp;"');")</f>
         <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,316,'P4PCPC','P4P','d','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A396"/>
-      <c r="D396"/>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A397"/>
-      <c r="D397"/>
-    </row>
-    <row r="399" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401"/>
+      <c r="D401"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402"/>
+      <c r="D402"/>
+    </row>
+    <row r="404" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <mergeCells count="32">

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="451">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1650,6 +1650,10 @@
   </si>
   <si>
     <t>说明：百度统计后台抓取过来的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,13 +2473,97 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2517,9 +2605,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2530,87 +2615,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2999,8 +3003,8 @@
   <dimension ref="A1:M404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A394" sqref="A394:H396"/>
+      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D396" sqref="D396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3066,7 +3070,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="201" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3096,7 +3100,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="172"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3124,7 +3128,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="173"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3167,7 +3171,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="218" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3193,7 +3197,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="174"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3217,7 +3221,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="174"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3241,7 +3245,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="174"/>
+      <c r="D9" s="202"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3265,7 +3269,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="174"/>
+      <c r="D10" s="202"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3307,7 +3311,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="190" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3333,7 +3337,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="172"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3357,7 +3361,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="172"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3381,7 +3385,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="172"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3405,7 +3409,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3429,7 +3433,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="172"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3453,7 +3457,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="172"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3477,7 +3481,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="172"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3501,7 +3505,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="172"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3525,7 +3529,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="173"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3563,7 +3567,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="188" t="s">
+      <c r="D23" s="215" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3585,7 +3589,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="189"/>
+      <c r="D24" s="216"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3613,7 +3617,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="189"/>
+      <c r="D25" s="216"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3641,7 +3645,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="189"/>
+      <c r="D26" s="216"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3661,7 +3665,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="189"/>
+      <c r="D27" s="216"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3689,7 +3693,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="189"/>
+      <c r="D28" s="216"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3717,7 +3721,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="189"/>
+      <c r="D29" s="216"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3745,7 +3749,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="190"/>
+      <c r="D30" s="217"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3851,7 +3855,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="173" t="s">
+      <c r="D35" s="180" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3871,7 +3875,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="174"/>
+      <c r="D36" s="202"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3889,7 +3893,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="174"/>
+      <c r="D37" s="202"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3907,7 +3911,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="174"/>
+      <c r="D38" s="202"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3941,7 +3945,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="179" t="s">
+      <c r="D40" s="207" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3967,7 +3971,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="180"/>
+      <c r="D41" s="208"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -3991,7 +3995,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="180"/>
+      <c r="D42" s="208"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4015,7 +4019,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="181"/>
+      <c r="D43" s="209"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4053,7 +4057,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="203" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4079,7 +4083,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="176"/>
+      <c r="D46" s="204"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4103,7 +4107,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="176"/>
+      <c r="D47" s="204"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4127,7 +4131,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="176"/>
+      <c r="D48" s="204"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4151,7 +4155,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="176"/>
+      <c r="D49" s="204"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4175,7 +4179,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="176"/>
+      <c r="D50" s="204"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4199,7 +4203,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="176"/>
+      <c r="D51" s="204"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4223,7 +4227,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="176"/>
+      <c r="D52" s="204"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4247,7 +4251,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="176"/>
+      <c r="D53" s="204"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4271,7 +4275,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="176"/>
+      <c r="D54" s="204"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4295,7 +4299,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="176"/>
+      <c r="D55" s="204"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4319,7 +4323,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="177"/>
+      <c r="D56" s="205"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4401,7 +4405,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="178" t="s">
+      <c r="D60" s="206" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4431,7 +4435,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="172"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4459,7 +4463,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="172"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4487,7 +4491,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="172"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4511,7 +4515,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="172"/>
+      <c r="D64" s="179"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4535,7 +4539,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="173"/>
+      <c r="D65" s="180"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4573,7 +4577,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="182" t="s">
+      <c r="D67" s="210" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4603,7 +4607,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="183"/>
+      <c r="D68" s="211"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4631,7 +4635,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="184"/>
+      <c r="D69" s="212"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4673,7 +4677,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="185" t="s">
+      <c r="D71" s="213" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4703,7 +4707,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="186"/>
+      <c r="D72" s="214"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4731,7 +4735,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="186"/>
+      <c r="D73" s="214"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4759,7 +4763,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="186"/>
+      <c r="D74" s="214"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4787,7 +4791,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="174"/>
+      <c r="D75" s="202"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4815,7 +4819,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="174"/>
+      <c r="D76" s="202"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4901,7 +4905,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="175" t="s">
+      <c r="D80" s="203" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4931,7 +4935,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="176"/>
+      <c r="D81" s="204"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4955,7 +4959,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="176"/>
+      <c r="D82" s="204"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4983,7 +4987,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="176"/>
+      <c r="D83" s="204"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5007,7 +5011,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="176"/>
+      <c r="D84" s="204"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5035,7 +5039,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="177"/>
+      <c r="D85" s="205"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5117,7 +5121,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="192" t="s">
+      <c r="D89" s="191" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5147,7 +5151,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="193"/>
+      <c r="D90" s="192"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5175,7 +5179,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="193"/>
+      <c r="D91" s="192"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5203,7 +5207,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="193"/>
+      <c r="D92" s="192"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5231,7 +5235,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="193"/>
+      <c r="D93" s="192"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5259,7 +5263,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="194"/>
+      <c r="D94" s="193"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5301,7 +5305,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="196" t="s">
+      <c r="D96" s="195" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5327,7 +5331,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="197"/>
+      <c r="D97" s="196"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5351,7 +5355,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="197"/>
+      <c r="D98" s="196"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5375,7 +5379,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="197"/>
+      <c r="D99" s="196"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5399,7 +5403,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="197"/>
+      <c r="D100" s="196"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5423,7 +5427,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="197"/>
+      <c r="D101" s="196"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5447,7 +5451,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="197"/>
+      <c r="D102" s="196"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5471,7 +5475,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="198"/>
+      <c r="D103" s="197"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5498,7 +5502,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="201" t="s">
+      <c r="D105" s="200" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5524,7 +5528,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="201"/>
+      <c r="D106" s="200"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5548,7 +5552,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="201"/>
+      <c r="D107" s="200"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5572,7 +5576,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="201"/>
+      <c r="D108" s="200"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5594,7 +5598,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="201"/>
+      <c r="D109" s="200"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5620,7 +5624,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="210" t="s">
+      <c r="D111" s="178" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5646,7 +5650,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="172"/>
+      <c r="D112" s="179"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5670,7 +5674,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="172"/>
+      <c r="D113" s="179"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5694,7 +5698,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="172"/>
+      <c r="D114" s="179"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5718,7 +5722,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="172"/>
+      <c r="D115" s="179"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5742,7 +5746,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="173"/>
+      <c r="D116" s="180"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5772,7 +5776,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="195" t="s">
+      <c r="D119" s="194" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5798,7 +5802,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="195"/>
+      <c r="D120" s="194"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5822,7 +5826,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="195"/>
+      <c r="D121" s="194"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5846,7 +5850,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="195"/>
+      <c r="D122" s="194"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5870,7 +5874,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="195"/>
+      <c r="D123" s="194"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5894,7 +5898,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="195"/>
+      <c r="D124" s="194"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5918,7 +5922,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="195"/>
+      <c r="D125" s="194"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5942,7 +5946,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="195"/>
+      <c r="D126" s="194"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5966,7 +5970,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="195"/>
+      <c r="D127" s="194"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -5990,7 +5994,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="195"/>
+      <c r="D128" s="194"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6014,7 +6018,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="195"/>
+      <c r="D129" s="194"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6038,7 +6042,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="195"/>
+      <c r="D130" s="194"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6062,7 +6066,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="195"/>
+      <c r="D131" s="194"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6086,7 +6090,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="195"/>
+      <c r="D132" s="194"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6110,7 +6114,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="195"/>
+      <c r="D133" s="194"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6134,7 +6138,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="195"/>
+      <c r="D134" s="194"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6242,7 +6246,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="202" t="s">
+      <c r="D140" s="182" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6268,7 +6272,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="202"/>
+      <c r="D141" s="182"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6292,7 +6296,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="202"/>
+      <c r="D142" s="182"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6316,7 +6320,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="202"/>
+      <c r="D143" s="182"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6340,7 +6344,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="202"/>
+      <c r="D144" s="182"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6364,7 +6368,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="202"/>
+      <c r="D145" s="182"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6388,7 +6392,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="202"/>
+      <c r="D146" s="182"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6412,7 +6416,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="202"/>
+      <c r="D147" s="182"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6436,7 +6440,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="202"/>
+      <c r="D148" s="182"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6460,7 +6464,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="202"/>
+      <c r="D149" s="182"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6484,7 +6488,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="202"/>
+      <c r="D150" s="182"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6508,7 +6512,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="202"/>
+      <c r="D151" s="182"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6532,7 +6536,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="202"/>
+      <c r="D152" s="182"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6556,7 +6560,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="202"/>
+      <c r="D153" s="182"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6580,7 +6584,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="202"/>
+      <c r="D154" s="182"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6604,7 +6608,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="202"/>
+      <c r="D155" s="182"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6628,7 +6632,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="202"/>
+      <c r="D156" s="182"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6652,7 +6656,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="202"/>
+      <c r="D157" s="182"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6676,7 +6680,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="202"/>
+      <c r="D158" s="182"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6700,7 +6704,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="202"/>
+      <c r="D159" s="182"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6724,7 +6728,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="202"/>
+      <c r="D160" s="182"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6748,7 +6752,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="202"/>
+      <c r="D161" s="182"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6772,7 +6776,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="202"/>
+      <c r="D162" s="182"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6796,7 +6800,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="202"/>
+      <c r="D163" s="182"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6820,7 +6824,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="202"/>
+      <c r="D164" s="182"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6844,7 +6848,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="202"/>
+      <c r="D165" s="182"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6868,7 +6872,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="202"/>
+      <c r="D166" s="182"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6892,7 +6896,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="202"/>
+      <c r="D167" s="182"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6916,7 +6920,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="202"/>
+      <c r="D168" s="182"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6940,7 +6944,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="202"/>
+      <c r="D169" s="182"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6964,7 +6968,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="202"/>
+      <c r="D170" s="182"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -6988,7 +6992,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="202"/>
+      <c r="D171" s="182"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7012,7 +7016,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="202"/>
+      <c r="D172" s="182"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7036,7 +7040,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="202"/>
+      <c r="D173" s="182"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7060,7 +7064,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="202"/>
+      <c r="D174" s="182"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7084,7 +7088,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="202"/>
+      <c r="D175" s="182"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7108,7 +7112,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="202"/>
+      <c r="D176" s="182"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7132,7 +7136,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="202"/>
+      <c r="D177" s="182"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7156,7 +7160,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="202"/>
+      <c r="D178" s="182"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7180,7 +7184,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="202"/>
+      <c r="D179" s="182"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7204,7 +7208,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="202"/>
+      <c r="D180" s="182"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7228,7 +7232,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="202"/>
+      <c r="D181" s="182"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7252,7 +7256,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="202"/>
+      <c r="D182" s="182"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7276,7 +7280,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="202"/>
+      <c r="D183" s="182"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7300,7 +7304,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="202"/>
+      <c r="D184" s="182"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7324,7 +7328,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="202"/>
+      <c r="D185" s="182"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7348,7 +7352,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="202"/>
+      <c r="D186" s="182"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7372,7 +7376,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="202"/>
+      <c r="D187" s="182"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7396,7 +7400,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="202"/>
+      <c r="D188" s="182"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7420,7 +7424,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="202"/>
+      <c r="D189" s="182"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7444,7 +7448,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="202"/>
+      <c r="D190" s="182"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7468,7 +7472,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="202"/>
+      <c r="D191" s="182"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7492,7 +7496,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="202"/>
+      <c r="D192" s="182"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7516,7 +7520,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="202"/>
+      <c r="D193" s="182"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7540,7 +7544,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="202"/>
+      <c r="D194" s="182"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7564,7 +7568,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="202"/>
+      <c r="D195" s="182"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7588,7 +7592,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="202"/>
+      <c r="D196" s="182"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7612,7 +7616,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="202"/>
+      <c r="D197" s="182"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7636,7 +7640,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="202"/>
+      <c r="D198" s="182"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7660,7 +7664,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="202"/>
+      <c r="D199" s="182"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7684,7 +7688,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="202"/>
+      <c r="D200" s="182"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7708,7 +7712,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="202"/>
+      <c r="D201" s="182"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7732,7 +7736,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="202"/>
+      <c r="D202" s="182"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7756,7 +7760,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="202"/>
+      <c r="D203" s="182"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7780,7 +7784,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="202"/>
+      <c r="D204" s="182"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7804,7 +7808,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="202"/>
+      <c r="D205" s="182"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7828,7 +7832,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="202"/>
+      <c r="D206" s="182"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7852,7 +7856,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="202"/>
+      <c r="D207" s="182"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7876,7 +7880,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="202"/>
+      <c r="D208" s="182"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7900,7 +7904,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="202"/>
+      <c r="D209" s="182"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7924,7 +7928,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="202"/>
+      <c r="D210" s="182"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7948,7 +7952,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="202"/>
+      <c r="D211" s="182"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8029,7 +8033,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="211" t="s">
+      <c r="D217" s="181" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8054,7 +8058,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="172"/>
+      <c r="D218" s="179"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8077,7 +8081,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="172"/>
+      <c r="D219" s="179"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8100,7 +8104,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="173"/>
+      <c r="D220" s="180"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8123,7 +8127,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="216" t="s">
+      <c r="D222" s="187" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8149,7 +8153,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="216"/>
+      <c r="D223" s="187"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8177,7 +8181,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="216"/>
+      <c r="D224" s="187"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8205,7 +8209,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="216"/>
+      <c r="D225" s="187"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8229,7 +8233,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="216"/>
+      <c r="D226" s="187"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8257,7 +8261,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="216"/>
+      <c r="D227" s="187"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8285,7 +8289,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="215" t="s">
+      <c r="D229" s="186" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8319,7 +8323,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="215"/>
+      <c r="D230" s="186"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8351,7 +8355,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="215"/>
+      <c r="D231" s="186"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8383,7 +8387,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="215"/>
+      <c r="D232" s="186"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8415,7 +8419,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="215"/>
+      <c r="D233" s="186"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8447,7 +8451,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="215"/>
+      <c r="D234" s="186"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8479,7 +8483,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="215"/>
+      <c r="D235" s="186"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8511,7 +8515,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="215"/>
+      <c r="D236" s="186"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8543,7 +8547,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="215"/>
+      <c r="D237" s="186"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8575,7 +8579,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="215"/>
+      <c r="D238" s="186"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8607,7 +8611,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="215"/>
+      <c r="D239" s="186"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8639,7 +8643,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="215"/>
+      <c r="D240" s="186"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8671,7 +8675,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="215"/>
+      <c r="D241" s="186"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8703,7 +8707,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="215"/>
+      <c r="D242" s="186"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8735,7 +8739,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="215"/>
+      <c r="D243" s="186"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8767,7 +8771,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="215"/>
+      <c r="D244" s="186"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8799,7 +8803,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="215"/>
+      <c r="D245" s="186"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8835,7 +8839,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="218" t="s">
+      <c r="D247" s="189" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8861,7 +8865,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="218"/>
+      <c r="D248" s="189"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8885,7 +8889,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="218"/>
+      <c r="D249" s="189"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8909,7 +8913,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="187" t="s">
+      <c r="D251" s="190" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8935,7 +8939,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="173"/>
+      <c r="D252" s="180"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8959,7 +8963,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="202" t="s">
+      <c r="D254" s="182" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8981,7 +8985,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="202"/>
+      <c r="D255" s="182"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9001,7 +9005,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="202"/>
+      <c r="D256" s="182"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9021,7 +9025,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="202"/>
+      <c r="D257" s="182"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9041,7 +9045,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="202"/>
+      <c r="D258" s="182"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9061,7 +9065,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="202"/>
+      <c r="D259" s="182"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9081,7 +9085,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="202"/>
+      <c r="D260" s="182"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9101,7 +9105,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="202"/>
+      <c r="D261" s="182"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9121,7 +9125,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="202"/>
+      <c r="D262" s="182"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9141,7 +9145,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="202"/>
+      <c r="D263" s="182"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9161,7 +9165,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="202"/>
+      <c r="D264" s="182"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9181,7 +9185,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="202"/>
+      <c r="D265" s="182"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9201,7 +9205,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="202"/>
+      <c r="D266" s="182"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9221,7 +9225,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="202"/>
+      <c r="D267" s="182"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9241,7 +9245,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="202"/>
+      <c r="D268" s="182"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9261,7 +9265,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="202"/>
+      <c r="D269" s="182"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9281,7 +9285,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="202"/>
+      <c r="D270" s="182"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9301,7 +9305,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="202"/>
+      <c r="D271" s="182"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9321,7 +9325,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="202"/>
+      <c r="D272" s="182"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9341,7 +9345,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="202"/>
+      <c r="D273" s="182"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9361,7 +9365,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="202"/>
+      <c r="D274" s="182"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9381,7 +9385,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="202"/>
+      <c r="D275" s="182"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9401,7 +9405,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="202"/>
+      <c r="D276" s="182"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9421,7 +9425,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="202"/>
+      <c r="D277" s="182"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9441,7 +9445,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="202"/>
+      <c r="D278" s="182"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9461,7 +9465,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="202"/>
+      <c r="D279" s="182"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9481,7 +9485,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="202"/>
+      <c r="D280" s="182"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9501,7 +9505,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="202"/>
+      <c r="D281" s="182"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9521,7 +9525,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="202"/>
+      <c r="D282" s="182"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9541,7 +9545,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="202"/>
+      <c r="D283" s="182"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9561,7 +9565,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="202"/>
+      <c r="D284" s="182"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9581,7 +9585,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="202"/>
+      <c r="D285" s="182"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9601,7 +9605,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="202"/>
+      <c r="D286" s="182"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9621,7 +9625,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="202"/>
+      <c r="D287" s="182"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9641,7 +9645,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="202"/>
+      <c r="D288" s="182"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9661,7 +9665,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="202"/>
+      <c r="D289" s="182"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9681,7 +9685,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="202"/>
+      <c r="D290" s="182"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9701,7 +9705,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="202"/>
+      <c r="D291" s="182"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9721,7 +9725,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="202"/>
+      <c r="D292" s="182"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9741,7 +9745,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="202"/>
+      <c r="D293" s="182"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9761,7 +9765,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="202"/>
+      <c r="D294" s="182"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9781,7 +9785,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="202"/>
+      <c r="D295" s="182"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9801,7 +9805,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="202"/>
+      <c r="D296" s="182"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9821,7 +9825,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="202"/>
+      <c r="D297" s="182"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9841,7 +9845,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="202"/>
+      <c r="D298" s="182"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9861,7 +9865,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="202"/>
+      <c r="D299" s="182"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9881,7 +9885,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="202"/>
+      <c r="D300" s="182"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9901,7 +9905,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="202"/>
+      <c r="D301" s="182"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9921,7 +9925,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="202"/>
+      <c r="D302" s="182"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9941,7 +9945,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="202"/>
+      <c r="D303" s="182"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9961,7 +9965,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="202"/>
+      <c r="D304" s="182"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9981,7 +9985,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="202"/>
+      <c r="D305" s="182"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10001,7 +10005,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="202"/>
+      <c r="D306" s="182"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10021,7 +10025,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="202"/>
+      <c r="D307" s="182"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10041,7 +10045,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="202"/>
+      <c r="D308" s="182"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10061,7 +10065,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="202"/>
+      <c r="D309" s="182"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10081,7 +10085,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="202"/>
+      <c r="D310" s="182"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10101,7 +10105,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="202"/>
+      <c r="D311" s="182"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10121,7 +10125,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="202"/>
+      <c r="D312" s="182"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10141,7 +10145,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="202"/>
+      <c r="D313" s="182"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10161,7 +10165,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="202"/>
+      <c r="D314" s="182"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10181,7 +10185,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="202"/>
+      <c r="D315" s="182"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10201,7 +10205,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="202"/>
+      <c r="D316" s="182"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10221,7 +10225,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="202"/>
+      <c r="D317" s="182"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10241,7 +10245,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="202"/>
+      <c r="D318" s="182"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10261,7 +10265,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="202"/>
+      <c r="D319" s="182"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10281,7 +10285,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="202"/>
+      <c r="D320" s="182"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10301,7 +10305,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="202"/>
+      <c r="D321" s="182"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10321,7 +10325,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="202"/>
+      <c r="D322" s="182"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10341,7 +10345,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="202"/>
+      <c r="D323" s="182"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10361,7 +10365,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="202"/>
+      <c r="D324" s="182"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10381,7 +10385,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="202"/>
+      <c r="D325" s="182"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10401,7 +10405,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="212" t="s">
+      <c r="D328" s="183" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10428,7 +10432,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="213"/>
+      <c r="D329" s="184"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10453,7 +10457,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="213"/>
+      <c r="D330" s="184"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10478,7 +10482,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="213"/>
+      <c r="D331" s="184"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10503,7 +10507,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="213"/>
+      <c r="D332" s="184"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10528,7 +10532,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="213"/>
+      <c r="D333" s="184"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10553,7 +10557,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="213"/>
+      <c r="D334" s="184"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10578,7 +10582,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="213"/>
+      <c r="D335" s="184"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10603,7 +10607,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="173"/>
+      <c r="D336" s="180"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10627,7 +10631,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="209" t="s">
+      <c r="D338" s="177" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10647,7 +10651,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="209"/>
+      <c r="D339" s="177"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10665,7 +10669,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="209"/>
+      <c r="D340" s="177"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10683,7 +10687,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="209"/>
+      <c r="D341" s="177"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10709,7 +10713,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="217" t="s">
+      <c r="D343" s="188" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10731,7 +10735,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="217"/>
+      <c r="D344" s="188"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10746,7 +10750,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="206" t="s">
+      <c r="A346" s="174" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10755,7 +10759,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="212" t="s">
+      <c r="D346" s="183" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10770,14 +10774,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="207"/>
+      <c r="A347" s="175"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="213"/>
+      <c r="D347" s="184"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10790,14 +10794,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="207"/>
+      <c r="A348" s="175"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="213"/>
+      <c r="D348" s="184"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10810,14 +10814,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="207"/>
+      <c r="A349" s="175"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="213"/>
+      <c r="D349" s="184"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10830,14 +10834,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="207"/>
+      <c r="A350" s="175"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="213"/>
+      <c r="D350" s="184"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10850,14 +10854,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="207"/>
+      <c r="A351" s="175"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="213"/>
+      <c r="D351" s="184"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10870,14 +10874,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="207"/>
+      <c r="A352" s="175"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="213"/>
+      <c r="D352" s="184"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -10890,14 +10894,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="208"/>
+      <c r="A353" s="176"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="214"/>
+      <c r="D353" s="185"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -10919,7 +10923,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="200" t="s">
+      <c r="D355" s="199" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10939,7 +10943,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="200"/>
+      <c r="D356" s="199"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10957,7 +10961,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="200"/>
+      <c r="D357" s="199"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10975,7 +10979,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="200"/>
+      <c r="D358" s="199"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11053,7 +11057,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="199" t="s">
+      <c r="D362" s="198" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11079,7 +11083,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="199"/>
+      <c r="D363" s="198"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11644,7 +11648,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="204" t="s">
+      <c r="D387" s="172" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11678,7 +11682,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="205"/>
+      <c r="D388" s="173"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11710,7 +11714,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="205"/>
+      <c r="D389" s="173"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -11738,7 +11742,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="205"/>
+      <c r="D390" s="173"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -11766,7 +11770,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="203" t="s">
+      <c r="D391" s="171" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -11796,7 +11800,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="203"/>
+      <c r="D392" s="171"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -11889,7 +11893,7 @@
         <v>448</v>
       </c>
       <c r="D396" s="169" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E396" s="145" t="s">
         <v>442</v>
@@ -11963,6 +11967,24 @@
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <mergeCells count="32">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="D119:D134"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="D362:D363"/>
+    <mergeCell ref="D355:D358"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D254:D325"/>
     <mergeCell ref="D391:D392"/>
     <mergeCell ref="D387:D390"/>
     <mergeCell ref="A346:A353"/>
@@ -11977,24 +11999,6 @@
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
     <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="D119:D134"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="D362:D363"/>
-    <mergeCell ref="D355:D358"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D254:D325"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_TYPE" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA_TYPE!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="464">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1656,12 +1656,64 @@
     <t>uv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>郭晔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售业绩预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电销新签预算值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电销增值预算值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售整体预估值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售整体预算值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售整体实际值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当周累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务提供，一年一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="50" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2042,6 +2094,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2219,7 +2286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2476,94 +2543,13 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2605,6 +2591,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2617,6 +2606,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -2624,74 +2702,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2711,7 +2721,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3000,11 +3010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M404"/>
+  <dimension ref="A1:M410"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D396" sqref="D396"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F394" sqref="F394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3070,7 +3080,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="172" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3100,7 +3110,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="179"/>
+      <c r="D3" s="173"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3128,7 +3138,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3171,7 +3181,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="192" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3197,7 +3207,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="202"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3221,7 +3231,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="202"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3245,7 +3255,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="202"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3269,7 +3279,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="202"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3311,7 +3321,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="190" t="s">
+      <c r="D12" s="188" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3337,7 +3347,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3361,7 +3371,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="179"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3385,7 +3395,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="179"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3409,7 +3419,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3433,7 +3443,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3457,7 +3467,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="179"/>
+      <c r="D18" s="173"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3481,7 +3491,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="179"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3505,7 +3515,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="179"/>
+      <c r="D20" s="173"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3529,7 +3539,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="180"/>
+      <c r="D21" s="174"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3567,7 +3577,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="215" t="s">
+      <c r="D23" s="189" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3589,7 +3599,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="216"/>
+      <c r="D24" s="190"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3617,7 +3627,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="216"/>
+      <c r="D25" s="190"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3645,7 +3655,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="216"/>
+      <c r="D26" s="190"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3665,7 +3675,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="216"/>
+      <c r="D27" s="190"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3693,7 +3703,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="216"/>
+      <c r="D28" s="190"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3721,7 +3731,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="216"/>
+      <c r="D29" s="190"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3749,7 +3759,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="217"/>
+      <c r="D30" s="191"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3855,7 +3865,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="174" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3875,7 +3885,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="202"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3893,7 +3903,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="202"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3911,7 +3921,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="202"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3945,7 +3955,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="207" t="s">
+      <c r="D40" s="180" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3971,7 +3981,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="208"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -3995,7 +4005,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="208"/>
+      <c r="D42" s="181"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4019,7 +4029,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="209"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4057,7 +4067,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="203" t="s">
+      <c r="D45" s="176" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4083,7 +4093,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="204"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4107,7 +4117,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="204"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4131,7 +4141,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="204"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4155,7 +4165,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="204"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4179,7 +4189,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="204"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4203,7 +4213,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="204"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4227,7 +4237,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="204"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4251,7 +4261,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="204"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4275,7 +4285,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="204"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4299,7 +4309,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="204"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4323,7 +4333,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="205"/>
+      <c r="D56" s="178"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4405,7 +4415,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="206" t="s">
+      <c r="D60" s="179" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4435,7 +4445,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="179"/>
+      <c r="D61" s="173"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4463,7 +4473,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="179"/>
+      <c r="D62" s="173"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4491,7 +4501,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="179"/>
+      <c r="D63" s="173"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4515,7 +4525,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="179"/>
+      <c r="D64" s="173"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4539,7 +4549,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="180"/>
+      <c r="D65" s="174"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4577,7 +4587,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="210" t="s">
+      <c r="D67" s="183" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4607,7 +4617,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="211"/>
+      <c r="D68" s="184"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4635,7 +4645,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="212"/>
+      <c r="D69" s="185"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4677,7 +4687,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="213" t="s">
+      <c r="D71" s="186" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4707,7 +4717,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="214"/>
+      <c r="D72" s="187"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4735,7 +4745,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="214"/>
+      <c r="D73" s="187"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4763,7 +4773,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="214"/>
+      <c r="D74" s="187"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4791,7 +4801,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="202"/>
+      <c r="D75" s="175"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4819,7 +4829,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="202"/>
+      <c r="D76" s="175"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4905,7 +4915,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="203" t="s">
+      <c r="D80" s="176" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4935,7 +4945,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="204"/>
+      <c r="D81" s="177"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4959,7 +4969,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="204"/>
+      <c r="D82" s="177"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4987,7 +4997,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="204"/>
+      <c r="D83" s="177"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5011,7 +5021,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="204"/>
+      <c r="D84" s="177"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5039,7 +5049,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="205"/>
+      <c r="D85" s="178"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5121,7 +5131,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="191" t="s">
+      <c r="D89" s="193" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5151,7 +5161,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="192"/>
+      <c r="D90" s="194"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5179,7 +5189,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="192"/>
+      <c r="D91" s="194"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5207,7 +5217,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="192"/>
+      <c r="D92" s="194"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5235,7 +5245,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="192"/>
+      <c r="D93" s="194"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5263,7 +5273,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="193"/>
+      <c r="D94" s="195"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5305,7 +5315,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="195" t="s">
+      <c r="D96" s="197" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5331,7 +5341,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="196"/>
+      <c r="D97" s="198"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5355,7 +5365,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="196"/>
+      <c r="D98" s="198"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5379,7 +5389,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="196"/>
+      <c r="D99" s="198"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5403,7 +5413,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="196"/>
+      <c r="D100" s="198"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5427,7 +5437,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="196"/>
+      <c r="D101" s="198"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5451,7 +5461,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="196"/>
+      <c r="D102" s="198"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5475,7 +5485,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="197"/>
+      <c r="D103" s="199"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5502,7 +5512,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="200" t="s">
+      <c r="D105" s="202" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5528,7 +5538,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="200"/>
+      <c r="D106" s="202"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5552,7 +5562,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="200"/>
+      <c r="D107" s="202"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5576,7 +5586,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="200"/>
+      <c r="D108" s="202"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5598,7 +5608,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="200"/>
+      <c r="D109" s="202"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5624,7 +5634,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="178" t="s">
+      <c r="D111" s="211" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5650,7 +5660,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="179"/>
+      <c r="D112" s="173"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5674,7 +5684,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="179"/>
+      <c r="D113" s="173"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5698,7 +5708,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="179"/>
+      <c r="D114" s="173"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5722,7 +5732,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="179"/>
+      <c r="D115" s="173"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5746,7 +5756,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="180"/>
+      <c r="D116" s="174"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5776,7 +5786,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="194" t="s">
+      <c r="D119" s="196" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5802,7 +5812,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="194"/>
+      <c r="D120" s="196"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5826,7 +5836,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="194"/>
+      <c r="D121" s="196"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5850,7 +5860,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="194"/>
+      <c r="D122" s="196"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5874,7 +5884,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="194"/>
+      <c r="D123" s="196"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5898,7 +5908,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="194"/>
+      <c r="D124" s="196"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5922,7 +5932,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="194"/>
+      <c r="D125" s="196"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5946,7 +5956,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="194"/>
+      <c r="D126" s="196"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5970,7 +5980,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="194"/>
+      <c r="D127" s="196"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -5994,7 +6004,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="194"/>
+      <c r="D128" s="196"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6018,7 +6028,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="194"/>
+      <c r="D129" s="196"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6042,7 +6052,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="194"/>
+      <c r="D130" s="196"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6066,7 +6076,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="194"/>
+      <c r="D131" s="196"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6090,7 +6100,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="194"/>
+      <c r="D132" s="196"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6114,7 +6124,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="194"/>
+      <c r="D133" s="196"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6138,7 +6148,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="194"/>
+      <c r="D134" s="196"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6246,7 +6256,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="182" t="s">
+      <c r="D140" s="203" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6272,7 +6282,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="182"/>
+      <c r="D141" s="203"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6296,7 +6306,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="182"/>
+      <c r="D142" s="203"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6320,7 +6330,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="182"/>
+      <c r="D143" s="203"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6344,7 +6354,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="182"/>
+      <c r="D144" s="203"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6368,7 +6378,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="182"/>
+      <c r="D145" s="203"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6392,7 +6402,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="182"/>
+      <c r="D146" s="203"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6416,7 +6426,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="182"/>
+      <c r="D147" s="203"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6440,7 +6450,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="182"/>
+      <c r="D148" s="203"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6464,7 +6474,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="182"/>
+      <c r="D149" s="203"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6488,7 +6498,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="182"/>
+      <c r="D150" s="203"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6512,7 +6522,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="182"/>
+      <c r="D151" s="203"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6536,7 +6546,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="182"/>
+      <c r="D152" s="203"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6560,7 +6570,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="182"/>
+      <c r="D153" s="203"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6584,7 +6594,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="182"/>
+      <c r="D154" s="203"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6608,7 +6618,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="182"/>
+      <c r="D155" s="203"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6632,7 +6642,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="182"/>
+      <c r="D156" s="203"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6656,7 +6666,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="182"/>
+      <c r="D157" s="203"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6680,7 +6690,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="182"/>
+      <c r="D158" s="203"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6704,7 +6714,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="182"/>
+      <c r="D159" s="203"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6728,7 +6738,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="182"/>
+      <c r="D160" s="203"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6752,7 +6762,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="182"/>
+      <c r="D161" s="203"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6776,7 +6786,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="182"/>
+      <c r="D162" s="203"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6800,7 +6810,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="182"/>
+      <c r="D163" s="203"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6824,7 +6834,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="182"/>
+      <c r="D164" s="203"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6848,7 +6858,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="182"/>
+      <c r="D165" s="203"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6872,7 +6882,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="182"/>
+      <c r="D166" s="203"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6896,7 +6906,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="182"/>
+      <c r="D167" s="203"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6920,7 +6930,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="182"/>
+      <c r="D168" s="203"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6944,7 +6954,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="182"/>
+      <c r="D169" s="203"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6968,7 +6978,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="182"/>
+      <c r="D170" s="203"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -6992,7 +7002,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="182"/>
+      <c r="D171" s="203"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7016,7 +7026,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="182"/>
+      <c r="D172" s="203"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7040,7 +7050,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="182"/>
+      <c r="D173" s="203"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7064,7 +7074,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="182"/>
+      <c r="D174" s="203"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7088,7 +7098,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="182"/>
+      <c r="D175" s="203"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7112,7 +7122,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="182"/>
+      <c r="D176" s="203"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7136,7 +7146,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="182"/>
+      <c r="D177" s="203"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7160,7 +7170,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="182"/>
+      <c r="D178" s="203"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7184,7 +7194,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="182"/>
+      <c r="D179" s="203"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7208,7 +7218,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="182"/>
+      <c r="D180" s="203"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7232,7 +7242,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="182"/>
+      <c r="D181" s="203"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7256,7 +7266,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="182"/>
+      <c r="D182" s="203"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7280,7 +7290,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="182"/>
+      <c r="D183" s="203"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7304,7 +7314,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="182"/>
+      <c r="D184" s="203"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7328,7 +7338,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="182"/>
+      <c r="D185" s="203"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7352,7 +7362,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="182"/>
+      <c r="D186" s="203"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7376,7 +7386,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="182"/>
+      <c r="D187" s="203"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7400,7 +7410,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="182"/>
+      <c r="D188" s="203"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7424,7 +7434,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="182"/>
+      <c r="D189" s="203"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7448,7 +7458,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="182"/>
+      <c r="D190" s="203"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7472,7 +7482,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="182"/>
+      <c r="D191" s="203"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7496,7 +7506,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="182"/>
+      <c r="D192" s="203"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7520,7 +7530,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="182"/>
+      <c r="D193" s="203"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7544,7 +7554,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="182"/>
+      <c r="D194" s="203"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7568,7 +7578,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="182"/>
+      <c r="D195" s="203"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7592,7 +7602,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="182"/>
+      <c r="D196" s="203"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7616,7 +7626,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="182"/>
+      <c r="D197" s="203"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7640,7 +7650,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="182"/>
+      <c r="D198" s="203"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7664,7 +7674,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="182"/>
+      <c r="D199" s="203"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7688,7 +7698,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="182"/>
+      <c r="D200" s="203"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7712,7 +7722,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="182"/>
+      <c r="D201" s="203"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7736,7 +7746,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="182"/>
+      <c r="D202" s="203"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7760,7 +7770,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="182"/>
+      <c r="D203" s="203"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7784,7 +7794,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="182"/>
+      <c r="D204" s="203"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7808,7 +7818,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="182"/>
+      <c r="D205" s="203"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7832,7 +7842,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="182"/>
+      <c r="D206" s="203"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7856,7 +7866,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="182"/>
+      <c r="D207" s="203"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7880,7 +7890,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="182"/>
+      <c r="D208" s="203"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7904,7 +7914,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="182"/>
+      <c r="D209" s="203"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7928,7 +7938,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="182"/>
+      <c r="D210" s="203"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7952,7 +7962,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="182"/>
+      <c r="D211" s="203"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8033,7 +8043,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="181" t="s">
+      <c r="D217" s="212" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8058,7 +8068,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="179"/>
+      <c r="D218" s="173"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8081,7 +8091,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="179"/>
+      <c r="D219" s="173"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8104,7 +8114,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="180"/>
+      <c r="D220" s="174"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8127,7 +8137,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="187" t="s">
+      <c r="D222" s="217" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8153,7 +8163,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="187"/>
+      <c r="D223" s="217"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8181,7 +8191,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="187"/>
+      <c r="D224" s="217"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8209,7 +8219,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="187"/>
+      <c r="D225" s="217"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8233,7 +8243,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="187"/>
+      <c r="D226" s="217"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8261,7 +8271,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="187"/>
+      <c r="D227" s="217"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8289,7 +8299,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="186" t="s">
+      <c r="D229" s="216" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8323,7 +8333,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="186"/>
+      <c r="D230" s="216"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8355,7 +8365,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="186"/>
+      <c r="D231" s="216"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8387,7 +8397,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="186"/>
+      <c r="D232" s="216"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8419,7 +8429,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="186"/>
+      <c r="D233" s="216"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8451,7 +8461,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="186"/>
+      <c r="D234" s="216"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8483,7 +8493,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="186"/>
+      <c r="D235" s="216"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8515,7 +8525,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="186"/>
+      <c r="D236" s="216"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8547,7 +8557,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="186"/>
+      <c r="D237" s="216"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8579,7 +8589,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="186"/>
+      <c r="D238" s="216"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8611,7 +8621,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="186"/>
+      <c r="D239" s="216"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8643,7 +8653,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="186"/>
+      <c r="D240" s="216"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8675,7 +8685,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="186"/>
+      <c r="D241" s="216"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8707,7 +8717,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="186"/>
+      <c r="D242" s="216"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8739,7 +8749,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="186"/>
+      <c r="D243" s="216"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8771,7 +8781,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="186"/>
+      <c r="D244" s="216"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8803,7 +8813,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="186"/>
+      <c r="D245" s="216"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8839,7 +8849,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="189" t="s">
+      <c r="D247" s="219" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8865,7 +8875,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="189"/>
+      <c r="D248" s="219"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8889,7 +8899,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="189"/>
+      <c r="D249" s="219"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8913,7 +8923,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="190" t="s">
+      <c r="D251" s="188" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8939,7 +8949,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="180"/>
+      <c r="D252" s="174"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8963,7 +8973,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="182" t="s">
+      <c r="D254" s="203" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8985,7 +8995,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="182"/>
+      <c r="D255" s="203"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9005,7 +9015,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="182"/>
+      <c r="D256" s="203"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9025,7 +9035,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="182"/>
+      <c r="D257" s="203"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9045,7 +9055,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="182"/>
+      <c r="D258" s="203"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9065,7 +9075,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="182"/>
+      <c r="D259" s="203"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9085,7 +9095,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="182"/>
+      <c r="D260" s="203"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9105,7 +9115,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="182"/>
+      <c r="D261" s="203"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9125,7 +9135,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="182"/>
+      <c r="D262" s="203"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9145,7 +9155,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="182"/>
+      <c r="D263" s="203"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9165,7 +9175,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="182"/>
+      <c r="D264" s="203"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9185,7 +9195,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="182"/>
+      <c r="D265" s="203"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9205,7 +9215,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="182"/>
+      <c r="D266" s="203"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9225,7 +9235,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="182"/>
+      <c r="D267" s="203"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9245,7 +9255,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="182"/>
+      <c r="D268" s="203"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9265,7 +9275,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="182"/>
+      <c r="D269" s="203"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9285,7 +9295,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="182"/>
+      <c r="D270" s="203"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9305,7 +9315,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="182"/>
+      <c r="D271" s="203"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9325,7 +9335,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="182"/>
+      <c r="D272" s="203"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9345,7 +9355,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="182"/>
+      <c r="D273" s="203"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9365,7 +9375,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="182"/>
+      <c r="D274" s="203"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9385,7 +9395,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="182"/>
+      <c r="D275" s="203"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9405,7 +9415,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="182"/>
+      <c r="D276" s="203"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9425,7 +9435,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="182"/>
+      <c r="D277" s="203"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9445,7 +9455,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="182"/>
+      <c r="D278" s="203"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9465,7 +9475,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="182"/>
+      <c r="D279" s="203"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9485,7 +9495,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="182"/>
+      <c r="D280" s="203"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9505,7 +9515,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="182"/>
+      <c r="D281" s="203"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9525,7 +9535,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="182"/>
+      <c r="D282" s="203"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9545,7 +9555,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="182"/>
+      <c r="D283" s="203"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9565,7 +9575,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="182"/>
+      <c r="D284" s="203"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9585,7 +9595,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="182"/>
+      <c r="D285" s="203"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9605,7 +9615,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="182"/>
+      <c r="D286" s="203"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9625,7 +9635,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="182"/>
+      <c r="D287" s="203"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9645,7 +9655,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="182"/>
+      <c r="D288" s="203"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9665,7 +9675,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="182"/>
+      <c r="D289" s="203"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9685,7 +9695,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="182"/>
+      <c r="D290" s="203"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9705,7 +9715,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="182"/>
+      <c r="D291" s="203"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9725,7 +9735,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="182"/>
+      <c r="D292" s="203"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9745,7 +9755,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="182"/>
+      <c r="D293" s="203"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9765,7 +9775,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="182"/>
+      <c r="D294" s="203"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9785,7 +9795,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="182"/>
+      <c r="D295" s="203"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9805,7 +9815,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="182"/>
+      <c r="D296" s="203"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9825,7 +9835,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="182"/>
+      <c r="D297" s="203"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9845,7 +9855,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="182"/>
+      <c r="D298" s="203"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9865,7 +9875,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="182"/>
+      <c r="D299" s="203"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9885,7 +9895,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="182"/>
+      <c r="D300" s="203"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9905,7 +9915,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="182"/>
+      <c r="D301" s="203"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9925,7 +9935,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="182"/>
+      <c r="D302" s="203"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9945,7 +9955,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="182"/>
+      <c r="D303" s="203"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9965,7 +9975,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="182"/>
+      <c r="D304" s="203"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9985,7 +9995,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="182"/>
+      <c r="D305" s="203"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10005,7 +10015,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="182"/>
+      <c r="D306" s="203"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10025,7 +10035,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="182"/>
+      <c r="D307" s="203"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10045,7 +10055,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="182"/>
+      <c r="D308" s="203"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10065,7 +10075,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="182"/>
+      <c r="D309" s="203"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10085,7 +10095,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="182"/>
+      <c r="D310" s="203"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10105,7 +10115,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="182"/>
+      <c r="D311" s="203"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10125,7 +10135,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="182"/>
+      <c r="D312" s="203"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10145,7 +10155,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="182"/>
+      <c r="D313" s="203"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10165,7 +10175,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="182"/>
+      <c r="D314" s="203"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10185,7 +10195,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="182"/>
+      <c r="D315" s="203"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10205,7 +10215,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="182"/>
+      <c r="D316" s="203"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10225,7 +10235,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="182"/>
+      <c r="D317" s="203"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10245,7 +10255,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="182"/>
+      <c r="D318" s="203"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10265,7 +10275,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="182"/>
+      <c r="D319" s="203"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10285,7 +10295,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="182"/>
+      <c r="D320" s="203"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10305,7 +10315,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="182"/>
+      <c r="D321" s="203"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10325,7 +10335,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="182"/>
+      <c r="D322" s="203"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10345,7 +10355,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="182"/>
+      <c r="D323" s="203"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10365,7 +10375,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="182"/>
+      <c r="D324" s="203"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10385,7 +10395,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="182"/>
+      <c r="D325" s="203"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10405,7 +10415,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="183" t="s">
+      <c r="D328" s="213" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10432,7 +10442,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="184"/>
+      <c r="D329" s="214"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10457,7 +10467,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="184"/>
+      <c r="D330" s="214"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10482,7 +10492,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="184"/>
+      <c r="D331" s="214"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10507,7 +10517,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="184"/>
+      <c r="D332" s="214"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10532,7 +10542,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="184"/>
+      <c r="D333" s="214"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10557,7 +10567,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="184"/>
+      <c r="D334" s="214"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10582,7 +10592,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="184"/>
+      <c r="D335" s="214"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10607,7 +10617,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="180"/>
+      <c r="D336" s="174"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10631,7 +10641,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="177" t="s">
+      <c r="D338" s="210" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10651,7 +10661,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="177"/>
+      <c r="D339" s="210"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10669,7 +10679,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="177"/>
+      <c r="D340" s="210"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10687,7 +10697,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="177"/>
+      <c r="D341" s="210"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10713,7 +10723,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="188" t="s">
+      <c r="D343" s="218" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10735,7 +10745,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="188"/>
+      <c r="D344" s="218"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10750,7 +10760,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="174" t="s">
+      <c r="A346" s="207" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10759,7 +10769,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="183" t="s">
+      <c r="D346" s="213" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10774,14 +10784,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="175"/>
+      <c r="A347" s="208"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="184"/>
+      <c r="D347" s="214"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10794,14 +10804,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="175"/>
+      <c r="A348" s="208"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="184"/>
+      <c r="D348" s="214"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10814,14 +10824,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="175"/>
+      <c r="A349" s="208"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="184"/>
+      <c r="D349" s="214"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10834,14 +10844,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="175"/>
+      <c r="A350" s="208"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="184"/>
+      <c r="D350" s="214"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10854,14 +10864,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="175"/>
+      <c r="A351" s="208"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="184"/>
+      <c r="D351" s="214"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10874,14 +10884,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="175"/>
+      <c r="A352" s="208"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="184"/>
+      <c r="D352" s="214"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -10894,14 +10904,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="176"/>
+      <c r="A353" s="209"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="185"/>
+      <c r="D353" s="215"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -10923,7 +10933,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="199" t="s">
+      <c r="D355" s="201" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10943,7 +10953,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="199"/>
+      <c r="D356" s="201"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10961,7 +10971,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="199"/>
+      <c r="D357" s="201"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10979,7 +10989,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="199"/>
+      <c r="D358" s="201"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11057,7 +11067,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="198" t="s">
+      <c r="D362" s="200" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11083,7 +11093,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="198"/>
+      <c r="D363" s="200"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11590,7 +11600,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="158" t="s">
         <v>425</v>
       </c>
@@ -11624,7 +11634,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="386" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="161"/>
       <c r="B386" s="162"/>
       <c r="C386" s="161"/>
@@ -11638,7 +11648,7 @@
       <c r="K386" s="161"/>
       <c r="L386" s="161"/>
     </row>
-    <row r="387" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="124" t="s">
         <v>270</v>
       </c>
@@ -11648,7 +11658,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="172" t="s">
+      <c r="D387" s="205" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11672,7 +11682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="388" spans="1:12" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="124" t="s">
         <v>270</v>
       </c>
@@ -11682,7 +11692,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="173"/>
+      <c r="D388" s="206"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11704,7 +11714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="389" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="124" t="s">
         <v>270</v>
       </c>
@@ -11714,7 +11724,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="173"/>
+      <c r="D389" s="206"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -11732,7 +11742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="390" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="124" t="s">
         <v>270</v>
       </c>
@@ -11742,7 +11752,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="173"/>
+      <c r="D390" s="206"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -11760,7 +11770,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="391" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="161" t="s">
         <v>435</v>
       </c>
@@ -11770,7 +11780,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="171" t="s">
+      <c r="D391" s="204" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -11790,7 +11800,7 @@
       <c r="K391" s="161"/>
       <c r="L391" s="161"/>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="161" t="s">
         <v>435</v>
       </c>
@@ -11800,7 +11810,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="171"/>
+      <c r="D392" s="204"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -11814,7 +11824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="393" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="161"/>
       <c r="B393" s="165"/>
       <c r="C393" s="165"/>
@@ -11824,7 +11834,7 @@
       <c r="G393" s="167"/>
       <c r="H393" s="168"/>
     </row>
-    <row r="394" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="155" t="s">
         <v>439</v>
       </c>
@@ -11853,7 +11863,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="395" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="155" t="s">
         <v>439</v>
       </c>
@@ -11882,7 +11892,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="396" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="155" t="s">
         <v>439</v>
       </c>
@@ -11911,80 +11921,209 @@
         <v>449</v>
       </c>
     </row>
-    <row r="397" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="161"/>
       <c r="B397" s="165"/>
       <c r="C397" s="165"/>
-      <c r="D397" s="166"/>
+      <c r="D397" s="171"/>
       <c r="E397" s="167"/>
       <c r="F397" s="167"/>
       <c r="G397" s="167"/>
       <c r="H397" s="168"/>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+      <c r="I397" s="168"/>
+    </row>
+    <row r="398" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="220" t="s">
+        <v>451</v>
+      </c>
+      <c r="B398" s="221">
+        <v>341</v>
+      </c>
+      <c r="C398" s="221" t="s">
+        <v>453</v>
+      </c>
+      <c r="D398" s="222" t="s">
+        <v>452</v>
+      </c>
+      <c r="E398" s="223"/>
+      <c r="F398" s="223"/>
+      <c r="G398" s="223"/>
+      <c r="H398" s="221"/>
+      <c r="I398" s="221"/>
+      <c r="J398" s="223"/>
+      <c r="K398" s="223" t="s">
+        <v>459</v>
+      </c>
+      <c r="L398" s="223" t="s">
+        <v>460</v>
+      </c>
+      <c r="M398" s="223"/>
+    </row>
+    <row r="399" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="220" t="s">
+        <v>451</v>
+      </c>
+      <c r="B399" s="221">
+        <v>342</v>
+      </c>
+      <c r="C399" s="221" t="s">
+        <v>454</v>
+      </c>
+      <c r="D399" s="222"/>
+      <c r="E399" s="223"/>
+      <c r="F399" s="223"/>
+      <c r="G399" s="223"/>
+      <c r="H399" s="221"/>
+      <c r="I399" s="221"/>
+      <c r="J399" s="223"/>
+      <c r="K399" s="223" t="s">
+        <v>459</v>
+      </c>
+      <c r="L399" s="223" t="s">
+        <v>460</v>
+      </c>
+      <c r="M399" s="223"/>
+    </row>
+    <row r="400" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="220" t="s">
+        <v>451</v>
+      </c>
+      <c r="B400" s="221">
+        <v>343</v>
+      </c>
+      <c r="C400" s="221" t="s">
+        <v>456</v>
+      </c>
+      <c r="D400" s="222"/>
+      <c r="E400" s="223"/>
+      <c r="F400" s="223"/>
+      <c r="G400" s="223"/>
+      <c r="H400" s="221"/>
+      <c r="I400" s="221"/>
+      <c r="J400" s="223"/>
+      <c r="K400" s="223" t="s">
+        <v>459</v>
+      </c>
+      <c r="L400" s="223" t="s">
+        <v>460</v>
+      </c>
+      <c r="M400" s="223"/>
+    </row>
+    <row r="401" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="220" t="s">
+        <v>451</v>
+      </c>
+      <c r="B401" s="221">
+        <v>344</v>
+      </c>
+      <c r="C401" s="221" t="s">
+        <v>455</v>
+      </c>
+      <c r="D401" s="222"/>
+      <c r="E401" s="223"/>
+      <c r="F401" s="223"/>
+      <c r="G401" s="223"/>
+      <c r="H401" s="221"/>
+      <c r="I401" s="221" t="s">
+        <v>458</v>
+      </c>
+      <c r="J401" s="223" t="s">
+        <v>461</v>
+      </c>
+      <c r="K401" s="223" t="s">
+        <v>459</v>
+      </c>
+      <c r="L401" s="221" t="s">
+        <v>461</v>
+      </c>
+      <c r="M401" s="223"/>
+    </row>
+    <row r="402" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="220" t="s">
+        <v>451</v>
+      </c>
+      <c r="B402" s="221">
+        <v>345</v>
+      </c>
+      <c r="C402" s="221" t="s">
+        <v>457</v>
+      </c>
+      <c r="D402" s="222"/>
+      <c r="E402" s="223"/>
+      <c r="F402" s="223"/>
+      <c r="G402" s="223"/>
+      <c r="H402" s="221"/>
+      <c r="I402" s="221" t="s">
+        <v>458</v>
+      </c>
+      <c r="J402" s="223" t="s">
+        <v>462</v>
+      </c>
+      <c r="K402" s="223" t="s">
+        <v>463</v>
+      </c>
+      <c r="L402" s="221" t="s">
+        <v>462</v>
+      </c>
+      <c r="M402" s="223"/>
+    </row>
+    <row r="403" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="161"/>
+      <c r="B403" s="165"/>
+      <c r="C403" s="165"/>
+      <c r="D403" s="166"/>
+      <c r="E403" s="167"/>
+      <c r="F403" s="167"/>
+      <c r="G403" s="167"/>
+      <c r="H403" s="168"/>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
         <v>391</v>
       </c>
-      <c r="D398"/>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A399"/>
-      <c r="D399"/>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A400" s="58" t="s">
+      <c r="D404"/>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A405"/>
+      <c r="D405"/>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A406" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="B400" s="149">
+      <c r="B406" s="149">
         <v>316</v>
       </c>
-      <c r="C400" s="150" t="s">
+      <c r="C406" s="150" t="s">
         <v>397</v>
       </c>
-      <c r="D400" s="151" t="s">
+      <c r="D406" s="151" t="s">
         <v>398</v>
       </c>
-      <c r="E400" t="s">
+      <c r="E406" t="s">
         <v>401</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F406" t="s">
         <v>386</v>
       </c>
-      <c r="G400" t="str">
-        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B400&amp;",'"&amp;C400&amp;"','"&amp;D400&amp;"','"&amp;E400&amp;"','"&amp;F400&amp;"','0','"&amp;A400&amp;"');")</f>
+      <c r="G406" t="str">
+        <f>CONCATENATE("insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,"&amp;B406&amp;",'"&amp;C406&amp;"','"&amp;D406&amp;"','"&amp;E406&amp;"','"&amp;F406&amp;"','0','"&amp;A406&amp;"');")</f>
         <v>insert into REALTIME_MONITOR(id,index_num,index_note,index_name,table_flag,data_cycle,state,source)values(seq_realtime_monitor.nextval,316,'P4PCPC','P4P','d','h','0','&lt;font color=Salmon&gt;郭晔&lt;/font&gt;');</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401"/>
-      <c r="D401"/>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402"/>
-      <c r="D402"/>
-    </row>
-    <row r="404" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A407"/>
+      <c r="D407"/>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A408"/>
+      <c r="D408"/>
+    </row>
+    <row r="410" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:L1"/>
-  <mergeCells count="32">
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="D119:D134"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="D362:D363"/>
-    <mergeCell ref="D355:D358"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D254:D325"/>
+  <mergeCells count="33">
+    <mergeCell ref="D398:D402"/>
     <mergeCell ref="D391:D392"/>
     <mergeCell ref="D387:D390"/>
     <mergeCell ref="A346:A353"/>
@@ -11999,6 +12138,24 @@
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
     <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="D119:D134"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="D362:D363"/>
+    <mergeCell ref="D355:D358"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D254:D325"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F435EE5D-2E90-4514-B8DD-DF17F0067356}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_TYPE" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA_TYPE!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="472">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1708,11 +1709,43 @@
     <t>当月累计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>互通宝总用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝电销用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝渠道用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝行业用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友客总用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友客电销用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友客渠道用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友客行业用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2286,7 +2319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2543,13 +2576,105 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2591,9 +2716,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2606,102 +2728,84 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2721,7 +2825,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3009,12 +3113,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M410"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F394" sqref="F394"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E351" sqref="E351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3080,7 +3184,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="206" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3110,7 +3214,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="173"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3138,7 +3242,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="174"/>
+      <c r="D4" s="185"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3181,7 +3285,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="192" t="s">
+      <c r="D6" s="223" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3207,7 +3311,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="175"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3231,7 +3335,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="175"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3255,7 +3359,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="175"/>
+      <c r="D9" s="207"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3279,7 +3383,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="175"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3321,7 +3425,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="188" t="s">
+      <c r="D12" s="195" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3347,7 +3451,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="173"/>
+      <c r="D13" s="184"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3371,7 +3475,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="173"/>
+      <c r="D14" s="184"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3395,7 +3499,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="173"/>
+      <c r="D15" s="184"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3419,7 +3523,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="173"/>
+      <c r="D16" s="184"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3443,7 +3547,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="173"/>
+      <c r="D17" s="184"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3467,7 +3571,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="173"/>
+      <c r="D18" s="184"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3491,7 +3595,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="173"/>
+      <c r="D19" s="184"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3515,7 +3619,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="173"/>
+      <c r="D20" s="184"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3539,7 +3643,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="174"/>
+      <c r="D21" s="185"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3577,7 +3681,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="189" t="s">
+      <c r="D23" s="220" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3599,7 +3703,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="190"/>
+      <c r="D24" s="221"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3627,7 +3731,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="190"/>
+      <c r="D25" s="221"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3655,7 +3759,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="190"/>
+      <c r="D26" s="221"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3675,7 +3779,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="190"/>
+      <c r="D27" s="221"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3703,7 +3807,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="190"/>
+      <c r="D28" s="221"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3731,7 +3835,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="190"/>
+      <c r="D29" s="221"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3759,7 +3863,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="191"/>
+      <c r="D30" s="222"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3865,7 +3969,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="174" t="s">
+      <c r="D35" s="185" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3885,7 +3989,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="175"/>
+      <c r="D36" s="207"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3903,7 +4007,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="175"/>
+      <c r="D37" s="207"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3921,7 +4025,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="175"/>
+      <c r="D38" s="207"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3955,7 +4059,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="180" t="s">
+      <c r="D40" s="212" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -3981,7 +4085,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="181"/>
+      <c r="D41" s="213"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4005,7 +4109,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="181"/>
+      <c r="D42" s="213"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4029,7 +4133,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="182"/>
+      <c r="D43" s="214"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4067,7 +4171,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="208" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4093,7 +4197,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="177"/>
+      <c r="D46" s="209"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4117,7 +4221,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="177"/>
+      <c r="D47" s="209"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4141,7 +4245,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="177"/>
+      <c r="D48" s="209"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4165,7 +4269,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="177"/>
+      <c r="D49" s="209"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4189,7 +4293,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="177"/>
+      <c r="D50" s="209"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4213,7 +4317,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="177"/>
+      <c r="D51" s="209"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4237,7 +4341,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="177"/>
+      <c r="D52" s="209"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4261,7 +4365,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="177"/>
+      <c r="D53" s="209"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4285,7 +4389,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="177"/>
+      <c r="D54" s="209"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4309,7 +4413,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="177"/>
+      <c r="D55" s="209"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4333,7 +4437,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="178"/>
+      <c r="D56" s="210"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4415,7 +4519,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="179" t="s">
+      <c r="D60" s="211" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4445,7 +4549,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="173"/>
+      <c r="D61" s="184"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4473,7 +4577,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="173"/>
+      <c r="D62" s="184"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4501,7 +4605,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="173"/>
+      <c r="D63" s="184"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4525,7 +4629,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="173"/>
+      <c r="D64" s="184"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4549,7 +4653,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="174"/>
+      <c r="D65" s="185"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4587,7 +4691,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="183" t="s">
+      <c r="D67" s="215" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4617,7 +4721,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="184"/>
+      <c r="D68" s="216"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4645,7 +4749,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="185"/>
+      <c r="D69" s="217"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4687,7 +4791,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="186" t="s">
+      <c r="D71" s="218" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4717,7 +4821,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="187"/>
+      <c r="D72" s="219"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4745,7 +4849,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="187"/>
+      <c r="D73" s="219"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4773,7 +4877,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="187"/>
+      <c r="D74" s="219"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4801,7 +4905,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="175"/>
+      <c r="D75" s="207"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4829,7 +4933,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="175"/>
+      <c r="D76" s="207"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -4915,7 +5019,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="176" t="s">
+      <c r="D80" s="208" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4945,7 +5049,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="177"/>
+      <c r="D81" s="209"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -4969,7 +5073,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="177"/>
+      <c r="D82" s="209"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -4997,7 +5101,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="177"/>
+      <c r="D83" s="209"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5021,7 +5125,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="177"/>
+      <c r="D84" s="209"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5049,7 +5153,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="178"/>
+      <c r="D85" s="210"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5131,7 +5235,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="193" t="s">
+      <c r="D89" s="196" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5161,7 +5265,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="194"/>
+      <c r="D90" s="197"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5189,7 +5293,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="194"/>
+      <c r="D91" s="197"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5217,7 +5321,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="194"/>
+      <c r="D92" s="197"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5245,7 +5349,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="194"/>
+      <c r="D93" s="197"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5273,7 +5377,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="195"/>
+      <c r="D94" s="198"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5315,7 +5419,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="197" t="s">
+      <c r="D96" s="200" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5341,7 +5445,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="198"/>
+      <c r="D97" s="201"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5365,7 +5469,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="198"/>
+      <c r="D98" s="201"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5389,7 +5493,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="198"/>
+      <c r="D99" s="201"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5413,7 +5517,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="198"/>
+      <c r="D100" s="201"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5437,7 +5541,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="198"/>
+      <c r="D101" s="201"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5461,7 +5565,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="198"/>
+      <c r="D102" s="201"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5485,7 +5589,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="199"/>
+      <c r="D103" s="202"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5512,7 +5616,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="202" t="s">
+      <c r="D105" s="205" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5538,7 +5642,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="202"/>
+      <c r="D106" s="205"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5562,7 +5666,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="202"/>
+      <c r="D107" s="205"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5586,7 +5690,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="202"/>
+      <c r="D108" s="205"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5608,7 +5712,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="202"/>
+      <c r="D109" s="205"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5634,7 +5738,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="211" t="s">
+      <c r="D111" s="183" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5660,7 +5764,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="173"/>
+      <c r="D112" s="184"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5684,7 +5788,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="173"/>
+      <c r="D113" s="184"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5708,7 +5812,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="173"/>
+      <c r="D114" s="184"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5732,7 +5836,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="173"/>
+      <c r="D115" s="184"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5756,7 +5860,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="174"/>
+      <c r="D116" s="185"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5786,7 +5890,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="196" t="s">
+      <c r="D119" s="199" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5812,7 +5916,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="196"/>
+      <c r="D120" s="199"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5836,7 +5940,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="196"/>
+      <c r="D121" s="199"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5860,7 +5964,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="196"/>
+      <c r="D122" s="199"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5884,7 +5988,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="196"/>
+      <c r="D123" s="199"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -5908,7 +6012,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="196"/>
+      <c r="D124" s="199"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -5932,7 +6036,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="196"/>
+      <c r="D125" s="199"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -5956,7 +6060,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="196"/>
+      <c r="D126" s="199"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -5980,7 +6084,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="196"/>
+      <c r="D127" s="199"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6004,7 +6108,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="196"/>
+      <c r="D128" s="199"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6028,7 +6132,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="196"/>
+      <c r="D129" s="199"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6052,7 +6156,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="196"/>
+      <c r="D130" s="199"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6076,7 +6180,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="196"/>
+      <c r="D131" s="199"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6100,7 +6204,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="196"/>
+      <c r="D132" s="199"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6124,7 +6228,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="196"/>
+      <c r="D133" s="199"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6148,7 +6252,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="196"/>
+      <c r="D134" s="199"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6256,7 +6360,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="203" t="s">
+      <c r="D140" s="187" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6282,7 +6386,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="203"/>
+      <c r="D141" s="187"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6306,7 +6410,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="203"/>
+      <c r="D142" s="187"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6330,7 +6434,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="203"/>
+      <c r="D143" s="187"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6354,7 +6458,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="203"/>
+      <c r="D144" s="187"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6378,7 +6482,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="203"/>
+      <c r="D145" s="187"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6402,7 +6506,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="203"/>
+      <c r="D146" s="187"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6426,7 +6530,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="203"/>
+      <c r="D147" s="187"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6450,7 +6554,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="203"/>
+      <c r="D148" s="187"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6474,7 +6578,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="203"/>
+      <c r="D149" s="187"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6498,7 +6602,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="203"/>
+      <c r="D150" s="187"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6522,7 +6626,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="203"/>
+      <c r="D151" s="187"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6546,7 +6650,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="203"/>
+      <c r="D152" s="187"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6570,7 +6674,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="203"/>
+      <c r="D153" s="187"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6594,7 +6698,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="203"/>
+      <c r="D154" s="187"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6618,7 +6722,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="203"/>
+      <c r="D155" s="187"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6642,7 +6746,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="203"/>
+      <c r="D156" s="187"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6666,7 +6770,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="203"/>
+      <c r="D157" s="187"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6690,7 +6794,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="203"/>
+      <c r="D158" s="187"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6714,7 +6818,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="203"/>
+      <c r="D159" s="187"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6738,7 +6842,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="203"/>
+      <c r="D160" s="187"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6762,7 +6866,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="203"/>
+      <c r="D161" s="187"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6786,7 +6890,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="203"/>
+      <c r="D162" s="187"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6810,7 +6914,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="203"/>
+      <c r="D163" s="187"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6834,7 +6938,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="203"/>
+      <c r="D164" s="187"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6858,7 +6962,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="203"/>
+      <c r="D165" s="187"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6882,7 +6986,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="203"/>
+      <c r="D166" s="187"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -6906,7 +7010,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="203"/>
+      <c r="D167" s="187"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -6930,7 +7034,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="203"/>
+      <c r="D168" s="187"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -6954,7 +7058,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="203"/>
+      <c r="D169" s="187"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -6978,7 +7082,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="203"/>
+      <c r="D170" s="187"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7002,7 +7106,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="203"/>
+      <c r="D171" s="187"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7026,7 +7130,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="203"/>
+      <c r="D172" s="187"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7050,7 +7154,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="203"/>
+      <c r="D173" s="187"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7074,7 +7178,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="203"/>
+      <c r="D174" s="187"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7098,7 +7202,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="203"/>
+      <c r="D175" s="187"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7122,7 +7226,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="203"/>
+      <c r="D176" s="187"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7146,7 +7250,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="203"/>
+      <c r="D177" s="187"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7170,7 +7274,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="203"/>
+      <c r="D178" s="187"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7194,7 +7298,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="203"/>
+      <c r="D179" s="187"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7218,7 +7322,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="203"/>
+      <c r="D180" s="187"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7242,7 +7346,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="203"/>
+      <c r="D181" s="187"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7266,7 +7370,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="203"/>
+      <c r="D182" s="187"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7290,7 +7394,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="203"/>
+      <c r="D183" s="187"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7314,7 +7418,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="203"/>
+      <c r="D184" s="187"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7338,7 +7442,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="203"/>
+      <c r="D185" s="187"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7362,7 +7466,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="203"/>
+      <c r="D186" s="187"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7386,7 +7490,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="203"/>
+      <c r="D187" s="187"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7410,7 +7514,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="203"/>
+      <c r="D188" s="187"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7434,7 +7538,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="203"/>
+      <c r="D189" s="187"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7458,7 +7562,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="203"/>
+      <c r="D190" s="187"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7482,7 +7586,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="203"/>
+      <c r="D191" s="187"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7506,7 +7610,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="203"/>
+      <c r="D192" s="187"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7530,7 +7634,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="203"/>
+      <c r="D193" s="187"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7554,7 +7658,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="203"/>
+      <c r="D194" s="187"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7578,7 +7682,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="203"/>
+      <c r="D195" s="187"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7602,7 +7706,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="203"/>
+      <c r="D196" s="187"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7626,7 +7730,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="203"/>
+      <c r="D197" s="187"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7650,7 +7754,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="203"/>
+      <c r="D198" s="187"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7674,7 +7778,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="203"/>
+      <c r="D199" s="187"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7698,7 +7802,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="203"/>
+      <c r="D200" s="187"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7722,7 +7826,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="203"/>
+      <c r="D201" s="187"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7746,7 +7850,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="203"/>
+      <c r="D202" s="187"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7770,7 +7874,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="203"/>
+      <c r="D203" s="187"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7794,7 +7898,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="203"/>
+      <c r="D204" s="187"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7818,7 +7922,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="203"/>
+      <c r="D205" s="187"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7842,7 +7946,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="203"/>
+      <c r="D206" s="187"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7866,7 +7970,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="203"/>
+      <c r="D207" s="187"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7890,7 +7994,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="203"/>
+      <c r="D208" s="187"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -7914,7 +8018,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="203"/>
+      <c r="D209" s="187"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -7938,7 +8042,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="203"/>
+      <c r="D210" s="187"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -7962,7 +8066,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="203"/>
+      <c r="D211" s="187"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8043,7 +8147,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="212" t="s">
+      <c r="D217" s="186" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8068,7 +8172,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="173"/>
+      <c r="D218" s="184"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8091,7 +8195,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="173"/>
+      <c r="D219" s="184"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8114,7 +8218,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="174"/>
+      <c r="D220" s="185"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8137,7 +8241,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="217" t="s">
+      <c r="D222" s="192" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8163,7 +8267,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="217"/>
+      <c r="D223" s="192"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8191,7 +8295,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="217"/>
+      <c r="D224" s="192"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8219,7 +8323,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="217"/>
+      <c r="D225" s="192"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8243,7 +8347,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="217"/>
+      <c r="D226" s="192"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8271,7 +8375,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="217"/>
+      <c r="D227" s="192"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8299,7 +8403,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="216" t="s">
+      <c r="D229" s="191" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8333,7 +8437,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="216"/>
+      <c r="D230" s="191"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8365,7 +8469,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="216"/>
+      <c r="D231" s="191"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8397,7 +8501,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="216"/>
+      <c r="D232" s="191"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8429,7 +8533,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="216"/>
+      <c r="D233" s="191"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8461,7 +8565,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="216"/>
+      <c r="D234" s="191"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8493,7 +8597,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="216"/>
+      <c r="D235" s="191"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8525,7 +8629,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="216"/>
+      <c r="D236" s="191"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8557,7 +8661,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="216"/>
+      <c r="D237" s="191"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8589,7 +8693,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="216"/>
+      <c r="D238" s="191"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8621,7 +8725,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="216"/>
+      <c r="D239" s="191"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8653,7 +8757,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="216"/>
+      <c r="D240" s="191"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8685,7 +8789,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="216"/>
+      <c r="D241" s="191"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8717,7 +8821,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="216"/>
+      <c r="D242" s="191"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8749,7 +8853,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="216"/>
+      <c r="D243" s="191"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8781,7 +8885,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="216"/>
+      <c r="D244" s="191"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8813,7 +8917,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="216"/>
+      <c r="D245" s="191"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8849,7 +8953,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="219" t="s">
+      <c r="D247" s="194" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8875,7 +8979,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="219"/>
+      <c r="D248" s="194"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -8899,7 +9003,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="219"/>
+      <c r="D249" s="194"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -8923,7 +9027,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="188" t="s">
+      <c r="D251" s="195" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -8949,7 +9053,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="174"/>
+      <c r="D252" s="185"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -8973,7 +9077,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="203" t="s">
+      <c r="D254" s="187" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -8995,7 +9099,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="203"/>
+      <c r="D255" s="187"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9015,7 +9119,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="203"/>
+      <c r="D256" s="187"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9035,7 +9139,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="203"/>
+      <c r="D257" s="187"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9055,7 +9159,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="203"/>
+      <c r="D258" s="187"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9075,7 +9179,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="203"/>
+      <c r="D259" s="187"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9095,7 +9199,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="203"/>
+      <c r="D260" s="187"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9115,7 +9219,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="203"/>
+      <c r="D261" s="187"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9135,7 +9239,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="203"/>
+      <c r="D262" s="187"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9155,7 +9259,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="203"/>
+      <c r="D263" s="187"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9175,7 +9279,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="203"/>
+      <c r="D264" s="187"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9195,7 +9299,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="203"/>
+      <c r="D265" s="187"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9215,7 +9319,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="203"/>
+      <c r="D266" s="187"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9235,7 +9339,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="203"/>
+      <c r="D267" s="187"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9255,7 +9359,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="203"/>
+      <c r="D268" s="187"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9275,7 +9379,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="203"/>
+      <c r="D269" s="187"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9295,7 +9399,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="203"/>
+      <c r="D270" s="187"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9315,7 +9419,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="203"/>
+      <c r="D271" s="187"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9335,7 +9439,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="203"/>
+      <c r="D272" s="187"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9355,7 +9459,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="203"/>
+      <c r="D273" s="187"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9375,7 +9479,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="203"/>
+      <c r="D274" s="187"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9395,7 +9499,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="203"/>
+      <c r="D275" s="187"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9415,7 +9519,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="203"/>
+      <c r="D276" s="187"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9435,7 +9539,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="203"/>
+      <c r="D277" s="187"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9455,7 +9559,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="203"/>
+      <c r="D278" s="187"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9475,7 +9579,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="203"/>
+      <c r="D279" s="187"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9495,7 +9599,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="203"/>
+      <c r="D280" s="187"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9515,7 +9619,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="203"/>
+      <c r="D281" s="187"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9535,7 +9639,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="203"/>
+      <c r="D282" s="187"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9555,7 +9659,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="203"/>
+      <c r="D283" s="187"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9575,7 +9679,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="203"/>
+      <c r="D284" s="187"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9595,7 +9699,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="203"/>
+      <c r="D285" s="187"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9615,7 +9719,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="203"/>
+      <c r="D286" s="187"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9635,7 +9739,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="203"/>
+      <c r="D287" s="187"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9655,7 +9759,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="203"/>
+      <c r="D288" s="187"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9675,7 +9779,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="203"/>
+      <c r="D289" s="187"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9695,7 +9799,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="203"/>
+      <c r="D290" s="187"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9715,7 +9819,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="203"/>
+      <c r="D291" s="187"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9735,7 +9839,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="203"/>
+      <c r="D292" s="187"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9755,7 +9859,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="203"/>
+      <c r="D293" s="187"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9775,7 +9879,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="203"/>
+      <c r="D294" s="187"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9795,7 +9899,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="203"/>
+      <c r="D295" s="187"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9815,7 +9919,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="203"/>
+      <c r="D296" s="187"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9835,7 +9939,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="203"/>
+      <c r="D297" s="187"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9855,7 +9959,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="203"/>
+      <c r="D298" s="187"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9875,7 +9979,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="203"/>
+      <c r="D299" s="187"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9895,7 +9999,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="203"/>
+      <c r="D300" s="187"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -9915,7 +10019,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="203"/>
+      <c r="D301" s="187"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -9935,7 +10039,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="203"/>
+      <c r="D302" s="187"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -9955,7 +10059,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="203"/>
+      <c r="D303" s="187"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -9975,7 +10079,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="203"/>
+      <c r="D304" s="187"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -9995,7 +10099,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="203"/>
+      <c r="D305" s="187"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10015,7 +10119,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="203"/>
+      <c r="D306" s="187"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10035,7 +10139,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="203"/>
+      <c r="D307" s="187"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10055,7 +10159,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="203"/>
+      <c r="D308" s="187"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10075,7 +10179,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="203"/>
+      <c r="D309" s="187"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10095,7 +10199,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="203"/>
+      <c r="D310" s="187"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10115,7 +10219,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="203"/>
+      <c r="D311" s="187"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10135,7 +10239,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="203"/>
+      <c r="D312" s="187"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10155,7 +10259,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="203"/>
+      <c r="D313" s="187"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10175,7 +10279,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="203"/>
+      <c r="D314" s="187"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10195,7 +10299,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="203"/>
+      <c r="D315" s="187"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10215,7 +10319,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="203"/>
+      <c r="D316" s="187"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10235,7 +10339,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="203"/>
+      <c r="D317" s="187"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10255,7 +10359,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="203"/>
+      <c r="D318" s="187"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10275,7 +10379,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="203"/>
+      <c r="D319" s="187"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10295,7 +10399,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="203"/>
+      <c r="D320" s="187"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10315,7 +10419,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="203"/>
+      <c r="D321" s="187"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10335,7 +10439,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="203"/>
+      <c r="D322" s="187"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10355,7 +10459,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="203"/>
+      <c r="D323" s="187"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10375,7 +10479,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="203"/>
+      <c r="D324" s="187"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10395,7 +10499,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="203"/>
+      <c r="D325" s="187"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10415,7 +10519,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="213" t="s">
+      <c r="D328" s="188" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10442,7 +10546,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="214"/>
+      <c r="D329" s="189"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10467,7 +10571,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="214"/>
+      <c r="D330" s="189"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10492,7 +10596,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="214"/>
+      <c r="D331" s="189"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10517,7 +10621,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="214"/>
+      <c r="D332" s="189"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10542,7 +10646,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="214"/>
+      <c r="D333" s="189"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10567,7 +10671,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="214"/>
+      <c r="D334" s="189"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10592,7 +10696,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="214"/>
+      <c r="D335" s="189"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10617,7 +10721,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="174"/>
+      <c r="D336" s="185"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10641,7 +10745,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="210" t="s">
+      <c r="D338" s="182" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10661,7 +10765,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="210"/>
+      <c r="D339" s="182"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10679,7 +10783,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="210"/>
+      <c r="D340" s="182"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10697,7 +10801,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="210"/>
+      <c r="D341" s="182"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10723,7 +10827,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="218" t="s">
+      <c r="D343" s="193" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10745,7 +10849,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="218"/>
+      <c r="D344" s="193"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10760,7 +10864,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="207" t="s">
+      <c r="A346" s="179" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10769,7 +10873,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="213" t="s">
+      <c r="D346" s="188" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10784,14 +10888,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="208"/>
+      <c r="A347" s="180"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="214"/>
+      <c r="D347" s="189"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10804,14 +10908,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="208"/>
+      <c r="A348" s="180"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="214"/>
+      <c r="D348" s="189"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10824,14 +10928,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="208"/>
+      <c r="A349" s="180"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="214"/>
+      <c r="D349" s="189"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10844,14 +10948,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="208"/>
+      <c r="A350" s="180"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="214"/>
+      <c r="D350" s="189"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10864,14 +10968,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="208"/>
+      <c r="A351" s="180"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="214"/>
+      <c r="D351" s="189"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10884,14 +10988,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="208"/>
+      <c r="A352" s="180"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="214"/>
+      <c r="D352" s="189"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -10904,14 +11008,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="209"/>
+      <c r="A353" s="181"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="215"/>
+      <c r="D353" s="190"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -10933,7 +11037,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="201" t="s">
+      <c r="D355" s="204" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -10953,7 +11057,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="201"/>
+      <c r="D356" s="204"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -10971,7 +11075,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="201"/>
+      <c r="D357" s="204"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -10989,7 +11093,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="201"/>
+      <c r="D358" s="204"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11067,7 +11171,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="200" t="s">
+      <c r="D362" s="203" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11093,7 +11197,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="200"/>
+      <c r="D363" s="203"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11658,7 +11762,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="205" t="s">
+      <c r="D387" s="177" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11692,7 +11796,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="206"/>
+      <c r="D388" s="178"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11724,7 +11828,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="206"/>
+      <c r="D389" s="178"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -11752,7 +11856,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="206"/>
+      <c r="D390" s="178"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -11780,7 +11884,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="204" t="s">
+      <c r="D391" s="176" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -11810,7 +11914,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="204"/>
+      <c r="D392" s="176"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -11933,139 +12037,139 @@
       <c r="I397" s="168"/>
     </row>
     <row r="398" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="220" t="s">
+      <c r="A398" s="172" t="s">
         <v>451</v>
       </c>
-      <c r="B398" s="221">
+      <c r="B398" s="173">
         <v>341</v>
       </c>
-      <c r="C398" s="221" t="s">
+      <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="222" t="s">
+      <c r="D398" s="175" t="s">
         <v>452</v>
       </c>
-      <c r="E398" s="223"/>
-      <c r="F398" s="223"/>
-      <c r="G398" s="223"/>
-      <c r="H398" s="221"/>
-      <c r="I398" s="221"/>
-      <c r="J398" s="223"/>
-      <c r="K398" s="223" t="s">
+      <c r="E398" s="174"/>
+      <c r="F398" s="174"/>
+      <c r="G398" s="174"/>
+      <c r="H398" s="173"/>
+      <c r="I398" s="173"/>
+      <c r="J398" s="174"/>
+      <c r="K398" s="174" t="s">
         <v>459</v>
       </c>
-      <c r="L398" s="223" t="s">
+      <c r="L398" s="174" t="s">
         <v>460</v>
       </c>
-      <c r="M398" s="223"/>
+      <c r="M398" s="174"/>
     </row>
     <row r="399" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="220" t="s">
+      <c r="A399" s="172" t="s">
         <v>451</v>
       </c>
-      <c r="B399" s="221">
+      <c r="B399" s="173">
         <v>342</v>
       </c>
-      <c r="C399" s="221" t="s">
+      <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="222"/>
-      <c r="E399" s="223"/>
-      <c r="F399" s="223"/>
-      <c r="G399" s="223"/>
-      <c r="H399" s="221"/>
-      <c r="I399" s="221"/>
-      <c r="J399" s="223"/>
-      <c r="K399" s="223" t="s">
+      <c r="D399" s="175"/>
+      <c r="E399" s="174"/>
+      <c r="F399" s="174"/>
+      <c r="G399" s="174"/>
+      <c r="H399" s="173"/>
+      <c r="I399" s="173"/>
+      <c r="J399" s="174"/>
+      <c r="K399" s="174" t="s">
         <v>459</v>
       </c>
-      <c r="L399" s="223" t="s">
+      <c r="L399" s="174" t="s">
         <v>460</v>
       </c>
-      <c r="M399" s="223"/>
+      <c r="M399" s="174"/>
     </row>
     <row r="400" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="220" t="s">
+      <c r="A400" s="172" t="s">
         <v>451</v>
       </c>
-      <c r="B400" s="221">
+      <c r="B400" s="173">
         <v>343</v>
       </c>
-      <c r="C400" s="221" t="s">
+      <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="222"/>
-      <c r="E400" s="223"/>
-      <c r="F400" s="223"/>
-      <c r="G400" s="223"/>
-      <c r="H400" s="221"/>
-      <c r="I400" s="221"/>
-      <c r="J400" s="223"/>
-      <c r="K400" s="223" t="s">
+      <c r="D400" s="175"/>
+      <c r="E400" s="174"/>
+      <c r="F400" s="174"/>
+      <c r="G400" s="174"/>
+      <c r="H400" s="173"/>
+      <c r="I400" s="173"/>
+      <c r="J400" s="174"/>
+      <c r="K400" s="174" t="s">
         <v>459</v>
       </c>
-      <c r="L400" s="223" t="s">
+      <c r="L400" s="174" t="s">
         <v>460</v>
       </c>
-      <c r="M400" s="223"/>
+      <c r="M400" s="174"/>
     </row>
     <row r="401" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="220" t="s">
+      <c r="A401" s="172" t="s">
         <v>451</v>
       </c>
-      <c r="B401" s="221">
+      <c r="B401" s="173">
         <v>344</v>
       </c>
-      <c r="C401" s="221" t="s">
+      <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="222"/>
-      <c r="E401" s="223"/>
-      <c r="F401" s="223"/>
-      <c r="G401" s="223"/>
-      <c r="H401" s="221"/>
-      <c r="I401" s="221" t="s">
+      <c r="D401" s="175"/>
+      <c r="E401" s="174"/>
+      <c r="F401" s="174"/>
+      <c r="G401" s="174"/>
+      <c r="H401" s="173"/>
+      <c r="I401" s="173" t="s">
         <v>458</v>
       </c>
-      <c r="J401" s="223" t="s">
+      <c r="J401" s="174" t="s">
         <v>461</v>
       </c>
-      <c r="K401" s="223" t="s">
+      <c r="K401" s="174" t="s">
         <v>459</v>
       </c>
-      <c r="L401" s="221" t="s">
+      <c r="L401" s="173" t="s">
         <v>461</v>
       </c>
-      <c r="M401" s="223"/>
+      <c r="M401" s="174"/>
     </row>
     <row r="402" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="220" t="s">
+      <c r="A402" s="172" t="s">
         <v>451</v>
       </c>
-      <c r="B402" s="221">
+      <c r="B402" s="173">
         <v>345</v>
       </c>
-      <c r="C402" s="221" t="s">
+      <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="222"/>
-      <c r="E402" s="223"/>
-      <c r="F402" s="223"/>
-      <c r="G402" s="223"/>
-      <c r="H402" s="221"/>
-      <c r="I402" s="221" t="s">
+      <c r="D402" s="175"/>
+      <c r="E402" s="174"/>
+      <c r="F402" s="174"/>
+      <c r="G402" s="174"/>
+      <c r="H402" s="173"/>
+      <c r="I402" s="173" t="s">
         <v>458</v>
       </c>
-      <c r="J402" s="223" t="s">
+      <c r="J402" s="174" t="s">
         <v>462</v>
       </c>
-      <c r="K402" s="223" t="s">
+      <c r="K402" s="174" t="s">
         <v>463</v>
       </c>
-      <c r="L402" s="221" t="s">
+      <c r="L402" s="173" t="s">
         <v>462</v>
       </c>
-      <c r="M402" s="223"/>
+      <c r="M402" s="174"/>
     </row>
     <row r="403" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="161"/>
@@ -12120,31 +12224,177 @@
       <c r="D408"/>
     </row>
     <row r="410" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A412" s="122"/>
+      <c r="B412" s="122">
+        <v>346</v>
+      </c>
+      <c r="C412" s="122" t="s">
+        <v>464</v>
+      </c>
+      <c r="D412" s="224"/>
+      <c r="E412" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F412" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G412" s="122"/>
+      <c r="H412" s="122"/>
+      <c r="I412" s="122"/>
+      <c r="J412" s="122"/>
+      <c r="K412" s="122"/>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A413" s="122"/>
+      <c r="B413" s="122">
+        <v>347</v>
+      </c>
+      <c r="C413" s="122" t="s">
+        <v>465</v>
+      </c>
+      <c r="D413" s="224"/>
+      <c r="E413" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F413" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G413" s="122"/>
+      <c r="H413" s="122"/>
+      <c r="I413" s="122"/>
+      <c r="J413" s="122"/>
+      <c r="K413" s="122"/>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A414" s="122"/>
+      <c r="B414" s="122">
+        <v>348</v>
+      </c>
+      <c r="C414" s="122" t="s">
+        <v>466</v>
+      </c>
+      <c r="D414" s="224"/>
+      <c r="E414" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F414" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G414" s="122"/>
+      <c r="H414" s="122"/>
+      <c r="I414" s="122"/>
+      <c r="J414" s="122"/>
+      <c r="K414" s="122"/>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A415" s="122"/>
+      <c r="B415" s="122">
+        <v>349</v>
+      </c>
+      <c r="C415" s="122" t="s">
+        <v>467</v>
+      </c>
+      <c r="D415" s="224"/>
+      <c r="E415" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F415" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G415" s="122"/>
+      <c r="H415" s="122"/>
+      <c r="I415" s="122"/>
+      <c r="J415" s="122"/>
+      <c r="K415" s="122"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A417" s="122"/>
+      <c r="B417" s="122">
+        <v>350</v>
+      </c>
+      <c r="C417" s="122" t="s">
+        <v>468</v>
+      </c>
+      <c r="D417" s="224"/>
+      <c r="E417" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F417" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G417" s="122"/>
+      <c r="H417" s="122"/>
+      <c r="I417" s="122"/>
+      <c r="J417" s="122"/>
+      <c r="K417" s="122"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A418" s="122"/>
+      <c r="B418" s="122">
+        <v>351</v>
+      </c>
+      <c r="C418" s="122" t="s">
+        <v>469</v>
+      </c>
+      <c r="D418" s="224"/>
+      <c r="E418" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F418" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G418" s="122"/>
+      <c r="H418" s="122"/>
+      <c r="I418" s="122"/>
+      <c r="J418" s="122"/>
+      <c r="K418" s="122"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A419" s="122"/>
+      <c r="B419" s="122">
+        <v>352</v>
+      </c>
+      <c r="C419" s="122" t="s">
+        <v>470</v>
+      </c>
+      <c r="D419" s="224"/>
+      <c r="E419" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F419" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G419" s="122"/>
+      <c r="H419" s="122"/>
+      <c r="I419" s="122"/>
+      <c r="J419" s="122"/>
+      <c r="K419" s="122"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A420" s="122"/>
+      <c r="B420" s="122">
+        <v>353</v>
+      </c>
+      <c r="C420" s="122" t="s">
+        <v>471</v>
+      </c>
+      <c r="D420" s="224"/>
+      <c r="E420" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F420" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G420" s="122"/>
+      <c r="H420" s="122"/>
+      <c r="I420" s="122"/>
+      <c r="J420" s="122"/>
+      <c r="K420" s="122"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D217:D220"/>
-    <mergeCell ref="D140:D211"/>
-    <mergeCell ref="D346:D353"/>
-    <mergeCell ref="D229:D245"/>
-    <mergeCell ref="D222:D227"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="D328:D336"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="D119:D134"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="D362:D363"/>
-    <mergeCell ref="D355:D358"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D254:D325"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="D45:D56"/>
@@ -12156,6 +12406,28 @@
     <mergeCell ref="D12:D21"/>
     <mergeCell ref="D23:D30"/>
     <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="D119:D134"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="D362:D363"/>
+    <mergeCell ref="D355:D358"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D254:D325"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="D140:D211"/>
+    <mergeCell ref="D346:D353"/>
+    <mergeCell ref="D229:D245"/>
+    <mergeCell ref="D222:D227"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="D328:D336"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12164,7 +12436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F435EE5D-2E90-4514-B8DD-DF17F0067356}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5918DDD2-F0AB-4874-8EC8-3456229CFCAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="473">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1739,6 +1739,10 @@
   </si>
   <si>
     <t>友客行业用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付艳朋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2581,100 +2585,16 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2716,6 +2636,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2728,7 +2651,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3117,8 +3121,8 @@
   <dimension ref="A1:M420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E351" sqref="E351"/>
+      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G426" sqref="G426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3184,7 +3188,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="176" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3214,7 +3218,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="184"/>
+      <c r="D3" s="177"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3242,7 +3246,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="185"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3285,7 +3289,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="223" t="s">
+      <c r="D6" s="196" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3311,7 +3315,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="207"/>
+      <c r="D7" s="179"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3335,7 +3339,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="207"/>
+      <c r="D8" s="179"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3359,7 +3363,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="207"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3383,7 +3387,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="207"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3425,7 +3429,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="195" t="s">
+      <c r="D12" s="192" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3451,7 +3455,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="184"/>
+      <c r="D13" s="177"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3475,7 +3479,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="184"/>
+      <c r="D14" s="177"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3499,7 +3503,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="184"/>
+      <c r="D15" s="177"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3523,7 +3527,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="184"/>
+      <c r="D16" s="177"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3547,7 +3551,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="184"/>
+      <c r="D17" s="177"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3571,7 +3575,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="184"/>
+      <c r="D18" s="177"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3595,7 +3599,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="184"/>
+      <c r="D19" s="177"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3619,7 +3623,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="184"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3643,7 +3647,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="185"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3681,7 +3685,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="220" t="s">
+      <c r="D23" s="193" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3703,7 +3707,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="221"/>
+      <c r="D24" s="194"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3731,7 +3735,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="221"/>
+      <c r="D25" s="194"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3759,7 +3763,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="221"/>
+      <c r="D26" s="194"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3779,7 +3783,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="221"/>
+      <c r="D27" s="194"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3807,7 +3811,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="221"/>
+      <c r="D28" s="194"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3835,7 +3839,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="221"/>
+      <c r="D29" s="194"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3863,7 +3867,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="222"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3969,7 +3973,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="185" t="s">
+      <c r="D35" s="178" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3989,7 +3993,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="207"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4007,7 +4011,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="207"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4025,7 +4029,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="207"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4059,7 +4063,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="212" t="s">
+      <c r="D40" s="184" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4085,7 +4089,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="213"/>
+      <c r="D41" s="185"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4109,7 +4113,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="213"/>
+      <c r="D42" s="185"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4133,7 +4137,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="214"/>
+      <c r="D43" s="186"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4171,7 +4175,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="208" t="s">
+      <c r="D45" s="180" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4197,7 +4201,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="209"/>
+      <c r="D46" s="181"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4221,7 +4225,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="209"/>
+      <c r="D47" s="181"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4245,7 +4249,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="209"/>
+      <c r="D48" s="181"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4269,7 +4273,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="209"/>
+      <c r="D49" s="181"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4293,7 +4297,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="209"/>
+      <c r="D50" s="181"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4317,7 +4321,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="209"/>
+      <c r="D51" s="181"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4341,7 +4345,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="209"/>
+      <c r="D52" s="181"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4365,7 +4369,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="209"/>
+      <c r="D53" s="181"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4389,7 +4393,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="209"/>
+      <c r="D54" s="181"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4413,7 +4417,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="209"/>
+      <c r="D55" s="181"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4437,7 +4441,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="210"/>
+      <c r="D56" s="182"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4519,7 +4523,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="211" t="s">
+      <c r="D60" s="183" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4549,7 +4553,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="184"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4577,7 +4581,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="184"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4605,7 +4609,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="184"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4629,7 +4633,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="184"/>
+      <c r="D64" s="177"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4653,7 +4657,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="185"/>
+      <c r="D65" s="178"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4691,7 +4695,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="215" t="s">
+      <c r="D67" s="187" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4721,7 +4725,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="216"/>
+      <c r="D68" s="188"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4749,7 +4753,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="217"/>
+      <c r="D69" s="189"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4791,7 +4795,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="218" t="s">
+      <c r="D71" s="190" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4821,7 +4825,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="219"/>
+      <c r="D72" s="191"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4849,7 +4853,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="219"/>
+      <c r="D73" s="191"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4877,7 +4881,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="219"/>
+      <c r="D74" s="191"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4905,7 +4909,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="207"/>
+      <c r="D75" s="179"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4933,7 +4937,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="207"/>
+      <c r="D76" s="179"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5019,7 +5023,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="208" t="s">
+      <c r="D80" s="180" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5049,7 +5053,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="209"/>
+      <c r="D81" s="181"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5073,7 +5077,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="209"/>
+      <c r="D82" s="181"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5101,7 +5105,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="209"/>
+      <c r="D83" s="181"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5125,7 +5129,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="209"/>
+      <c r="D84" s="181"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5153,7 +5157,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="210"/>
+      <c r="D85" s="182"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5235,7 +5239,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="196" t="s">
+      <c r="D89" s="197" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5265,7 +5269,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="197"/>
+      <c r="D90" s="198"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5293,7 +5297,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="197"/>
+      <c r="D91" s="198"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5321,7 +5325,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="197"/>
+      <c r="D92" s="198"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5349,7 +5353,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="197"/>
+      <c r="D93" s="198"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5377,7 +5381,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="198"/>
+      <c r="D94" s="199"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5419,7 +5423,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="200" t="s">
+      <c r="D96" s="201" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5445,7 +5449,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="201"/>
+      <c r="D97" s="202"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5469,7 +5473,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="201"/>
+      <c r="D98" s="202"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5493,7 +5497,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="201"/>
+      <c r="D99" s="202"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5517,7 +5521,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="201"/>
+      <c r="D100" s="202"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5541,7 +5545,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="201"/>
+      <c r="D101" s="202"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5565,7 +5569,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="201"/>
+      <c r="D102" s="202"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5589,7 +5593,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="202"/>
+      <c r="D103" s="203"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5616,7 +5620,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="205" t="s">
+      <c r="D105" s="206" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5642,7 +5646,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="205"/>
+      <c r="D106" s="206"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5666,7 +5670,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="205"/>
+      <c r="D107" s="206"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5690,7 +5694,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="205"/>
+      <c r="D108" s="206"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5712,7 +5716,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="205"/>
+      <c r="D109" s="206"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5738,7 +5742,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="183" t="s">
+      <c r="D111" s="208" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5764,7 +5768,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="184"/>
+      <c r="D112" s="177"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5788,7 +5792,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="184"/>
+      <c r="D113" s="177"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5812,7 +5816,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="184"/>
+      <c r="D114" s="177"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5836,7 +5840,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="184"/>
+      <c r="D115" s="177"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5860,7 +5864,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="185"/>
+      <c r="D116" s="178"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5890,7 +5894,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="199" t="s">
+      <c r="D119" s="200" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5916,7 +5920,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="199"/>
+      <c r="D120" s="200"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5940,7 +5944,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="199"/>
+      <c r="D121" s="200"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5964,7 +5968,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="199"/>
+      <c r="D122" s="200"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5988,7 +5992,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="199"/>
+      <c r="D123" s="200"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6012,7 +6016,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="199"/>
+      <c r="D124" s="200"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6036,7 +6040,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="199"/>
+      <c r="D125" s="200"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6060,7 +6064,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="199"/>
+      <c r="D126" s="200"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6084,7 +6088,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="199"/>
+      <c r="D127" s="200"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6108,7 +6112,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="199"/>
+      <c r="D128" s="200"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6132,7 +6136,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="199"/>
+      <c r="D129" s="200"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6156,7 +6160,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="199"/>
+      <c r="D130" s="200"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6180,7 +6184,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="199"/>
+      <c r="D131" s="200"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6204,7 +6208,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="199"/>
+      <c r="D132" s="200"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6228,7 +6232,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="199"/>
+      <c r="D133" s="200"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6252,7 +6256,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="199"/>
+      <c r="D134" s="200"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6360,7 +6364,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="187" t="s">
+      <c r="D140" s="207" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6386,7 +6390,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="187"/>
+      <c r="D141" s="207"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6410,7 +6414,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="187"/>
+      <c r="D142" s="207"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6434,7 +6438,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="187"/>
+      <c r="D143" s="207"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6458,7 +6462,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="187"/>
+      <c r="D144" s="207"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6482,7 +6486,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="187"/>
+      <c r="D145" s="207"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6506,7 +6510,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="187"/>
+      <c r="D146" s="207"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6530,7 +6534,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="187"/>
+      <c r="D147" s="207"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6554,7 +6558,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="187"/>
+      <c r="D148" s="207"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6578,7 +6582,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="187"/>
+      <c r="D149" s="207"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6602,7 +6606,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="187"/>
+      <c r="D150" s="207"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6626,7 +6630,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="187"/>
+      <c r="D151" s="207"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6650,7 +6654,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="187"/>
+      <c r="D152" s="207"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6674,7 +6678,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="187"/>
+      <c r="D153" s="207"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6698,7 +6702,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="187"/>
+      <c r="D154" s="207"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6722,7 +6726,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="187"/>
+      <c r="D155" s="207"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6746,7 +6750,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="187"/>
+      <c r="D156" s="207"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6770,7 +6774,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="187"/>
+      <c r="D157" s="207"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6794,7 +6798,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="187"/>
+      <c r="D158" s="207"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6818,7 +6822,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="187"/>
+      <c r="D159" s="207"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6842,7 +6846,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="187"/>
+      <c r="D160" s="207"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6866,7 +6870,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="187"/>
+      <c r="D161" s="207"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6890,7 +6894,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="187"/>
+      <c r="D162" s="207"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6914,7 +6918,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="187"/>
+      <c r="D163" s="207"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6938,7 +6942,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="187"/>
+      <c r="D164" s="207"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6962,7 +6966,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="187"/>
+      <c r="D165" s="207"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6986,7 +6990,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="187"/>
+      <c r="D166" s="207"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7010,7 +7014,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="187"/>
+      <c r="D167" s="207"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7034,7 +7038,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="187"/>
+      <c r="D168" s="207"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7058,7 +7062,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="187"/>
+      <c r="D169" s="207"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7082,7 +7086,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="187"/>
+      <c r="D170" s="207"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7106,7 +7110,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="187"/>
+      <c r="D171" s="207"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7130,7 +7134,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="187"/>
+      <c r="D172" s="207"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7154,7 +7158,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="187"/>
+      <c r="D173" s="207"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7178,7 +7182,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="187"/>
+      <c r="D174" s="207"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7202,7 +7206,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="187"/>
+      <c r="D175" s="207"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7226,7 +7230,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="187"/>
+      <c r="D176" s="207"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7250,7 +7254,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="187"/>
+      <c r="D177" s="207"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7274,7 +7278,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="187"/>
+      <c r="D178" s="207"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7298,7 +7302,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="187"/>
+      <c r="D179" s="207"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7322,7 +7326,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="187"/>
+      <c r="D180" s="207"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7346,7 +7350,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="187"/>
+      <c r="D181" s="207"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7370,7 +7374,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="187"/>
+      <c r="D182" s="207"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7394,7 +7398,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="187"/>
+      <c r="D183" s="207"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7418,7 +7422,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="187"/>
+      <c r="D184" s="207"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7442,7 +7446,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="187"/>
+      <c r="D185" s="207"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7466,7 +7470,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="187"/>
+      <c r="D186" s="207"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7490,7 +7494,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="187"/>
+      <c r="D187" s="207"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7514,7 +7518,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="187"/>
+      <c r="D188" s="207"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7538,7 +7542,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="187"/>
+      <c r="D189" s="207"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7562,7 +7566,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="187"/>
+      <c r="D190" s="207"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7586,7 +7590,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="187"/>
+      <c r="D191" s="207"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7610,7 +7614,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="187"/>
+      <c r="D192" s="207"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7634,7 +7638,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="187"/>
+      <c r="D193" s="207"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7658,7 +7662,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="187"/>
+      <c r="D194" s="207"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7682,7 +7686,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="187"/>
+      <c r="D195" s="207"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7706,7 +7710,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="187"/>
+      <c r="D196" s="207"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7730,7 +7734,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="187"/>
+      <c r="D197" s="207"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7754,7 +7758,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="187"/>
+      <c r="D198" s="207"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7778,7 +7782,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="187"/>
+      <c r="D199" s="207"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7802,7 +7806,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="187"/>
+      <c r="D200" s="207"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7826,7 +7830,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="187"/>
+      <c r="D201" s="207"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7850,7 +7854,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="187"/>
+      <c r="D202" s="207"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7874,7 +7878,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="187"/>
+      <c r="D203" s="207"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7898,7 +7902,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="187"/>
+      <c r="D204" s="207"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7922,7 +7926,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="187"/>
+      <c r="D205" s="207"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7946,7 +7950,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="187"/>
+      <c r="D206" s="207"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7970,7 +7974,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="187"/>
+      <c r="D207" s="207"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7994,7 +7998,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="187"/>
+      <c r="D208" s="207"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8018,7 +8022,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="187"/>
+      <c r="D209" s="207"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8042,7 +8046,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="187"/>
+      <c r="D210" s="207"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8066,7 +8070,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="187"/>
+      <c r="D211" s="207"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8147,7 +8151,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="186" t="s">
+      <c r="D217" s="209" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8172,7 +8176,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="184"/>
+      <c r="D218" s="177"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8195,7 +8199,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="184"/>
+      <c r="D219" s="177"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8218,7 +8222,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="185"/>
+      <c r="D220" s="178"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8241,7 +8245,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="192" t="s">
+      <c r="D222" s="214" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8267,7 +8271,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="192"/>
+      <c r="D223" s="214"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8295,7 +8299,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="192"/>
+      <c r="D224" s="214"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8323,7 +8327,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="192"/>
+      <c r="D225" s="214"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8347,7 +8351,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="192"/>
+      <c r="D226" s="214"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8375,7 +8379,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="192"/>
+      <c r="D227" s="214"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8403,7 +8407,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="191" t="s">
+      <c r="D229" s="213" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8437,7 +8441,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="191"/>
+      <c r="D230" s="213"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8469,7 +8473,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="191"/>
+      <c r="D231" s="213"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8501,7 +8505,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="191"/>
+      <c r="D232" s="213"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8533,7 +8537,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="191"/>
+      <c r="D233" s="213"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8565,7 +8569,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="191"/>
+      <c r="D234" s="213"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8597,7 +8601,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="191"/>
+      <c r="D235" s="213"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8629,7 +8633,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="191"/>
+      <c r="D236" s="213"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8661,7 +8665,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="191"/>
+      <c r="D237" s="213"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8693,7 +8697,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="191"/>
+      <c r="D238" s="213"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8725,7 +8729,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="191"/>
+      <c r="D239" s="213"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8757,7 +8761,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="191"/>
+      <c r="D240" s="213"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8789,7 +8793,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="191"/>
+      <c r="D241" s="213"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8821,7 +8825,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="191"/>
+      <c r="D242" s="213"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8853,7 +8857,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="191"/>
+      <c r="D243" s="213"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8885,7 +8889,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="191"/>
+      <c r="D244" s="213"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8917,7 +8921,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="191"/>
+      <c r="D245" s="213"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8953,7 +8957,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="194" t="s">
+      <c r="D247" s="216" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8979,7 +8983,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="194"/>
+      <c r="D248" s="216"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9003,7 +9007,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="194"/>
+      <c r="D249" s="216"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9027,7 +9031,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="195" t="s">
+      <c r="D251" s="192" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9053,7 +9057,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="185"/>
+      <c r="D252" s="178"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9077,7 +9081,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="187" t="s">
+      <c r="D254" s="207" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9099,7 +9103,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="187"/>
+      <c r="D255" s="207"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9119,7 +9123,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="187"/>
+      <c r="D256" s="207"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9139,7 +9143,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="187"/>
+      <c r="D257" s="207"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9159,7 +9163,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="187"/>
+      <c r="D258" s="207"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9179,7 +9183,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="187"/>
+      <c r="D259" s="207"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9199,7 +9203,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="187"/>
+      <c r="D260" s="207"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9219,7 +9223,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="187"/>
+      <c r="D261" s="207"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9239,7 +9243,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="187"/>
+      <c r="D262" s="207"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9259,7 +9263,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="187"/>
+      <c r="D263" s="207"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9279,7 +9283,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="187"/>
+      <c r="D264" s="207"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9299,7 +9303,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="187"/>
+      <c r="D265" s="207"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9319,7 +9323,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="187"/>
+      <c r="D266" s="207"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9339,7 +9343,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="187"/>
+      <c r="D267" s="207"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9359,7 +9363,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="187"/>
+      <c r="D268" s="207"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9379,7 +9383,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="187"/>
+      <c r="D269" s="207"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9399,7 +9403,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="187"/>
+      <c r="D270" s="207"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9419,7 +9423,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="187"/>
+      <c r="D271" s="207"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9439,7 +9443,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="187"/>
+      <c r="D272" s="207"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9459,7 +9463,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="187"/>
+      <c r="D273" s="207"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9479,7 +9483,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="187"/>
+      <c r="D274" s="207"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9499,7 +9503,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="187"/>
+      <c r="D275" s="207"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9519,7 +9523,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="187"/>
+      <c r="D276" s="207"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9539,7 +9543,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="187"/>
+      <c r="D277" s="207"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9559,7 +9563,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="187"/>
+      <c r="D278" s="207"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9579,7 +9583,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="187"/>
+      <c r="D279" s="207"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9599,7 +9603,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="187"/>
+      <c r="D280" s="207"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9619,7 +9623,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="187"/>
+      <c r="D281" s="207"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9639,7 +9643,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="187"/>
+      <c r="D282" s="207"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9659,7 +9663,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="187"/>
+      <c r="D283" s="207"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9679,7 +9683,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="187"/>
+      <c r="D284" s="207"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9699,7 +9703,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="187"/>
+      <c r="D285" s="207"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9719,7 +9723,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="187"/>
+      <c r="D286" s="207"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9739,7 +9743,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="187"/>
+      <c r="D287" s="207"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9759,7 +9763,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="187"/>
+      <c r="D288" s="207"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9779,7 +9783,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="187"/>
+      <c r="D289" s="207"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9799,7 +9803,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="187"/>
+      <c r="D290" s="207"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9819,7 +9823,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="187"/>
+      <c r="D291" s="207"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9839,7 +9843,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="187"/>
+      <c r="D292" s="207"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9859,7 +9863,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="187"/>
+      <c r="D293" s="207"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9879,7 +9883,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="187"/>
+      <c r="D294" s="207"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9899,7 +9903,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="187"/>
+      <c r="D295" s="207"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9919,7 +9923,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="187"/>
+      <c r="D296" s="207"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9939,7 +9943,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="187"/>
+      <c r="D297" s="207"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9959,7 +9963,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="187"/>
+      <c r="D298" s="207"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9979,7 +9983,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="187"/>
+      <c r="D299" s="207"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -9999,7 +10003,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="187"/>
+      <c r="D300" s="207"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10019,7 +10023,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="187"/>
+      <c r="D301" s="207"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10039,7 +10043,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="187"/>
+      <c r="D302" s="207"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10059,7 +10063,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="187"/>
+      <c r="D303" s="207"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10079,7 +10083,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="187"/>
+      <c r="D304" s="207"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10099,7 +10103,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="187"/>
+      <c r="D305" s="207"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10119,7 +10123,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="187"/>
+      <c r="D306" s="207"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10139,7 +10143,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="187"/>
+      <c r="D307" s="207"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10159,7 +10163,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="187"/>
+      <c r="D308" s="207"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10179,7 +10183,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="187"/>
+      <c r="D309" s="207"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10199,7 +10203,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="187"/>
+      <c r="D310" s="207"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10219,7 +10223,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="187"/>
+      <c r="D311" s="207"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10239,7 +10243,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="187"/>
+      <c r="D312" s="207"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10259,7 +10263,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="187"/>
+      <c r="D313" s="207"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10279,7 +10283,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="187"/>
+      <c r="D314" s="207"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10299,7 +10303,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="187"/>
+      <c r="D315" s="207"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10319,7 +10323,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="187"/>
+      <c r="D316" s="207"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10339,7 +10343,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="187"/>
+      <c r="D317" s="207"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10359,7 +10363,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="187"/>
+      <c r="D318" s="207"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10379,7 +10383,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="187"/>
+      <c r="D319" s="207"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10399,7 +10403,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="187"/>
+      <c r="D320" s="207"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10419,7 +10423,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="187"/>
+      <c r="D321" s="207"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10439,7 +10443,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="187"/>
+      <c r="D322" s="207"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10459,7 +10463,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="187"/>
+      <c r="D323" s="207"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10479,7 +10483,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="187"/>
+      <c r="D324" s="207"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10499,7 +10503,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="187"/>
+      <c r="D325" s="207"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10519,7 +10523,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="188" t="s">
+      <c r="D328" s="210" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10546,7 +10550,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="189"/>
+      <c r="D329" s="211"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10571,7 +10575,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="189"/>
+      <c r="D330" s="211"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10596,7 +10600,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="189"/>
+      <c r="D331" s="211"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10621,7 +10625,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="189"/>
+      <c r="D332" s="211"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10646,7 +10650,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="189"/>
+      <c r="D333" s="211"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10671,7 +10675,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="189"/>
+      <c r="D334" s="211"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10696,7 +10700,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="189"/>
+      <c r="D335" s="211"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10721,7 +10725,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="185"/>
+      <c r="D336" s="178"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10745,7 +10749,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="182" t="s">
+      <c r="D338" s="224" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10765,7 +10769,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="182"/>
+      <c r="D339" s="224"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10783,7 +10787,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="182"/>
+      <c r="D340" s="224"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10801,7 +10805,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="182"/>
+      <c r="D341" s="224"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10827,7 +10831,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="193" t="s">
+      <c r="D343" s="215" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10849,7 +10853,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="193"/>
+      <c r="D344" s="215"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10864,7 +10868,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="179" t="s">
+      <c r="A346" s="221" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10873,7 +10877,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="188" t="s">
+      <c r="D346" s="210" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10888,14 +10892,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="180"/>
+      <c r="A347" s="222"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="189"/>
+      <c r="D347" s="211"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10908,14 +10912,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="180"/>
+      <c r="A348" s="222"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="189"/>
+      <c r="D348" s="211"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10928,14 +10932,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="180"/>
+      <c r="A349" s="222"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="189"/>
+      <c r="D349" s="211"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10948,14 +10952,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="180"/>
+      <c r="A350" s="222"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="189"/>
+      <c r="D350" s="211"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10968,14 +10972,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="180"/>
+      <c r="A351" s="222"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="189"/>
+      <c r="D351" s="211"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10988,14 +10992,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="180"/>
+      <c r="A352" s="222"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="189"/>
+      <c r="D352" s="211"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11008,14 +11012,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="181"/>
+      <c r="A353" s="223"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="190"/>
+      <c r="D353" s="212"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11037,7 +11041,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="204" t="s">
+      <c r="D355" s="205" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11057,7 +11061,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="204"/>
+      <c r="D356" s="205"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11075,7 +11079,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="204"/>
+      <c r="D357" s="205"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11093,7 +11097,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="204"/>
+      <c r="D358" s="205"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11171,7 +11175,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="203" t="s">
+      <c r="D362" s="204" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11197,7 +11201,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="203"/>
+      <c r="D363" s="204"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11762,7 +11766,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="177" t="s">
+      <c r="D387" s="219" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11796,7 +11800,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="178"/>
+      <c r="D388" s="220"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11828,7 +11832,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="178"/>
+      <c r="D389" s="220"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -11856,7 +11860,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="178"/>
+      <c r="D390" s="220"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -11884,7 +11888,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="176" t="s">
+      <c r="D391" s="218" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -11914,7 +11918,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="176"/>
+      <c r="D392" s="218"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12046,7 +12050,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="175" t="s">
+      <c r="D398" s="217" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12073,7 +12077,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="175"/>
+      <c r="D399" s="217"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12098,7 +12102,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="175"/>
+      <c r="D400" s="217"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12123,7 +12127,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="175"/>
+      <c r="D401" s="217"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12152,7 +12156,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="175"/>
+      <c r="D402" s="217"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -12225,14 +12229,16 @@
     </row>
     <row r="410" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A412" s="122"/>
+      <c r="A412" s="142" t="s">
+        <v>267</v>
+      </c>
       <c r="B412" s="122">
         <v>346</v>
       </c>
       <c r="C412" s="122" t="s">
         <v>464</v>
       </c>
-      <c r="D412" s="224"/>
+      <c r="D412" s="175"/>
       <c r="E412" s="4" t="s">
         <v>77</v>
       </c>
@@ -12246,14 +12252,16 @@
       <c r="K412" s="122"/>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A413" s="122"/>
+      <c r="A413" s="142" t="s">
+        <v>267</v>
+      </c>
       <c r="B413" s="122">
         <v>347</v>
       </c>
       <c r="C413" s="122" t="s">
         <v>465</v>
       </c>
-      <c r="D413" s="224"/>
+      <c r="D413" s="175"/>
       <c r="E413" s="4" t="s">
         <v>77</v>
       </c>
@@ -12267,14 +12275,16 @@
       <c r="K413" s="122"/>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A414" s="122"/>
+      <c r="A414" s="142" t="s">
+        <v>267</v>
+      </c>
       <c r="B414" s="122">
         <v>348</v>
       </c>
       <c r="C414" s="122" t="s">
         <v>466</v>
       </c>
-      <c r="D414" s="224"/>
+      <c r="D414" s="175"/>
       <c r="E414" s="4" t="s">
         <v>77</v>
       </c>
@@ -12288,14 +12298,16 @@
       <c r="K414" s="122"/>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A415" s="122"/>
+      <c r="A415" s="142" t="s">
+        <v>267</v>
+      </c>
       <c r="B415" s="122">
         <v>349</v>
       </c>
       <c r="C415" s="122" t="s">
         <v>467</v>
       </c>
-      <c r="D415" s="224"/>
+      <c r="D415" s="175"/>
       <c r="E415" s="4" t="s">
         <v>77</v>
       </c>
@@ -12309,14 +12321,16 @@
       <c r="K415" s="122"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A417" s="122"/>
+      <c r="A417" s="122" t="s">
+        <v>472</v>
+      </c>
       <c r="B417" s="122">
         <v>350</v>
       </c>
       <c r="C417" s="122" t="s">
         <v>468</v>
       </c>
-      <c r="D417" s="224"/>
+      <c r="D417" s="175"/>
       <c r="E417" s="4" t="s">
         <v>77</v>
       </c>
@@ -12330,14 +12344,16 @@
       <c r="K417" s="122"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A418" s="122"/>
+      <c r="A418" s="122" t="s">
+        <v>472</v>
+      </c>
       <c r="B418" s="122">
         <v>351</v>
       </c>
       <c r="C418" s="122" t="s">
         <v>469</v>
       </c>
-      <c r="D418" s="224"/>
+      <c r="D418" s="175"/>
       <c r="E418" s="4" t="s">
         <v>77</v>
       </c>
@@ -12351,14 +12367,16 @@
       <c r="K418" s="122"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A419" s="122"/>
+      <c r="A419" s="122" t="s">
+        <v>472</v>
+      </c>
       <c r="B419" s="122">
         <v>352</v>
       </c>
       <c r="C419" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="D419" s="224"/>
+      <c r="D419" s="175"/>
       <c r="E419" s="4" t="s">
         <v>77</v>
       </c>
@@ -12372,14 +12390,16 @@
       <c r="K419" s="122"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A420" s="122"/>
+      <c r="A420" s="122" t="s">
+        <v>472</v>
+      </c>
       <c r="B420" s="122">
         <v>353</v>
       </c>
       <c r="C420" s="122" t="s">
         <v>471</v>
       </c>
-      <c r="D420" s="224"/>
+      <c r="D420" s="175"/>
       <c r="E420" s="4" t="s">
         <v>77</v>
       </c>
@@ -12395,17 +12415,12 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="D119:D134"/>
     <mergeCell ref="D96:D103"/>
@@ -12422,12 +12437,17 @@
     <mergeCell ref="D343:D344"/>
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5918DDD2-F0AB-4874-8EC8-3456229CFCAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E229F1FC-8539-4408-B306-D28DAFEBF1B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="492">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1743,6 +1743,82 @@
   </si>
   <si>
     <t>付艳朋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝累计现金充值金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝累计返点金充值金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝累计虚拟充值金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝累计现金消耗金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝累计返点金消耗金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝累计虚拟消耗金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝现金余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝返点金余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝虚拟余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝有现金余额会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝有返点金余额会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝有虚拟余额会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都有？？？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝无余额会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝有余额开启关键词用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝有余额未开启关键词用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝有余额开启关键数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝有余额未开启关键数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝top50消耗关键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2323,7 +2399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2586,6 +2662,10 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3118,11 +3198,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M420"/>
+  <dimension ref="A1:M442"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G426" sqref="G426"/>
+      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C442" sqref="C442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3188,7 +3268,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="178" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3218,7 +3298,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3246,7 +3326,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3289,7 +3369,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="196" t="s">
+      <c r="D6" s="198" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3315,7 +3395,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="179"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3339,7 +3419,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="179"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3363,7 +3443,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="179"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3387,7 +3467,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="179"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3429,7 +3509,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="192" t="s">
+      <c r="D12" s="194" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3455,7 +3535,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="177"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3479,7 +3559,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="177"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3503,7 +3583,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="177"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3527,7 +3607,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="177"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3551,7 +3631,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="177"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3575,7 +3655,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="177"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3599,7 +3679,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="177"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3623,7 +3703,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="177"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3647,7 +3727,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="178"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3685,7 +3765,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="193" t="s">
+      <c r="D23" s="195" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3707,7 +3787,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="194"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3735,7 +3815,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="194"/>
+      <c r="D25" s="196"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3763,7 +3843,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="194"/>
+      <c r="D26" s="196"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3783,7 +3863,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="194"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3811,7 +3891,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="194"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3839,7 +3919,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="194"/>
+      <c r="D29" s="196"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3867,7 +3947,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="195"/>
+      <c r="D30" s="197"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -3973,7 +4053,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="178" t="s">
+      <c r="D35" s="180" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -3993,7 +4073,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="179"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4011,7 +4091,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="179"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4029,7 +4109,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="179"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4063,7 +4143,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="184" t="s">
+      <c r="D40" s="186" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4089,7 +4169,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="185"/>
+      <c r="D41" s="187"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4113,7 +4193,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="185"/>
+      <c r="D42" s="187"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4137,7 +4217,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="186"/>
+      <c r="D43" s="188"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4175,7 +4255,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="180" t="s">
+      <c r="D45" s="182" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4201,7 +4281,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="181"/>
+      <c r="D46" s="183"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4225,7 +4305,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="181"/>
+      <c r="D47" s="183"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4249,7 +4329,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="181"/>
+      <c r="D48" s="183"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4273,7 +4353,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="181"/>
+      <c r="D49" s="183"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4297,7 +4377,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="181"/>
+      <c r="D50" s="183"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4321,7 +4401,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="181"/>
+      <c r="D51" s="183"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4345,7 +4425,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="181"/>
+      <c r="D52" s="183"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4369,7 +4449,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="181"/>
+      <c r="D53" s="183"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4393,7 +4473,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="181"/>
+      <c r="D54" s="183"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4417,7 +4497,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="181"/>
+      <c r="D55" s="183"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4441,7 +4521,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="182"/>
+      <c r="D56" s="184"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4523,7 +4603,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="183" t="s">
+      <c r="D60" s="185" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4553,7 +4633,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="177"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4581,7 +4661,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="177"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4609,7 +4689,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="177"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4633,7 +4713,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="177"/>
+      <c r="D64" s="179"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4657,7 +4737,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="178"/>
+      <c r="D65" s="180"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4695,7 +4775,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="187" t="s">
+      <c r="D67" s="189" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4725,7 +4805,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="188"/>
+      <c r="D68" s="190"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4753,7 +4833,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="189"/>
+      <c r="D69" s="191"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4795,7 +4875,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="190" t="s">
+      <c r="D71" s="192" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4825,7 +4905,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="191"/>
+      <c r="D72" s="193"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4853,7 +4933,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="191"/>
+      <c r="D73" s="193"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4881,7 +4961,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="191"/>
+      <c r="D74" s="193"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4909,7 +4989,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="179"/>
+      <c r="D75" s="181"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -4937,7 +5017,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="179"/>
+      <c r="D76" s="181"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5023,7 +5103,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="180" t="s">
+      <c r="D80" s="182" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5053,7 +5133,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="181"/>
+      <c r="D81" s="183"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5077,7 +5157,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="181"/>
+      <c r="D82" s="183"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5105,7 +5185,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="181"/>
+      <c r="D83" s="183"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5129,7 +5209,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="181"/>
+      <c r="D84" s="183"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5157,7 +5237,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="182"/>
+      <c r="D85" s="184"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5239,7 +5319,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="197" t="s">
+      <c r="D89" s="199" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5269,7 +5349,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="198"/>
+      <c r="D90" s="200"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5297,7 +5377,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="198"/>
+      <c r="D91" s="200"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5325,7 +5405,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="198"/>
+      <c r="D92" s="200"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5353,7 +5433,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="198"/>
+      <c r="D93" s="200"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5381,7 +5461,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="199"/>
+      <c r="D94" s="201"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5423,7 +5503,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="201" t="s">
+      <c r="D96" s="203" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5449,7 +5529,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="202"/>
+      <c r="D97" s="204"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5473,7 +5553,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="202"/>
+      <c r="D98" s="204"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5497,7 +5577,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="202"/>
+      <c r="D99" s="204"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5521,7 +5601,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="202"/>
+      <c r="D100" s="204"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5545,7 +5625,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="202"/>
+      <c r="D101" s="204"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5569,7 +5649,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="202"/>
+      <c r="D102" s="204"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5593,7 +5673,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="203"/>
+      <c r="D103" s="205"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5620,7 +5700,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="206" t="s">
+      <c r="D105" s="208" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5646,7 +5726,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="206"/>
+      <c r="D106" s="208"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5670,7 +5750,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="206"/>
+      <c r="D107" s="208"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5694,7 +5774,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="206"/>
+      <c r="D108" s="208"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5716,7 +5796,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="206"/>
+      <c r="D109" s="208"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5742,7 +5822,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="208" t="s">
+      <c r="D111" s="210" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5768,7 +5848,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="177"/>
+      <c r="D112" s="179"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5792,7 +5872,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="177"/>
+      <c r="D113" s="179"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5816,7 +5896,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="177"/>
+      <c r="D114" s="179"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5840,7 +5920,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="177"/>
+      <c r="D115" s="179"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5864,7 +5944,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="178"/>
+      <c r="D116" s="180"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5894,7 +5974,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="200" t="s">
+      <c r="D119" s="202" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -5920,7 +6000,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="200"/>
+      <c r="D120" s="202"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -5944,7 +6024,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="200"/>
+      <c r="D121" s="202"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -5968,7 +6048,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="200"/>
+      <c r="D122" s="202"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -5992,7 +6072,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="200"/>
+      <c r="D123" s="202"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6016,7 +6096,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="200"/>
+      <c r="D124" s="202"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6040,7 +6120,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="200"/>
+      <c r="D125" s="202"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6064,7 +6144,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="200"/>
+      <c r="D126" s="202"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6088,7 +6168,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="200"/>
+      <c r="D127" s="202"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6112,7 +6192,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="200"/>
+      <c r="D128" s="202"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6136,7 +6216,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="200"/>
+      <c r="D129" s="202"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6160,7 +6240,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="200"/>
+      <c r="D130" s="202"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6184,7 +6264,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="200"/>
+      <c r="D131" s="202"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6208,7 +6288,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="200"/>
+      <c r="D132" s="202"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6232,7 +6312,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="200"/>
+      <c r="D133" s="202"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6256,7 +6336,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="200"/>
+      <c r="D134" s="202"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6364,7 +6444,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="207" t="s">
+      <c r="D140" s="209" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6390,7 +6470,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="207"/>
+      <c r="D141" s="209"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6414,7 +6494,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="207"/>
+      <c r="D142" s="209"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6438,7 +6518,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="207"/>
+      <c r="D143" s="209"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6462,7 +6542,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="207"/>
+      <c r="D144" s="209"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6486,7 +6566,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="207"/>
+      <c r="D145" s="209"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6510,7 +6590,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="207"/>
+      <c r="D146" s="209"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6534,7 +6614,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="207"/>
+      <c r="D147" s="209"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6558,7 +6638,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="207"/>
+      <c r="D148" s="209"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6582,7 +6662,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="207"/>
+      <c r="D149" s="209"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6606,7 +6686,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="207"/>
+      <c r="D150" s="209"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6630,7 +6710,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="207"/>
+      <c r="D151" s="209"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6654,7 +6734,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="207"/>
+      <c r="D152" s="209"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6678,7 +6758,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="207"/>
+      <c r="D153" s="209"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6702,7 +6782,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="207"/>
+      <c r="D154" s="209"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6726,7 +6806,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="207"/>
+      <c r="D155" s="209"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6750,7 +6830,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="207"/>
+      <c r="D156" s="209"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6774,7 +6854,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="207"/>
+      <c r="D157" s="209"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6798,7 +6878,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="207"/>
+      <c r="D158" s="209"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6822,7 +6902,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="207"/>
+      <c r="D159" s="209"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6846,7 +6926,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="207"/>
+      <c r="D160" s="209"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6870,7 +6950,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="207"/>
+      <c r="D161" s="209"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6894,7 +6974,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="207"/>
+      <c r="D162" s="209"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6918,7 +6998,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="207"/>
+      <c r="D163" s="209"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -6942,7 +7022,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="207"/>
+      <c r="D164" s="209"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -6966,7 +7046,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="207"/>
+      <c r="D165" s="209"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -6990,7 +7070,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="207"/>
+      <c r="D166" s="209"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7014,7 +7094,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="207"/>
+      <c r="D167" s="209"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7038,7 +7118,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="207"/>
+      <c r="D168" s="209"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7062,7 +7142,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="207"/>
+      <c r="D169" s="209"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7086,7 +7166,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="207"/>
+      <c r="D170" s="209"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7110,7 +7190,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="207"/>
+      <c r="D171" s="209"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7134,7 +7214,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="207"/>
+      <c r="D172" s="209"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7158,7 +7238,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="207"/>
+      <c r="D173" s="209"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7182,7 +7262,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="207"/>
+      <c r="D174" s="209"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7206,7 +7286,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="207"/>
+      <c r="D175" s="209"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7230,7 +7310,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="207"/>
+      <c r="D176" s="209"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7254,7 +7334,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="207"/>
+      <c r="D177" s="209"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7278,7 +7358,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="207"/>
+      <c r="D178" s="209"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7302,7 +7382,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="207"/>
+      <c r="D179" s="209"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7326,7 +7406,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="207"/>
+      <c r="D180" s="209"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7350,7 +7430,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="207"/>
+      <c r="D181" s="209"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7374,7 +7454,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="207"/>
+      <c r="D182" s="209"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7398,7 +7478,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="207"/>
+      <c r="D183" s="209"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7422,7 +7502,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="207"/>
+      <c r="D184" s="209"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7446,7 +7526,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="207"/>
+      <c r="D185" s="209"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7470,7 +7550,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="207"/>
+      <c r="D186" s="209"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7494,7 +7574,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="207"/>
+      <c r="D187" s="209"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7518,7 +7598,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="207"/>
+      <c r="D188" s="209"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7542,7 +7622,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="207"/>
+      <c r="D189" s="209"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7566,7 +7646,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="207"/>
+      <c r="D190" s="209"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7590,7 +7670,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="207"/>
+      <c r="D191" s="209"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7614,7 +7694,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="207"/>
+      <c r="D192" s="209"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7638,7 +7718,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="207"/>
+      <c r="D193" s="209"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7662,7 +7742,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="207"/>
+      <c r="D194" s="209"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7686,7 +7766,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="207"/>
+      <c r="D195" s="209"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7710,7 +7790,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="207"/>
+      <c r="D196" s="209"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7734,7 +7814,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="207"/>
+      <c r="D197" s="209"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7758,7 +7838,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="207"/>
+      <c r="D198" s="209"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7782,7 +7862,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="207"/>
+      <c r="D199" s="209"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7806,7 +7886,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="207"/>
+      <c r="D200" s="209"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7830,7 +7910,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="207"/>
+      <c r="D201" s="209"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7854,7 +7934,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="207"/>
+      <c r="D202" s="209"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7878,7 +7958,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="207"/>
+      <c r="D203" s="209"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7902,7 +7982,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="207"/>
+      <c r="D204" s="209"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -7926,7 +8006,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="207"/>
+      <c r="D205" s="209"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -7950,7 +8030,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="207"/>
+      <c r="D206" s="209"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -7974,7 +8054,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="207"/>
+      <c r="D207" s="209"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -7998,7 +8078,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="207"/>
+      <c r="D208" s="209"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8022,7 +8102,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="207"/>
+      <c r="D209" s="209"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8046,7 +8126,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="207"/>
+      <c r="D210" s="209"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8070,7 +8150,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="207"/>
+      <c r="D211" s="209"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8151,7 +8231,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="209" t="s">
+      <c r="D217" s="211" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8176,7 +8256,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="177"/>
+      <c r="D218" s="179"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8199,7 +8279,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="177"/>
+      <c r="D219" s="179"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8222,7 +8302,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="178"/>
+      <c r="D220" s="180"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8245,7 +8325,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="214" t="s">
+      <c r="D222" s="216" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8271,7 +8351,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="214"/>
+      <c r="D223" s="216"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8299,7 +8379,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="214"/>
+      <c r="D224" s="216"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8327,7 +8407,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="214"/>
+      <c r="D225" s="216"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8351,7 +8431,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="214"/>
+      <c r="D226" s="216"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8379,7 +8459,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="214"/>
+      <c r="D227" s="216"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8407,7 +8487,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="213" t="s">
+      <c r="D229" s="215" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8441,7 +8521,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="213"/>
+      <c r="D230" s="215"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8473,7 +8553,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="213"/>
+      <c r="D231" s="215"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8505,7 +8585,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="213"/>
+      <c r="D232" s="215"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8537,7 +8617,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="213"/>
+      <c r="D233" s="215"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8569,7 +8649,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="213"/>
+      <c r="D234" s="215"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8601,7 +8681,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="213"/>
+      <c r="D235" s="215"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8633,7 +8713,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="213"/>
+      <c r="D236" s="215"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8665,7 +8745,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="213"/>
+      <c r="D237" s="215"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8697,7 +8777,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="213"/>
+      <c r="D238" s="215"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8729,7 +8809,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="213"/>
+      <c r="D239" s="215"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8761,7 +8841,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="213"/>
+      <c r="D240" s="215"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8793,7 +8873,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="213"/>
+      <c r="D241" s="215"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8825,7 +8905,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="213"/>
+      <c r="D242" s="215"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8857,7 +8937,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="213"/>
+      <c r="D243" s="215"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8889,7 +8969,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="213"/>
+      <c r="D244" s="215"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -8921,7 +9001,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="213"/>
+      <c r="D245" s="215"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -8957,7 +9037,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="216" t="s">
+      <c r="D247" s="218" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -8983,7 +9063,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="216"/>
+      <c r="D248" s="218"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9007,7 +9087,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="216"/>
+      <c r="D249" s="218"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9031,7 +9111,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="192" t="s">
+      <c r="D251" s="194" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9057,7 +9137,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="178"/>
+      <c r="D252" s="180"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9081,7 +9161,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="207" t="s">
+      <c r="D254" s="209" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9103,7 +9183,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="207"/>
+      <c r="D255" s="209"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9123,7 +9203,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="207"/>
+      <c r="D256" s="209"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9143,7 +9223,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="207"/>
+      <c r="D257" s="209"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9163,7 +9243,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="207"/>
+      <c r="D258" s="209"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9183,7 +9263,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="207"/>
+      <c r="D259" s="209"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9203,7 +9283,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="207"/>
+      <c r="D260" s="209"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9223,7 +9303,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="207"/>
+      <c r="D261" s="209"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9243,7 +9323,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="207"/>
+      <c r="D262" s="209"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9263,7 +9343,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="207"/>
+      <c r="D263" s="209"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9283,7 +9363,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="207"/>
+      <c r="D264" s="209"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9303,7 +9383,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="207"/>
+      <c r="D265" s="209"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9323,7 +9403,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="207"/>
+      <c r="D266" s="209"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9343,7 +9423,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="207"/>
+      <c r="D267" s="209"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9363,7 +9443,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="207"/>
+      <c r="D268" s="209"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9383,7 +9463,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="207"/>
+      <c r="D269" s="209"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9403,7 +9483,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="207"/>
+      <c r="D270" s="209"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9423,7 +9503,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="207"/>
+      <c r="D271" s="209"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9443,7 +9523,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="207"/>
+      <c r="D272" s="209"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9463,7 +9543,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="207"/>
+      <c r="D273" s="209"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9483,7 +9563,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="207"/>
+      <c r="D274" s="209"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9503,7 +9583,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="207"/>
+      <c r="D275" s="209"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9523,7 +9603,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="207"/>
+      <c r="D276" s="209"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9543,7 +9623,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="207"/>
+      <c r="D277" s="209"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9563,7 +9643,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="207"/>
+      <c r="D278" s="209"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9583,7 +9663,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="207"/>
+      <c r="D279" s="209"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9603,7 +9683,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="207"/>
+      <c r="D280" s="209"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9623,7 +9703,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="207"/>
+      <c r="D281" s="209"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9643,7 +9723,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="207"/>
+      <c r="D282" s="209"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9663,7 +9743,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="207"/>
+      <c r="D283" s="209"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9683,7 +9763,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="207"/>
+      <c r="D284" s="209"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9703,7 +9783,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="207"/>
+      <c r="D285" s="209"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9723,7 +9803,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="207"/>
+      <c r="D286" s="209"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9743,7 +9823,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="207"/>
+      <c r="D287" s="209"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9763,7 +9843,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="207"/>
+      <c r="D288" s="209"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9783,7 +9863,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="207"/>
+      <c r="D289" s="209"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9803,7 +9883,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="207"/>
+      <c r="D290" s="209"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9823,7 +9903,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="207"/>
+      <c r="D291" s="209"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9843,7 +9923,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="207"/>
+      <c r="D292" s="209"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9863,7 +9943,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="207"/>
+      <c r="D293" s="209"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9883,7 +9963,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="207"/>
+      <c r="D294" s="209"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9903,7 +9983,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="207"/>
+      <c r="D295" s="209"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -9923,7 +10003,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="207"/>
+      <c r="D296" s="209"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -9943,7 +10023,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="207"/>
+      <c r="D297" s="209"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -9963,7 +10043,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="207"/>
+      <c r="D298" s="209"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -9983,7 +10063,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="207"/>
+      <c r="D299" s="209"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -10003,7 +10083,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="207"/>
+      <c r="D300" s="209"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10023,7 +10103,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="207"/>
+      <c r="D301" s="209"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10043,7 +10123,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="207"/>
+      <c r="D302" s="209"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10063,7 +10143,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="207"/>
+      <c r="D303" s="209"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10083,7 +10163,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="207"/>
+      <c r="D304" s="209"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10103,7 +10183,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="207"/>
+      <c r="D305" s="209"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10123,7 +10203,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="207"/>
+      <c r="D306" s="209"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10143,7 +10223,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="207"/>
+      <c r="D307" s="209"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10163,7 +10243,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="207"/>
+      <c r="D308" s="209"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10183,7 +10263,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="207"/>
+      <c r="D309" s="209"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10203,7 +10283,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="207"/>
+      <c r="D310" s="209"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10223,7 +10303,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="207"/>
+      <c r="D311" s="209"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10243,7 +10323,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="207"/>
+      <c r="D312" s="209"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10263,7 +10343,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="207"/>
+      <c r="D313" s="209"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10283,7 +10363,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="207"/>
+      <c r="D314" s="209"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10303,7 +10383,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="207"/>
+      <c r="D315" s="209"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10323,7 +10403,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="207"/>
+      <c r="D316" s="209"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10343,7 +10423,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="207"/>
+      <c r="D317" s="209"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10363,7 +10443,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="207"/>
+      <c r="D318" s="209"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10383,7 +10463,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="207"/>
+      <c r="D319" s="209"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10403,7 +10483,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="207"/>
+      <c r="D320" s="209"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10423,7 +10503,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="207"/>
+      <c r="D321" s="209"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10443,7 +10523,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="207"/>
+      <c r="D322" s="209"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10463,7 +10543,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="207"/>
+      <c r="D323" s="209"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10483,7 +10563,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="207"/>
+      <c r="D324" s="209"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10503,7 +10583,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="207"/>
+      <c r="D325" s="209"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10523,7 +10603,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="210" t="s">
+      <c r="D328" s="212" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10550,7 +10630,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="211"/>
+      <c r="D329" s="213"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10575,7 +10655,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="211"/>
+      <c r="D330" s="213"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10600,7 +10680,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="211"/>
+      <c r="D331" s="213"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10625,7 +10705,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="211"/>
+      <c r="D332" s="213"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10650,7 +10730,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="211"/>
+      <c r="D333" s="213"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10675,7 +10755,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="211"/>
+      <c r="D334" s="213"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10700,7 +10780,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="211"/>
+      <c r="D335" s="213"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10725,7 +10805,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="178"/>
+      <c r="D336" s="180"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10749,7 +10829,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="224" t="s">
+      <c r="D338" s="226" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10769,7 +10849,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="224"/>
+      <c r="D339" s="226"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10787,7 +10867,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="224"/>
+      <c r="D340" s="226"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10805,7 +10885,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="224"/>
+      <c r="D341" s="226"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10831,7 +10911,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="215" t="s">
+      <c r="D343" s="217" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10853,7 +10933,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="215"/>
+      <c r="D344" s="217"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10868,7 +10948,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="221" t="s">
+      <c r="A346" s="223" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10877,7 +10957,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="210" t="s">
+      <c r="D346" s="212" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10892,14 +10972,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="222"/>
+      <c r="A347" s="224"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="211"/>
+      <c r="D347" s="213"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10912,14 +10992,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="222"/>
+      <c r="A348" s="224"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="211"/>
+      <c r="D348" s="213"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -10932,14 +11012,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="222"/>
+      <c r="A349" s="224"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="211"/>
+      <c r="D349" s="213"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -10952,14 +11032,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="222"/>
+      <c r="A350" s="224"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="211"/>
+      <c r="D350" s="213"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -10972,14 +11052,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="222"/>
+      <c r="A351" s="224"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="211"/>
+      <c r="D351" s="213"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -10992,14 +11072,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="222"/>
+      <c r="A352" s="224"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="211"/>
+      <c r="D352" s="213"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11012,14 +11092,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="223"/>
+      <c r="A353" s="225"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="212"/>
+      <c r="D353" s="214"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11041,7 +11121,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="205" t="s">
+      <c r="D355" s="207" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11061,7 +11141,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="205"/>
+      <c r="D356" s="207"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11079,7 +11159,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="205"/>
+      <c r="D357" s="207"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11097,7 +11177,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="205"/>
+      <c r="D358" s="207"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11175,7 +11255,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="204" t="s">
+      <c r="D362" s="206" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11201,7 +11281,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="204"/>
+      <c r="D363" s="206"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11766,7 +11846,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="219" t="s">
+      <c r="D387" s="221" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11800,7 +11880,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="220"/>
+      <c r="D388" s="222"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11832,7 +11912,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="220"/>
+      <c r="D389" s="222"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -11860,7 +11940,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="220"/>
+      <c r="D390" s="222"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -11888,7 +11968,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="218" t="s">
+      <c r="D391" s="220" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -11918,7 +11998,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="218"/>
+      <c r="D392" s="220"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12050,7 +12130,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="217" t="s">
+      <c r="D398" s="219" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12077,7 +12157,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="217"/>
+      <c r="D399" s="219"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12102,7 +12182,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="217"/>
+      <c r="D400" s="219"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12127,7 +12207,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="217"/>
+      <c r="D401" s="219"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12156,7 +12236,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="217"/>
+      <c r="D402" s="219"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -12411,6 +12491,362 @@
       <c r="I420" s="122"/>
       <c r="J420" s="122"/>
       <c r="K420" s="122"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A422" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B422" s="122">
+        <v>354</v>
+      </c>
+      <c r="C422" s="122" t="s">
+        <v>473</v>
+      </c>
+      <c r="D422" s="175"/>
+      <c r="E422" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F422" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A423" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B423" s="122">
+        <v>355</v>
+      </c>
+      <c r="C423" s="122" t="s">
+        <v>474</v>
+      </c>
+      <c r="D423" s="175"/>
+      <c r="E423" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F423" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A424" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B424" s="122">
+        <v>356</v>
+      </c>
+      <c r="C424" s="122" t="s">
+        <v>475</v>
+      </c>
+      <c r="D424" s="175"/>
+      <c r="E424" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F424" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A425" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B425" s="122">
+        <v>357</v>
+      </c>
+      <c r="C425" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="D425" s="175"/>
+      <c r="E425" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F425" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A426" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B426" s="122">
+        <v>358</v>
+      </c>
+      <c r="C426" s="122" t="s">
+        <v>477</v>
+      </c>
+      <c r="D426" s="175"/>
+      <c r="E426" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F426" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A427" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B427" s="122">
+        <v>359</v>
+      </c>
+      <c r="C427" s="122" t="s">
+        <v>478</v>
+      </c>
+      <c r="D427" s="175"/>
+      <c r="E427" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F427" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A428" s="142"/>
+      <c r="B428" s="122"/>
+      <c r="C428" s="122"/>
+      <c r="D428" s="175"/>
+      <c r="E428" s="176"/>
+      <c r="F428" s="176"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B429" s="58"/>
+      <c r="C429" s="58"/>
+      <c r="E429" s="58"/>
+      <c r="F429" s="58"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A430" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B430" s="122">
+        <v>360</v>
+      </c>
+      <c r="C430" s="122" t="s">
+        <v>479</v>
+      </c>
+      <c r="D430" s="175"/>
+      <c r="E430" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F430" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A431" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B431" s="122">
+        <v>361</v>
+      </c>
+      <c r="C431" s="122" t="s">
+        <v>480</v>
+      </c>
+      <c r="D431" s="175"/>
+      <c r="E431" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F431" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A432" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B432" s="122">
+        <v>362</v>
+      </c>
+      <c r="C432" s="122" t="s">
+        <v>481</v>
+      </c>
+      <c r="D432" s="175"/>
+      <c r="E432" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F432" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A433" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B433" s="122">
+        <v>363</v>
+      </c>
+      <c r="C433" s="122" t="s">
+        <v>482</v>
+      </c>
+      <c r="D433" s="175"/>
+      <c r="E433" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F433" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A434" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B434" s="122">
+        <v>364</v>
+      </c>
+      <c r="C434" s="122" t="s">
+        <v>483</v>
+      </c>
+      <c r="D434" s="175"/>
+      <c r="E434" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F434" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A435" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B435" s="122">
+        <v>365</v>
+      </c>
+      <c r="C435" s="122" t="s">
+        <v>484</v>
+      </c>
+      <c r="D435" s="175"/>
+      <c r="E435" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F435" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B436" s="122">
+        <v>366</v>
+      </c>
+      <c r="C436" s="153" t="s">
+        <v>485</v>
+      </c>
+      <c r="D436" s="177"/>
+      <c r="E436" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F436" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B437" s="122">
+        <v>367</v>
+      </c>
+      <c r="C437" s="153" t="s">
+        <v>486</v>
+      </c>
+      <c r="D437" s="177"/>
+      <c r="E437" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F437" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B438" s="122">
+        <v>368</v>
+      </c>
+      <c r="C438" s="153" t="s">
+        <v>487</v>
+      </c>
+      <c r="D438" s="177"/>
+      <c r="E438" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F438" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B439" s="122">
+        <v>369</v>
+      </c>
+      <c r="C439" s="153" t="s">
+        <v>488</v>
+      </c>
+      <c r="D439" s="177"/>
+      <c r="E439" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F439" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B440" s="153">
+        <v>370</v>
+      </c>
+      <c r="C440" s="122" t="s">
+        <v>489</v>
+      </c>
+      <c r="D440" s="177"/>
+      <c r="E440" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F440" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B441" s="153">
+        <v>371</v>
+      </c>
+      <c r="C441" s="122" t="s">
+        <v>490</v>
+      </c>
+      <c r="D441" s="177"/>
+      <c r="E441" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F441" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B442" s="153">
+        <v>372</v>
+      </c>
+      <c r="C442" s="122" t="s">
+        <v>491</v>
+      </c>
+      <c r="D442" s="177"/>
+      <c r="E442" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F442" s="176" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E229F1FC-8539-4408-B306-D28DAFEBF1B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C25EA97-C806-46F9-8722-FF675F67120F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="508">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1782,22 +1782,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>互通宝有现金余额会员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互通宝有返点金余额会员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互通宝有虚拟余额会员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都有？？？？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>互通宝无余额会员数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1814,11 +1798,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>互通宝有余额未开启关键数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互通宝top50消耗关键</t>
+    <t>互通宝累计充值金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值，包括现金、虚拟、返点金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝累计消耗金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗，包括现金、虚拟、返点金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括现金、虚拟、返点金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有过充值的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充过值无余额用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝仅现金余额会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝仅返点金余额会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝仅虚拟余额会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝无消耗开启关键词数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启关键词中无消耗的词数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝人均开启关键数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝有余额开启关键数/互通宝有余额开启关键词用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝top50消耗关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启关键词消耗top50，入到一张表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互通宝累计现金充值金额/有过充值的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据插入到sjpt_realtime_static_3data</t>
+  </si>
+  <si>
+    <t>客单价分布指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2665,16 +2728,100 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2716,9 +2863,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2731,89 +2875,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3198,11 +3261,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M442"/>
+  <dimension ref="A1:M451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C442" sqref="C442"/>
+      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C451" sqref="C451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3268,7 +3331,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="208" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3298,7 +3361,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="179"/>
+      <c r="D3" s="199"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3326,7 +3389,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3369,7 +3432,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="225" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3395,7 +3458,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="181"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3419,7 +3482,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="181"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3443,7 +3506,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="209"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3467,7 +3530,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="181"/>
+      <c r="D10" s="209"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3509,7 +3572,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="177" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3535,7 +3598,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="199"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3559,7 +3622,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="179"/>
+      <c r="D14" s="199"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3583,7 +3646,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="179"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3607,7 +3670,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3631,7 +3694,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="199"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3655,7 +3718,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="179"/>
+      <c r="D18" s="199"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3679,7 +3742,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="179"/>
+      <c r="D19" s="199"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3703,7 +3766,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="179"/>
+      <c r="D20" s="199"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3727,7 +3790,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="180"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3765,7 +3828,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="195" t="s">
+      <c r="D23" s="222" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3787,7 +3850,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="196"/>
+      <c r="D24" s="223"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3815,7 +3878,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="196"/>
+      <c r="D25" s="223"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3843,7 +3906,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="196"/>
+      <c r="D26" s="223"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3863,7 +3926,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="196"/>
+      <c r="D27" s="223"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3891,7 +3954,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="196"/>
+      <c r="D28" s="223"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3919,7 +3982,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="196"/>
+      <c r="D29" s="223"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3947,7 +4010,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="197"/>
+      <c r="D30" s="224"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4053,7 +4116,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="178" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -4073,7 +4136,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="181"/>
+      <c r="D36" s="209"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4091,7 +4154,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="209"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4109,7 +4172,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="181"/>
+      <c r="D38" s="209"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4143,7 +4206,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="186" t="s">
+      <c r="D40" s="214" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4169,7 +4232,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="187"/>
+      <c r="D41" s="215"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4193,7 +4256,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="187"/>
+      <c r="D42" s="215"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4217,7 +4280,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="188"/>
+      <c r="D43" s="216"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4255,7 +4318,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="210" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4281,7 +4344,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="183"/>
+      <c r="D46" s="211"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4305,7 +4368,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="183"/>
+      <c r="D47" s="211"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4329,7 +4392,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="183"/>
+      <c r="D48" s="211"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4353,7 +4416,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="183"/>
+      <c r="D49" s="211"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4377,7 +4440,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="183"/>
+      <c r="D50" s="211"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4401,7 +4464,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="183"/>
+      <c r="D51" s="211"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4425,7 +4488,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="183"/>
+      <c r="D52" s="211"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4449,7 +4512,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="183"/>
+      <c r="D53" s="211"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4473,7 +4536,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="183"/>
+      <c r="D54" s="211"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4497,7 +4560,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="183"/>
+      <c r="D55" s="211"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4521,7 +4584,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="184"/>
+      <c r="D56" s="212"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4603,7 +4666,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="185" t="s">
+      <c r="D60" s="213" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4633,7 +4696,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="179"/>
+      <c r="D61" s="199"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4661,7 +4724,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="179"/>
+      <c r="D62" s="199"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4689,7 +4752,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="179"/>
+      <c r="D63" s="199"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4713,7 +4776,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="179"/>
+      <c r="D64" s="199"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4737,7 +4800,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="180"/>
+      <c r="D65" s="178"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4775,7 +4838,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="189" t="s">
+      <c r="D67" s="217" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4805,7 +4868,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="190"/>
+      <c r="D68" s="218"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4833,7 +4896,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="191"/>
+      <c r="D69" s="219"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4875,7 +4938,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="192" t="s">
+      <c r="D71" s="220" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4905,7 +4968,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="193"/>
+      <c r="D72" s="221"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4933,7 +4996,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="193"/>
+      <c r="D73" s="221"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -4961,7 +5024,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="193"/>
+      <c r="D74" s="221"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -4989,7 +5052,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="181"/>
+      <c r="D75" s="209"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -5017,7 +5080,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="181"/>
+      <c r="D76" s="209"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5103,7 +5166,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="182" t="s">
+      <c r="D80" s="210" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5133,7 +5196,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="183"/>
+      <c r="D81" s="211"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5157,7 +5220,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="183"/>
+      <c r="D82" s="211"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5185,7 +5248,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="183"/>
+      <c r="D83" s="211"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5209,7 +5272,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="183"/>
+      <c r="D84" s="211"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5237,7 +5300,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="184"/>
+      <c r="D85" s="212"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5319,7 +5382,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="199" t="s">
+      <c r="D89" s="187" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5349,7 +5412,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="200"/>
+      <c r="D90" s="188"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5377,7 +5440,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="200"/>
+      <c r="D91" s="188"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5405,7 +5468,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="200"/>
+      <c r="D92" s="188"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5433,7 +5496,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="200"/>
+      <c r="D93" s="188"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5461,7 +5524,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="201"/>
+      <c r="D94" s="189"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5503,7 +5566,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="203" t="s">
+      <c r="D96" s="191" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5529,7 +5592,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="204"/>
+      <c r="D97" s="192"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5553,7 +5616,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="204"/>
+      <c r="D98" s="192"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5577,7 +5640,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="204"/>
+      <c r="D99" s="192"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5601,7 +5664,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="204"/>
+      <c r="D100" s="192"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5625,7 +5688,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="204"/>
+      <c r="D101" s="192"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5649,7 +5712,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="204"/>
+      <c r="D102" s="192"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5673,7 +5736,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="205"/>
+      <c r="D103" s="193"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5700,7 +5763,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="208" t="s">
+      <c r="D105" s="196" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5726,7 +5789,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="208"/>
+      <c r="D106" s="196"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5750,7 +5813,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="208"/>
+      <c r="D107" s="196"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5774,7 +5837,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="208"/>
+      <c r="D108" s="196"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5796,7 +5859,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="208"/>
+      <c r="D109" s="196"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5822,7 +5885,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="210" t="s">
+      <c r="D111" s="198" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5848,7 +5911,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="179"/>
+      <c r="D112" s="199"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5872,7 +5935,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="179"/>
+      <c r="D113" s="199"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5896,7 +5959,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="179"/>
+      <c r="D114" s="199"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5920,7 +5983,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="179"/>
+      <c r="D115" s="199"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -5944,7 +6007,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="180"/>
+      <c r="D116" s="178"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -5974,7 +6037,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="202" t="s">
+      <c r="D119" s="190" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -6000,7 +6063,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="202"/>
+      <c r="D120" s="190"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -6024,7 +6087,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="202"/>
+      <c r="D121" s="190"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -6048,7 +6111,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="202"/>
+      <c r="D122" s="190"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -6072,7 +6135,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="202"/>
+      <c r="D123" s="190"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6096,7 +6159,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="202"/>
+      <c r="D124" s="190"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6120,7 +6183,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="202"/>
+      <c r="D125" s="190"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6144,7 +6207,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="202"/>
+      <c r="D126" s="190"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6168,7 +6231,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="202"/>
+      <c r="D127" s="190"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6192,7 +6255,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="202"/>
+      <c r="D128" s="190"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6216,7 +6279,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="202"/>
+      <c r="D129" s="190"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6240,7 +6303,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="202"/>
+      <c r="D130" s="190"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6264,7 +6327,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="202"/>
+      <c r="D131" s="190"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6288,7 +6351,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="202"/>
+      <c r="D132" s="190"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6312,7 +6375,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="202"/>
+      <c r="D133" s="190"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6336,7 +6399,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="202"/>
+      <c r="D134" s="190"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6444,7 +6507,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="209" t="s">
+      <c r="D140" s="197" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6470,7 +6533,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="209"/>
+      <c r="D141" s="197"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6494,7 +6557,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="209"/>
+      <c r="D142" s="197"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6518,7 +6581,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="209"/>
+      <c r="D143" s="197"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6542,7 +6605,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="209"/>
+      <c r="D144" s="197"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6566,7 +6629,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="209"/>
+      <c r="D145" s="197"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6590,7 +6653,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="209"/>
+      <c r="D146" s="197"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6614,7 +6677,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="209"/>
+      <c r="D147" s="197"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6638,7 +6701,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="209"/>
+      <c r="D148" s="197"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6662,7 +6725,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="209"/>
+      <c r="D149" s="197"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6686,7 +6749,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="209"/>
+      <c r="D150" s="197"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6710,7 +6773,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="209"/>
+      <c r="D151" s="197"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6734,7 +6797,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="209"/>
+      <c r="D152" s="197"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6758,7 +6821,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="209"/>
+      <c r="D153" s="197"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6782,7 +6845,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="209"/>
+      <c r="D154" s="197"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6806,7 +6869,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="209"/>
+      <c r="D155" s="197"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6830,7 +6893,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="209"/>
+      <c r="D156" s="197"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6854,7 +6917,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="209"/>
+      <c r="D157" s="197"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6878,7 +6941,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="209"/>
+      <c r="D158" s="197"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6902,7 +6965,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="209"/>
+      <c r="D159" s="197"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6926,7 +6989,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="209"/>
+      <c r="D160" s="197"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -6950,7 +7013,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="209"/>
+      <c r="D161" s="197"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -6974,7 +7037,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="209"/>
+      <c r="D162" s="197"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -6998,7 +7061,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="209"/>
+      <c r="D163" s="197"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -7022,7 +7085,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="209"/>
+      <c r="D164" s="197"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -7046,7 +7109,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="209"/>
+      <c r="D165" s="197"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -7070,7 +7133,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="209"/>
+      <c r="D166" s="197"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7094,7 +7157,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="209"/>
+      <c r="D167" s="197"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7118,7 +7181,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="209"/>
+      <c r="D168" s="197"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7142,7 +7205,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="209"/>
+      <c r="D169" s="197"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7166,7 +7229,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="209"/>
+      <c r="D170" s="197"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7190,7 +7253,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="209"/>
+      <c r="D171" s="197"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7214,7 +7277,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="209"/>
+      <c r="D172" s="197"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7238,7 +7301,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="209"/>
+      <c r="D173" s="197"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7262,7 +7325,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="209"/>
+      <c r="D174" s="197"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7286,7 +7349,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="209"/>
+      <c r="D175" s="197"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7310,7 +7373,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="209"/>
+      <c r="D176" s="197"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7334,7 +7397,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="209"/>
+      <c r="D177" s="197"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7358,7 +7421,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="209"/>
+      <c r="D178" s="197"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7382,7 +7445,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="209"/>
+      <c r="D179" s="197"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7406,7 +7469,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="209"/>
+      <c r="D180" s="197"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7430,7 +7493,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="209"/>
+      <c r="D181" s="197"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7454,7 +7517,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="209"/>
+      <c r="D182" s="197"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7478,7 +7541,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="209"/>
+      <c r="D183" s="197"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7502,7 +7565,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="209"/>
+      <c r="D184" s="197"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7526,7 +7589,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="209"/>
+      <c r="D185" s="197"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7550,7 +7613,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="209"/>
+      <c r="D186" s="197"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7574,7 +7637,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="209"/>
+      <c r="D187" s="197"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7598,7 +7661,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="209"/>
+      <c r="D188" s="197"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7622,7 +7685,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="209"/>
+      <c r="D189" s="197"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7646,7 +7709,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="209"/>
+      <c r="D190" s="197"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7670,7 +7733,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="209"/>
+      <c r="D191" s="197"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7694,7 +7757,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="209"/>
+      <c r="D192" s="197"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7718,7 +7781,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="209"/>
+      <c r="D193" s="197"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7742,7 +7805,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="209"/>
+      <c r="D194" s="197"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7766,7 +7829,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="209"/>
+      <c r="D195" s="197"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7790,7 +7853,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="209"/>
+      <c r="D196" s="197"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7814,7 +7877,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="209"/>
+      <c r="D197" s="197"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7838,7 +7901,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="209"/>
+      <c r="D198" s="197"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7862,7 +7925,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="209"/>
+      <c r="D199" s="197"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7886,7 +7949,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="209"/>
+      <c r="D200" s="197"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7910,7 +7973,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="209"/>
+      <c r="D201" s="197"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7934,7 +7997,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="209"/>
+      <c r="D202" s="197"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -7958,7 +8021,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="209"/>
+      <c r="D203" s="197"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -7982,7 +8045,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="209"/>
+      <c r="D204" s="197"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -8006,7 +8069,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="209"/>
+      <c r="D205" s="197"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -8030,7 +8093,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="209"/>
+      <c r="D206" s="197"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -8054,7 +8117,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="209"/>
+      <c r="D207" s="197"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -8078,7 +8141,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="209"/>
+      <c r="D208" s="197"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8102,7 +8165,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="209"/>
+      <c r="D209" s="197"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8126,7 +8189,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="209"/>
+      <c r="D210" s="197"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8150,7 +8213,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="209"/>
+      <c r="D211" s="197"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8231,7 +8294,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="211" t="s">
+      <c r="D217" s="200" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8256,7 +8319,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="179"/>
+      <c r="D218" s="199"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8279,7 +8342,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="179"/>
+      <c r="D219" s="199"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8302,7 +8365,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="180"/>
+      <c r="D220" s="178"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8325,7 +8388,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="216" t="s">
+      <c r="D222" s="205" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8351,7 +8414,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="216"/>
+      <c r="D223" s="205"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8379,7 +8442,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="216"/>
+      <c r="D224" s="205"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8407,7 +8470,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="216"/>
+      <c r="D225" s="205"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8431,7 +8494,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="216"/>
+      <c r="D226" s="205"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8459,7 +8522,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="216"/>
+      <c r="D227" s="205"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8487,7 +8550,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="215" t="s">
+      <c r="D229" s="204" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8521,7 +8584,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="215"/>
+      <c r="D230" s="204"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8553,7 +8616,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="215"/>
+      <c r="D231" s="204"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8585,7 +8648,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="215"/>
+      <c r="D232" s="204"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8617,7 +8680,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="215"/>
+      <c r="D233" s="204"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8649,7 +8712,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="215"/>
+      <c r="D234" s="204"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8681,7 +8744,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="215"/>
+      <c r="D235" s="204"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8713,7 +8776,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="215"/>
+      <c r="D236" s="204"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8745,7 +8808,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="215"/>
+      <c r="D237" s="204"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8777,7 +8840,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="215"/>
+      <c r="D238" s="204"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8809,7 +8872,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="215"/>
+      <c r="D239" s="204"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8841,7 +8904,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="215"/>
+      <c r="D240" s="204"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8873,7 +8936,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="215"/>
+      <c r="D241" s="204"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8905,7 +8968,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="215"/>
+      <c r="D242" s="204"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -8937,7 +9000,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="215"/>
+      <c r="D243" s="204"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -8969,7 +9032,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="215"/>
+      <c r="D244" s="204"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -9001,7 +9064,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="215"/>
+      <c r="D245" s="204"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -9037,7 +9100,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="218" t="s">
+      <c r="D247" s="207" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -9063,7 +9126,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="218"/>
+      <c r="D248" s="207"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9087,7 +9150,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="218"/>
+      <c r="D249" s="207"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9111,7 +9174,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="194" t="s">
+      <c r="D251" s="177" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9137,7 +9200,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="180"/>
+      <c r="D252" s="178"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9161,7 +9224,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="209" t="s">
+      <c r="D254" s="197" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9183,7 +9246,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="209"/>
+      <c r="D255" s="197"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9203,7 +9266,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="209"/>
+      <c r="D256" s="197"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9223,7 +9286,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="209"/>
+      <c r="D257" s="197"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9243,7 +9306,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="209"/>
+      <c r="D258" s="197"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9263,7 +9326,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="209"/>
+      <c r="D259" s="197"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9283,7 +9346,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="209"/>
+      <c r="D260" s="197"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9303,7 +9366,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="209"/>
+      <c r="D261" s="197"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9323,7 +9386,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="209"/>
+      <c r="D262" s="197"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9343,7 +9406,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="209"/>
+      <c r="D263" s="197"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9363,7 +9426,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="209"/>
+      <c r="D264" s="197"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9383,7 +9446,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="209"/>
+      <c r="D265" s="197"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9403,7 +9466,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="209"/>
+      <c r="D266" s="197"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9423,7 +9486,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="209"/>
+      <c r="D267" s="197"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9443,7 +9506,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="209"/>
+      <c r="D268" s="197"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9463,7 +9526,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="209"/>
+      <c r="D269" s="197"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9483,7 +9546,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="209"/>
+      <c r="D270" s="197"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9503,7 +9566,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="209"/>
+      <c r="D271" s="197"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9523,7 +9586,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="209"/>
+      <c r="D272" s="197"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9543,7 +9606,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="209"/>
+      <c r="D273" s="197"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9563,7 +9626,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="209"/>
+      <c r="D274" s="197"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9583,7 +9646,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="209"/>
+      <c r="D275" s="197"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9603,7 +9666,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="209"/>
+      <c r="D276" s="197"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9623,7 +9686,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="209"/>
+      <c r="D277" s="197"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9643,7 +9706,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="209"/>
+      <c r="D278" s="197"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9663,7 +9726,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="209"/>
+      <c r="D279" s="197"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9683,7 +9746,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="209"/>
+      <c r="D280" s="197"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9703,7 +9766,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="209"/>
+      <c r="D281" s="197"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9723,7 +9786,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="209"/>
+      <c r="D282" s="197"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9743,7 +9806,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="209"/>
+      <c r="D283" s="197"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9763,7 +9826,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="209"/>
+      <c r="D284" s="197"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9783,7 +9846,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="209"/>
+      <c r="D285" s="197"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9803,7 +9866,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="209"/>
+      <c r="D286" s="197"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9823,7 +9886,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="209"/>
+      <c r="D287" s="197"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9843,7 +9906,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="209"/>
+      <c r="D288" s="197"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9863,7 +9926,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="209"/>
+      <c r="D289" s="197"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9883,7 +9946,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="209"/>
+      <c r="D290" s="197"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9903,7 +9966,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="209"/>
+      <c r="D291" s="197"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9923,7 +9986,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="209"/>
+      <c r="D292" s="197"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -9943,7 +10006,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="209"/>
+      <c r="D293" s="197"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -9963,7 +10026,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="209"/>
+      <c r="D294" s="197"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -9983,7 +10046,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="209"/>
+      <c r="D295" s="197"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -10003,7 +10066,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="209"/>
+      <c r="D296" s="197"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -10023,7 +10086,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="209"/>
+      <c r="D297" s="197"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -10043,7 +10106,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="209"/>
+      <c r="D298" s="197"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -10063,7 +10126,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="209"/>
+      <c r="D299" s="197"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -10083,7 +10146,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="209"/>
+      <c r="D300" s="197"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10103,7 +10166,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="209"/>
+      <c r="D301" s="197"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10123,7 +10186,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="209"/>
+      <c r="D302" s="197"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10143,7 +10206,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="209"/>
+      <c r="D303" s="197"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10163,7 +10226,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="209"/>
+      <c r="D304" s="197"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10183,7 +10246,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="209"/>
+      <c r="D305" s="197"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10203,7 +10266,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="209"/>
+      <c r="D306" s="197"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10223,7 +10286,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="209"/>
+      <c r="D307" s="197"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10243,7 +10306,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="209"/>
+      <c r="D308" s="197"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10263,7 +10326,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="209"/>
+      <c r="D309" s="197"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10283,7 +10346,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="209"/>
+      <c r="D310" s="197"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10303,7 +10366,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="209"/>
+      <c r="D311" s="197"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10323,7 +10386,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="209"/>
+      <c r="D312" s="197"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10343,7 +10406,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="209"/>
+      <c r="D313" s="197"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10363,7 +10426,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="209"/>
+      <c r="D314" s="197"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10383,7 +10446,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="209"/>
+      <c r="D315" s="197"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10403,7 +10466,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="209"/>
+      <c r="D316" s="197"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10423,7 +10486,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="209"/>
+      <c r="D317" s="197"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10443,7 +10506,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="209"/>
+      <c r="D318" s="197"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10463,7 +10526,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="209"/>
+      <c r="D319" s="197"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10483,7 +10546,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="209"/>
+      <c r="D320" s="197"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10503,7 +10566,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="209"/>
+      <c r="D321" s="197"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10523,7 +10586,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="209"/>
+      <c r="D322" s="197"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10543,7 +10606,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="209"/>
+      <c r="D323" s="197"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10563,7 +10626,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="209"/>
+      <c r="D324" s="197"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10583,7 +10646,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="209"/>
+      <c r="D325" s="197"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10603,7 +10666,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="212" t="s">
+      <c r="D328" s="201" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10630,7 +10693,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="213"/>
+      <c r="D329" s="202"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10655,7 +10718,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="213"/>
+      <c r="D330" s="202"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10680,7 +10743,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="213"/>
+      <c r="D331" s="202"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10705,7 +10768,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="213"/>
+      <c r="D332" s="202"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10730,7 +10793,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="213"/>
+      <c r="D333" s="202"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10755,7 +10818,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="213"/>
+      <c r="D334" s="202"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10780,7 +10843,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="213"/>
+      <c r="D335" s="202"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10805,7 +10868,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="180"/>
+      <c r="D336" s="178"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10829,7 +10892,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="226" t="s">
+      <c r="D338" s="186" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10849,7 +10912,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="226"/>
+      <c r="D339" s="186"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10867,7 +10930,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="226"/>
+      <c r="D340" s="186"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10885,7 +10948,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="226"/>
+      <c r="D341" s="186"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10911,7 +10974,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="217" t="s">
+      <c r="D343" s="206" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10933,7 +10996,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="217"/>
+      <c r="D344" s="206"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -10948,7 +11011,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="223" t="s">
+      <c r="A346" s="183" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -10957,7 +11020,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="212" t="s">
+      <c r="D346" s="201" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -10972,14 +11035,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="224"/>
+      <c r="A347" s="184"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="213"/>
+      <c r="D347" s="202"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -10992,14 +11055,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="224"/>
+      <c r="A348" s="184"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="213"/>
+      <c r="D348" s="202"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -11012,14 +11075,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="224"/>
+      <c r="A349" s="184"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="213"/>
+      <c r="D349" s="202"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -11032,14 +11095,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="224"/>
+      <c r="A350" s="184"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="213"/>
+      <c r="D350" s="202"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -11052,14 +11115,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="224"/>
+      <c r="A351" s="184"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="213"/>
+      <c r="D351" s="202"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -11072,14 +11135,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="224"/>
+      <c r="A352" s="184"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="213"/>
+      <c r="D352" s="202"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11092,14 +11155,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="225"/>
+      <c r="A353" s="185"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="214"/>
+      <c r="D353" s="203"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11121,7 +11184,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="207" t="s">
+      <c r="D355" s="195" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11141,7 +11204,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="207"/>
+      <c r="D356" s="195"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11159,7 +11222,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="207"/>
+      <c r="D357" s="195"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11177,7 +11240,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="207"/>
+      <c r="D358" s="195"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11255,7 +11318,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="206" t="s">
+      <c r="D362" s="194" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11281,7 +11344,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="206"/>
+      <c r="D363" s="194"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11846,7 +11909,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="221" t="s">
+      <c r="D387" s="181" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11880,7 +11943,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="222"/>
+      <c r="D388" s="182"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11912,7 +11975,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="222"/>
+      <c r="D389" s="182"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -11940,7 +12003,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="222"/>
+      <c r="D390" s="182"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -11968,7 +12031,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="220" t="s">
+      <c r="D391" s="180" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -11998,7 +12061,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="220"/>
+      <c r="D392" s="180"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12130,7 +12193,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="219" t="s">
+      <c r="D398" s="179" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12157,7 +12220,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="219"/>
+      <c r="D399" s="179"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12182,7 +12245,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="219"/>
+      <c r="D400" s="179"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12207,7 +12270,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="219"/>
+      <c r="D401" s="179"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12236,7 +12299,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="219"/>
+      <c r="D402" s="179"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -12547,16 +12610,16 @@
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A425" s="142" t="s">
-        <v>267</v>
-      </c>
+      <c r="A425" s="142"/>
       <c r="B425" s="122">
         <v>357</v>
       </c>
       <c r="C425" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="D425" s="175"/>
+        <v>486</v>
+      </c>
+      <c r="D425" s="226" t="s">
+        <v>487</v>
+      </c>
       <c r="E425" s="176" t="s">
         <v>77</v>
       </c>
@@ -12565,32 +12628,22 @@
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A426" s="142" t="s">
-        <v>267</v>
-      </c>
-      <c r="B426" s="122">
-        <v>358</v>
-      </c>
-      <c r="C426" s="122" t="s">
-        <v>477</v>
-      </c>
-      <c r="D426" s="175"/>
-      <c r="E426" s="176" t="s">
-        <v>77</v>
-      </c>
-      <c r="F426" s="176" t="s">
-        <v>75</v>
-      </c>
+      <c r="A426" s="142"/>
+      <c r="B426" s="122"/>
+      <c r="C426" s="122"/>
+      <c r="D426" s="226"/>
+      <c r="E426" s="176"/>
+      <c r="F426" s="176"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="142" t="s">
         <v>267</v>
       </c>
       <c r="B427" s="122">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C427" s="122" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D427" s="175"/>
       <c r="E427" s="176" t="s">
@@ -12601,30 +12654,52 @@
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A428" s="142"/>
-      <c r="B428" s="122"/>
-      <c r="C428" s="122"/>
+      <c r="A428" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B428" s="122">
+        <v>359</v>
+      </c>
+      <c r="C428" s="122" t="s">
+        <v>477</v>
+      </c>
       <c r="D428" s="175"/>
-      <c r="E428" s="176"/>
-      <c r="F428" s="176"/>
+      <c r="E428" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F428" s="176" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B429" s="58"/>
-      <c r="C429" s="58"/>
-      <c r="E429" s="58"/>
-      <c r="F429" s="58"/>
+      <c r="A429" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B429" s="122">
+        <v>360</v>
+      </c>
+      <c r="C429" s="122" t="s">
+        <v>478</v>
+      </c>
+      <c r="D429" s="175"/>
+      <c r="E429" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F429" s="176" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A430" s="142" t="s">
-        <v>267</v>
-      </c>
+      <c r="A430" s="142"/>
       <c r="B430" s="122">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C430" s="122" t="s">
-        <v>479</v>
-      </c>
-      <c r="D430" s="175"/>
+        <v>488</v>
+      </c>
+      <c r="D430" s="226" t="s">
+        <v>489</v>
+      </c>
       <c r="E430" s="176" t="s">
         <v>77</v>
       </c>
@@ -12633,22 +12708,10 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A431" s="142" t="s">
-        <v>267</v>
-      </c>
-      <c r="B431" s="122">
-        <v>361</v>
-      </c>
-      <c r="C431" s="122" t="s">
-        <v>480</v>
-      </c>
-      <c r="D431" s="175"/>
-      <c r="E431" s="176" t="s">
-        <v>77</v>
-      </c>
-      <c r="F431" s="176" t="s">
-        <v>75</v>
-      </c>
+      <c r="B431" s="58"/>
+      <c r="C431" s="58"/>
+      <c r="E431" s="58"/>
+      <c r="F431" s="58"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="142" t="s">
@@ -12658,9 +12721,9 @@
         <v>362</v>
       </c>
       <c r="C432" s="122" t="s">
-        <v>481</v>
-      </c>
-      <c r="D432" s="175"/>
+        <v>479</v>
+      </c>
+      <c r="D432" s="154"/>
       <c r="E432" s="176" t="s">
         <v>77</v>
       </c>
@@ -12676,9 +12739,9 @@
         <v>363</v>
       </c>
       <c r="C433" s="122" t="s">
-        <v>482</v>
-      </c>
-      <c r="D433" s="175"/>
+        <v>480</v>
+      </c>
+      <c r="D433" s="154"/>
       <c r="E433" s="176" t="s">
         <v>77</v>
       </c>
@@ -12694,9 +12757,9 @@
         <v>364</v>
       </c>
       <c r="C434" s="122" t="s">
-        <v>483</v>
-      </c>
-      <c r="D434" s="175"/>
+        <v>481</v>
+      </c>
+      <c r="D434" s="154"/>
       <c r="E434" s="176" t="s">
         <v>77</v>
       </c>
@@ -12705,16 +12768,16 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A435" s="142" t="s">
-        <v>267</v>
-      </c>
+      <c r="A435" s="142"/>
       <c r="B435" s="122">
         <v>365</v>
       </c>
       <c r="C435" s="122" t="s">
-        <v>484</v>
-      </c>
-      <c r="D435" s="175"/>
+        <v>490</v>
+      </c>
+      <c r="D435" s="226" t="s">
+        <v>491</v>
+      </c>
       <c r="E435" s="176" t="s">
         <v>77</v>
       </c>
@@ -12723,34 +12786,24 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A436" s="142" t="s">
-        <v>267</v>
-      </c>
-      <c r="B436" s="122">
+      <c r="A436" s="142"/>
+      <c r="B436" s="122"/>
+      <c r="C436" s="122"/>
+      <c r="D436" s="154"/>
+      <c r="E436" s="176"/>
+      <c r="F436" s="176"/>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" s="142"/>
+      <c r="B437" s="122">
         <v>366</v>
       </c>
-      <c r="C436" s="153" t="s">
-        <v>485</v>
-      </c>
-      <c r="D436" s="177"/>
-      <c r="E436" s="176" t="s">
-        <v>77</v>
-      </c>
-      <c r="F436" s="176" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A437" s="142" t="s">
-        <v>267</v>
-      </c>
-      <c r="B437" s="122">
-        <v>367</v>
-      </c>
-      <c r="C437" s="153" t="s">
-        <v>486</v>
-      </c>
-      <c r="D437" s="177"/>
+      <c r="C437" s="122" t="s">
+        <v>492</v>
+      </c>
+      <c r="D437" s="226" t="s">
+        <v>493</v>
+      </c>
       <c r="E437" s="176" t="s">
         <v>77</v>
       </c>
@@ -12763,12 +12816,14 @@
         <v>267</v>
       </c>
       <c r="B438" s="122">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C438" s="153" t="s">
-        <v>487</v>
-      </c>
-      <c r="D438" s="177"/>
+        <v>482</v>
+      </c>
+      <c r="D438" s="226" t="s">
+        <v>494</v>
+      </c>
       <c r="E438" s="176" t="s">
         <v>77</v>
       </c>
@@ -12781,12 +12836,12 @@
         <v>267</v>
       </c>
       <c r="B439" s="122">
-        <v>369</v>
-      </c>
-      <c r="C439" s="153" t="s">
-        <v>488</v>
-      </c>
-      <c r="D439" s="177"/>
+        <v>368</v>
+      </c>
+      <c r="C439" s="122" t="s">
+        <v>495</v>
+      </c>
+      <c r="D439" s="154"/>
       <c r="E439" s="176" t="s">
         <v>77</v>
       </c>
@@ -12798,13 +12853,13 @@
       <c r="A440" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="B440" s="153">
-        <v>370</v>
+      <c r="B440" s="122">
+        <v>369</v>
       </c>
       <c r="C440" s="122" t="s">
-        <v>489</v>
-      </c>
-      <c r="D440" s="177"/>
+        <v>496</v>
+      </c>
+      <c r="D440" s="154"/>
       <c r="E440" s="176" t="s">
         <v>77</v>
       </c>
@@ -12816,13 +12871,13 @@
       <c r="A441" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="B441" s="153">
-        <v>371</v>
+      <c r="B441" s="122">
+        <v>370</v>
       </c>
       <c r="C441" s="122" t="s">
-        <v>490</v>
-      </c>
-      <c r="D441" s="177"/>
+        <v>497</v>
+      </c>
+      <c r="D441" s="154"/>
       <c r="E441" s="176" t="s">
         <v>77</v>
       </c>
@@ -12834,29 +12889,172 @@
       <c r="A442" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="B442" s="153">
-        <v>372</v>
-      </c>
-      <c r="C442" s="122" t="s">
-        <v>491</v>
-      </c>
-      <c r="D442" s="177"/>
+      <c r="B442" s="122">
+        <v>371</v>
+      </c>
+      <c r="C442" s="153" t="s">
+        <v>483</v>
+      </c>
+      <c r="D442" s="226"/>
       <c r="E442" s="176" t="s">
         <v>77</v>
       </c>
       <c r="F442" s="176" t="s">
         <v>75</v>
       </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B443" s="122">
+        <v>372</v>
+      </c>
+      <c r="C443" s="153" t="s">
+        <v>484</v>
+      </c>
+      <c r="D443" s="226"/>
+      <c r="E443" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F443" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B444" s="122">
+        <v>373</v>
+      </c>
+      <c r="C444" s="122" t="s">
+        <v>485</v>
+      </c>
+      <c r="D444" s="226"/>
+      <c r="E444" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F444" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445" s="142"/>
+      <c r="B445" s="122">
+        <v>374</v>
+      </c>
+      <c r="C445" s="122" t="s">
+        <v>498</v>
+      </c>
+      <c r="D445" s="122" t="s">
+        <v>499</v>
+      </c>
+      <c r="E445" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F445" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B446" s="122">
+        <v>375</v>
+      </c>
+      <c r="C446" s="122" t="s">
+        <v>500</v>
+      </c>
+      <c r="D446" s="226" t="s">
+        <v>501</v>
+      </c>
+      <c r="E446" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F446" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A447" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B447" s="122">
+        <v>376</v>
+      </c>
+      <c r="C447" s="122" t="s">
+        <v>502</v>
+      </c>
+      <c r="D447" s="226" t="s">
+        <v>503</v>
+      </c>
+      <c r="E447" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F447" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A448" s="142"/>
+      <c r="B448" s="122"/>
+      <c r="C448" s="58"/>
+      <c r="D448" s="58"/>
+      <c r="E448" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F448" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A449" s="142"/>
+      <c r="B449" s="122">
+        <v>377</v>
+      </c>
+      <c r="C449" s="122" t="s">
+        <v>504</v>
+      </c>
+      <c r="D449" s="226" t="s">
+        <v>505</v>
+      </c>
+      <c r="E449" s="176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F449" s="176" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A451" s="122"/>
+      <c r="B451" s="122">
+        <v>378</v>
+      </c>
+      <c r="C451" s="122" t="s">
+        <v>507</v>
+      </c>
+      <c r="D451" s="122" t="s">
+        <v>506</v>
+      </c>
+      <c r="E451" s="122"/>
+      <c r="F451" s="122"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="D119:D134"/>
     <mergeCell ref="D96:D103"/>
@@ -12873,17 +13071,12 @@
     <mergeCell ref="D343:D344"/>
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C25EA97-C806-46F9-8722-FF675F67120F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C3CEE5C-FACC-42ED-8201-8D698A9DF36B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="509">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1882,6 +1882,10 @@
   </si>
   <si>
     <t>客单价分布指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日消耗分布指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2728,100 +2732,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2863,6 +2783,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2875,8 +2798,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3261,11 +3265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M451"/>
+  <dimension ref="A1:M452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C451" sqref="C451"/>
+      <selection pane="bottomLeft" activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3331,7 +3335,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="178" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3361,7 +3365,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="199"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3389,7 +3393,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3432,7 +3436,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="225" t="s">
+      <c r="D6" s="198" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3458,7 +3462,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="209"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3482,7 +3486,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="209"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3506,7 +3510,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="209"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="209"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3572,7 +3576,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="177" t="s">
+      <c r="D12" s="194" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3598,7 +3602,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="199"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3622,7 +3626,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="199"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3646,7 +3650,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="199"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3670,7 +3674,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="199"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3694,7 +3698,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="199"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3718,7 +3722,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="199"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3742,7 +3746,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="199"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3766,7 +3770,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="199"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3790,7 +3794,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="178"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3828,7 +3832,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="222" t="s">
+      <c r="D23" s="195" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3850,7 +3854,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="223"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3878,7 +3882,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="223"/>
+      <c r="D25" s="196"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3906,7 +3910,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="223"/>
+      <c r="D26" s="196"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3926,7 +3930,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="223"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3954,7 +3958,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="223"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3982,7 +3986,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="223"/>
+      <c r="D29" s="196"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -4010,7 +4014,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="224"/>
+      <c r="D30" s="197"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4116,7 +4120,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="178" t="s">
+      <c r="D35" s="180" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -4136,7 +4140,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="209"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4154,7 +4158,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="209"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4172,7 +4176,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="209"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4206,7 +4210,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="214" t="s">
+      <c r="D40" s="186" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4232,7 +4236,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="215"/>
+      <c r="D41" s="187"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4256,7 +4260,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="215"/>
+      <c r="D42" s="187"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4280,7 +4284,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="216"/>
+      <c r="D43" s="188"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4318,7 +4322,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="210" t="s">
+      <c r="D45" s="182" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4344,7 +4348,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="211"/>
+      <c r="D46" s="183"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4368,7 +4372,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="211"/>
+      <c r="D47" s="183"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4392,7 +4396,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="211"/>
+      <c r="D48" s="183"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4416,7 +4420,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="211"/>
+      <c r="D49" s="183"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4440,7 +4444,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="211"/>
+      <c r="D50" s="183"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4464,7 +4468,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="211"/>
+      <c r="D51" s="183"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4488,7 +4492,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="211"/>
+      <c r="D52" s="183"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4512,7 +4516,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="211"/>
+      <c r="D53" s="183"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4536,7 +4540,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="211"/>
+      <c r="D54" s="183"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4560,7 +4564,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="211"/>
+      <c r="D55" s="183"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4584,7 +4588,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="212"/>
+      <c r="D56" s="184"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4666,7 +4670,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="213" t="s">
+      <c r="D60" s="185" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4696,7 +4700,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="199"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4724,7 +4728,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="199"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4752,7 +4756,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="199"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4776,7 +4780,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="199"/>
+      <c r="D64" s="179"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4800,7 +4804,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="178"/>
+      <c r="D65" s="180"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4838,7 +4842,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="217" t="s">
+      <c r="D67" s="189" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4868,7 +4872,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="218"/>
+      <c r="D68" s="190"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4896,7 +4900,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="219"/>
+      <c r="D69" s="191"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4938,7 +4942,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="220" t="s">
+      <c r="D71" s="192" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4968,7 +4972,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="221"/>
+      <c r="D72" s="193"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4996,7 +5000,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="221"/>
+      <c r="D73" s="193"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -5024,7 +5028,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="221"/>
+      <c r="D74" s="193"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -5052,7 +5056,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="209"/>
+      <c r="D75" s="181"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -5080,7 +5084,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="209"/>
+      <c r="D76" s="181"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5166,7 +5170,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="210" t="s">
+      <c r="D80" s="182" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5196,7 +5200,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="211"/>
+      <c r="D81" s="183"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5220,7 +5224,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="211"/>
+      <c r="D82" s="183"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5248,7 +5252,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="211"/>
+      <c r="D83" s="183"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5272,7 +5276,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="211"/>
+      <c r="D84" s="183"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5300,7 +5304,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="212"/>
+      <c r="D85" s="184"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5382,7 +5386,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="187" t="s">
+      <c r="D89" s="199" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5412,7 +5416,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="188"/>
+      <c r="D90" s="200"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5440,7 +5444,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="188"/>
+      <c r="D91" s="200"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5468,7 +5472,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="188"/>
+      <c r="D92" s="200"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5496,7 +5500,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="188"/>
+      <c r="D93" s="200"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5524,7 +5528,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="189"/>
+      <c r="D94" s="201"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5566,7 +5570,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="191" t="s">
+      <c r="D96" s="203" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5592,7 +5596,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="192"/>
+      <c r="D97" s="204"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5616,7 +5620,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="192"/>
+      <c r="D98" s="204"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5640,7 +5644,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="192"/>
+      <c r="D99" s="204"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5664,7 +5668,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="192"/>
+      <c r="D100" s="204"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5688,7 +5692,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="192"/>
+      <c r="D101" s="204"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5712,7 +5716,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="192"/>
+      <c r="D102" s="204"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5736,7 +5740,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="193"/>
+      <c r="D103" s="205"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5763,7 +5767,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="196" t="s">
+      <c r="D105" s="208" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5789,7 +5793,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="196"/>
+      <c r="D106" s="208"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5813,7 +5817,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="196"/>
+      <c r="D107" s="208"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5837,7 +5841,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="196"/>
+      <c r="D108" s="208"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5859,7 +5863,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="196"/>
+      <c r="D109" s="208"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5885,7 +5889,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="198" t="s">
+      <c r="D111" s="210" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5911,7 +5915,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="199"/>
+      <c r="D112" s="179"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5935,7 +5939,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="199"/>
+      <c r="D113" s="179"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5959,7 +5963,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="199"/>
+      <c r="D114" s="179"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5983,7 +5987,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="199"/>
+      <c r="D115" s="179"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -6007,7 +6011,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="178"/>
+      <c r="D116" s="180"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -6037,7 +6041,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="190" t="s">
+      <c r="D119" s="202" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -6063,7 +6067,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="190"/>
+      <c r="D120" s="202"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -6087,7 +6091,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="190"/>
+      <c r="D121" s="202"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -6111,7 +6115,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="190"/>
+      <c r="D122" s="202"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -6135,7 +6139,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="190"/>
+      <c r="D123" s="202"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6159,7 +6163,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="190"/>
+      <c r="D124" s="202"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6183,7 +6187,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="190"/>
+      <c r="D125" s="202"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6207,7 +6211,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="190"/>
+      <c r="D126" s="202"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6231,7 +6235,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="190"/>
+      <c r="D127" s="202"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6255,7 +6259,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="190"/>
+      <c r="D128" s="202"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6279,7 +6283,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="190"/>
+      <c r="D129" s="202"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6303,7 +6307,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="190"/>
+      <c r="D130" s="202"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6327,7 +6331,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="190"/>
+      <c r="D131" s="202"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6351,7 +6355,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="190"/>
+      <c r="D132" s="202"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6375,7 +6379,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="190"/>
+      <c r="D133" s="202"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6399,7 +6403,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="190"/>
+      <c r="D134" s="202"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6507,7 +6511,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="197" t="s">
+      <c r="D140" s="209" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6533,7 +6537,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="197"/>
+      <c r="D141" s="209"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6557,7 +6561,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="197"/>
+      <c r="D142" s="209"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6581,7 +6585,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="197"/>
+      <c r="D143" s="209"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6605,7 +6609,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="197"/>
+      <c r="D144" s="209"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6629,7 +6633,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="197"/>
+      <c r="D145" s="209"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6653,7 +6657,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="197"/>
+      <c r="D146" s="209"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6677,7 +6681,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="197"/>
+      <c r="D147" s="209"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6701,7 +6705,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="197"/>
+      <c r="D148" s="209"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6725,7 +6729,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="197"/>
+      <c r="D149" s="209"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6749,7 +6753,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="197"/>
+      <c r="D150" s="209"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6773,7 +6777,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="197"/>
+      <c r="D151" s="209"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6797,7 +6801,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="197"/>
+      <c r="D152" s="209"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6821,7 +6825,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="197"/>
+      <c r="D153" s="209"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6845,7 +6849,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="197"/>
+      <c r="D154" s="209"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6869,7 +6873,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="197"/>
+      <c r="D155" s="209"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6893,7 +6897,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="197"/>
+      <c r="D156" s="209"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6917,7 +6921,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="197"/>
+      <c r="D157" s="209"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6941,7 +6945,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="197"/>
+      <c r="D158" s="209"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6965,7 +6969,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="197"/>
+      <c r="D159" s="209"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6989,7 +6993,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="197"/>
+      <c r="D160" s="209"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -7013,7 +7017,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="197"/>
+      <c r="D161" s="209"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -7037,7 +7041,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="197"/>
+      <c r="D162" s="209"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -7061,7 +7065,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="197"/>
+      <c r="D163" s="209"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -7085,7 +7089,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="197"/>
+      <c r="D164" s="209"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -7109,7 +7113,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="197"/>
+      <c r="D165" s="209"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -7133,7 +7137,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="197"/>
+      <c r="D166" s="209"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7157,7 +7161,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="197"/>
+      <c r="D167" s="209"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7181,7 +7185,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="197"/>
+      <c r="D168" s="209"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7205,7 +7209,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="197"/>
+      <c r="D169" s="209"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7229,7 +7233,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="197"/>
+      <c r="D170" s="209"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7253,7 +7257,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="197"/>
+      <c r="D171" s="209"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7277,7 +7281,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="197"/>
+      <c r="D172" s="209"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7301,7 +7305,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="197"/>
+      <c r="D173" s="209"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7325,7 +7329,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="197"/>
+      <c r="D174" s="209"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7349,7 +7353,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="197"/>
+      <c r="D175" s="209"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7373,7 +7377,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="197"/>
+      <c r="D176" s="209"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7397,7 +7401,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="197"/>
+      <c r="D177" s="209"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7421,7 +7425,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="197"/>
+      <c r="D178" s="209"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7445,7 +7449,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="197"/>
+      <c r="D179" s="209"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7469,7 +7473,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="197"/>
+      <c r="D180" s="209"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7493,7 +7497,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="197"/>
+      <c r="D181" s="209"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7517,7 +7521,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="197"/>
+      <c r="D182" s="209"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7541,7 +7545,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="197"/>
+      <c r="D183" s="209"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7565,7 +7569,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="197"/>
+      <c r="D184" s="209"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7589,7 +7593,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="197"/>
+      <c r="D185" s="209"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7613,7 +7617,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="197"/>
+      <c r="D186" s="209"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7637,7 +7641,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="197"/>
+      <c r="D187" s="209"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7661,7 +7665,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="197"/>
+      <c r="D188" s="209"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7685,7 +7689,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="197"/>
+      <c r="D189" s="209"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7709,7 +7713,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="197"/>
+      <c r="D190" s="209"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7733,7 +7737,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="197"/>
+      <c r="D191" s="209"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7757,7 +7761,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="197"/>
+      <c r="D192" s="209"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7781,7 +7785,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="197"/>
+      <c r="D193" s="209"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7805,7 +7809,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="197"/>
+      <c r="D194" s="209"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7829,7 +7833,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="197"/>
+      <c r="D195" s="209"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7853,7 +7857,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="197"/>
+      <c r="D196" s="209"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7877,7 +7881,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="197"/>
+      <c r="D197" s="209"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7901,7 +7905,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="197"/>
+      <c r="D198" s="209"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7925,7 +7929,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="197"/>
+      <c r="D199" s="209"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7949,7 +7953,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="197"/>
+      <c r="D200" s="209"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7973,7 +7977,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="197"/>
+      <c r="D201" s="209"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7997,7 +8001,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="197"/>
+      <c r="D202" s="209"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -8021,7 +8025,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="197"/>
+      <c r="D203" s="209"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -8045,7 +8049,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="197"/>
+      <c r="D204" s="209"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -8069,7 +8073,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="197"/>
+      <c r="D205" s="209"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -8093,7 +8097,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="197"/>
+      <c r="D206" s="209"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -8117,7 +8121,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="197"/>
+      <c r="D207" s="209"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -8141,7 +8145,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="197"/>
+      <c r="D208" s="209"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8165,7 +8169,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="197"/>
+      <c r="D209" s="209"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8189,7 +8193,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="197"/>
+      <c r="D210" s="209"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8213,7 +8217,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="197"/>
+      <c r="D211" s="209"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8294,7 +8298,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="200" t="s">
+      <c r="D217" s="211" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8319,7 +8323,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="199"/>
+      <c r="D218" s="179"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8342,7 +8346,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="199"/>
+      <c r="D219" s="179"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8365,7 +8369,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="178"/>
+      <c r="D220" s="180"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8388,7 +8392,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="205" t="s">
+      <c r="D222" s="216" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8414,7 +8418,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="205"/>
+      <c r="D223" s="216"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8442,7 +8446,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="205"/>
+      <c r="D224" s="216"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8470,7 +8474,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="205"/>
+      <c r="D225" s="216"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8494,7 +8498,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="205"/>
+      <c r="D226" s="216"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8522,7 +8526,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="205"/>
+      <c r="D227" s="216"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8550,7 +8554,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="204" t="s">
+      <c r="D229" s="215" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8584,7 +8588,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="204"/>
+      <c r="D230" s="215"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8616,7 +8620,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="204"/>
+      <c r="D231" s="215"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8648,7 +8652,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="204"/>
+      <c r="D232" s="215"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8680,7 +8684,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="204"/>
+      <c r="D233" s="215"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8712,7 +8716,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="204"/>
+      <c r="D234" s="215"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8744,7 +8748,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="204"/>
+      <c r="D235" s="215"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8776,7 +8780,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="204"/>
+      <c r="D236" s="215"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8808,7 +8812,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="204"/>
+      <c r="D237" s="215"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8840,7 +8844,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="204"/>
+      <c r="D238" s="215"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8872,7 +8876,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="204"/>
+      <c r="D239" s="215"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8904,7 +8908,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="204"/>
+      <c r="D240" s="215"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8936,7 +8940,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="204"/>
+      <c r="D241" s="215"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8968,7 +8972,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="204"/>
+      <c r="D242" s="215"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -9000,7 +9004,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="204"/>
+      <c r="D243" s="215"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -9032,7 +9036,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="204"/>
+      <c r="D244" s="215"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -9064,7 +9068,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="204"/>
+      <c r="D245" s="215"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -9100,7 +9104,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="207" t="s">
+      <c r="D247" s="218" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -9126,7 +9130,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="207"/>
+      <c r="D248" s="218"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9150,7 +9154,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="207"/>
+      <c r="D249" s="218"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9174,7 +9178,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="177" t="s">
+      <c r="D251" s="194" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9200,7 +9204,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="178"/>
+      <c r="D252" s="180"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9224,7 +9228,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="197" t="s">
+      <c r="D254" s="209" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9246,7 +9250,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="197"/>
+      <c r="D255" s="209"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9266,7 +9270,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="197"/>
+      <c r="D256" s="209"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9286,7 +9290,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="197"/>
+      <c r="D257" s="209"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9306,7 +9310,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="197"/>
+      <c r="D258" s="209"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9326,7 +9330,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="197"/>
+      <c r="D259" s="209"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9346,7 +9350,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="197"/>
+      <c r="D260" s="209"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9366,7 +9370,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="197"/>
+      <c r="D261" s="209"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9386,7 +9390,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="197"/>
+      <c r="D262" s="209"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9406,7 +9410,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="197"/>
+      <c r="D263" s="209"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9426,7 +9430,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="197"/>
+      <c r="D264" s="209"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9446,7 +9450,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="197"/>
+      <c r="D265" s="209"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9466,7 +9470,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="197"/>
+      <c r="D266" s="209"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9486,7 +9490,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="197"/>
+      <c r="D267" s="209"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9506,7 +9510,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="197"/>
+      <c r="D268" s="209"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9526,7 +9530,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="197"/>
+      <c r="D269" s="209"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9546,7 +9550,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="197"/>
+      <c r="D270" s="209"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9566,7 +9570,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="197"/>
+      <c r="D271" s="209"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9586,7 +9590,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="197"/>
+      <c r="D272" s="209"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9606,7 +9610,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="197"/>
+      <c r="D273" s="209"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9626,7 +9630,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="197"/>
+      <c r="D274" s="209"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9646,7 +9650,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="197"/>
+      <c r="D275" s="209"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9666,7 +9670,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="197"/>
+      <c r="D276" s="209"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9686,7 +9690,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="197"/>
+      <c r="D277" s="209"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9706,7 +9710,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="197"/>
+      <c r="D278" s="209"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9726,7 +9730,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="197"/>
+      <c r="D279" s="209"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9746,7 +9750,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="197"/>
+      <c r="D280" s="209"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9766,7 +9770,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="197"/>
+      <c r="D281" s="209"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9786,7 +9790,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="197"/>
+      <c r="D282" s="209"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9806,7 +9810,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="197"/>
+      <c r="D283" s="209"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9826,7 +9830,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="197"/>
+      <c r="D284" s="209"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9846,7 +9850,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="197"/>
+      <c r="D285" s="209"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9866,7 +9870,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="197"/>
+      <c r="D286" s="209"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9886,7 +9890,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="197"/>
+      <c r="D287" s="209"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9906,7 +9910,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="197"/>
+      <c r="D288" s="209"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9926,7 +9930,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="197"/>
+      <c r="D289" s="209"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9946,7 +9950,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="197"/>
+      <c r="D290" s="209"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9966,7 +9970,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="197"/>
+      <c r="D291" s="209"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9986,7 +9990,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="197"/>
+      <c r="D292" s="209"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -10006,7 +10010,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="197"/>
+      <c r="D293" s="209"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -10026,7 +10030,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="197"/>
+      <c r="D294" s="209"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -10046,7 +10050,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="197"/>
+      <c r="D295" s="209"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -10066,7 +10070,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="197"/>
+      <c r="D296" s="209"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -10086,7 +10090,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="197"/>
+      <c r="D297" s="209"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -10106,7 +10110,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="197"/>
+      <c r="D298" s="209"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -10126,7 +10130,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="197"/>
+      <c r="D299" s="209"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -10146,7 +10150,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="197"/>
+      <c r="D300" s="209"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10166,7 +10170,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="197"/>
+      <c r="D301" s="209"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10186,7 +10190,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="197"/>
+      <c r="D302" s="209"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10206,7 +10210,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="197"/>
+      <c r="D303" s="209"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10226,7 +10230,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="197"/>
+      <c r="D304" s="209"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10246,7 +10250,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="197"/>
+      <c r="D305" s="209"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10266,7 +10270,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="197"/>
+      <c r="D306" s="209"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10286,7 +10290,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="197"/>
+      <c r="D307" s="209"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10306,7 +10310,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="197"/>
+      <c r="D308" s="209"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10326,7 +10330,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="197"/>
+      <c r="D309" s="209"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10346,7 +10350,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="197"/>
+      <c r="D310" s="209"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10366,7 +10370,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="197"/>
+      <c r="D311" s="209"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10386,7 +10390,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="197"/>
+      <c r="D312" s="209"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10406,7 +10410,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="197"/>
+      <c r="D313" s="209"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10426,7 +10430,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="197"/>
+      <c r="D314" s="209"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10446,7 +10450,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="197"/>
+      <c r="D315" s="209"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10466,7 +10470,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="197"/>
+      <c r="D316" s="209"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10486,7 +10490,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="197"/>
+      <c r="D317" s="209"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10506,7 +10510,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="197"/>
+      <c r="D318" s="209"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10526,7 +10530,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="197"/>
+      <c r="D319" s="209"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10546,7 +10550,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="197"/>
+      <c r="D320" s="209"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10566,7 +10570,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="197"/>
+      <c r="D321" s="209"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10586,7 +10590,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="197"/>
+      <c r="D322" s="209"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10606,7 +10610,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="197"/>
+      <c r="D323" s="209"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10626,7 +10630,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="197"/>
+      <c r="D324" s="209"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10646,7 +10650,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="197"/>
+      <c r="D325" s="209"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10666,7 +10670,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="201" t="s">
+      <c r="D328" s="212" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10693,7 +10697,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="202"/>
+      <c r="D329" s="213"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10718,7 +10722,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="202"/>
+      <c r="D330" s="213"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10743,7 +10747,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="202"/>
+      <c r="D331" s="213"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10768,7 +10772,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="202"/>
+      <c r="D332" s="213"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10793,7 +10797,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="202"/>
+      <c r="D333" s="213"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10818,7 +10822,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="202"/>
+      <c r="D334" s="213"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10843,7 +10847,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="202"/>
+      <c r="D335" s="213"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10868,7 +10872,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="178"/>
+      <c r="D336" s="180"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10892,7 +10896,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="186" t="s">
+      <c r="D338" s="226" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10912,7 +10916,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="186"/>
+      <c r="D339" s="226"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10930,7 +10934,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="186"/>
+      <c r="D340" s="226"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10948,7 +10952,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="186"/>
+      <c r="D341" s="226"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10974,7 +10978,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="206" t="s">
+      <c r="D343" s="217" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10996,7 +11000,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="206"/>
+      <c r="D344" s="217"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -11011,7 +11015,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="183" t="s">
+      <c r="A346" s="223" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -11020,7 +11024,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="201" t="s">
+      <c r="D346" s="212" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -11035,14 +11039,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="184"/>
+      <c r="A347" s="224"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="202"/>
+      <c r="D347" s="213"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -11055,14 +11059,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="184"/>
+      <c r="A348" s="224"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="202"/>
+      <c r="D348" s="213"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -11075,14 +11079,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="184"/>
+      <c r="A349" s="224"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="202"/>
+      <c r="D349" s="213"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -11095,14 +11099,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="184"/>
+      <c r="A350" s="224"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="202"/>
+      <c r="D350" s="213"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -11115,14 +11119,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="184"/>
+      <c r="A351" s="224"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="202"/>
+      <c r="D351" s="213"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -11135,14 +11139,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="184"/>
+      <c r="A352" s="224"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="202"/>
+      <c r="D352" s="213"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11155,14 +11159,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="185"/>
+      <c r="A353" s="225"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="203"/>
+      <c r="D353" s="214"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11184,7 +11188,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="195" t="s">
+      <c r="D355" s="207" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11204,7 +11208,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="195"/>
+      <c r="D356" s="207"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11222,7 +11226,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="195"/>
+      <c r="D357" s="207"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11240,7 +11244,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="195"/>
+      <c r="D358" s="207"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11318,7 +11322,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="194" t="s">
+      <c r="D362" s="206" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11344,7 +11348,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="194"/>
+      <c r="D363" s="206"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11909,7 +11913,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="181" t="s">
+      <c r="D387" s="221" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11943,7 +11947,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="182"/>
+      <c r="D388" s="222"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11975,7 +11979,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="182"/>
+      <c r="D389" s="222"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -12003,7 +12007,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="182"/>
+      <c r="D390" s="222"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -12031,7 +12035,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="180" t="s">
+      <c r="D391" s="220" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -12061,7 +12065,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="180"/>
+      <c r="D392" s="220"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12193,7 +12197,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="179" t="s">
+      <c r="D398" s="219" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12220,7 +12224,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="179"/>
+      <c r="D399" s="219"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12245,7 +12249,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="179"/>
+      <c r="D400" s="219"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12270,7 +12274,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="179"/>
+      <c r="D401" s="219"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12299,7 +12303,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="179"/>
+      <c r="D402" s="219"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -12617,7 +12621,7 @@
       <c r="C425" s="122" t="s">
         <v>486</v>
       </c>
-      <c r="D425" s="226" t="s">
+      <c r="D425" s="177" t="s">
         <v>487</v>
       </c>
       <c r="E425" s="176" t="s">
@@ -12631,7 +12635,7 @@
       <c r="A426" s="142"/>
       <c r="B426" s="122"/>
       <c r="C426" s="122"/>
-      <c r="D426" s="226"/>
+      <c r="D426" s="177"/>
       <c r="E426" s="176"/>
       <c r="F426" s="176"/>
     </row>
@@ -12697,7 +12701,7 @@
       <c r="C430" s="122" t="s">
         <v>488</v>
       </c>
-      <c r="D430" s="226" t="s">
+      <c r="D430" s="177" t="s">
         <v>489</v>
       </c>
       <c r="E430" s="176" t="s">
@@ -12775,7 +12779,7 @@
       <c r="C435" s="122" t="s">
         <v>490</v>
       </c>
-      <c r="D435" s="226" t="s">
+      <c r="D435" s="177" t="s">
         <v>491</v>
       </c>
       <c r="E435" s="176" t="s">
@@ -12801,7 +12805,7 @@
       <c r="C437" s="122" t="s">
         <v>492</v>
       </c>
-      <c r="D437" s="226" t="s">
+      <c r="D437" s="177" t="s">
         <v>493</v>
       </c>
       <c r="E437" s="176" t="s">
@@ -12821,7 +12825,7 @@
       <c r="C438" s="153" t="s">
         <v>482</v>
       </c>
-      <c r="D438" s="226" t="s">
+      <c r="D438" s="177" t="s">
         <v>494</v>
       </c>
       <c r="E438" s="176" t="s">
@@ -12895,7 +12899,7 @@
       <c r="C442" s="153" t="s">
         <v>483</v>
       </c>
-      <c r="D442" s="226"/>
+      <c r="D442" s="177"/>
       <c r="E442" s="176" t="s">
         <v>77</v>
       </c>
@@ -12913,7 +12917,7 @@
       <c r="C443" s="153" t="s">
         <v>484</v>
       </c>
-      <c r="D443" s="226"/>
+      <c r="D443" s="177"/>
       <c r="E443" s="176" t="s">
         <v>77</v>
       </c>
@@ -12931,7 +12935,7 @@
       <c r="C444" s="122" t="s">
         <v>485</v>
       </c>
-      <c r="D444" s="226"/>
+      <c r="D444" s="177"/>
       <c r="E444" s="176" t="s">
         <v>77</v>
       </c>
@@ -12967,7 +12971,7 @@
       <c r="C446" s="122" t="s">
         <v>500</v>
       </c>
-      <c r="D446" s="226" t="s">
+      <c r="D446" s="177" t="s">
         <v>501</v>
       </c>
       <c r="E446" s="176" t="s">
@@ -12987,7 +12991,7 @@
       <c r="C447" s="122" t="s">
         <v>502</v>
       </c>
-      <c r="D447" s="226" t="s">
+      <c r="D447" s="177" t="s">
         <v>503</v>
       </c>
       <c r="E447" s="176" t="s">
@@ -13017,7 +13021,7 @@
       <c r="C449" s="122" t="s">
         <v>504</v>
       </c>
-      <c r="D449" s="226" t="s">
+      <c r="D449" s="177" t="s">
         <v>505</v>
       </c>
       <c r="E449" s="176" t="s">
@@ -13041,20 +13045,29 @@
       <c r="E451" s="122"/>
       <c r="F451" s="122"/>
     </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A452" s="122"/>
+      <c r="B452" s="153">
+        <v>379</v>
+      </c>
+      <c r="C452" s="153" t="s">
+        <v>508</v>
+      </c>
+      <c r="D452" s="122" t="s">
+        <v>506</v>
+      </c>
+      <c r="E452" s="122"/>
+      <c r="F452" s="122"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="D119:D134"/>
     <mergeCell ref="D96:D103"/>
@@ -13071,12 +13084,17 @@
     <mergeCell ref="D343:D344"/>
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C3CEE5C-FACC-42ED-8201-8D698A9DF36B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA32DFFF-1230-49DA-86BD-1F194F264E3A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="508">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1863,10 +1863,6 @@
   </si>
   <si>
     <t>互通宝top50消耗关键词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启关键词消耗top50，入到一张表中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2735,13 +2731,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2783,9 +2866,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2796,90 +2876,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3265,18 +3261,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M452"/>
+  <dimension ref="A1:M454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C445" sqref="C445"/>
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D447" sqref="D447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="108" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.625" style="108" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="7" max="7" width="27.75" customWidth="1"/>
@@ -3335,7 +3331,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="209" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3365,7 +3361,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="179"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3393,7 +3389,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="179"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3436,7 +3432,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="226" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3462,7 +3458,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="181"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3486,7 +3482,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="181"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3510,7 +3506,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3534,7 +3530,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="181"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3576,7 +3572,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="178" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3602,7 +3598,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="200"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3626,7 +3622,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="179"/>
+      <c r="D14" s="200"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3650,7 +3646,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="179"/>
+      <c r="D15" s="200"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3674,7 +3670,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="200"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3698,7 +3694,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="200"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3722,7 +3718,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="179"/>
+      <c r="D18" s="200"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3746,7 +3742,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="179"/>
+      <c r="D19" s="200"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3770,7 +3766,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="179"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3794,7 +3790,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="180"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3832,7 +3828,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="195" t="s">
+      <c r="D23" s="223" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3854,7 +3850,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="196"/>
+      <c r="D24" s="224"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3882,7 +3878,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="196"/>
+      <c r="D25" s="224"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3910,7 +3906,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="196"/>
+      <c r="D26" s="224"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3930,7 +3926,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="196"/>
+      <c r="D27" s="224"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3958,7 +3954,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="196"/>
+      <c r="D28" s="224"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3986,7 +3982,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="196"/>
+      <c r="D29" s="224"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -4014,7 +4010,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="197"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4120,7 +4116,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="179" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -4140,7 +4136,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="181"/>
+      <c r="D36" s="210"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4158,7 +4154,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="210"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4176,7 +4172,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="181"/>
+      <c r="D38" s="210"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4210,7 +4206,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="186" t="s">
+      <c r="D40" s="215" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4236,7 +4232,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="187"/>
+      <c r="D41" s="216"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4260,7 +4256,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="187"/>
+      <c r="D42" s="216"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4284,7 +4280,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="188"/>
+      <c r="D43" s="217"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4322,7 +4318,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="211" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4348,7 +4344,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="183"/>
+      <c r="D46" s="212"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4372,7 +4368,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="183"/>
+      <c r="D47" s="212"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4396,7 +4392,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="183"/>
+      <c r="D48" s="212"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4420,7 +4416,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="183"/>
+      <c r="D49" s="212"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4444,7 +4440,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="183"/>
+      <c r="D50" s="212"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4468,7 +4464,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="183"/>
+      <c r="D51" s="212"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4492,7 +4488,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="183"/>
+      <c r="D52" s="212"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4516,7 +4512,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="183"/>
+      <c r="D53" s="212"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4540,7 +4536,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="183"/>
+      <c r="D54" s="212"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4564,7 +4560,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="183"/>
+      <c r="D55" s="212"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4588,7 +4584,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="184"/>
+      <c r="D56" s="213"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4670,7 +4666,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="185" t="s">
+      <c r="D60" s="214" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4700,7 +4696,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="179"/>
+      <c r="D61" s="200"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4728,7 +4724,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="179"/>
+      <c r="D62" s="200"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4756,7 +4752,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="179"/>
+      <c r="D63" s="200"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4780,7 +4776,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="179"/>
+      <c r="D64" s="200"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4804,7 +4800,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="180"/>
+      <c r="D65" s="179"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4842,7 +4838,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="189" t="s">
+      <c r="D67" s="218" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4872,7 +4868,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="190"/>
+      <c r="D68" s="219"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4900,7 +4896,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="191"/>
+      <c r="D69" s="220"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4942,7 +4938,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="192" t="s">
+      <c r="D71" s="221" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4972,7 +4968,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="193"/>
+      <c r="D72" s="222"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -5000,7 +4996,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="193"/>
+      <c r="D73" s="222"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -5028,7 +5024,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="193"/>
+      <c r="D74" s="222"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -5056,7 +5052,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="181"/>
+      <c r="D75" s="210"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -5084,7 +5080,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="181"/>
+      <c r="D76" s="210"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5170,7 +5166,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="182" t="s">
+      <c r="D80" s="211" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5200,7 +5196,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="183"/>
+      <c r="D81" s="212"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5224,7 +5220,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="183"/>
+      <c r="D82" s="212"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5252,7 +5248,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="183"/>
+      <c r="D83" s="212"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5276,7 +5272,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="183"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5304,7 +5300,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="184"/>
+      <c r="D85" s="213"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5386,7 +5382,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="199" t="s">
+      <c r="D89" s="188" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5416,7 +5412,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="200"/>
+      <c r="D90" s="189"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5444,7 +5440,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="200"/>
+      <c r="D91" s="189"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5472,7 +5468,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="200"/>
+      <c r="D92" s="189"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5500,7 +5496,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="200"/>
+      <c r="D93" s="189"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5528,7 +5524,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="201"/>
+      <c r="D94" s="190"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5570,7 +5566,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="203" t="s">
+      <c r="D96" s="192" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5596,7 +5592,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="204"/>
+      <c r="D97" s="193"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5620,7 +5616,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="204"/>
+      <c r="D98" s="193"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5644,7 +5640,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="204"/>
+      <c r="D99" s="193"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5668,7 +5664,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="204"/>
+      <c r="D100" s="193"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5692,7 +5688,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="204"/>
+      <c r="D101" s="193"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5716,7 +5712,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="204"/>
+      <c r="D102" s="193"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5740,7 +5736,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="205"/>
+      <c r="D103" s="194"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5767,7 +5763,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="208" t="s">
+      <c r="D105" s="197" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5793,7 +5789,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="208"/>
+      <c r="D106" s="197"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5817,7 +5813,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="208"/>
+      <c r="D107" s="197"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5841,7 +5837,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="208"/>
+      <c r="D108" s="197"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5863,7 +5859,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="208"/>
+      <c r="D109" s="197"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5889,7 +5885,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="210" t="s">
+      <c r="D111" s="199" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5915,7 +5911,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="179"/>
+      <c r="D112" s="200"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5939,7 +5935,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="179"/>
+      <c r="D113" s="200"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5963,7 +5959,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="179"/>
+      <c r="D114" s="200"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5987,7 +5983,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="179"/>
+      <c r="D115" s="200"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -6011,7 +6007,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="180"/>
+      <c r="D116" s="179"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -6041,7 +6037,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="202" t="s">
+      <c r="D119" s="191" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -6067,7 +6063,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="202"/>
+      <c r="D120" s="191"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -6091,7 +6087,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="202"/>
+      <c r="D121" s="191"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -6115,7 +6111,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="202"/>
+      <c r="D122" s="191"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -6139,7 +6135,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="202"/>
+      <c r="D123" s="191"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6163,7 +6159,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="202"/>
+      <c r="D124" s="191"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6187,7 +6183,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="202"/>
+      <c r="D125" s="191"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6211,7 +6207,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="202"/>
+      <c r="D126" s="191"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6235,7 +6231,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="202"/>
+      <c r="D127" s="191"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6259,7 +6255,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="202"/>
+      <c r="D128" s="191"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6283,7 +6279,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="202"/>
+      <c r="D129" s="191"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6307,7 +6303,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="202"/>
+      <c r="D130" s="191"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6331,7 +6327,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="202"/>
+      <c r="D131" s="191"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6355,7 +6351,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="202"/>
+      <c r="D132" s="191"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6379,7 +6375,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="202"/>
+      <c r="D133" s="191"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6403,7 +6399,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="202"/>
+      <c r="D134" s="191"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6511,7 +6507,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="209" t="s">
+      <c r="D140" s="198" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6537,7 +6533,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="209"/>
+      <c r="D141" s="198"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6561,7 +6557,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="209"/>
+      <c r="D142" s="198"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6585,7 +6581,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="209"/>
+      <c r="D143" s="198"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6609,7 +6605,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="209"/>
+      <c r="D144" s="198"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6633,7 +6629,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="209"/>
+      <c r="D145" s="198"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6657,7 +6653,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="209"/>
+      <c r="D146" s="198"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6681,7 +6677,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="209"/>
+      <c r="D147" s="198"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6705,7 +6701,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="209"/>
+      <c r="D148" s="198"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6729,7 +6725,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="209"/>
+      <c r="D149" s="198"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6753,7 +6749,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="209"/>
+      <c r="D150" s="198"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6777,7 +6773,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="209"/>
+      <c r="D151" s="198"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6801,7 +6797,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="209"/>
+      <c r="D152" s="198"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6825,7 +6821,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="209"/>
+      <c r="D153" s="198"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6849,7 +6845,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="209"/>
+      <c r="D154" s="198"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6873,7 +6869,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="209"/>
+      <c r="D155" s="198"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6897,7 +6893,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="209"/>
+      <c r="D156" s="198"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6921,7 +6917,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="209"/>
+      <c r="D157" s="198"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6945,7 +6941,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="209"/>
+      <c r="D158" s="198"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6969,7 +6965,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="209"/>
+      <c r="D159" s="198"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6993,7 +6989,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="209"/>
+      <c r="D160" s="198"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -7017,7 +7013,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="209"/>
+      <c r="D161" s="198"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -7041,7 +7037,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="209"/>
+      <c r="D162" s="198"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -7065,7 +7061,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="209"/>
+      <c r="D163" s="198"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -7089,7 +7085,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="209"/>
+      <c r="D164" s="198"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -7113,7 +7109,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="209"/>
+      <c r="D165" s="198"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -7137,7 +7133,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="209"/>
+      <c r="D166" s="198"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7161,7 +7157,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="209"/>
+      <c r="D167" s="198"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7185,7 +7181,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="209"/>
+      <c r="D168" s="198"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7209,7 +7205,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="209"/>
+      <c r="D169" s="198"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7233,7 +7229,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="209"/>
+      <c r="D170" s="198"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7257,7 +7253,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="209"/>
+      <c r="D171" s="198"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7281,7 +7277,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="209"/>
+      <c r="D172" s="198"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7305,7 +7301,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="209"/>
+      <c r="D173" s="198"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7329,7 +7325,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="209"/>
+      <c r="D174" s="198"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7353,7 +7349,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="209"/>
+      <c r="D175" s="198"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7377,7 +7373,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="209"/>
+      <c r="D176" s="198"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7401,7 +7397,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="209"/>
+      <c r="D177" s="198"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7425,7 +7421,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="209"/>
+      <c r="D178" s="198"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7449,7 +7445,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="209"/>
+      <c r="D179" s="198"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7473,7 +7469,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="209"/>
+      <c r="D180" s="198"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7497,7 +7493,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="209"/>
+      <c r="D181" s="198"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7521,7 +7517,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="209"/>
+      <c r="D182" s="198"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7545,7 +7541,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="209"/>
+      <c r="D183" s="198"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7569,7 +7565,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="209"/>
+      <c r="D184" s="198"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7593,7 +7589,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="209"/>
+      <c r="D185" s="198"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7617,7 +7613,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="209"/>
+      <c r="D186" s="198"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7641,7 +7637,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="209"/>
+      <c r="D187" s="198"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7665,7 +7661,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="209"/>
+      <c r="D188" s="198"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7689,7 +7685,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="209"/>
+      <c r="D189" s="198"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7713,7 +7709,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="209"/>
+      <c r="D190" s="198"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7737,7 +7733,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="209"/>
+      <c r="D191" s="198"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7761,7 +7757,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="209"/>
+      <c r="D192" s="198"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7785,7 +7781,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="209"/>
+      <c r="D193" s="198"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7809,7 +7805,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="209"/>
+      <c r="D194" s="198"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7833,7 +7829,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="209"/>
+      <c r="D195" s="198"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7857,7 +7853,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="209"/>
+      <c r="D196" s="198"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7881,7 +7877,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="209"/>
+      <c r="D197" s="198"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7905,7 +7901,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="209"/>
+      <c r="D198" s="198"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7929,7 +7925,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="209"/>
+      <c r="D199" s="198"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7953,7 +7949,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="209"/>
+      <c r="D200" s="198"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7977,7 +7973,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="209"/>
+      <c r="D201" s="198"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -8001,7 +7997,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="209"/>
+      <c r="D202" s="198"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -8025,7 +8021,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="209"/>
+      <c r="D203" s="198"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -8049,7 +8045,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="209"/>
+      <c r="D204" s="198"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -8073,7 +8069,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="209"/>
+      <c r="D205" s="198"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -8097,7 +8093,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="209"/>
+      <c r="D206" s="198"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -8121,7 +8117,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="209"/>
+      <c r="D207" s="198"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -8145,7 +8141,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="209"/>
+      <c r="D208" s="198"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8169,7 +8165,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="209"/>
+      <c r="D209" s="198"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8193,7 +8189,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="209"/>
+      <c r="D210" s="198"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8217,7 +8213,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="209"/>
+      <c r="D211" s="198"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8298,7 +8294,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="211" t="s">
+      <c r="D217" s="201" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8323,7 +8319,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="179"/>
+      <c r="D218" s="200"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8346,7 +8342,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="179"/>
+      <c r="D219" s="200"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8369,7 +8365,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="180"/>
+      <c r="D220" s="179"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8392,7 +8388,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="216" t="s">
+      <c r="D222" s="206" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8418,7 +8414,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="216"/>
+      <c r="D223" s="206"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8446,7 +8442,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="216"/>
+      <c r="D224" s="206"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8474,7 +8470,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="216"/>
+      <c r="D225" s="206"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8498,7 +8494,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="216"/>
+      <c r="D226" s="206"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8526,7 +8522,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="216"/>
+      <c r="D227" s="206"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8554,7 +8550,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="215" t="s">
+      <c r="D229" s="205" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8588,7 +8584,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="215"/>
+      <c r="D230" s="205"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8620,7 +8616,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="215"/>
+      <c r="D231" s="205"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8652,7 +8648,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="215"/>
+      <c r="D232" s="205"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8684,7 +8680,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="215"/>
+      <c r="D233" s="205"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8716,7 +8712,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="215"/>
+      <c r="D234" s="205"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8748,7 +8744,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="215"/>
+      <c r="D235" s="205"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8780,7 +8776,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="215"/>
+      <c r="D236" s="205"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8812,7 +8808,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="215"/>
+      <c r="D237" s="205"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8844,7 +8840,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="215"/>
+      <c r="D238" s="205"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8876,7 +8872,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="215"/>
+      <c r="D239" s="205"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8908,7 +8904,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="215"/>
+      <c r="D240" s="205"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8940,7 +8936,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="215"/>
+      <c r="D241" s="205"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8972,7 +8968,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="215"/>
+      <c r="D242" s="205"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -9004,7 +9000,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="215"/>
+      <c r="D243" s="205"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -9036,7 +9032,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="215"/>
+      <c r="D244" s="205"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -9068,7 +9064,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="215"/>
+      <c r="D245" s="205"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -9104,7 +9100,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="218" t="s">
+      <c r="D247" s="208" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -9130,7 +9126,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="218"/>
+      <c r="D248" s="208"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9154,7 +9150,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="218"/>
+      <c r="D249" s="208"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9178,7 +9174,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="194" t="s">
+      <c r="D251" s="178" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9204,7 +9200,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="180"/>
+      <c r="D252" s="179"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9228,7 +9224,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="209" t="s">
+      <c r="D254" s="198" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9250,7 +9246,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="209"/>
+      <c r="D255" s="198"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9270,7 +9266,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="209"/>
+      <c r="D256" s="198"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9290,7 +9286,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="209"/>
+      <c r="D257" s="198"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9310,7 +9306,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="209"/>
+      <c r="D258" s="198"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9330,7 +9326,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="209"/>
+      <c r="D259" s="198"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9350,7 +9346,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="209"/>
+      <c r="D260" s="198"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9370,7 +9366,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="209"/>
+      <c r="D261" s="198"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9390,7 +9386,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="209"/>
+      <c r="D262" s="198"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9410,7 +9406,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="209"/>
+      <c r="D263" s="198"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9430,7 +9426,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="209"/>
+      <c r="D264" s="198"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9450,7 +9446,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="209"/>
+      <c r="D265" s="198"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9470,7 +9466,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="209"/>
+      <c r="D266" s="198"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9490,7 +9486,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="209"/>
+      <c r="D267" s="198"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9510,7 +9506,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="209"/>
+      <c r="D268" s="198"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9530,7 +9526,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="209"/>
+      <c r="D269" s="198"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9550,7 +9546,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="209"/>
+      <c r="D270" s="198"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9570,7 +9566,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="209"/>
+      <c r="D271" s="198"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9590,7 +9586,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="209"/>
+      <c r="D272" s="198"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9610,7 +9606,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="209"/>
+      <c r="D273" s="198"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9630,7 +9626,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="209"/>
+      <c r="D274" s="198"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9650,7 +9646,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="209"/>
+      <c r="D275" s="198"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9670,7 +9666,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="209"/>
+      <c r="D276" s="198"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9690,7 +9686,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="209"/>
+      <c r="D277" s="198"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9710,7 +9706,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="209"/>
+      <c r="D278" s="198"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9730,7 +9726,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="209"/>
+      <c r="D279" s="198"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9750,7 +9746,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="209"/>
+      <c r="D280" s="198"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9770,7 +9766,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="209"/>
+      <c r="D281" s="198"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9790,7 +9786,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="209"/>
+      <c r="D282" s="198"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9810,7 +9806,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="209"/>
+      <c r="D283" s="198"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9830,7 +9826,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="209"/>
+      <c r="D284" s="198"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9850,7 +9846,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="209"/>
+      <c r="D285" s="198"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9870,7 +9866,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="209"/>
+      <c r="D286" s="198"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9890,7 +9886,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="209"/>
+      <c r="D287" s="198"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9910,7 +9906,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="209"/>
+      <c r="D288" s="198"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9930,7 +9926,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="209"/>
+      <c r="D289" s="198"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9950,7 +9946,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="209"/>
+      <c r="D290" s="198"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9970,7 +9966,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="209"/>
+      <c r="D291" s="198"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9990,7 +9986,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="209"/>
+      <c r="D292" s="198"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -10010,7 +10006,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="209"/>
+      <c r="D293" s="198"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -10030,7 +10026,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="209"/>
+      <c r="D294" s="198"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -10050,7 +10046,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="209"/>
+      <c r="D295" s="198"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -10070,7 +10066,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="209"/>
+      <c r="D296" s="198"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -10090,7 +10086,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="209"/>
+      <c r="D297" s="198"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -10110,7 +10106,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="209"/>
+      <c r="D298" s="198"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -10130,7 +10126,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="209"/>
+      <c r="D299" s="198"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -10150,7 +10146,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="209"/>
+      <c r="D300" s="198"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10170,7 +10166,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="209"/>
+      <c r="D301" s="198"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10190,7 +10186,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="209"/>
+      <c r="D302" s="198"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10210,7 +10206,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="209"/>
+      <c r="D303" s="198"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10230,7 +10226,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="209"/>
+      <c r="D304" s="198"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10250,7 +10246,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="209"/>
+      <c r="D305" s="198"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10270,7 +10266,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="209"/>
+      <c r="D306" s="198"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10290,7 +10286,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="209"/>
+      <c r="D307" s="198"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10310,7 +10306,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="209"/>
+      <c r="D308" s="198"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10330,7 +10326,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="209"/>
+      <c r="D309" s="198"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10350,7 +10346,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="209"/>
+      <c r="D310" s="198"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10370,7 +10366,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="209"/>
+      <c r="D311" s="198"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10390,7 +10386,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="209"/>
+      <c r="D312" s="198"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10410,7 +10406,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="209"/>
+      <c r="D313" s="198"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10430,7 +10426,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="209"/>
+      <c r="D314" s="198"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10450,7 +10446,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="209"/>
+      <c r="D315" s="198"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10470,7 +10466,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="209"/>
+      <c r="D316" s="198"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10490,7 +10486,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="209"/>
+      <c r="D317" s="198"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10510,7 +10506,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="209"/>
+      <c r="D318" s="198"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10530,7 +10526,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="209"/>
+      <c r="D319" s="198"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10550,7 +10546,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="209"/>
+      <c r="D320" s="198"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10570,7 +10566,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="209"/>
+      <c r="D321" s="198"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10590,7 +10586,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="209"/>
+      <c r="D322" s="198"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10610,7 +10606,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="209"/>
+      <c r="D323" s="198"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10630,7 +10626,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="209"/>
+      <c r="D324" s="198"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10650,7 +10646,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="209"/>
+      <c r="D325" s="198"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10670,7 +10666,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="212" t="s">
+      <c r="D328" s="202" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10697,7 +10693,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="213"/>
+      <c r="D329" s="203"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10722,7 +10718,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="213"/>
+      <c r="D330" s="203"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10747,7 +10743,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="213"/>
+      <c r="D331" s="203"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10772,7 +10768,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="213"/>
+      <c r="D332" s="203"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10797,7 +10793,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="213"/>
+      <c r="D333" s="203"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10822,7 +10818,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="213"/>
+      <c r="D334" s="203"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10847,7 +10843,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="213"/>
+      <c r="D335" s="203"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10872,7 +10868,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="180"/>
+      <c r="D336" s="179"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10896,7 +10892,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="226" t="s">
+      <c r="D338" s="187" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10916,7 +10912,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="226"/>
+      <c r="D339" s="187"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10934,7 +10930,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="226"/>
+      <c r="D340" s="187"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10952,7 +10948,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="226"/>
+      <c r="D341" s="187"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10978,7 +10974,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="217" t="s">
+      <c r="D343" s="207" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -11000,7 +10996,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="217"/>
+      <c r="D344" s="207"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -11015,7 +11011,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="223" t="s">
+      <c r="A346" s="184" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -11024,7 +11020,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="212" t="s">
+      <c r="D346" s="202" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -11039,14 +11035,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="224"/>
+      <c r="A347" s="185"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="213"/>
+      <c r="D347" s="203"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -11059,14 +11055,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="224"/>
+      <c r="A348" s="185"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="213"/>
+      <c r="D348" s="203"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -11079,14 +11075,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="224"/>
+      <c r="A349" s="185"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="213"/>
+      <c r="D349" s="203"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -11099,14 +11095,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="224"/>
+      <c r="A350" s="185"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="213"/>
+      <c r="D350" s="203"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -11119,14 +11115,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="224"/>
+      <c r="A351" s="185"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="213"/>
+      <c r="D351" s="203"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -11139,14 +11135,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="224"/>
+      <c r="A352" s="185"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="213"/>
+      <c r="D352" s="203"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11159,14 +11155,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="225"/>
+      <c r="A353" s="186"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="214"/>
+      <c r="D353" s="204"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11188,7 +11184,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="207" t="s">
+      <c r="D355" s="196" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11208,7 +11204,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="207"/>
+      <c r="D356" s="196"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11226,7 +11222,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="207"/>
+      <c r="D357" s="196"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11244,7 +11240,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="207"/>
+      <c r="D358" s="196"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11322,7 +11318,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="206" t="s">
+      <c r="D362" s="195" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11348,7 +11344,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="206"/>
+      <c r="D363" s="195"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11913,7 +11909,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="221" t="s">
+      <c r="D387" s="182" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11947,7 +11943,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="222"/>
+      <c r="D388" s="183"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11979,7 +11975,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="222"/>
+      <c r="D389" s="183"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -12007,7 +12003,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="222"/>
+      <c r="D390" s="183"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -12035,7 +12031,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="220" t="s">
+      <c r="D391" s="181" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -12065,7 +12061,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="220"/>
+      <c r="D392" s="181"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12197,7 +12193,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="219" t="s">
+      <c r="D398" s="180" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12224,7 +12220,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="219"/>
+      <c r="D399" s="180"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12249,7 +12245,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="219"/>
+      <c r="D400" s="180"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12274,7 +12270,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="219"/>
+      <c r="D401" s="180"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12303,7 +12299,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="219"/>
+      <c r="D402" s="180"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -12991,8 +12987,8 @@
       <c r="C447" s="122" t="s">
         <v>502</v>
       </c>
-      <c r="D447" s="177" t="s">
-        <v>503</v>
+      <c r="D447" s="122" t="s">
+        <v>505</v>
       </c>
       <c r="E447" s="176" t="s">
         <v>77</v>
@@ -13019,10 +13015,10 @@
         <v>377</v>
       </c>
       <c r="C449" s="122" t="s">
+        <v>503</v>
+      </c>
+      <c r="D449" s="177" t="s">
         <v>504</v>
-      </c>
-      <c r="D449" s="177" t="s">
-        <v>505</v>
       </c>
       <c r="E449" s="176" t="s">
         <v>77</v>
@@ -13037,10 +13033,10 @@
         <v>378</v>
       </c>
       <c r="C451" s="122" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D451" s="122" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E451" s="122"/>
       <c r="F451" s="122"/>
@@ -13051,23 +13047,34 @@
         <v>379</v>
       </c>
       <c r="C452" s="153" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D452" s="122" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E452" s="122"/>
       <c r="F452" s="122"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A454" s="122"/>
+      <c r="B454" s="122"/>
+      <c r="C454" s="122"/>
+      <c r="D454" s="122"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="D119:D134"/>
     <mergeCell ref="D96:D103"/>
@@ -13084,17 +13091,12 @@
     <mergeCell ref="D343:D344"/>
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA32DFFF-1230-49DA-86BD-1F194F264E3A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC345361-3F1A-4BD1-AFF6-54D73105211E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="524">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1883,6 +1883,54 @@
   <si>
     <t>日消耗分布指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友客累计用户数</t>
+  </si>
+  <si>
+    <t>下过单的用户</t>
+  </si>
+  <si>
+    <t>友客累计销售额</t>
+  </si>
+  <si>
+    <t>友客客单价</t>
+  </si>
+  <si>
+    <t>友客累计销售额/友客累计用户数</t>
+  </si>
+  <si>
+    <t>友客客单价分布指标</t>
+  </si>
+  <si>
+    <t>友客用户订阅关键词总数</t>
+  </si>
+  <si>
+    <t>友客互均订阅关键词数</t>
+  </si>
+  <si>
+    <t>友客top50订阅关键词</t>
+  </si>
+  <si>
+    <t>友客总线索数</t>
+  </si>
+  <si>
+    <t>友客被查看线索数</t>
+  </si>
+  <si>
+    <t>友客线索被查看的次数</t>
+  </si>
+  <si>
+    <t>友客线索关键词数</t>
+  </si>
+  <si>
+    <t>(线索提取出的关键词数)</t>
+  </si>
+  <si>
+    <t>友客top50线索关键词</t>
+  </si>
+  <si>
+    <t>友客线索关键词和用户订阅关键词重合数</t>
   </si>
 </sst>
 </file>
@@ -2731,100 +2779,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2866,6 +2827,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2876,6 +2840,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3261,11 +3309,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M454"/>
+  <dimension ref="A1:M466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D447" sqref="D447"/>
+      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A454" sqref="A454:F466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3331,7 +3379,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="178" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3361,7 +3409,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="200"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3389,7 +3437,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="179"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3432,7 +3480,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="198" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3458,7 +3506,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="210"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3482,7 +3530,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="210"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3506,7 +3554,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="210"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3530,7 +3578,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="210"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3572,7 +3620,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="194" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3598,7 +3646,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="200"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3622,7 +3670,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="200"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3646,7 +3694,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="200"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3670,7 +3718,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="200"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3694,7 +3742,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="200"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3718,7 +3766,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="200"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3742,7 +3790,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="200"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3766,7 +3814,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="200"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3790,7 +3838,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3828,7 +3876,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="223" t="s">
+      <c r="D23" s="195" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3850,7 +3898,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="224"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3878,7 +3926,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="224"/>
+      <c r="D25" s="196"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3906,7 +3954,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="224"/>
+      <c r="D26" s="196"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3926,7 +3974,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="224"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -3954,7 +4002,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="224"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -3982,7 +4030,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="224"/>
+      <c r="D29" s="196"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -4010,7 +4058,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="225"/>
+      <c r="D30" s="197"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4116,7 +4164,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="179" t="s">
+      <c r="D35" s="180" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -4136,7 +4184,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="210"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4154,7 +4202,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="210"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4172,7 +4220,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="210"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4206,7 +4254,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="215" t="s">
+      <c r="D40" s="186" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4232,7 +4280,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="216"/>
+      <c r="D41" s="187"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4256,7 +4304,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="216"/>
+      <c r="D42" s="187"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4280,7 +4328,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="217"/>
+      <c r="D43" s="188"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4318,7 +4366,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="211" t="s">
+      <c r="D45" s="182" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4344,7 +4392,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="212"/>
+      <c r="D46" s="183"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4368,7 +4416,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="212"/>
+      <c r="D47" s="183"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4392,7 +4440,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="212"/>
+      <c r="D48" s="183"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4416,7 +4464,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="212"/>
+      <c r="D49" s="183"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4440,7 +4488,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="212"/>
+      <c r="D50" s="183"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4464,7 +4512,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="212"/>
+      <c r="D51" s="183"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4488,7 +4536,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="212"/>
+      <c r="D52" s="183"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4512,7 +4560,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="212"/>
+      <c r="D53" s="183"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4536,7 +4584,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="212"/>
+      <c r="D54" s="183"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4560,7 +4608,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="212"/>
+      <c r="D55" s="183"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4584,7 +4632,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="213"/>
+      <c r="D56" s="184"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4666,7 +4714,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="214" t="s">
+      <c r="D60" s="185" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4696,7 +4744,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="200"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4724,7 +4772,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="200"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4752,7 +4800,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="200"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4776,7 +4824,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="200"/>
+      <c r="D64" s="179"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4800,7 +4848,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="179"/>
+      <c r="D65" s="180"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4838,7 +4886,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="218" t="s">
+      <c r="D67" s="189" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4868,7 +4916,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="219"/>
+      <c r="D68" s="190"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4896,7 +4944,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="220"/>
+      <c r="D69" s="191"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4938,7 +4986,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="221" t="s">
+      <c r="D71" s="192" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4968,7 +5016,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="222"/>
+      <c r="D72" s="193"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -4996,7 +5044,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="222"/>
+      <c r="D73" s="193"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -5024,7 +5072,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="222"/>
+      <c r="D74" s="193"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -5052,7 +5100,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="210"/>
+      <c r="D75" s="181"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -5080,7 +5128,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="210"/>
+      <c r="D76" s="181"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5166,7 +5214,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="211" t="s">
+      <c r="D80" s="182" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5196,7 +5244,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="212"/>
+      <c r="D81" s="183"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5220,7 +5268,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="212"/>
+      <c r="D82" s="183"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5248,7 +5296,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="212"/>
+      <c r="D83" s="183"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5272,7 +5320,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="212"/>
+      <c r="D84" s="183"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5300,7 +5348,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="213"/>
+      <c r="D85" s="184"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5382,7 +5430,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="188" t="s">
+      <c r="D89" s="199" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5412,7 +5460,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="189"/>
+      <c r="D90" s="200"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5440,7 +5488,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="189"/>
+      <c r="D91" s="200"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5468,7 +5516,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="189"/>
+      <c r="D92" s="200"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5496,7 +5544,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="189"/>
+      <c r="D93" s="200"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5524,7 +5572,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="190"/>
+      <c r="D94" s="201"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5566,7 +5614,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="192" t="s">
+      <c r="D96" s="203" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5592,7 +5640,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="193"/>
+      <c r="D97" s="204"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5616,7 +5664,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="193"/>
+      <c r="D98" s="204"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5640,7 +5688,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="193"/>
+      <c r="D99" s="204"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5664,7 +5712,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="193"/>
+      <c r="D100" s="204"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5688,7 +5736,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="193"/>
+      <c r="D101" s="204"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5712,7 +5760,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="193"/>
+      <c r="D102" s="204"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5736,7 +5784,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="194"/>
+      <c r="D103" s="205"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5763,7 +5811,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="197" t="s">
+      <c r="D105" s="208" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5789,7 +5837,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="197"/>
+      <c r="D106" s="208"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5813,7 +5861,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="197"/>
+      <c r="D107" s="208"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5837,7 +5885,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="197"/>
+      <c r="D108" s="208"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5859,7 +5907,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="197"/>
+      <c r="D109" s="208"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5885,7 +5933,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="199" t="s">
+      <c r="D111" s="210" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5911,7 +5959,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="200"/>
+      <c r="D112" s="179"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5935,7 +5983,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="200"/>
+      <c r="D113" s="179"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -5959,7 +6007,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="200"/>
+      <c r="D114" s="179"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -5983,7 +6031,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="200"/>
+      <c r="D115" s="179"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -6007,7 +6055,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="179"/>
+      <c r="D116" s="180"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -6037,7 +6085,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="191" t="s">
+      <c r="D119" s="202" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -6063,7 +6111,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="191"/>
+      <c r="D120" s="202"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -6087,7 +6135,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="191"/>
+      <c r="D121" s="202"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -6111,7 +6159,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="191"/>
+      <c r="D122" s="202"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -6135,7 +6183,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="191"/>
+      <c r="D123" s="202"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6159,7 +6207,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="191"/>
+      <c r="D124" s="202"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6183,7 +6231,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="191"/>
+      <c r="D125" s="202"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6207,7 +6255,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="191"/>
+      <c r="D126" s="202"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6231,7 +6279,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="191"/>
+      <c r="D127" s="202"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6255,7 +6303,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="191"/>
+      <c r="D128" s="202"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6279,7 +6327,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="191"/>
+      <c r="D129" s="202"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6303,7 +6351,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="191"/>
+      <c r="D130" s="202"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6327,7 +6375,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="191"/>
+      <c r="D131" s="202"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6351,7 +6399,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="191"/>
+      <c r="D132" s="202"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6375,7 +6423,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="191"/>
+      <c r="D133" s="202"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6399,7 +6447,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="191"/>
+      <c r="D134" s="202"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6507,7 +6555,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="198" t="s">
+      <c r="D140" s="209" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6533,7 +6581,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="198"/>
+      <c r="D141" s="209"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6557,7 +6605,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="198"/>
+      <c r="D142" s="209"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6581,7 +6629,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="198"/>
+      <c r="D143" s="209"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6605,7 +6653,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="198"/>
+      <c r="D144" s="209"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6629,7 +6677,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="198"/>
+      <c r="D145" s="209"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6653,7 +6701,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="198"/>
+      <c r="D146" s="209"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6677,7 +6725,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="198"/>
+      <c r="D147" s="209"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6701,7 +6749,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="198"/>
+      <c r="D148" s="209"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6725,7 +6773,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="198"/>
+      <c r="D149" s="209"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6749,7 +6797,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="198"/>
+      <c r="D150" s="209"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6773,7 +6821,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="198"/>
+      <c r="D151" s="209"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6797,7 +6845,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="198"/>
+      <c r="D152" s="209"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6821,7 +6869,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="198"/>
+      <c r="D153" s="209"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6845,7 +6893,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="198"/>
+      <c r="D154" s="209"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6869,7 +6917,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="198"/>
+      <c r="D155" s="209"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6893,7 +6941,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="198"/>
+      <c r="D156" s="209"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6917,7 +6965,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="198"/>
+      <c r="D157" s="209"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6941,7 +6989,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="198"/>
+      <c r="D158" s="209"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -6965,7 +7013,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="198"/>
+      <c r="D159" s="209"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -6989,7 +7037,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="198"/>
+      <c r="D160" s="209"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -7013,7 +7061,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="198"/>
+      <c r="D161" s="209"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -7037,7 +7085,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="198"/>
+      <c r="D162" s="209"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -7061,7 +7109,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="198"/>
+      <c r="D163" s="209"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -7085,7 +7133,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="198"/>
+      <c r="D164" s="209"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -7109,7 +7157,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="198"/>
+      <c r="D165" s="209"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -7133,7 +7181,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="198"/>
+      <c r="D166" s="209"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7157,7 +7205,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="198"/>
+      <c r="D167" s="209"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7181,7 +7229,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="198"/>
+      <c r="D168" s="209"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7205,7 +7253,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="198"/>
+      <c r="D169" s="209"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7229,7 +7277,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="198"/>
+      <c r="D170" s="209"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7253,7 +7301,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="198"/>
+      <c r="D171" s="209"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7277,7 +7325,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="198"/>
+      <c r="D172" s="209"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7301,7 +7349,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="198"/>
+      <c r="D173" s="209"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7325,7 +7373,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="198"/>
+      <c r="D174" s="209"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7349,7 +7397,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="198"/>
+      <c r="D175" s="209"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7373,7 +7421,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="198"/>
+      <c r="D176" s="209"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7397,7 +7445,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="198"/>
+      <c r="D177" s="209"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7421,7 +7469,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="198"/>
+      <c r="D178" s="209"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7445,7 +7493,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="198"/>
+      <c r="D179" s="209"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7469,7 +7517,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="198"/>
+      <c r="D180" s="209"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7493,7 +7541,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="198"/>
+      <c r="D181" s="209"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7517,7 +7565,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="198"/>
+      <c r="D182" s="209"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7541,7 +7589,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="198"/>
+      <c r="D183" s="209"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7565,7 +7613,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="198"/>
+      <c r="D184" s="209"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7589,7 +7637,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="198"/>
+      <c r="D185" s="209"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7613,7 +7661,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="198"/>
+      <c r="D186" s="209"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7637,7 +7685,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="198"/>
+      <c r="D187" s="209"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7661,7 +7709,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="198"/>
+      <c r="D188" s="209"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7685,7 +7733,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="198"/>
+      <c r="D189" s="209"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7709,7 +7757,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="198"/>
+      <c r="D190" s="209"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7733,7 +7781,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="198"/>
+      <c r="D191" s="209"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7757,7 +7805,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="198"/>
+      <c r="D192" s="209"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7781,7 +7829,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="198"/>
+      <c r="D193" s="209"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7805,7 +7853,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="198"/>
+      <c r="D194" s="209"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7829,7 +7877,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="198"/>
+      <c r="D195" s="209"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7853,7 +7901,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="198"/>
+      <c r="D196" s="209"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7877,7 +7925,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="198"/>
+      <c r="D197" s="209"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7901,7 +7949,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="198"/>
+      <c r="D198" s="209"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7925,7 +7973,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="198"/>
+      <c r="D199" s="209"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7949,7 +7997,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="198"/>
+      <c r="D200" s="209"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -7973,7 +8021,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="198"/>
+      <c r="D201" s="209"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -7997,7 +8045,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="198"/>
+      <c r="D202" s="209"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -8021,7 +8069,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="198"/>
+      <c r="D203" s="209"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -8045,7 +8093,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="198"/>
+      <c r="D204" s="209"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -8069,7 +8117,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="198"/>
+      <c r="D205" s="209"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -8093,7 +8141,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="198"/>
+      <c r="D206" s="209"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -8117,7 +8165,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="198"/>
+      <c r="D207" s="209"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -8141,7 +8189,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="198"/>
+      <c r="D208" s="209"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8165,7 +8213,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="198"/>
+      <c r="D209" s="209"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8189,7 +8237,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="198"/>
+      <c r="D210" s="209"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8213,7 +8261,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="198"/>
+      <c r="D211" s="209"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8294,7 +8342,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="201" t="s">
+      <c r="D217" s="211" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8319,7 +8367,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="200"/>
+      <c r="D218" s="179"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8342,7 +8390,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="200"/>
+      <c r="D219" s="179"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8365,7 +8413,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="179"/>
+      <c r="D220" s="180"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8388,7 +8436,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="206" t="s">
+      <c r="D222" s="216" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8414,7 +8462,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="206"/>
+      <c r="D223" s="216"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8442,7 +8490,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="206"/>
+      <c r="D224" s="216"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8470,7 +8518,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="206"/>
+      <c r="D225" s="216"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8494,7 +8542,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="206"/>
+      <c r="D226" s="216"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8522,7 +8570,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="206"/>
+      <c r="D227" s="216"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8550,7 +8598,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="205" t="s">
+      <c r="D229" s="215" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8584,7 +8632,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="205"/>
+      <c r="D230" s="215"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8616,7 +8664,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="205"/>
+      <c r="D231" s="215"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8648,7 +8696,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="205"/>
+      <c r="D232" s="215"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8680,7 +8728,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="205"/>
+      <c r="D233" s="215"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8712,7 +8760,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="205"/>
+      <c r="D234" s="215"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8744,7 +8792,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="205"/>
+      <c r="D235" s="215"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8776,7 +8824,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="205"/>
+      <c r="D236" s="215"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8808,7 +8856,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="205"/>
+      <c r="D237" s="215"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8840,7 +8888,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="205"/>
+      <c r="D238" s="215"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8872,7 +8920,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="205"/>
+      <c r="D239" s="215"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8904,7 +8952,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="205"/>
+      <c r="D240" s="215"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8936,7 +8984,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="205"/>
+      <c r="D241" s="215"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -8968,7 +9016,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="205"/>
+      <c r="D242" s="215"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -9000,7 +9048,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="205"/>
+      <c r="D243" s="215"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -9032,7 +9080,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="205"/>
+      <c r="D244" s="215"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -9064,7 +9112,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="205"/>
+      <c r="D245" s="215"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -9100,7 +9148,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="208" t="s">
+      <c r="D247" s="218" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -9126,7 +9174,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="208"/>
+      <c r="D248" s="218"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9150,7 +9198,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="208"/>
+      <c r="D249" s="218"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9174,7 +9222,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="178" t="s">
+      <c r="D251" s="194" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9200,7 +9248,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="179"/>
+      <c r="D252" s="180"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9224,7 +9272,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="198" t="s">
+      <c r="D254" s="209" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9246,7 +9294,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="198"/>
+      <c r="D255" s="209"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9266,7 +9314,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="198"/>
+      <c r="D256" s="209"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9286,7 +9334,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="198"/>
+      <c r="D257" s="209"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9306,7 +9354,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="198"/>
+      <c r="D258" s="209"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9326,7 +9374,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="198"/>
+      <c r="D259" s="209"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9346,7 +9394,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="198"/>
+      <c r="D260" s="209"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9366,7 +9414,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="198"/>
+      <c r="D261" s="209"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9386,7 +9434,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="198"/>
+      <c r="D262" s="209"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9406,7 +9454,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="198"/>
+      <c r="D263" s="209"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9426,7 +9474,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="198"/>
+      <c r="D264" s="209"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9446,7 +9494,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="198"/>
+      <c r="D265" s="209"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9466,7 +9514,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="198"/>
+      <c r="D266" s="209"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9486,7 +9534,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="198"/>
+      <c r="D267" s="209"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9506,7 +9554,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="198"/>
+      <c r="D268" s="209"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9526,7 +9574,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="198"/>
+      <c r="D269" s="209"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9546,7 +9594,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="198"/>
+      <c r="D270" s="209"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9566,7 +9614,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="198"/>
+      <c r="D271" s="209"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9586,7 +9634,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="198"/>
+      <c r="D272" s="209"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9606,7 +9654,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="198"/>
+      <c r="D273" s="209"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9626,7 +9674,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="198"/>
+      <c r="D274" s="209"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9646,7 +9694,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="198"/>
+      <c r="D275" s="209"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9666,7 +9714,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="198"/>
+      <c r="D276" s="209"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9686,7 +9734,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="198"/>
+      <c r="D277" s="209"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9706,7 +9754,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="198"/>
+      <c r="D278" s="209"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9726,7 +9774,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="198"/>
+      <c r="D279" s="209"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9746,7 +9794,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="198"/>
+      <c r="D280" s="209"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9766,7 +9814,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="198"/>
+      <c r="D281" s="209"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9786,7 +9834,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="198"/>
+      <c r="D282" s="209"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9806,7 +9854,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="198"/>
+      <c r="D283" s="209"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9826,7 +9874,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="198"/>
+      <c r="D284" s="209"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9846,7 +9894,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="198"/>
+      <c r="D285" s="209"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9866,7 +9914,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="198"/>
+      <c r="D286" s="209"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9886,7 +9934,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="198"/>
+      <c r="D287" s="209"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9906,7 +9954,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="198"/>
+      <c r="D288" s="209"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9926,7 +9974,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="198"/>
+      <c r="D289" s="209"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9946,7 +9994,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="198"/>
+      <c r="D290" s="209"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -9966,7 +10014,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="198"/>
+      <c r="D291" s="209"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -9986,7 +10034,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="198"/>
+      <c r="D292" s="209"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -10006,7 +10054,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="198"/>
+      <c r="D293" s="209"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -10026,7 +10074,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="198"/>
+      <c r="D294" s="209"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -10046,7 +10094,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="198"/>
+      <c r="D295" s="209"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -10066,7 +10114,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="198"/>
+      <c r="D296" s="209"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -10086,7 +10134,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="198"/>
+      <c r="D297" s="209"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -10106,7 +10154,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="198"/>
+      <c r="D298" s="209"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -10126,7 +10174,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="198"/>
+      <c r="D299" s="209"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -10146,7 +10194,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="198"/>
+      <c r="D300" s="209"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10166,7 +10214,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="198"/>
+      <c r="D301" s="209"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10186,7 +10234,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="198"/>
+      <c r="D302" s="209"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10206,7 +10254,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="198"/>
+      <c r="D303" s="209"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10226,7 +10274,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="198"/>
+      <c r="D304" s="209"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10246,7 +10294,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="198"/>
+      <c r="D305" s="209"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10266,7 +10314,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="198"/>
+      <c r="D306" s="209"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10286,7 +10334,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="198"/>
+      <c r="D307" s="209"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10306,7 +10354,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="198"/>
+      <c r="D308" s="209"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10326,7 +10374,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="198"/>
+      <c r="D309" s="209"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10346,7 +10394,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="198"/>
+      <c r="D310" s="209"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10366,7 +10414,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="198"/>
+      <c r="D311" s="209"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10386,7 +10434,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="198"/>
+      <c r="D312" s="209"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10406,7 +10454,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="198"/>
+      <c r="D313" s="209"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10426,7 +10474,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="198"/>
+      <c r="D314" s="209"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10446,7 +10494,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="198"/>
+      <c r="D315" s="209"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10466,7 +10514,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="198"/>
+      <c r="D316" s="209"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10486,7 +10534,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="198"/>
+      <c r="D317" s="209"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10506,7 +10554,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="198"/>
+      <c r="D318" s="209"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10526,7 +10574,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="198"/>
+      <c r="D319" s="209"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10546,7 +10594,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="198"/>
+      <c r="D320" s="209"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10566,7 +10614,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="198"/>
+      <c r="D321" s="209"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10586,7 +10634,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="198"/>
+      <c r="D322" s="209"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10606,7 +10654,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="198"/>
+      <c r="D323" s="209"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10626,7 +10674,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="198"/>
+      <c r="D324" s="209"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10646,7 +10694,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="198"/>
+      <c r="D325" s="209"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10666,7 +10714,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="202" t="s">
+      <c r="D328" s="212" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10693,7 +10741,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="203"/>
+      <c r="D329" s="213"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10718,7 +10766,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="203"/>
+      <c r="D330" s="213"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10743,7 +10791,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="203"/>
+      <c r="D331" s="213"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10768,7 +10816,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="203"/>
+      <c r="D332" s="213"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10793,7 +10841,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="203"/>
+      <c r="D333" s="213"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10818,7 +10866,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="203"/>
+      <c r="D334" s="213"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10843,7 +10891,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="203"/>
+      <c r="D335" s="213"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10868,7 +10916,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="179"/>
+      <c r="D336" s="180"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10892,7 +10940,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="187" t="s">
+      <c r="D338" s="226" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10912,7 +10960,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="187"/>
+      <c r="D339" s="226"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10930,7 +10978,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="187"/>
+      <c r="D340" s="226"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10948,7 +10996,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="187"/>
+      <c r="D341" s="226"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -10974,7 +11022,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="207" t="s">
+      <c r="D343" s="217" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -10996,7 +11044,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="207"/>
+      <c r="D344" s="217"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -11011,7 +11059,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="184" t="s">
+      <c r="A346" s="223" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -11020,7 +11068,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="202" t="s">
+      <c r="D346" s="212" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -11035,14 +11083,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="185"/>
+      <c r="A347" s="224"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="203"/>
+      <c r="D347" s="213"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -11055,14 +11103,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="185"/>
+      <c r="A348" s="224"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="203"/>
+      <c r="D348" s="213"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -11075,14 +11123,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="185"/>
+      <c r="A349" s="224"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="203"/>
+      <c r="D349" s="213"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -11095,14 +11143,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="185"/>
+      <c r="A350" s="224"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="203"/>
+      <c r="D350" s="213"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -11115,14 +11163,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="185"/>
+      <c r="A351" s="224"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="203"/>
+      <c r="D351" s="213"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -11135,14 +11183,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="185"/>
+      <c r="A352" s="224"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="203"/>
+      <c r="D352" s="213"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11155,14 +11203,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="186"/>
+      <c r="A353" s="225"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="204"/>
+      <c r="D353" s="214"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11184,7 +11232,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="196" t="s">
+      <c r="D355" s="207" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11204,7 +11252,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="196"/>
+      <c r="D356" s="207"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11222,7 +11270,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="196"/>
+      <c r="D357" s="207"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11240,7 +11288,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="196"/>
+      <c r="D358" s="207"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11318,7 +11366,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="195" t="s">
+      <c r="D362" s="206" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11344,7 +11392,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="195"/>
+      <c r="D363" s="206"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11909,7 +11957,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="182" t="s">
+      <c r="D387" s="221" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11943,7 +11991,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="183"/>
+      <c r="D388" s="222"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -11975,7 +12023,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="183"/>
+      <c r="D389" s="222"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -12003,7 +12051,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="183"/>
+      <c r="D390" s="222"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -12031,7 +12079,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="181" t="s">
+      <c r="D391" s="220" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -12061,7 +12109,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="181"/>
+      <c r="D392" s="220"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12193,7 +12241,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="180" t="s">
+      <c r="D398" s="219" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12220,7 +12268,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="180"/>
+      <c r="D399" s="219"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12245,7 +12293,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="180"/>
+      <c r="D400" s="219"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12270,7 +12318,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="180"/>
+      <c r="D401" s="219"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12299,7 +12347,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="180"/>
+      <c r="D402" s="219"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -13057,24 +13105,181 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="122"/>
-      <c r="B454" s="122"/>
-      <c r="C454" s="122"/>
-      <c r="D454" s="122"/>
+      <c r="B454" s="122">
+        <v>380</v>
+      </c>
+      <c r="C454" s="122" t="s">
+        <v>508</v>
+      </c>
+      <c r="D454" s="122" t="s">
+        <v>509</v>
+      </c>
+      <c r="E454" s="122"/>
+      <c r="F454" s="122"/>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A455" s="122"/>
+      <c r="B455" s="122">
+        <v>381</v>
+      </c>
+      <c r="C455" s="122" t="s">
+        <v>510</v>
+      </c>
+      <c r="D455" s="175"/>
+      <c r="E455" s="122"/>
+      <c r="F455" s="122"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A456" s="122"/>
+      <c r="B456" s="122">
+        <v>382</v>
+      </c>
+      <c r="C456" s="122" t="s">
+        <v>511</v>
+      </c>
+      <c r="D456" s="175" t="s">
+        <v>512</v>
+      </c>
+      <c r="E456" s="122"/>
+      <c r="F456" s="122"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A457" s="122"/>
+      <c r="B457" s="122">
+        <v>383</v>
+      </c>
+      <c r="C457" s="122" t="s">
+        <v>513</v>
+      </c>
+      <c r="D457" s="175" t="s">
+        <v>505</v>
+      </c>
+      <c r="E457" s="122"/>
+      <c r="F457" s="122"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A458" s="122"/>
+      <c r="B458" s="122">
+        <v>384</v>
+      </c>
+      <c r="C458" s="122" t="s">
+        <v>514</v>
+      </c>
+      <c r="D458" s="175"/>
+      <c r="E458" s="122"/>
+      <c r="F458" s="122"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A459" s="122"/>
+      <c r="B459" s="122">
+        <v>385</v>
+      </c>
+      <c r="C459" s="122" t="s">
+        <v>515</v>
+      </c>
+      <c r="D459" s="175"/>
+      <c r="E459" s="122"/>
+      <c r="F459" s="122"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A460" s="122"/>
+      <c r="B460" s="122">
+        <v>386</v>
+      </c>
+      <c r="C460" s="122" t="s">
+        <v>516</v>
+      </c>
+      <c r="D460" s="175" t="s">
+        <v>505</v>
+      </c>
+      <c r="E460" s="122"/>
+      <c r="F460" s="122"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A461" s="122"/>
+      <c r="B461" s="122">
+        <v>387</v>
+      </c>
+      <c r="C461" s="122" t="s">
+        <v>517</v>
+      </c>
+      <c r="D461" s="175"/>
+      <c r="E461" s="122"/>
+      <c r="F461" s="122"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A462" s="122"/>
+      <c r="B462" s="122">
+        <v>388</v>
+      </c>
+      <c r="C462" s="122" t="s">
+        <v>518</v>
+      </c>
+      <c r="D462" s="175"/>
+      <c r="E462" s="122"/>
+      <c r="F462" s="122"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A463" s="122"/>
+      <c r="B463" s="122">
+        <v>389</v>
+      </c>
+      <c r="C463" s="122" t="s">
+        <v>519</v>
+      </c>
+      <c r="D463" s="175"/>
+      <c r="E463" s="122"/>
+      <c r="F463" s="122"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A464" s="122"/>
+      <c r="B464" s="122">
+        <v>390</v>
+      </c>
+      <c r="C464" s="122" t="s">
+        <v>520</v>
+      </c>
+      <c r="D464" s="175" t="s">
+        <v>521</v>
+      </c>
+      <c r="E464" s="122"/>
+      <c r="F464" s="122"/>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A465" s="122"/>
+      <c r="B465" s="122">
+        <v>391</v>
+      </c>
+      <c r="C465" s="122" t="s">
+        <v>522</v>
+      </c>
+      <c r="D465" s="175" t="s">
+        <v>505</v>
+      </c>
+      <c r="E465" s="122"/>
+      <c r="F465" s="122"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A466" s="122"/>
+      <c r="B466" s="122">
+        <v>392</v>
+      </c>
+      <c r="C466" s="122" t="s">
+        <v>523</v>
+      </c>
+      <c r="D466" s="175"/>
+      <c r="E466" s="122"/>
+      <c r="F466" s="122"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="D119:D134"/>
     <mergeCell ref="D96:D103"/>
@@ -13091,12 +13296,17 @@
     <mergeCell ref="D343:D344"/>
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC345361-3F1A-4BD1-AFF6-54D73105211E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3BBA25BC-4C0E-4BFF-AE2C-55B7E8A8258E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="527">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1931,6 +1931,15 @@
   </si>
   <si>
     <t>友客线索关键词和用户订阅关键词重合数</t>
+  </si>
+  <si>
+    <t>订阅关键词线索匹配度</t>
+  </si>
+  <si>
+    <t>订阅关键词为当前状态的数，线索为昨天的数据</t>
+  </si>
+  <si>
+    <t>线索关键词订阅匹配度</t>
   </si>
 </sst>
 </file>
@@ -2779,13 +2788,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2827,9 +2923,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2840,90 +2933,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3309,11 +3318,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M466"/>
+  <dimension ref="A1:M469"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A454" sqref="A454:F466"/>
+      <selection pane="bottomLeft" activeCell="C469" sqref="C469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3379,7 +3388,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="209" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3409,7 +3418,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="179"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3437,7 +3446,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="179"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3480,7 +3489,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="226" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3506,7 +3515,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="181"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3530,7 +3539,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="181"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3554,7 +3563,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3578,7 +3587,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="181"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3620,7 +3629,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="178" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3646,7 +3655,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="200"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3670,7 +3679,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="179"/>
+      <c r="D14" s="200"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3694,7 +3703,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="179"/>
+      <c r="D15" s="200"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3718,7 +3727,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="200"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3742,7 +3751,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="200"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3766,7 +3775,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="179"/>
+      <c r="D18" s="200"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3790,7 +3799,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="179"/>
+      <c r="D19" s="200"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3814,7 +3823,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="179"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3838,7 +3847,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="180"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3876,7 +3885,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="195" t="s">
+      <c r="D23" s="223" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3898,7 +3907,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="196"/>
+      <c r="D24" s="224"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3926,7 +3935,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="196"/>
+      <c r="D25" s="224"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3954,7 +3963,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="196"/>
+      <c r="D26" s="224"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3974,7 +3983,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="196"/>
+      <c r="D27" s="224"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -4002,7 +4011,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="196"/>
+      <c r="D28" s="224"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -4030,7 +4039,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="196"/>
+      <c r="D29" s="224"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -4058,7 +4067,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="197"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4164,7 +4173,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="179" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -4184,7 +4193,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="181"/>
+      <c r="D36" s="210"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4202,7 +4211,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="210"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4220,7 +4229,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="181"/>
+      <c r="D38" s="210"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4254,7 +4263,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="186" t="s">
+      <c r="D40" s="215" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4280,7 +4289,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="187"/>
+      <c r="D41" s="216"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4304,7 +4313,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="187"/>
+      <c r="D42" s="216"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4328,7 +4337,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="188"/>
+      <c r="D43" s="217"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4366,7 +4375,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="211" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4392,7 +4401,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="183"/>
+      <c r="D46" s="212"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4416,7 +4425,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="183"/>
+      <c r="D47" s="212"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4440,7 +4449,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="183"/>
+      <c r="D48" s="212"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4464,7 +4473,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="183"/>
+      <c r="D49" s="212"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4488,7 +4497,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="183"/>
+      <c r="D50" s="212"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4512,7 +4521,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="183"/>
+      <c r="D51" s="212"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4536,7 +4545,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="183"/>
+      <c r="D52" s="212"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4560,7 +4569,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="183"/>
+      <c r="D53" s="212"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4584,7 +4593,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="183"/>
+      <c r="D54" s="212"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4608,7 +4617,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="183"/>
+      <c r="D55" s="212"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4632,7 +4641,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="184"/>
+      <c r="D56" s="213"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4714,7 +4723,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="185" t="s">
+      <c r="D60" s="214" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4744,7 +4753,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="179"/>
+      <c r="D61" s="200"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4772,7 +4781,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="179"/>
+      <c r="D62" s="200"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,7 +4809,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="179"/>
+      <c r="D63" s="200"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4824,7 +4833,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="179"/>
+      <c r="D64" s="200"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4848,7 +4857,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="180"/>
+      <c r="D65" s="179"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4886,7 +4895,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="189" t="s">
+      <c r="D67" s="218" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4916,7 +4925,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="190"/>
+      <c r="D68" s="219"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4944,7 +4953,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="191"/>
+      <c r="D69" s="220"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4986,7 +4995,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="192" t="s">
+      <c r="D71" s="221" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -5016,7 +5025,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="193"/>
+      <c r="D72" s="222"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -5044,7 +5053,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="193"/>
+      <c r="D73" s="222"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -5072,7 +5081,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="193"/>
+      <c r="D74" s="222"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -5100,7 +5109,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="181"/>
+      <c r="D75" s="210"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -5128,7 +5137,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="181"/>
+      <c r="D76" s="210"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5214,7 +5223,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="182" t="s">
+      <c r="D80" s="211" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5244,7 +5253,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="183"/>
+      <c r="D81" s="212"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5268,7 +5277,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="183"/>
+      <c r="D82" s="212"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5296,7 +5305,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="183"/>
+      <c r="D83" s="212"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5320,7 +5329,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="183"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5348,7 +5357,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="184"/>
+      <c r="D85" s="213"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5430,7 +5439,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="199" t="s">
+      <c r="D89" s="188" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5460,7 +5469,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="200"/>
+      <c r="D90" s="189"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5488,7 +5497,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="200"/>
+      <c r="D91" s="189"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5516,7 +5525,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="200"/>
+      <c r="D92" s="189"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5544,7 +5553,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="200"/>
+      <c r="D93" s="189"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5572,7 +5581,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="201"/>
+      <c r="D94" s="190"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5614,7 +5623,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="203" t="s">
+      <c r="D96" s="192" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5640,7 +5649,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="204"/>
+      <c r="D97" s="193"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5664,7 +5673,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="204"/>
+      <c r="D98" s="193"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5688,7 +5697,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="204"/>
+      <c r="D99" s="193"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5712,7 +5721,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="204"/>
+      <c r="D100" s="193"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5736,7 +5745,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="204"/>
+      <c r="D101" s="193"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5760,7 +5769,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="204"/>
+      <c r="D102" s="193"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5784,7 +5793,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="205"/>
+      <c r="D103" s="194"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5811,7 +5820,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="208" t="s">
+      <c r="D105" s="197" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5837,7 +5846,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="208"/>
+      <c r="D106" s="197"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5861,7 +5870,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="208"/>
+      <c r="D107" s="197"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5885,7 +5894,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="208"/>
+      <c r="D108" s="197"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5907,7 +5916,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="208"/>
+      <c r="D109" s="197"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5933,7 +5942,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="210" t="s">
+      <c r="D111" s="199" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5959,7 +5968,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="179"/>
+      <c r="D112" s="200"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5983,7 +5992,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="179"/>
+      <c r="D113" s="200"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -6007,7 +6016,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="179"/>
+      <c r="D114" s="200"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -6031,7 +6040,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="179"/>
+      <c r="D115" s="200"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -6055,7 +6064,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="180"/>
+      <c r="D116" s="179"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -6085,7 +6094,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="202" t="s">
+      <c r="D119" s="191" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -6111,7 +6120,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="202"/>
+      <c r="D120" s="191"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -6135,7 +6144,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="202"/>
+      <c r="D121" s="191"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -6159,7 +6168,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="202"/>
+      <c r="D122" s="191"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -6183,7 +6192,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="202"/>
+      <c r="D123" s="191"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6207,7 +6216,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="202"/>
+      <c r="D124" s="191"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6231,7 +6240,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="202"/>
+      <c r="D125" s="191"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6255,7 +6264,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="202"/>
+      <c r="D126" s="191"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6279,7 +6288,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="202"/>
+      <c r="D127" s="191"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6303,7 +6312,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="202"/>
+      <c r="D128" s="191"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6327,7 +6336,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="202"/>
+      <c r="D129" s="191"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6351,7 +6360,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="202"/>
+      <c r="D130" s="191"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6375,7 +6384,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="202"/>
+      <c r="D131" s="191"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6399,7 +6408,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="202"/>
+      <c r="D132" s="191"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6423,7 +6432,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="202"/>
+      <c r="D133" s="191"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6447,7 +6456,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="202"/>
+      <c r="D134" s="191"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6555,7 +6564,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="209" t="s">
+      <c r="D140" s="198" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6581,7 +6590,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="209"/>
+      <c r="D141" s="198"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6605,7 +6614,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="209"/>
+      <c r="D142" s="198"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6629,7 +6638,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="209"/>
+      <c r="D143" s="198"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6653,7 +6662,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="209"/>
+      <c r="D144" s="198"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6677,7 +6686,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="209"/>
+      <c r="D145" s="198"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6701,7 +6710,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="209"/>
+      <c r="D146" s="198"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6725,7 +6734,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="209"/>
+      <c r="D147" s="198"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6749,7 +6758,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="209"/>
+      <c r="D148" s="198"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6773,7 +6782,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="209"/>
+      <c r="D149" s="198"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6797,7 +6806,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="209"/>
+      <c r="D150" s="198"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6821,7 +6830,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="209"/>
+      <c r="D151" s="198"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6845,7 +6854,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="209"/>
+      <c r="D152" s="198"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6869,7 +6878,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="209"/>
+      <c r="D153" s="198"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6893,7 +6902,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="209"/>
+      <c r="D154" s="198"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6917,7 +6926,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="209"/>
+      <c r="D155" s="198"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6941,7 +6950,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="209"/>
+      <c r="D156" s="198"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6965,7 +6974,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="209"/>
+      <c r="D157" s="198"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6989,7 +6998,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="209"/>
+      <c r="D158" s="198"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -7013,7 +7022,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="209"/>
+      <c r="D159" s="198"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -7037,7 +7046,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="209"/>
+      <c r="D160" s="198"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -7061,7 +7070,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="209"/>
+      <c r="D161" s="198"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -7085,7 +7094,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="209"/>
+      <c r="D162" s="198"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -7109,7 +7118,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="209"/>
+      <c r="D163" s="198"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -7133,7 +7142,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="209"/>
+      <c r="D164" s="198"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -7157,7 +7166,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="209"/>
+      <c r="D165" s="198"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -7181,7 +7190,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="209"/>
+      <c r="D166" s="198"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7205,7 +7214,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="209"/>
+      <c r="D167" s="198"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7229,7 +7238,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="209"/>
+      <c r="D168" s="198"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7253,7 +7262,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="209"/>
+      <c r="D169" s="198"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7277,7 +7286,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="209"/>
+      <c r="D170" s="198"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7301,7 +7310,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="209"/>
+      <c r="D171" s="198"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7325,7 +7334,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="209"/>
+      <c r="D172" s="198"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7349,7 +7358,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="209"/>
+      <c r="D173" s="198"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7373,7 +7382,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="209"/>
+      <c r="D174" s="198"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7397,7 +7406,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="209"/>
+      <c r="D175" s="198"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7421,7 +7430,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="209"/>
+      <c r="D176" s="198"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7445,7 +7454,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="209"/>
+      <c r="D177" s="198"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7469,7 +7478,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="209"/>
+      <c r="D178" s="198"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7493,7 +7502,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="209"/>
+      <c r="D179" s="198"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7517,7 +7526,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="209"/>
+      <c r="D180" s="198"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7541,7 +7550,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="209"/>
+      <c r="D181" s="198"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7565,7 +7574,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="209"/>
+      <c r="D182" s="198"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7589,7 +7598,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="209"/>
+      <c r="D183" s="198"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7613,7 +7622,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="209"/>
+      <c r="D184" s="198"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7637,7 +7646,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="209"/>
+      <c r="D185" s="198"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7661,7 +7670,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="209"/>
+      <c r="D186" s="198"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7685,7 +7694,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="209"/>
+      <c r="D187" s="198"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7709,7 +7718,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="209"/>
+      <c r="D188" s="198"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7733,7 +7742,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="209"/>
+      <c r="D189" s="198"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7757,7 +7766,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="209"/>
+      <c r="D190" s="198"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7781,7 +7790,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="209"/>
+      <c r="D191" s="198"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7805,7 +7814,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="209"/>
+      <c r="D192" s="198"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7829,7 +7838,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="209"/>
+      <c r="D193" s="198"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7853,7 +7862,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="209"/>
+      <c r="D194" s="198"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7877,7 +7886,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="209"/>
+      <c r="D195" s="198"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7901,7 +7910,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="209"/>
+      <c r="D196" s="198"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7925,7 +7934,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="209"/>
+      <c r="D197" s="198"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7949,7 +7958,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="209"/>
+      <c r="D198" s="198"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7973,7 +7982,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="209"/>
+      <c r="D199" s="198"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -7997,7 +8006,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="209"/>
+      <c r="D200" s="198"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -8021,7 +8030,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="209"/>
+      <c r="D201" s="198"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -8045,7 +8054,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="209"/>
+      <c r="D202" s="198"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -8069,7 +8078,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="209"/>
+      <c r="D203" s="198"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -8093,7 +8102,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="209"/>
+      <c r="D204" s="198"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -8117,7 +8126,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="209"/>
+      <c r="D205" s="198"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -8141,7 +8150,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="209"/>
+      <c r="D206" s="198"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -8165,7 +8174,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="209"/>
+      <c r="D207" s="198"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -8189,7 +8198,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="209"/>
+      <c r="D208" s="198"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8213,7 +8222,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="209"/>
+      <c r="D209" s="198"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8237,7 +8246,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="209"/>
+      <c r="D210" s="198"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8261,7 +8270,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="209"/>
+      <c r="D211" s="198"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8342,7 +8351,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="211" t="s">
+      <c r="D217" s="201" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8367,7 +8376,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="179"/>
+      <c r="D218" s="200"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8390,7 +8399,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="179"/>
+      <c r="D219" s="200"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8413,7 +8422,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="180"/>
+      <c r="D220" s="179"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8436,7 +8445,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="216" t="s">
+      <c r="D222" s="206" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8462,7 +8471,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="216"/>
+      <c r="D223" s="206"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8490,7 +8499,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="216"/>
+      <c r="D224" s="206"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8518,7 +8527,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="216"/>
+      <c r="D225" s="206"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8542,7 +8551,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="216"/>
+      <c r="D226" s="206"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8570,7 +8579,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="216"/>
+      <c r="D227" s="206"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8598,7 +8607,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="215" t="s">
+      <c r="D229" s="205" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8632,7 +8641,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="215"/>
+      <c r="D230" s="205"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8664,7 +8673,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="215"/>
+      <c r="D231" s="205"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8696,7 +8705,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="215"/>
+      <c r="D232" s="205"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8728,7 +8737,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="215"/>
+      <c r="D233" s="205"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8760,7 +8769,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="215"/>
+      <c r="D234" s="205"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8792,7 +8801,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="215"/>
+      <c r="D235" s="205"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8824,7 +8833,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="215"/>
+      <c r="D236" s="205"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8856,7 +8865,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="215"/>
+      <c r="D237" s="205"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8888,7 +8897,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="215"/>
+      <c r="D238" s="205"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8920,7 +8929,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="215"/>
+      <c r="D239" s="205"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8952,7 +8961,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="215"/>
+      <c r="D240" s="205"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8984,7 +8993,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="215"/>
+      <c r="D241" s="205"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -9016,7 +9025,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="215"/>
+      <c r="D242" s="205"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -9048,7 +9057,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="215"/>
+      <c r="D243" s="205"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -9080,7 +9089,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="215"/>
+      <c r="D244" s="205"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -9112,7 +9121,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="215"/>
+      <c r="D245" s="205"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -9148,7 +9157,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="218" t="s">
+      <c r="D247" s="208" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -9174,7 +9183,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="218"/>
+      <c r="D248" s="208"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9198,7 +9207,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="218"/>
+      <c r="D249" s="208"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9222,7 +9231,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="194" t="s">
+      <c r="D251" s="178" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9248,7 +9257,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="180"/>
+      <c r="D252" s="179"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9272,7 +9281,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="209" t="s">
+      <c r="D254" s="198" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9294,7 +9303,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="209"/>
+      <c r="D255" s="198"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9314,7 +9323,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="209"/>
+      <c r="D256" s="198"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9334,7 +9343,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="209"/>
+      <c r="D257" s="198"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9354,7 +9363,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="209"/>
+      <c r="D258" s="198"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9374,7 +9383,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="209"/>
+      <c r="D259" s="198"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9394,7 +9403,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="209"/>
+      <c r="D260" s="198"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9414,7 +9423,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="209"/>
+      <c r="D261" s="198"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9434,7 +9443,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="209"/>
+      <c r="D262" s="198"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9454,7 +9463,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="209"/>
+      <c r="D263" s="198"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9474,7 +9483,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="209"/>
+      <c r="D264" s="198"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9494,7 +9503,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="209"/>
+      <c r="D265" s="198"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9514,7 +9523,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="209"/>
+      <c r="D266" s="198"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9534,7 +9543,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="209"/>
+      <c r="D267" s="198"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9554,7 +9563,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="209"/>
+      <c r="D268" s="198"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9574,7 +9583,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="209"/>
+      <c r="D269" s="198"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9594,7 +9603,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="209"/>
+      <c r="D270" s="198"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9614,7 +9623,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="209"/>
+      <c r="D271" s="198"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9634,7 +9643,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="209"/>
+      <c r="D272" s="198"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9654,7 +9663,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="209"/>
+      <c r="D273" s="198"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9674,7 +9683,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="209"/>
+      <c r="D274" s="198"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9694,7 +9703,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="209"/>
+      <c r="D275" s="198"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9714,7 +9723,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="209"/>
+      <c r="D276" s="198"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9734,7 +9743,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="209"/>
+      <c r="D277" s="198"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9754,7 +9763,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="209"/>
+      <c r="D278" s="198"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9774,7 +9783,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="209"/>
+      <c r="D279" s="198"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9794,7 +9803,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="209"/>
+      <c r="D280" s="198"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9814,7 +9823,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="209"/>
+      <c r="D281" s="198"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9834,7 +9843,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="209"/>
+      <c r="D282" s="198"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9854,7 +9863,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="209"/>
+      <c r="D283" s="198"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9874,7 +9883,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="209"/>
+      <c r="D284" s="198"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9894,7 +9903,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="209"/>
+      <c r="D285" s="198"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9914,7 +9923,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="209"/>
+      <c r="D286" s="198"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9934,7 +9943,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="209"/>
+      <c r="D287" s="198"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9954,7 +9963,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="209"/>
+      <c r="D288" s="198"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9974,7 +9983,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="209"/>
+      <c r="D289" s="198"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -9994,7 +10003,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="209"/>
+      <c r="D290" s="198"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -10014,7 +10023,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="209"/>
+      <c r="D291" s="198"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -10034,7 +10043,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="209"/>
+      <c r="D292" s="198"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -10054,7 +10063,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="209"/>
+      <c r="D293" s="198"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -10074,7 +10083,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="209"/>
+      <c r="D294" s="198"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -10094,7 +10103,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="209"/>
+      <c r="D295" s="198"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -10114,7 +10123,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="209"/>
+      <c r="D296" s="198"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -10134,7 +10143,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="209"/>
+      <c r="D297" s="198"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -10154,7 +10163,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="209"/>
+      <c r="D298" s="198"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -10174,7 +10183,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="209"/>
+      <c r="D299" s="198"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -10194,7 +10203,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="209"/>
+      <c r="D300" s="198"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10214,7 +10223,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="209"/>
+      <c r="D301" s="198"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10234,7 +10243,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="209"/>
+      <c r="D302" s="198"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10254,7 +10263,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="209"/>
+      <c r="D303" s="198"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10274,7 +10283,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="209"/>
+      <c r="D304" s="198"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10294,7 +10303,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="209"/>
+      <c r="D305" s="198"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10314,7 +10323,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="209"/>
+      <c r="D306" s="198"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10334,7 +10343,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="209"/>
+      <c r="D307" s="198"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10354,7 +10363,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="209"/>
+      <c r="D308" s="198"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10374,7 +10383,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="209"/>
+      <c r="D309" s="198"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10394,7 +10403,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="209"/>
+      <c r="D310" s="198"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10414,7 +10423,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="209"/>
+      <c r="D311" s="198"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10434,7 +10443,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="209"/>
+      <c r="D312" s="198"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10454,7 +10463,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="209"/>
+      <c r="D313" s="198"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10474,7 +10483,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="209"/>
+      <c r="D314" s="198"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10494,7 +10503,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="209"/>
+      <c r="D315" s="198"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10514,7 +10523,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="209"/>
+      <c r="D316" s="198"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10534,7 +10543,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="209"/>
+      <c r="D317" s="198"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10554,7 +10563,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="209"/>
+      <c r="D318" s="198"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10574,7 +10583,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="209"/>
+      <c r="D319" s="198"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10594,7 +10603,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="209"/>
+      <c r="D320" s="198"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10614,7 +10623,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="209"/>
+      <c r="D321" s="198"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10634,7 +10643,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="209"/>
+      <c r="D322" s="198"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10654,7 +10663,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="209"/>
+      <c r="D323" s="198"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10674,7 +10683,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="209"/>
+      <c r="D324" s="198"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10694,7 +10703,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="209"/>
+      <c r="D325" s="198"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10714,7 +10723,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="212" t="s">
+      <c r="D328" s="202" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10741,7 +10750,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="213"/>
+      <c r="D329" s="203"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10766,7 +10775,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="213"/>
+      <c r="D330" s="203"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10791,7 +10800,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="213"/>
+      <c r="D331" s="203"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10816,7 +10825,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="213"/>
+      <c r="D332" s="203"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10841,7 +10850,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="213"/>
+      <c r="D333" s="203"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10866,7 +10875,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="213"/>
+      <c r="D334" s="203"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10891,7 +10900,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="213"/>
+      <c r="D335" s="203"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10916,7 +10925,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="180"/>
+      <c r="D336" s="179"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10940,7 +10949,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="226" t="s">
+      <c r="D338" s="187" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10960,7 +10969,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="226"/>
+      <c r="D339" s="187"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10978,7 +10987,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="226"/>
+      <c r="D340" s="187"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -10996,7 +11005,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="226"/>
+      <c r="D341" s="187"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -11022,7 +11031,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="217" t="s">
+      <c r="D343" s="207" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -11044,7 +11053,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="217"/>
+      <c r="D344" s="207"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -11059,7 +11068,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="223" t="s">
+      <c r="A346" s="184" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -11068,7 +11077,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="212" t="s">
+      <c r="D346" s="202" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -11083,14 +11092,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="224"/>
+      <c r="A347" s="185"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="213"/>
+      <c r="D347" s="203"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -11103,14 +11112,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="224"/>
+      <c r="A348" s="185"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="213"/>
+      <c r="D348" s="203"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -11123,14 +11132,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="224"/>
+      <c r="A349" s="185"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="213"/>
+      <c r="D349" s="203"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -11143,14 +11152,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="224"/>
+      <c r="A350" s="185"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="213"/>
+      <c r="D350" s="203"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -11163,14 +11172,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="224"/>
+      <c r="A351" s="185"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="213"/>
+      <c r="D351" s="203"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -11183,14 +11192,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="224"/>
+      <c r="A352" s="185"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="213"/>
+      <c r="D352" s="203"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11203,14 +11212,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="225"/>
+      <c r="A353" s="186"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="214"/>
+      <c r="D353" s="204"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11232,7 +11241,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="207" t="s">
+      <c r="D355" s="196" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11252,7 +11261,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="207"/>
+      <c r="D356" s="196"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11270,7 +11279,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="207"/>
+      <c r="D357" s="196"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11288,7 +11297,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="207"/>
+      <c r="D358" s="196"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11366,7 +11375,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="206" t="s">
+      <c r="D362" s="195" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11392,7 +11401,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="206"/>
+      <c r="D363" s="195"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11957,7 +11966,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="221" t="s">
+      <c r="D387" s="182" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -11991,7 +12000,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="222"/>
+      <c r="D388" s="183"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -12023,7 +12032,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="222"/>
+      <c r="D389" s="183"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -12051,7 +12060,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="222"/>
+      <c r="D390" s="183"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -12079,7 +12088,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="220" t="s">
+      <c r="D391" s="181" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -12109,7 +12118,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="220"/>
+      <c r="D392" s="181"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12241,7 +12250,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="219" t="s">
+      <c r="D398" s="180" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12268,7 +12277,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="219"/>
+      <c r="D399" s="180"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12293,7 +12302,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="219"/>
+      <c r="D400" s="180"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12318,7 +12327,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="219"/>
+      <c r="D401" s="180"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12347,7 +12356,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="219"/>
+      <c r="D402" s="180"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -13271,15 +13280,42 @@
       <c r="E466" s="122"/>
       <c r="F466" s="122"/>
     </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B468" s="58">
+        <v>393</v>
+      </c>
+      <c r="C468" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="D468" s="108" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B469" s="58">
+        <v>394</v>
+      </c>
+      <c r="C469" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="D469" s="108" t="s">
+        <v>525</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="D119:D134"/>
     <mergeCell ref="D96:D103"/>
@@ -13296,17 +13332,12 @@
     <mergeCell ref="D343:D344"/>
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3BBA25BC-4C0E-4BFF-AE2C-55B7E8A8258E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83D870A1-F599-451F-9ACF-786D5E78C458}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="539">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1940,6 +1940,54 @@
   </si>
   <si>
     <t>线索关键词订阅匹配度</t>
+  </si>
+  <si>
+    <t>mmt2018年的客单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmt2018年的累计销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmt2018年的成单了的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有会员类型的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmt会员类型的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同类型的会员无商机的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同类型的会员有商机的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个地区的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同主营行业的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2788,100 +2836,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2923,6 +2884,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2933,6 +2897,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3318,11 +3366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M469"/>
+  <dimension ref="A1:M483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C469" sqref="C469"/>
+      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D469" sqref="B468:D469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3388,7 +3436,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="178" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3418,7 +3466,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="200"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3446,7 +3494,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="179"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3489,7 +3537,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="198" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3515,7 +3563,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="210"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3539,7 +3587,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="210"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3563,7 +3611,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="210"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3587,7 +3635,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="210"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3629,7 +3677,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="194" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3655,7 +3703,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="200"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3679,7 +3727,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="200"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3703,7 +3751,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="200"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3727,7 +3775,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="200"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3751,7 +3799,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="200"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3775,7 +3823,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="200"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3799,7 +3847,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="200"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3823,7 +3871,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="200"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3847,7 +3895,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3885,7 +3933,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="223" t="s">
+      <c r="D23" s="195" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3907,7 +3955,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="224"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3935,7 +3983,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="224"/>
+      <c r="D25" s="196"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -3963,7 +4011,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="224"/>
+      <c r="D26" s="196"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3983,7 +4031,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="224"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -4011,7 +4059,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="224"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -4039,7 +4087,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="224"/>
+      <c r="D29" s="196"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -4067,7 +4115,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="225"/>
+      <c r="D30" s="197"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4173,7 +4221,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="179" t="s">
+      <c r="D35" s="180" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -4193,7 +4241,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="210"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4211,7 +4259,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="210"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4229,7 +4277,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="210"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4263,7 +4311,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="215" t="s">
+      <c r="D40" s="186" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4289,7 +4337,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="216"/>
+      <c r="D41" s="187"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4313,7 +4361,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="216"/>
+      <c r="D42" s="187"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4337,7 +4385,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="217"/>
+      <c r="D43" s="188"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4375,7 +4423,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="211" t="s">
+      <c r="D45" s="182" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4401,7 +4449,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="212"/>
+      <c r="D46" s="183"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4425,7 +4473,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="212"/>
+      <c r="D47" s="183"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4449,7 +4497,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="212"/>
+      <c r="D48" s="183"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4473,7 +4521,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="212"/>
+      <c r="D49" s="183"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4497,7 +4545,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="212"/>
+      <c r="D50" s="183"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4521,7 +4569,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="212"/>
+      <c r="D51" s="183"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4545,7 +4593,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="212"/>
+      <c r="D52" s="183"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4569,7 +4617,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="212"/>
+      <c r="D53" s="183"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4593,7 +4641,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="212"/>
+      <c r="D54" s="183"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4617,7 +4665,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="212"/>
+      <c r="D55" s="183"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4641,7 +4689,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="213"/>
+      <c r="D56" s="184"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4723,7 +4771,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="214" t="s">
+      <c r="D60" s="185" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4753,7 +4801,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="200"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4781,7 +4829,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="200"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4809,7 +4857,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="200"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4833,7 +4881,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="200"/>
+      <c r="D64" s="179"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4857,7 +4905,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="179"/>
+      <c r="D65" s="180"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4895,7 +4943,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="218" t="s">
+      <c r="D67" s="189" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4925,7 +4973,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="219"/>
+      <c r="D68" s="190"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4953,7 +5001,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="220"/>
+      <c r="D69" s="191"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -4995,7 +5043,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="221" t="s">
+      <c r="D71" s="192" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -5025,7 +5073,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="222"/>
+      <c r="D72" s="193"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -5053,7 +5101,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="222"/>
+      <c r="D73" s="193"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -5081,7 +5129,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="222"/>
+      <c r="D74" s="193"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -5109,7 +5157,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="210"/>
+      <c r="D75" s="181"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -5137,7 +5185,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="210"/>
+      <c r="D76" s="181"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5223,7 +5271,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="211" t="s">
+      <c r="D80" s="182" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5253,7 +5301,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="212"/>
+      <c r="D81" s="183"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5277,7 +5325,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="212"/>
+      <c r="D82" s="183"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5305,7 +5353,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="212"/>
+      <c r="D83" s="183"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5329,7 +5377,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="212"/>
+      <c r="D84" s="183"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5357,7 +5405,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="213"/>
+      <c r="D85" s="184"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5439,7 +5487,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="188" t="s">
+      <c r="D89" s="199" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5469,7 +5517,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="189"/>
+      <c r="D90" s="200"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5497,7 +5545,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="189"/>
+      <c r="D91" s="200"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5525,7 +5573,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="189"/>
+      <c r="D92" s="200"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5553,7 +5601,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="189"/>
+      <c r="D93" s="200"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5581,7 +5629,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="190"/>
+      <c r="D94" s="201"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5623,7 +5671,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="192" t="s">
+      <c r="D96" s="203" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5649,7 +5697,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="193"/>
+      <c r="D97" s="204"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5673,7 +5721,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="193"/>
+      <c r="D98" s="204"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5697,7 +5745,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="193"/>
+      <c r="D99" s="204"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5721,7 +5769,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="193"/>
+      <c r="D100" s="204"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5745,7 +5793,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="193"/>
+      <c r="D101" s="204"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5769,7 +5817,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="193"/>
+      <c r="D102" s="204"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5793,7 +5841,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="194"/>
+      <c r="D103" s="205"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5820,7 +5868,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="197" t="s">
+      <c r="D105" s="208" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5846,7 +5894,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="197"/>
+      <c r="D106" s="208"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5870,7 +5918,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="197"/>
+      <c r="D107" s="208"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5894,7 +5942,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="197"/>
+      <c r="D108" s="208"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5916,7 +5964,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="197"/>
+      <c r="D109" s="208"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5942,7 +5990,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="199" t="s">
+      <c r="D111" s="210" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -5968,7 +6016,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="200"/>
+      <c r="D112" s="179"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -5992,7 +6040,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="200"/>
+      <c r="D113" s="179"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -6016,7 +6064,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="200"/>
+      <c r="D114" s="179"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -6040,7 +6088,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="200"/>
+      <c r="D115" s="179"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -6064,7 +6112,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="179"/>
+      <c r="D116" s="180"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -6094,7 +6142,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="191" t="s">
+      <c r="D119" s="202" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -6120,7 +6168,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="191"/>
+      <c r="D120" s="202"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -6144,7 +6192,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="191"/>
+      <c r="D121" s="202"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -6168,7 +6216,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="191"/>
+      <c r="D122" s="202"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -6192,7 +6240,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="191"/>
+      <c r="D123" s="202"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6216,7 +6264,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="191"/>
+      <c r="D124" s="202"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6240,7 +6288,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="191"/>
+      <c r="D125" s="202"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6264,7 +6312,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="191"/>
+      <c r="D126" s="202"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6288,7 +6336,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="191"/>
+      <c r="D127" s="202"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6312,7 +6360,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="191"/>
+      <c r="D128" s="202"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6336,7 +6384,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="191"/>
+      <c r="D129" s="202"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6360,7 +6408,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="191"/>
+      <c r="D130" s="202"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6384,7 +6432,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="191"/>
+      <c r="D131" s="202"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6408,7 +6456,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="191"/>
+      <c r="D132" s="202"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6432,7 +6480,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="191"/>
+      <c r="D133" s="202"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6456,7 +6504,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="191"/>
+      <c r="D134" s="202"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6564,7 +6612,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="198" t="s">
+      <c r="D140" s="209" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6590,7 +6638,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="198"/>
+      <c r="D141" s="209"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6614,7 +6662,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="198"/>
+      <c r="D142" s="209"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6638,7 +6686,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="198"/>
+      <c r="D143" s="209"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6662,7 +6710,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="198"/>
+      <c r="D144" s="209"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6686,7 +6734,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="198"/>
+      <c r="D145" s="209"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6710,7 +6758,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="198"/>
+      <c r="D146" s="209"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6734,7 +6782,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="198"/>
+      <c r="D147" s="209"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6758,7 +6806,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="198"/>
+      <c r="D148" s="209"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6782,7 +6830,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="198"/>
+      <c r="D149" s="209"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6806,7 +6854,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="198"/>
+      <c r="D150" s="209"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6830,7 +6878,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="198"/>
+      <c r="D151" s="209"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6854,7 +6902,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="198"/>
+      <c r="D152" s="209"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6878,7 +6926,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="198"/>
+      <c r="D153" s="209"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6902,7 +6950,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="198"/>
+      <c r="D154" s="209"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6926,7 +6974,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="198"/>
+      <c r="D155" s="209"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6950,7 +6998,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="198"/>
+      <c r="D156" s="209"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -6974,7 +7022,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="198"/>
+      <c r="D157" s="209"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -6998,7 +7046,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="198"/>
+      <c r="D158" s="209"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -7022,7 +7070,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="198"/>
+      <c r="D159" s="209"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -7046,7 +7094,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="198"/>
+      <c r="D160" s="209"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -7070,7 +7118,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="198"/>
+      <c r="D161" s="209"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -7094,7 +7142,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="198"/>
+      <c r="D162" s="209"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -7118,7 +7166,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="198"/>
+      <c r="D163" s="209"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -7142,7 +7190,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="198"/>
+      <c r="D164" s="209"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -7166,7 +7214,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="198"/>
+      <c r="D165" s="209"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -7190,7 +7238,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="198"/>
+      <c r="D166" s="209"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7214,7 +7262,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="198"/>
+      <c r="D167" s="209"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7238,7 +7286,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="198"/>
+      <c r="D168" s="209"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7262,7 +7310,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="198"/>
+      <c r="D169" s="209"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7286,7 +7334,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="198"/>
+      <c r="D170" s="209"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7310,7 +7358,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="198"/>
+      <c r="D171" s="209"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7334,7 +7382,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="198"/>
+      <c r="D172" s="209"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7358,7 +7406,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="198"/>
+      <c r="D173" s="209"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7382,7 +7430,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="198"/>
+      <c r="D174" s="209"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7406,7 +7454,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="198"/>
+      <c r="D175" s="209"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7430,7 +7478,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="198"/>
+      <c r="D176" s="209"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7454,7 +7502,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="198"/>
+      <c r="D177" s="209"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7478,7 +7526,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="198"/>
+      <c r="D178" s="209"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7502,7 +7550,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="198"/>
+      <c r="D179" s="209"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7526,7 +7574,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="198"/>
+      <c r="D180" s="209"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7550,7 +7598,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="198"/>
+      <c r="D181" s="209"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7574,7 +7622,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="198"/>
+      <c r="D182" s="209"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7598,7 +7646,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="198"/>
+      <c r="D183" s="209"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7622,7 +7670,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="198"/>
+      <c r="D184" s="209"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7646,7 +7694,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="198"/>
+      <c r="D185" s="209"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7670,7 +7718,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="198"/>
+      <c r="D186" s="209"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7694,7 +7742,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="198"/>
+      <c r="D187" s="209"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7718,7 +7766,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="198"/>
+      <c r="D188" s="209"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7742,7 +7790,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="198"/>
+      <c r="D189" s="209"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7766,7 +7814,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="198"/>
+      <c r="D190" s="209"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7790,7 +7838,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="198"/>
+      <c r="D191" s="209"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7814,7 +7862,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="198"/>
+      <c r="D192" s="209"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7838,7 +7886,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="198"/>
+      <c r="D193" s="209"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7862,7 +7910,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="198"/>
+      <c r="D194" s="209"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7886,7 +7934,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="198"/>
+      <c r="D195" s="209"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7910,7 +7958,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="198"/>
+      <c r="D196" s="209"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7934,7 +7982,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="198"/>
+      <c r="D197" s="209"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -7958,7 +8006,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="198"/>
+      <c r="D198" s="209"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -7982,7 +8030,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="198"/>
+      <c r="D199" s="209"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -8006,7 +8054,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="198"/>
+      <c r="D200" s="209"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -8030,7 +8078,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="198"/>
+      <c r="D201" s="209"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -8054,7 +8102,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="198"/>
+      <c r="D202" s="209"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -8078,7 +8126,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="198"/>
+      <c r="D203" s="209"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -8102,7 +8150,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="198"/>
+      <c r="D204" s="209"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -8126,7 +8174,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="198"/>
+      <c r="D205" s="209"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -8150,7 +8198,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="198"/>
+      <c r="D206" s="209"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -8174,7 +8222,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="198"/>
+      <c r="D207" s="209"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -8198,7 +8246,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="198"/>
+      <c r="D208" s="209"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8222,7 +8270,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="198"/>
+      <c r="D209" s="209"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8246,7 +8294,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="198"/>
+      <c r="D210" s="209"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8270,7 +8318,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="198"/>
+      <c r="D211" s="209"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8351,7 +8399,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="201" t="s">
+      <c r="D217" s="211" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8376,7 +8424,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="200"/>
+      <c r="D218" s="179"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8399,7 +8447,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="200"/>
+      <c r="D219" s="179"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8422,7 +8470,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="179"/>
+      <c r="D220" s="180"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8445,7 +8493,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="206" t="s">
+      <c r="D222" s="216" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8471,7 +8519,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="206"/>
+      <c r="D223" s="216"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8499,7 +8547,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="206"/>
+      <c r="D224" s="216"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8527,7 +8575,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="206"/>
+      <c r="D225" s="216"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8551,7 +8599,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="206"/>
+      <c r="D226" s="216"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8579,7 +8627,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="206"/>
+      <c r="D227" s="216"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8607,7 +8655,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="205" t="s">
+      <c r="D229" s="215" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8641,7 +8689,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="205"/>
+      <c r="D230" s="215"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8673,7 +8721,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="205"/>
+      <c r="D231" s="215"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8705,7 +8753,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="205"/>
+      <c r="D232" s="215"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8737,7 +8785,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="205"/>
+      <c r="D233" s="215"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8769,7 +8817,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="205"/>
+      <c r="D234" s="215"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8801,7 +8849,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="205"/>
+      <c r="D235" s="215"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8833,7 +8881,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="205"/>
+      <c r="D236" s="215"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8865,7 +8913,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="205"/>
+      <c r="D237" s="215"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8897,7 +8945,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="205"/>
+      <c r="D238" s="215"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8929,7 +8977,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="205"/>
+      <c r="D239" s="215"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -8961,7 +9009,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="205"/>
+      <c r="D240" s="215"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -8993,7 +9041,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="205"/>
+      <c r="D241" s="215"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -9025,7 +9073,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="205"/>
+      <c r="D242" s="215"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -9057,7 +9105,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="205"/>
+      <c r="D243" s="215"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -9089,7 +9137,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="205"/>
+      <c r="D244" s="215"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -9121,7 +9169,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="205"/>
+      <c r="D245" s="215"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -9157,7 +9205,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="208" t="s">
+      <c r="D247" s="218" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -9183,7 +9231,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="208"/>
+      <c r="D248" s="218"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9207,7 +9255,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="208"/>
+      <c r="D249" s="218"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9231,7 +9279,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="178" t="s">
+      <c r="D251" s="194" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9257,7 +9305,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="179"/>
+      <c r="D252" s="180"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9281,7 +9329,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="198" t="s">
+      <c r="D254" s="209" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9303,7 +9351,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="198"/>
+      <c r="D255" s="209"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9323,7 +9371,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="198"/>
+      <c r="D256" s="209"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9343,7 +9391,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="198"/>
+      <c r="D257" s="209"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9363,7 +9411,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="198"/>
+      <c r="D258" s="209"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9383,7 +9431,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="198"/>
+      <c r="D259" s="209"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9403,7 +9451,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="198"/>
+      <c r="D260" s="209"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9423,7 +9471,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="198"/>
+      <c r="D261" s="209"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9443,7 +9491,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="198"/>
+      <c r="D262" s="209"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9463,7 +9511,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="198"/>
+      <c r="D263" s="209"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9483,7 +9531,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="198"/>
+      <c r="D264" s="209"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9503,7 +9551,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="198"/>
+      <c r="D265" s="209"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9523,7 +9571,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="198"/>
+      <c r="D266" s="209"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9543,7 +9591,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="198"/>
+      <c r="D267" s="209"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9563,7 +9611,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="198"/>
+      <c r="D268" s="209"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9583,7 +9631,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="198"/>
+      <c r="D269" s="209"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9603,7 +9651,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="198"/>
+      <c r="D270" s="209"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9623,7 +9671,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="198"/>
+      <c r="D271" s="209"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9643,7 +9691,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="198"/>
+      <c r="D272" s="209"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9663,7 +9711,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="198"/>
+      <c r="D273" s="209"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9683,7 +9731,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="198"/>
+      <c r="D274" s="209"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9703,7 +9751,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="198"/>
+      <c r="D275" s="209"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9723,7 +9771,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="198"/>
+      <c r="D276" s="209"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9743,7 +9791,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="198"/>
+      <c r="D277" s="209"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9763,7 +9811,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="198"/>
+      <c r="D278" s="209"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9783,7 +9831,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="198"/>
+      <c r="D279" s="209"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9803,7 +9851,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="198"/>
+      <c r="D280" s="209"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9823,7 +9871,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="198"/>
+      <c r="D281" s="209"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9843,7 +9891,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="198"/>
+      <c r="D282" s="209"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9863,7 +9911,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="198"/>
+      <c r="D283" s="209"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9883,7 +9931,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="198"/>
+      <c r="D284" s="209"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9903,7 +9951,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="198"/>
+      <c r="D285" s="209"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9923,7 +9971,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="198"/>
+      <c r="D286" s="209"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9943,7 +9991,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="198"/>
+      <c r="D287" s="209"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -9963,7 +10011,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="198"/>
+      <c r="D288" s="209"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -9983,7 +10031,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="198"/>
+      <c r="D289" s="209"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -10003,7 +10051,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="198"/>
+      <c r="D290" s="209"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -10023,7 +10071,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="198"/>
+      <c r="D291" s="209"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -10043,7 +10091,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="198"/>
+      <c r="D292" s="209"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -10063,7 +10111,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="198"/>
+      <c r="D293" s="209"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -10083,7 +10131,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="198"/>
+      <c r="D294" s="209"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -10103,7 +10151,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="198"/>
+      <c r="D295" s="209"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -10123,7 +10171,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="198"/>
+      <c r="D296" s="209"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -10143,7 +10191,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="198"/>
+      <c r="D297" s="209"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -10163,7 +10211,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="198"/>
+      <c r="D298" s="209"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -10183,7 +10231,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="198"/>
+      <c r="D299" s="209"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -10203,7 +10251,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="198"/>
+      <c r="D300" s="209"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10223,7 +10271,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="198"/>
+      <c r="D301" s="209"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10243,7 +10291,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="198"/>
+      <c r="D302" s="209"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10263,7 +10311,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="198"/>
+      <c r="D303" s="209"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10283,7 +10331,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="198"/>
+      <c r="D304" s="209"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10303,7 +10351,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="198"/>
+      <c r="D305" s="209"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10323,7 +10371,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="198"/>
+      <c r="D306" s="209"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10343,7 +10391,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="198"/>
+      <c r="D307" s="209"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10363,7 +10411,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="198"/>
+      <c r="D308" s="209"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10383,7 +10431,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="198"/>
+      <c r="D309" s="209"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10403,7 +10451,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="198"/>
+      <c r="D310" s="209"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10423,7 +10471,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="198"/>
+      <c r="D311" s="209"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10443,7 +10491,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="198"/>
+      <c r="D312" s="209"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10463,7 +10511,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="198"/>
+      <c r="D313" s="209"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10483,7 +10531,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="198"/>
+      <c r="D314" s="209"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10503,7 +10551,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="198"/>
+      <c r="D315" s="209"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10523,7 +10571,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="198"/>
+      <c r="D316" s="209"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10543,7 +10591,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="198"/>
+      <c r="D317" s="209"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10563,7 +10611,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="198"/>
+      <c r="D318" s="209"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10583,7 +10631,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="198"/>
+      <c r="D319" s="209"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10603,7 +10651,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="198"/>
+      <c r="D320" s="209"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10623,7 +10671,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="198"/>
+      <c r="D321" s="209"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10643,7 +10691,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="198"/>
+      <c r="D322" s="209"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10663,7 +10711,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="198"/>
+      <c r="D323" s="209"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10683,7 +10731,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="198"/>
+      <c r="D324" s="209"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10703,7 +10751,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="198"/>
+      <c r="D325" s="209"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10723,7 +10771,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="202" t="s">
+      <c r="D328" s="212" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10750,7 +10798,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="203"/>
+      <c r="D329" s="213"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10775,7 +10823,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="203"/>
+      <c r="D330" s="213"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10800,7 +10848,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="203"/>
+      <c r="D331" s="213"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10825,7 +10873,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="203"/>
+      <c r="D332" s="213"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10850,7 +10898,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="203"/>
+      <c r="D333" s="213"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10875,7 +10923,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="203"/>
+      <c r="D334" s="213"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10900,7 +10948,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="203"/>
+      <c r="D335" s="213"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10925,7 +10973,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="179"/>
+      <c r="D336" s="180"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10949,7 +10997,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="187" t="s">
+      <c r="D338" s="226" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -10969,7 +11017,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="187"/>
+      <c r="D339" s="226"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -10987,7 +11035,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="187"/>
+      <c r="D340" s="226"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -11005,7 +11053,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="187"/>
+      <c r="D341" s="226"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -11031,7 +11079,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="207" t="s">
+      <c r="D343" s="217" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -11053,7 +11101,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="207"/>
+      <c r="D344" s="217"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -11068,7 +11116,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="184" t="s">
+      <c r="A346" s="223" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -11077,7 +11125,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="202" t="s">
+      <c r="D346" s="212" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -11092,14 +11140,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="185"/>
+      <c r="A347" s="224"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="203"/>
+      <c r="D347" s="213"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -11112,14 +11160,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="185"/>
+      <c r="A348" s="224"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="203"/>
+      <c r="D348" s="213"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -11132,14 +11180,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="185"/>
+      <c r="A349" s="224"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="203"/>
+      <c r="D349" s="213"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -11152,14 +11200,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="185"/>
+      <c r="A350" s="224"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="203"/>
+      <c r="D350" s="213"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -11172,14 +11220,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="185"/>
+      <c r="A351" s="224"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="203"/>
+      <c r="D351" s="213"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -11192,14 +11240,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="185"/>
+      <c r="A352" s="224"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="203"/>
+      <c r="D352" s="213"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11212,14 +11260,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="186"/>
+      <c r="A353" s="225"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="204"/>
+      <c r="D353" s="214"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11241,7 +11289,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="196" t="s">
+      <c r="D355" s="207" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11261,7 +11309,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="196"/>
+      <c r="D356" s="207"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11279,7 +11327,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="196"/>
+      <c r="D357" s="207"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11297,7 +11345,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="196"/>
+      <c r="D358" s="207"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11375,7 +11423,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="195" t="s">
+      <c r="D362" s="206" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11401,7 +11449,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="195"/>
+      <c r="D363" s="206"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -11966,7 +12014,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="182" t="s">
+      <c r="D387" s="221" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -12000,7 +12048,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="183"/>
+      <c r="D388" s="222"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -12032,7 +12080,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="183"/>
+      <c r="D389" s="222"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -12060,7 +12108,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="183"/>
+      <c r="D390" s="222"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -12088,7 +12136,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="181" t="s">
+      <c r="D391" s="220" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -12118,7 +12166,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="181"/>
+      <c r="D392" s="220"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12250,7 +12298,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="180" t="s">
+      <c r="D398" s="219" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12277,7 +12325,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="180"/>
+      <c r="D399" s="219"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12302,7 +12350,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="180"/>
+      <c r="D400" s="219"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12327,7 +12375,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="180"/>
+      <c r="D401" s="219"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12356,7 +12404,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="180"/>
+      <c r="D402" s="219"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -13281,41 +13329,147 @@
       <c r="F466" s="122"/>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B468" s="58">
+      <c r="B468" s="122">
         <v>393</v>
       </c>
-      <c r="C468" s="58" t="s">
+      <c r="C468" s="122" t="s">
         <v>524</v>
       </c>
-      <c r="D468" s="108" t="s">
+      <c r="D468" s="175" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B469" s="58">
+      <c r="B469" s="122">
         <v>394</v>
       </c>
-      <c r="C469" s="58" t="s">
+      <c r="C469" s="122" t="s">
         <v>526</v>
       </c>
-      <c r="D469" s="108" t="s">
+      <c r="D469" s="175" t="s">
         <v>525</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B471" s="122">
+        <v>395</v>
+      </c>
+      <c r="C471" s="122" t="s">
+        <v>534</v>
+      </c>
+      <c r="D471" s="175" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B473" s="122">
+        <v>396</v>
+      </c>
+      <c r="C473" s="122" t="s">
+        <v>527</v>
+      </c>
+      <c r="D473" s="175"/>
+      <c r="E473" s="122" t="s">
+        <v>530</v>
+      </c>
+      <c r="F473" s="122" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B474" s="122">
+        <v>397</v>
+      </c>
+      <c r="C474" s="122" t="s">
+        <v>528</v>
+      </c>
+      <c r="D474" s="175"/>
+      <c r="E474" s="122" t="s">
+        <v>532</v>
+      </c>
+      <c r="F474" s="122" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B475" s="122">
+        <v>398</v>
+      </c>
+      <c r="C475" s="122" t="s">
+        <v>529</v>
+      </c>
+      <c r="D475" s="175"/>
+      <c r="E475" s="122" t="s">
+        <v>532</v>
+      </c>
+      <c r="F475" s="122" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B478" s="122">
+        <v>399</v>
+      </c>
+      <c r="C478" s="122" t="s">
+        <v>533</v>
+      </c>
+      <c r="D478" s="175" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B479" s="122">
+        <v>400</v>
+      </c>
+      <c r="C479" s="122" t="s">
+        <v>535</v>
+      </c>
+      <c r="D479" s="175" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B480" s="122">
+        <v>401</v>
+      </c>
+      <c r="C480" s="122" t="s">
+        <v>536</v>
+      </c>
+      <c r="D480" s="175" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B482" s="122">
+        <v>402</v>
+      </c>
+      <c r="C482" s="122" t="s">
+        <v>537</v>
+      </c>
+      <c r="D482" s="175" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B483" s="122">
+        <v>403</v>
+      </c>
+      <c r="C483" s="122" t="s">
+        <v>538</v>
+      </c>
+      <c r="D483" s="175" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="D119:D134"/>
     <mergeCell ref="D96:D103"/>
@@ -13332,12 +13486,17 @@
     <mergeCell ref="D343:D344"/>
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83D870A1-F599-451F-9ACF-786D5E78C458}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{077A78EB-8503-4387-963F-0C01F0874DC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="538">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1967,10 +1967,6 @@
   </si>
   <si>
     <t>所有会员类型的会员数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mmt会员类型的会员数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2836,13 +2832,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2884,9 +2967,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2897,90 +2977,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3366,11 +3362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M483"/>
+  <dimension ref="A1:M482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D469" sqref="B468:D469"/>
+      <selection pane="bottomLeft" activeCell="A471" sqref="A471:XFD471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3436,7 +3432,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="209" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3466,7 +3462,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="179"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3494,7 +3490,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="179"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3537,7 +3533,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="226" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3563,7 +3559,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="181"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3587,7 +3583,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="181"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3611,7 +3607,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3635,7 +3631,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="181"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3677,7 +3673,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="178" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3703,7 +3699,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="200"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3727,7 +3723,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="179"/>
+      <c r="D14" s="200"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3751,7 +3747,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="179"/>
+      <c r="D15" s="200"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3775,7 +3771,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="200"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3799,7 +3795,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="200"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3823,7 +3819,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="179"/>
+      <c r="D18" s="200"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3847,7 +3843,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="179"/>
+      <c r="D19" s="200"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3871,7 +3867,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="179"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3895,7 +3891,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="180"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3933,7 +3929,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="195" t="s">
+      <c r="D23" s="223" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3955,7 +3951,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="196"/>
+      <c r="D24" s="224"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3983,7 +3979,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="196"/>
+      <c r="D25" s="224"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -4011,7 +4007,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="196"/>
+      <c r="D26" s="224"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -4031,7 +4027,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="196"/>
+      <c r="D27" s="224"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -4059,7 +4055,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="196"/>
+      <c r="D28" s="224"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -4087,7 +4083,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="196"/>
+      <c r="D29" s="224"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -4115,7 +4111,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="197"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4221,7 +4217,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="179" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -4241,7 +4237,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="181"/>
+      <c r="D36" s="210"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4259,7 +4255,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="210"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4277,7 +4273,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="181"/>
+      <c r="D38" s="210"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4311,7 +4307,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="186" t="s">
+      <c r="D40" s="215" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4337,7 +4333,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="187"/>
+      <c r="D41" s="216"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4361,7 +4357,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="187"/>
+      <c r="D42" s="216"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4385,7 +4381,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="188"/>
+      <c r="D43" s="217"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4423,7 +4419,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="211" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4449,7 +4445,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="183"/>
+      <c r="D46" s="212"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4473,7 +4469,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="183"/>
+      <c r="D47" s="212"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4497,7 +4493,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="183"/>
+      <c r="D48" s="212"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4521,7 +4517,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="183"/>
+      <c r="D49" s="212"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4545,7 +4541,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="183"/>
+      <c r="D50" s="212"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4569,7 +4565,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="183"/>
+      <c r="D51" s="212"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4593,7 +4589,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="183"/>
+      <c r="D52" s="212"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4617,7 +4613,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="183"/>
+      <c r="D53" s="212"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4641,7 +4637,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="183"/>
+      <c r="D54" s="212"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4665,7 +4661,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="183"/>
+      <c r="D55" s="212"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4689,7 +4685,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="184"/>
+      <c r="D56" s="213"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4771,7 +4767,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="185" t="s">
+      <c r="D60" s="214" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4801,7 +4797,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="179"/>
+      <c r="D61" s="200"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4829,7 +4825,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="179"/>
+      <c r="D62" s="200"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4857,7 +4853,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="179"/>
+      <c r="D63" s="200"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4881,7 +4877,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="179"/>
+      <c r="D64" s="200"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4905,7 +4901,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="180"/>
+      <c r="D65" s="179"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4943,7 +4939,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="189" t="s">
+      <c r="D67" s="218" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4973,7 +4969,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="190"/>
+      <c r="D68" s="219"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -5001,7 +4997,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="191"/>
+      <c r="D69" s="220"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -5043,7 +5039,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="192" t="s">
+      <c r="D71" s="221" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -5073,7 +5069,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="193"/>
+      <c r="D72" s="222"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -5101,7 +5097,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="193"/>
+      <c r="D73" s="222"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -5129,7 +5125,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="193"/>
+      <c r="D74" s="222"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -5157,7 +5153,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="181"/>
+      <c r="D75" s="210"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -5185,7 +5181,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="181"/>
+      <c r="D76" s="210"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5271,7 +5267,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="182" t="s">
+      <c r="D80" s="211" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5301,7 +5297,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="183"/>
+      <c r="D81" s="212"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5325,7 +5321,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="183"/>
+      <c r="D82" s="212"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5353,7 +5349,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="183"/>
+      <c r="D83" s="212"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5377,7 +5373,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="183"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5405,7 +5401,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="184"/>
+      <c r="D85" s="213"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5487,7 +5483,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="199" t="s">
+      <c r="D89" s="188" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5517,7 +5513,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="200"/>
+      <c r="D90" s="189"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5545,7 +5541,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="200"/>
+      <c r="D91" s="189"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5573,7 +5569,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="200"/>
+      <c r="D92" s="189"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5601,7 +5597,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="200"/>
+      <c r="D93" s="189"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5629,7 +5625,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="201"/>
+      <c r="D94" s="190"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5671,7 +5667,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="203" t="s">
+      <c r="D96" s="192" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5697,7 +5693,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="204"/>
+      <c r="D97" s="193"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5721,7 +5717,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="204"/>
+      <c r="D98" s="193"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5745,7 +5741,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="204"/>
+      <c r="D99" s="193"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5769,7 +5765,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="204"/>
+      <c r="D100" s="193"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5793,7 +5789,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="204"/>
+      <c r="D101" s="193"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5817,7 +5813,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="204"/>
+      <c r="D102" s="193"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5841,7 +5837,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="205"/>
+      <c r="D103" s="194"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5868,7 +5864,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="208" t="s">
+      <c r="D105" s="197" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5894,7 +5890,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="208"/>
+      <c r="D106" s="197"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5918,7 +5914,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="208"/>
+      <c r="D107" s="197"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5942,7 +5938,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="208"/>
+      <c r="D108" s="197"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5964,7 +5960,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="208"/>
+      <c r="D109" s="197"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5990,7 +5986,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="210" t="s">
+      <c r="D111" s="199" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -6016,7 +6012,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="179"/>
+      <c r="D112" s="200"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -6040,7 +6036,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="179"/>
+      <c r="D113" s="200"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -6064,7 +6060,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="179"/>
+      <c r="D114" s="200"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -6088,7 +6084,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="179"/>
+      <c r="D115" s="200"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -6112,7 +6108,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="180"/>
+      <c r="D116" s="179"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -6142,7 +6138,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="202" t="s">
+      <c r="D119" s="191" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -6168,7 +6164,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="202"/>
+      <c r="D120" s="191"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -6192,7 +6188,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="202"/>
+      <c r="D121" s="191"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -6216,7 +6212,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="202"/>
+      <c r="D122" s="191"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -6240,7 +6236,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="202"/>
+      <c r="D123" s="191"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6264,7 +6260,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="202"/>
+      <c r="D124" s="191"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6288,7 +6284,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="202"/>
+      <c r="D125" s="191"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6312,7 +6308,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="202"/>
+      <c r="D126" s="191"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6336,7 +6332,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="202"/>
+      <c r="D127" s="191"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6360,7 +6356,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="202"/>
+      <c r="D128" s="191"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6384,7 +6380,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="202"/>
+      <c r="D129" s="191"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6408,7 +6404,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="202"/>
+      <c r="D130" s="191"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6432,7 +6428,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="202"/>
+      <c r="D131" s="191"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6456,7 +6452,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="202"/>
+      <c r="D132" s="191"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6480,7 +6476,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="202"/>
+      <c r="D133" s="191"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6504,7 +6500,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="202"/>
+      <c r="D134" s="191"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6612,7 +6608,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="209" t="s">
+      <c r="D140" s="198" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6638,7 +6634,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="209"/>
+      <c r="D141" s="198"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6662,7 +6658,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="209"/>
+      <c r="D142" s="198"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6686,7 +6682,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="209"/>
+      <c r="D143" s="198"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6710,7 +6706,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="209"/>
+      <c r="D144" s="198"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6734,7 +6730,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="209"/>
+      <c r="D145" s="198"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6758,7 +6754,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="209"/>
+      <c r="D146" s="198"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6782,7 +6778,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="209"/>
+      <c r="D147" s="198"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6806,7 +6802,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="209"/>
+      <c r="D148" s="198"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6830,7 +6826,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="209"/>
+      <c r="D149" s="198"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6854,7 +6850,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="209"/>
+      <c r="D150" s="198"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6878,7 +6874,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="209"/>
+      <c r="D151" s="198"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6902,7 +6898,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="209"/>
+      <c r="D152" s="198"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6926,7 +6922,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="209"/>
+      <c r="D153" s="198"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6950,7 +6946,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="209"/>
+      <c r="D154" s="198"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6974,7 +6970,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="209"/>
+      <c r="D155" s="198"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6998,7 +6994,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="209"/>
+      <c r="D156" s="198"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -7022,7 +7018,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="209"/>
+      <c r="D157" s="198"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -7046,7 +7042,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="209"/>
+      <c r="D158" s="198"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -7070,7 +7066,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="209"/>
+      <c r="D159" s="198"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -7094,7 +7090,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="209"/>
+      <c r="D160" s="198"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -7118,7 +7114,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="209"/>
+      <c r="D161" s="198"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -7142,7 +7138,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="209"/>
+      <c r="D162" s="198"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -7166,7 +7162,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="209"/>
+      <c r="D163" s="198"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -7190,7 +7186,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="209"/>
+      <c r="D164" s="198"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -7214,7 +7210,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="209"/>
+      <c r="D165" s="198"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -7238,7 +7234,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="209"/>
+      <c r="D166" s="198"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7262,7 +7258,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="209"/>
+      <c r="D167" s="198"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7286,7 +7282,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="209"/>
+      <c r="D168" s="198"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7310,7 +7306,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="209"/>
+      <c r="D169" s="198"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7334,7 +7330,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="209"/>
+      <c r="D170" s="198"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7358,7 +7354,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="209"/>
+      <c r="D171" s="198"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7382,7 +7378,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="209"/>
+      <c r="D172" s="198"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7406,7 +7402,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="209"/>
+      <c r="D173" s="198"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7430,7 +7426,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="209"/>
+      <c r="D174" s="198"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7454,7 +7450,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="209"/>
+      <c r="D175" s="198"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7478,7 +7474,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="209"/>
+      <c r="D176" s="198"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7502,7 +7498,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="209"/>
+      <c r="D177" s="198"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7526,7 +7522,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="209"/>
+      <c r="D178" s="198"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7550,7 +7546,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="209"/>
+      <c r="D179" s="198"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7574,7 +7570,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="209"/>
+      <c r="D180" s="198"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7598,7 +7594,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="209"/>
+      <c r="D181" s="198"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7622,7 +7618,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="209"/>
+      <c r="D182" s="198"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7646,7 +7642,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="209"/>
+      <c r="D183" s="198"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7670,7 +7666,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="209"/>
+      <c r="D184" s="198"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7694,7 +7690,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="209"/>
+      <c r="D185" s="198"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7718,7 +7714,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="209"/>
+      <c r="D186" s="198"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7742,7 +7738,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="209"/>
+      <c r="D187" s="198"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7766,7 +7762,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="209"/>
+      <c r="D188" s="198"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7790,7 +7786,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="209"/>
+      <c r="D189" s="198"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7814,7 +7810,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="209"/>
+      <c r="D190" s="198"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7838,7 +7834,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="209"/>
+      <c r="D191" s="198"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7862,7 +7858,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="209"/>
+      <c r="D192" s="198"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7886,7 +7882,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="209"/>
+      <c r="D193" s="198"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7910,7 +7906,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="209"/>
+      <c r="D194" s="198"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7934,7 +7930,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="209"/>
+      <c r="D195" s="198"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7958,7 +7954,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="209"/>
+      <c r="D196" s="198"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7982,7 +7978,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="209"/>
+      <c r="D197" s="198"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -8006,7 +8002,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="209"/>
+      <c r="D198" s="198"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -8030,7 +8026,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="209"/>
+      <c r="D199" s="198"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -8054,7 +8050,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="209"/>
+      <c r="D200" s="198"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -8078,7 +8074,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="209"/>
+      <c r="D201" s="198"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -8102,7 +8098,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="209"/>
+      <c r="D202" s="198"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -8126,7 +8122,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="209"/>
+      <c r="D203" s="198"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -8150,7 +8146,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="209"/>
+      <c r="D204" s="198"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -8174,7 +8170,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="209"/>
+      <c r="D205" s="198"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -8198,7 +8194,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="209"/>
+      <c r="D206" s="198"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -8222,7 +8218,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="209"/>
+      <c r="D207" s="198"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -8246,7 +8242,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="209"/>
+      <c r="D208" s="198"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8270,7 +8266,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="209"/>
+      <c r="D209" s="198"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8294,7 +8290,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="209"/>
+      <c r="D210" s="198"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8318,7 +8314,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="209"/>
+      <c r="D211" s="198"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8399,7 +8395,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="211" t="s">
+      <c r="D217" s="201" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8424,7 +8420,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="179"/>
+      <c r="D218" s="200"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8447,7 +8443,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="179"/>
+      <c r="D219" s="200"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8470,7 +8466,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="180"/>
+      <c r="D220" s="179"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8493,7 +8489,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="216" t="s">
+      <c r="D222" s="206" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8519,7 +8515,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="216"/>
+      <c r="D223" s="206"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8547,7 +8543,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="216"/>
+      <c r="D224" s="206"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8575,7 +8571,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="216"/>
+      <c r="D225" s="206"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8599,7 +8595,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="216"/>
+      <c r="D226" s="206"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8627,7 +8623,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="216"/>
+      <c r="D227" s="206"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8655,7 +8651,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="215" t="s">
+      <c r="D229" s="205" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8689,7 +8685,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="215"/>
+      <c r="D230" s="205"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8721,7 +8717,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="215"/>
+      <c r="D231" s="205"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8753,7 +8749,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="215"/>
+      <c r="D232" s="205"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8785,7 +8781,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="215"/>
+      <c r="D233" s="205"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8817,7 +8813,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="215"/>
+      <c r="D234" s="205"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8849,7 +8845,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="215"/>
+      <c r="D235" s="205"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8881,7 +8877,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="215"/>
+      <c r="D236" s="205"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8913,7 +8909,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="215"/>
+      <c r="D237" s="205"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8945,7 +8941,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="215"/>
+      <c r="D238" s="205"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8977,7 +8973,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="215"/>
+      <c r="D239" s="205"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -9009,7 +9005,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="215"/>
+      <c r="D240" s="205"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -9041,7 +9037,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="215"/>
+      <c r="D241" s="205"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -9073,7 +9069,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="215"/>
+      <c r="D242" s="205"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -9105,7 +9101,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="215"/>
+      <c r="D243" s="205"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -9137,7 +9133,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="215"/>
+      <c r="D244" s="205"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -9169,7 +9165,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="215"/>
+      <c r="D245" s="205"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -9205,7 +9201,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="218" t="s">
+      <c r="D247" s="208" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -9231,7 +9227,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="218"/>
+      <c r="D248" s="208"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9255,7 +9251,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="218"/>
+      <c r="D249" s="208"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9279,7 +9275,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="194" t="s">
+      <c r="D251" s="178" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9305,7 +9301,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="180"/>
+      <c r="D252" s="179"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9329,7 +9325,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="209" t="s">
+      <c r="D254" s="198" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9351,7 +9347,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="209"/>
+      <c r="D255" s="198"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9371,7 +9367,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="209"/>
+      <c r="D256" s="198"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9391,7 +9387,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="209"/>
+      <c r="D257" s="198"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9411,7 +9407,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="209"/>
+      <c r="D258" s="198"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9431,7 +9427,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="209"/>
+      <c r="D259" s="198"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9451,7 +9447,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="209"/>
+      <c r="D260" s="198"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9471,7 +9467,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="209"/>
+      <c r="D261" s="198"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9491,7 +9487,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="209"/>
+      <c r="D262" s="198"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9511,7 +9507,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="209"/>
+      <c r="D263" s="198"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9531,7 +9527,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="209"/>
+      <c r="D264" s="198"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9551,7 +9547,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="209"/>
+      <c r="D265" s="198"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9571,7 +9567,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="209"/>
+      <c r="D266" s="198"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9591,7 +9587,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="209"/>
+      <c r="D267" s="198"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9611,7 +9607,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="209"/>
+      <c r="D268" s="198"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9631,7 +9627,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="209"/>
+      <c r="D269" s="198"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9651,7 +9647,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="209"/>
+      <c r="D270" s="198"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9671,7 +9667,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="209"/>
+      <c r="D271" s="198"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9691,7 +9687,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="209"/>
+      <c r="D272" s="198"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9711,7 +9707,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="209"/>
+      <c r="D273" s="198"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9731,7 +9727,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="209"/>
+      <c r="D274" s="198"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9751,7 +9747,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="209"/>
+      <c r="D275" s="198"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9771,7 +9767,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="209"/>
+      <c r="D276" s="198"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9791,7 +9787,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="209"/>
+      <c r="D277" s="198"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9811,7 +9807,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="209"/>
+      <c r="D278" s="198"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9831,7 +9827,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="209"/>
+      <c r="D279" s="198"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9851,7 +9847,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="209"/>
+      <c r="D280" s="198"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9871,7 +9867,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="209"/>
+      <c r="D281" s="198"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9891,7 +9887,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="209"/>
+      <c r="D282" s="198"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9911,7 +9907,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="209"/>
+      <c r="D283" s="198"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9931,7 +9927,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="209"/>
+      <c r="D284" s="198"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9951,7 +9947,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="209"/>
+      <c r="D285" s="198"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9971,7 +9967,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="209"/>
+      <c r="D286" s="198"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9991,7 +9987,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="209"/>
+      <c r="D287" s="198"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -10011,7 +10007,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="209"/>
+      <c r="D288" s="198"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -10031,7 +10027,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="209"/>
+      <c r="D289" s="198"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -10051,7 +10047,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="209"/>
+      <c r="D290" s="198"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -10071,7 +10067,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="209"/>
+      <c r="D291" s="198"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -10091,7 +10087,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="209"/>
+      <c r="D292" s="198"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -10111,7 +10107,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="209"/>
+      <c r="D293" s="198"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -10131,7 +10127,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="209"/>
+      <c r="D294" s="198"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -10151,7 +10147,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="209"/>
+      <c r="D295" s="198"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -10171,7 +10167,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="209"/>
+      <c r="D296" s="198"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -10191,7 +10187,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="209"/>
+      <c r="D297" s="198"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -10211,7 +10207,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="209"/>
+      <c r="D298" s="198"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -10231,7 +10227,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="209"/>
+      <c r="D299" s="198"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -10251,7 +10247,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="209"/>
+      <c r="D300" s="198"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10271,7 +10267,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="209"/>
+      <c r="D301" s="198"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10291,7 +10287,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="209"/>
+      <c r="D302" s="198"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10311,7 +10307,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="209"/>
+      <c r="D303" s="198"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10331,7 +10327,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="209"/>
+      <c r="D304" s="198"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10351,7 +10347,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="209"/>
+      <c r="D305" s="198"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10371,7 +10367,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="209"/>
+      <c r="D306" s="198"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10391,7 +10387,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="209"/>
+      <c r="D307" s="198"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10411,7 +10407,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="209"/>
+      <c r="D308" s="198"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10431,7 +10427,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="209"/>
+      <c r="D309" s="198"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10451,7 +10447,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="209"/>
+      <c r="D310" s="198"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10471,7 +10467,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="209"/>
+      <c r="D311" s="198"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10491,7 +10487,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="209"/>
+      <c r="D312" s="198"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10511,7 +10507,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="209"/>
+      <c r="D313" s="198"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10531,7 +10527,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="209"/>
+      <c r="D314" s="198"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10551,7 +10547,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="209"/>
+      <c r="D315" s="198"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10571,7 +10567,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="209"/>
+      <c r="D316" s="198"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10591,7 +10587,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="209"/>
+      <c r="D317" s="198"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10611,7 +10607,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="209"/>
+      <c r="D318" s="198"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10631,7 +10627,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="209"/>
+      <c r="D319" s="198"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10651,7 +10647,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="209"/>
+      <c r="D320" s="198"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10671,7 +10667,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="209"/>
+      <c r="D321" s="198"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10691,7 +10687,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="209"/>
+      <c r="D322" s="198"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10711,7 +10707,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="209"/>
+      <c r="D323" s="198"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10731,7 +10727,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="209"/>
+      <c r="D324" s="198"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10751,7 +10747,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="209"/>
+      <c r="D325" s="198"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10771,7 +10767,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="212" t="s">
+      <c r="D328" s="202" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10798,7 +10794,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="213"/>
+      <c r="D329" s="203"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10823,7 +10819,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="213"/>
+      <c r="D330" s="203"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10848,7 +10844,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="213"/>
+      <c r="D331" s="203"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10873,7 +10869,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="213"/>
+      <c r="D332" s="203"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10898,7 +10894,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="213"/>
+      <c r="D333" s="203"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10923,7 +10919,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="213"/>
+      <c r="D334" s="203"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10948,7 +10944,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="213"/>
+      <c r="D335" s="203"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10973,7 +10969,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="180"/>
+      <c r="D336" s="179"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10997,7 +10993,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="226" t="s">
+      <c r="D338" s="187" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -11017,7 +11013,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="226"/>
+      <c r="D339" s="187"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -11035,7 +11031,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="226"/>
+      <c r="D340" s="187"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -11053,7 +11049,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="226"/>
+      <c r="D341" s="187"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -11079,7 +11075,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="217" t="s">
+      <c r="D343" s="207" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -11101,7 +11097,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="217"/>
+      <c r="D344" s="207"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -11116,7 +11112,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="223" t="s">
+      <c r="A346" s="184" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -11125,7 +11121,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="212" t="s">
+      <c r="D346" s="202" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -11140,14 +11136,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="224"/>
+      <c r="A347" s="185"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="213"/>
+      <c r="D347" s="203"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -11160,14 +11156,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="224"/>
+      <c r="A348" s="185"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="213"/>
+      <c r="D348" s="203"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -11180,14 +11176,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="224"/>
+      <c r="A349" s="185"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="213"/>
+      <c r="D349" s="203"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -11200,14 +11196,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="224"/>
+      <c r="A350" s="185"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="213"/>
+      <c r="D350" s="203"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -11220,14 +11216,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="224"/>
+      <c r="A351" s="185"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="213"/>
+      <c r="D351" s="203"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -11240,14 +11236,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="224"/>
+      <c r="A352" s="185"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="213"/>
+      <c r="D352" s="203"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11260,14 +11256,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="225"/>
+      <c r="A353" s="186"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="214"/>
+      <c r="D353" s="204"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11289,7 +11285,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="207" t="s">
+      <c r="D355" s="196" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11309,7 +11305,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="207"/>
+      <c r="D356" s="196"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11327,7 +11323,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="207"/>
+      <c r="D357" s="196"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11345,7 +11341,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="207"/>
+      <c r="D358" s="196"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11423,7 +11419,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="206" t="s">
+      <c r="D362" s="195" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11449,7 +11445,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="206"/>
+      <c r="D363" s="195"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -12014,7 +12010,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="221" t="s">
+      <c r="D387" s="182" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -12048,7 +12044,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="222"/>
+      <c r="D388" s="183"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -12080,7 +12076,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="222"/>
+      <c r="D389" s="183"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -12108,7 +12104,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="222"/>
+      <c r="D390" s="183"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -12136,7 +12132,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="220" t="s">
+      <c r="D391" s="181" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -12166,7 +12162,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="220"/>
+      <c r="D392" s="181"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12298,7 +12294,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="219" t="s">
+      <c r="D398" s="180" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12325,7 +12321,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="219"/>
+      <c r="D399" s="180"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12350,7 +12346,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="219"/>
+      <c r="D400" s="180"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12375,7 +12371,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="219"/>
+      <c r="D401" s="180"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12404,7 +12400,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="219"/>
+      <c r="D402" s="180"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -13350,27 +13346,31 @@
         <v>525</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B471" s="122">
-        <v>395</v>
-      </c>
-      <c r="C471" s="122" t="s">
-        <v>534</v>
-      </c>
-      <c r="D471" s="175" t="s">
-        <v>505</v>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B472" s="122">
+        <v>396</v>
+      </c>
+      <c r="C472" s="122" t="s">
+        <v>527</v>
+      </c>
+      <c r="D472" s="175"/>
+      <c r="E472" s="122" t="s">
+        <v>530</v>
+      </c>
+      <c r="F472" s="122" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B473" s="122">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C473" s="122" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D473" s="175"/>
       <c r="E473" s="122" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F473" s="122" t="s">
         <v>531</v>
@@ -13378,10 +13378,10 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B474" s="122">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C474" s="122" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D474" s="175"/>
       <c r="E474" s="122" t="s">
@@ -13391,27 +13391,23 @@
         <v>531</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B475" s="122">
-        <v>398</v>
-      </c>
-      <c r="C475" s="122" t="s">
-        <v>529</v>
-      </c>
-      <c r="D475" s="175"/>
-      <c r="E475" s="122" t="s">
-        <v>532</v>
-      </c>
-      <c r="F475" s="122" t="s">
-        <v>531</v>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B477" s="122">
+        <v>399</v>
+      </c>
+      <c r="C477" s="122" t="s">
+        <v>533</v>
+      </c>
+      <c r="D477" s="175" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B478" s="122">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C478" s="122" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D478" s="175" t="s">
         <v>505</v>
@@ -13419,7 +13415,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B479" s="122">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C479" s="122" t="s">
         <v>535</v>
@@ -13428,48 +13424,42 @@
         <v>505</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B480" s="122">
-        <v>401</v>
-      </c>
-      <c r="C480" s="122" t="s">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B481" s="122">
+        <v>402</v>
+      </c>
+      <c r="C481" s="122" t="s">
         <v>536</v>
       </c>
-      <c r="D480" s="175" t="s">
+      <c r="D481" s="175" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B482" s="122">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C482" s="122" t="s">
         <v>537</v>
       </c>
       <c r="D482" s="175" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B483" s="122">
-        <v>403</v>
-      </c>
-      <c r="C483" s="122" t="s">
-        <v>538</v>
-      </c>
-      <c r="D483" s="175" t="s">
         <v>505</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="D119:D134"/>
     <mergeCell ref="D96:D103"/>
@@ -13486,17 +13476,12 @@
     <mergeCell ref="D343:D344"/>
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{077A78EB-8503-4387-963F-0C01F0874DC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{43EE1685-08AA-4ACC-8A23-C262199712CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="544">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1983,6 +1983,29 @@
   </si>
   <si>
     <t>不同主营行业的会员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购报价</t>
+  </si>
+  <si>
+    <t>每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名企报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购各会员无报价的会员量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名企各会员无报价的会员量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2832,100 +2855,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2967,6 +2903,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2977,6 +2916,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3362,11 +3385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M482"/>
+  <dimension ref="A1:M488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A471" sqref="A471:XFD471"/>
+      <selection pane="bottomLeft" activeCell="E474" sqref="E474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3432,7 +3455,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="178" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3462,7 +3485,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="200"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3490,7 +3513,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="179"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3533,7 +3556,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="198" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3559,7 +3582,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="210"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3583,7 +3606,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="210"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3607,7 +3630,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="210"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3631,7 +3654,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="210"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3673,7 +3696,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="194" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3699,7 +3722,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="200"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3723,7 +3746,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="200"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3747,7 +3770,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="200"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3771,7 +3794,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="200"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3795,7 +3818,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="200"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3819,7 +3842,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="200"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3843,7 +3866,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="200"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3867,7 +3890,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="200"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3891,7 +3914,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3929,7 +3952,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="223" t="s">
+      <c r="D23" s="195" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3951,7 +3974,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="224"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -3979,7 +4002,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="224"/>
+      <c r="D25" s="196"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -4007,7 +4030,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="224"/>
+      <c r="D26" s="196"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -4027,7 +4050,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="224"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -4055,7 +4078,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="224"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -4083,7 +4106,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="224"/>
+      <c r="D29" s="196"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -4111,7 +4134,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="225"/>
+      <c r="D30" s="197"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4217,7 +4240,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="179" t="s">
+      <c r="D35" s="180" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -4237,7 +4260,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="210"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4255,7 +4278,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="210"/>
+      <c r="D37" s="181"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4273,7 +4296,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="210"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4307,7 +4330,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="215" t="s">
+      <c r="D40" s="186" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4333,7 +4356,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="216"/>
+      <c r="D41" s="187"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4357,7 +4380,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="216"/>
+      <c r="D42" s="187"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4381,7 +4404,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="217"/>
+      <c r="D43" s="188"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4419,7 +4442,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="211" t="s">
+      <c r="D45" s="182" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4445,7 +4468,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="212"/>
+      <c r="D46" s="183"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4469,7 +4492,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="212"/>
+      <c r="D47" s="183"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4493,7 +4516,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="212"/>
+      <c r="D48" s="183"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4517,7 +4540,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="212"/>
+      <c r="D49" s="183"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4541,7 +4564,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="212"/>
+      <c r="D50" s="183"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4565,7 +4588,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="212"/>
+      <c r="D51" s="183"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4589,7 +4612,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="212"/>
+      <c r="D52" s="183"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4613,7 +4636,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="212"/>
+      <c r="D53" s="183"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4637,7 +4660,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="212"/>
+      <c r="D54" s="183"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4661,7 +4684,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="212"/>
+      <c r="D55" s="183"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4685,7 +4708,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="213"/>
+      <c r="D56" s="184"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4767,7 +4790,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="214" t="s">
+      <c r="D60" s="185" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4797,7 +4820,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="200"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4825,7 +4848,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="200"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4853,7 +4876,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="200"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4877,7 +4900,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="200"/>
+      <c r="D64" s="179"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4901,7 +4924,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="179"/>
+      <c r="D65" s="180"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4939,7 +4962,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="218" t="s">
+      <c r="D67" s="189" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4969,7 +4992,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="219"/>
+      <c r="D68" s="190"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -4997,7 +5020,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="220"/>
+      <c r="D69" s="191"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -5039,7 +5062,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="221" t="s">
+      <c r="D71" s="192" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -5069,7 +5092,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="222"/>
+      <c r="D72" s="193"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -5097,7 +5120,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="222"/>
+      <c r="D73" s="193"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -5125,7 +5148,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="222"/>
+      <c r="D74" s="193"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -5153,7 +5176,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="210"/>
+      <c r="D75" s="181"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -5181,7 +5204,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="210"/>
+      <c r="D76" s="181"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5267,7 +5290,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="211" t="s">
+      <c r="D80" s="182" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5297,7 +5320,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="212"/>
+      <c r="D81" s="183"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5321,7 +5344,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="212"/>
+      <c r="D82" s="183"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5349,7 +5372,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="212"/>
+      <c r="D83" s="183"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5373,7 +5396,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="212"/>
+      <c r="D84" s="183"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5401,7 +5424,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="213"/>
+      <c r="D85" s="184"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5483,7 +5506,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="188" t="s">
+      <c r="D89" s="199" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5513,7 +5536,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="189"/>
+      <c r="D90" s="200"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5541,7 +5564,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="189"/>
+      <c r="D91" s="200"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5569,7 +5592,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="189"/>
+      <c r="D92" s="200"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5597,7 +5620,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="189"/>
+      <c r="D93" s="200"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5625,7 +5648,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="190"/>
+      <c r="D94" s="201"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5667,7 +5690,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="192" t="s">
+      <c r="D96" s="203" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5693,7 +5716,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="193"/>
+      <c r="D97" s="204"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5717,7 +5740,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="193"/>
+      <c r="D98" s="204"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5741,7 +5764,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="193"/>
+      <c r="D99" s="204"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5765,7 +5788,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="193"/>
+      <c r="D100" s="204"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5789,7 +5812,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="193"/>
+      <c r="D101" s="204"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5813,7 +5836,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="193"/>
+      <c r="D102" s="204"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5837,7 +5860,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="194"/>
+      <c r="D103" s="205"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5864,7 +5887,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="197" t="s">
+      <c r="D105" s="208" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5890,7 +5913,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="197"/>
+      <c r="D106" s="208"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42" t="s">
@@ -5914,7 +5937,7 @@
       <c r="C107" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="197"/>
+      <c r="D107" s="208"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42" t="s">
@@ -5938,7 +5961,7 @@
       <c r="C108" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="197"/>
+      <c r="D108" s="208"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
       <c r="G108" s="59" t="s">
@@ -5960,7 +5983,7 @@
       <c r="C109" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="197"/>
+      <c r="D109" s="208"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
       <c r="G109" s="59" t="s">
@@ -5986,7 +6009,7 @@
       <c r="C111" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="199" t="s">
+      <c r="D111" s="210" t="s">
         <v>259</v>
       </c>
       <c r="E111" s="45"/>
@@ -6012,7 +6035,7 @@
       <c r="C112" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="200"/>
+      <c r="D112" s="179"/>
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
@@ -6036,7 +6059,7 @@
       <c r="C113" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="200"/>
+      <c r="D113" s="179"/>
       <c r="E113" s="45"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
@@ -6060,7 +6083,7 @@
       <c r="C114" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="200"/>
+      <c r="D114" s="179"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
@@ -6084,7 +6107,7 @@
       <c r="C115" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="200"/>
+      <c r="D115" s="179"/>
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
@@ -6108,7 +6131,7 @@
       <c r="C116" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="179"/>
+      <c r="D116" s="180"/>
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
@@ -6138,7 +6161,7 @@
       <c r="C119" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="191" t="s">
+      <c r="D119" s="202" t="s">
         <v>256</v>
       </c>
       <c r="E119" s="47"/>
@@ -6164,7 +6187,7 @@
       <c r="C120" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="191"/>
+      <c r="D120" s="202"/>
       <c r="E120" s="47"/>
       <c r="F120" s="47"/>
       <c r="G120" s="47" t="s">
@@ -6188,7 +6211,7 @@
       <c r="C121" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="191"/>
+      <c r="D121" s="202"/>
       <c r="E121" s="47"/>
       <c r="F121" s="47"/>
       <c r="G121" s="47" t="s">
@@ -6212,7 +6235,7 @@
       <c r="C122" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="191"/>
+      <c r="D122" s="202"/>
       <c r="E122" s="47"/>
       <c r="F122" s="47"/>
       <c r="G122" s="47" t="s">
@@ -6236,7 +6259,7 @@
       <c r="C123" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="191"/>
+      <c r="D123" s="202"/>
       <c r="E123" s="47"/>
       <c r="F123" s="47"/>
       <c r="G123" s="47" t="s">
@@ -6260,7 +6283,7 @@
       <c r="C124" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="191"/>
+      <c r="D124" s="202"/>
       <c r="E124" s="47"/>
       <c r="F124" s="47"/>
       <c r="G124" s="47" t="s">
@@ -6284,7 +6307,7 @@
       <c r="C125" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="191"/>
+      <c r="D125" s="202"/>
       <c r="E125" s="47"/>
       <c r="F125" s="47"/>
       <c r="G125" s="47" t="s">
@@ -6308,7 +6331,7 @@
       <c r="C126" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="191"/>
+      <c r="D126" s="202"/>
       <c r="E126" s="47"/>
       <c r="F126" s="47"/>
       <c r="G126" s="47" t="s">
@@ -6332,7 +6355,7 @@
       <c r="C127" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D127" s="191"/>
+      <c r="D127" s="202"/>
       <c r="E127" s="47"/>
       <c r="F127" s="47"/>
       <c r="G127" s="47" t="s">
@@ -6356,7 +6379,7 @@
       <c r="C128" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D128" s="191"/>
+      <c r="D128" s="202"/>
       <c r="E128" s="47"/>
       <c r="F128" s="47"/>
       <c r="G128" s="47" t="s">
@@ -6380,7 +6403,7 @@
       <c r="C129" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="191"/>
+      <c r="D129" s="202"/>
       <c r="E129" s="47"/>
       <c r="F129" s="47"/>
       <c r="G129" s="47" t="s">
@@ -6404,7 +6427,7 @@
       <c r="C130" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="191"/>
+      <c r="D130" s="202"/>
       <c r="E130" s="47"/>
       <c r="F130" s="47"/>
       <c r="G130" s="47" t="s">
@@ -6428,7 +6451,7 @@
       <c r="C131" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="191"/>
+      <c r="D131" s="202"/>
       <c r="E131" s="47"/>
       <c r="F131" s="47"/>
       <c r="G131" s="47" t="s">
@@ -6452,7 +6475,7 @@
       <c r="C132" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="191"/>
+      <c r="D132" s="202"/>
       <c r="E132" s="47"/>
       <c r="F132" s="47"/>
       <c r="G132" s="47" t="s">
@@ -6476,7 +6499,7 @@
       <c r="C133" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D133" s="191"/>
+      <c r="D133" s="202"/>
       <c r="E133" s="47"/>
       <c r="F133" s="47"/>
       <c r="G133" s="47" t="s">
@@ -6500,7 +6523,7 @@
       <c r="C134" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D134" s="191"/>
+      <c r="D134" s="202"/>
       <c r="E134" s="47"/>
       <c r="F134" s="47"/>
       <c r="G134" s="47" t="s">
@@ -6608,7 +6631,7 @@
       <c r="C140" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="198" t="s">
+      <c r="D140" s="209" t="s">
         <v>335</v>
       </c>
       <c r="E140" s="62"/>
@@ -6634,7 +6657,7 @@
       <c r="C141" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="198"/>
+      <c r="D141" s="209"/>
       <c r="E141" s="62"/>
       <c r="F141" s="62"/>
       <c r="G141" s="63" t="s">
@@ -6658,7 +6681,7 @@
       <c r="C142" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="198"/>
+      <c r="D142" s="209"/>
       <c r="E142" s="62"/>
       <c r="F142" s="62"/>
       <c r="G142" s="63" t="s">
@@ -6682,7 +6705,7 @@
       <c r="C143" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D143" s="198"/>
+      <c r="D143" s="209"/>
       <c r="E143" s="62"/>
       <c r="F143" s="62"/>
       <c r="G143" s="63" t="s">
@@ -6706,7 +6729,7 @@
       <c r="C144" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D144" s="198"/>
+      <c r="D144" s="209"/>
       <c r="E144" s="62"/>
       <c r="F144" s="62"/>
       <c r="G144" s="63" t="s">
@@ -6730,7 +6753,7 @@
       <c r="C145" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D145" s="198"/>
+      <c r="D145" s="209"/>
       <c r="E145" s="62"/>
       <c r="F145" s="62"/>
       <c r="G145" s="63" t="s">
@@ -6754,7 +6777,7 @@
       <c r="C146" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="198"/>
+      <c r="D146" s="209"/>
       <c r="E146" s="62"/>
       <c r="F146" s="62"/>
       <c r="G146" s="63" t="s">
@@ -6778,7 +6801,7 @@
       <c r="C147" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D147" s="198"/>
+      <c r="D147" s="209"/>
       <c r="E147" s="62"/>
       <c r="F147" s="62"/>
       <c r="G147" s="63" t="s">
@@ -6802,7 +6825,7 @@
       <c r="C148" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D148" s="198"/>
+      <c r="D148" s="209"/>
       <c r="E148" s="62"/>
       <c r="F148" s="62"/>
       <c r="G148" s="63" t="s">
@@ -6826,7 +6849,7 @@
       <c r="C149" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="198"/>
+      <c r="D149" s="209"/>
       <c r="E149" s="62"/>
       <c r="F149" s="62"/>
       <c r="G149" s="63" t="s">
@@ -6850,7 +6873,7 @@
       <c r="C150" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="198"/>
+      <c r="D150" s="209"/>
       <c r="E150" s="62"/>
       <c r="F150" s="62"/>
       <c r="G150" s="63" t="s">
@@ -6874,7 +6897,7 @@
       <c r="C151" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="198"/>
+      <c r="D151" s="209"/>
       <c r="E151" s="62"/>
       <c r="F151" s="62"/>
       <c r="G151" s="63" t="s">
@@ -6898,7 +6921,7 @@
       <c r="C152" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="198"/>
+      <c r="D152" s="209"/>
       <c r="E152" s="62"/>
       <c r="F152" s="62"/>
       <c r="G152" s="63" t="s">
@@ -6922,7 +6945,7 @@
       <c r="C153" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D153" s="198"/>
+      <c r="D153" s="209"/>
       <c r="E153" s="62"/>
       <c r="F153" s="62"/>
       <c r="G153" s="63" t="s">
@@ -6946,7 +6969,7 @@
       <c r="C154" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D154" s="198"/>
+      <c r="D154" s="209"/>
       <c r="E154" s="62"/>
       <c r="F154" s="62"/>
       <c r="G154" s="63" t="s">
@@ -6970,7 +6993,7 @@
       <c r="C155" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D155" s="198"/>
+      <c r="D155" s="209"/>
       <c r="E155" s="62"/>
       <c r="F155" s="62"/>
       <c r="G155" s="63" t="s">
@@ -6994,7 +7017,7 @@
       <c r="C156" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="198"/>
+      <c r="D156" s="209"/>
       <c r="E156" s="62"/>
       <c r="F156" s="62"/>
       <c r="G156" s="63" t="s">
@@ -7018,7 +7041,7 @@
       <c r="C157" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D157" s="198"/>
+      <c r="D157" s="209"/>
       <c r="E157" s="62"/>
       <c r="F157" s="62"/>
       <c r="G157" s="63" t="s">
@@ -7042,7 +7065,7 @@
       <c r="C158" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="198"/>
+      <c r="D158" s="209"/>
       <c r="E158" s="62"/>
       <c r="F158" s="62"/>
       <c r="G158" s="63" t="s">
@@ -7066,7 +7089,7 @@
       <c r="C159" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D159" s="198"/>
+      <c r="D159" s="209"/>
       <c r="E159" s="62"/>
       <c r="F159" s="62"/>
       <c r="G159" s="63" t="s">
@@ -7090,7 +7113,7 @@
       <c r="C160" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="198"/>
+      <c r="D160" s="209"/>
       <c r="E160" s="62"/>
       <c r="F160" s="62"/>
       <c r="G160" s="63" t="s">
@@ -7114,7 +7137,7 @@
       <c r="C161" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D161" s="198"/>
+      <c r="D161" s="209"/>
       <c r="E161" s="62"/>
       <c r="F161" s="62"/>
       <c r="G161" s="63" t="s">
@@ -7138,7 +7161,7 @@
       <c r="C162" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D162" s="198"/>
+      <c r="D162" s="209"/>
       <c r="E162" s="62"/>
       <c r="F162" s="62"/>
       <c r="G162" s="63" t="s">
@@ -7162,7 +7185,7 @@
       <c r="C163" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="198"/>
+      <c r="D163" s="209"/>
       <c r="E163" s="62"/>
       <c r="F163" s="62"/>
       <c r="G163" s="63" t="s">
@@ -7186,7 +7209,7 @@
       <c r="C164" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D164" s="198"/>
+      <c r="D164" s="209"/>
       <c r="E164" s="62"/>
       <c r="F164" s="62"/>
       <c r="G164" s="63" t="s">
@@ -7210,7 +7233,7 @@
       <c r="C165" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D165" s="198"/>
+      <c r="D165" s="209"/>
       <c r="E165" s="62"/>
       <c r="F165" s="62"/>
       <c r="G165" s="63" t="s">
@@ -7234,7 +7257,7 @@
       <c r="C166" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D166" s="198"/>
+      <c r="D166" s="209"/>
       <c r="E166" s="62"/>
       <c r="F166" s="62"/>
       <c r="G166" s="63" t="s">
@@ -7258,7 +7281,7 @@
       <c r="C167" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D167" s="198"/>
+      <c r="D167" s="209"/>
       <c r="E167" s="62"/>
       <c r="F167" s="62"/>
       <c r="G167" s="63" t="s">
@@ -7282,7 +7305,7 @@
       <c r="C168" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="198"/>
+      <c r="D168" s="209"/>
       <c r="E168" s="62"/>
       <c r="F168" s="62"/>
       <c r="G168" s="63" t="s">
@@ -7306,7 +7329,7 @@
       <c r="C169" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D169" s="198"/>
+      <c r="D169" s="209"/>
       <c r="E169" s="62"/>
       <c r="F169" s="62"/>
       <c r="G169" s="63" t="s">
@@ -7330,7 +7353,7 @@
       <c r="C170" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D170" s="198"/>
+      <c r="D170" s="209"/>
       <c r="E170" s="62"/>
       <c r="F170" s="62"/>
       <c r="G170" s="63" t="s">
@@ -7354,7 +7377,7 @@
       <c r="C171" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="198"/>
+      <c r="D171" s="209"/>
       <c r="E171" s="62"/>
       <c r="F171" s="62"/>
       <c r="G171" s="63" t="s">
@@ -7378,7 +7401,7 @@
       <c r="C172" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D172" s="198"/>
+      <c r="D172" s="209"/>
       <c r="E172" s="62"/>
       <c r="F172" s="62"/>
       <c r="G172" s="63" t="s">
@@ -7402,7 +7425,7 @@
       <c r="C173" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D173" s="198"/>
+      <c r="D173" s="209"/>
       <c r="E173" s="62"/>
       <c r="F173" s="62"/>
       <c r="G173" s="63" t="s">
@@ -7426,7 +7449,7 @@
       <c r="C174" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D174" s="198"/>
+      <c r="D174" s="209"/>
       <c r="E174" s="62"/>
       <c r="F174" s="62"/>
       <c r="G174" s="63" t="s">
@@ -7450,7 +7473,7 @@
       <c r="C175" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D175" s="198"/>
+      <c r="D175" s="209"/>
       <c r="E175" s="62"/>
       <c r="F175" s="62"/>
       <c r="G175" s="63" t="s">
@@ -7474,7 +7497,7 @@
       <c r="C176" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D176" s="198"/>
+      <c r="D176" s="209"/>
       <c r="E176" s="62"/>
       <c r="F176" s="62"/>
       <c r="G176" s="63" t="s">
@@ -7498,7 +7521,7 @@
       <c r="C177" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="198"/>
+      <c r="D177" s="209"/>
       <c r="E177" s="62"/>
       <c r="F177" s="62"/>
       <c r="G177" s="63" t="s">
@@ -7522,7 +7545,7 @@
       <c r="C178" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D178" s="198"/>
+      <c r="D178" s="209"/>
       <c r="E178" s="62"/>
       <c r="F178" s="62"/>
       <c r="G178" s="63" t="s">
@@ -7546,7 +7569,7 @@
       <c r="C179" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D179" s="198"/>
+      <c r="D179" s="209"/>
       <c r="E179" s="62"/>
       <c r="F179" s="62"/>
       <c r="G179" s="63" t="s">
@@ -7570,7 +7593,7 @@
       <c r="C180" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D180" s="198"/>
+      <c r="D180" s="209"/>
       <c r="E180" s="62"/>
       <c r="F180" s="62"/>
       <c r="G180" s="63" t="s">
@@ -7594,7 +7617,7 @@
       <c r="C181" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D181" s="198"/>
+      <c r="D181" s="209"/>
       <c r="E181" s="62"/>
       <c r="F181" s="62"/>
       <c r="G181" s="63" t="s">
@@ -7618,7 +7641,7 @@
       <c r="C182" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="198"/>
+      <c r="D182" s="209"/>
       <c r="E182" s="62"/>
       <c r="F182" s="62"/>
       <c r="G182" s="63" t="s">
@@ -7642,7 +7665,7 @@
       <c r="C183" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D183" s="198"/>
+      <c r="D183" s="209"/>
       <c r="E183" s="62"/>
       <c r="F183" s="62"/>
       <c r="G183" s="63" t="s">
@@ -7666,7 +7689,7 @@
       <c r="C184" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D184" s="198"/>
+      <c r="D184" s="209"/>
       <c r="E184" s="62"/>
       <c r="F184" s="62"/>
       <c r="G184" s="63" t="s">
@@ -7690,7 +7713,7 @@
       <c r="C185" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D185" s="198"/>
+      <c r="D185" s="209"/>
       <c r="E185" s="62"/>
       <c r="F185" s="62"/>
       <c r="G185" s="63" t="s">
@@ -7714,7 +7737,7 @@
       <c r="C186" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D186" s="198"/>
+      <c r="D186" s="209"/>
       <c r="E186" s="62"/>
       <c r="F186" s="62"/>
       <c r="G186" s="63" t="s">
@@ -7738,7 +7761,7 @@
       <c r="C187" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D187" s="198"/>
+      <c r="D187" s="209"/>
       <c r="E187" s="62"/>
       <c r="F187" s="62"/>
       <c r="G187" s="63" t="s">
@@ -7762,7 +7785,7 @@
       <c r="C188" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D188" s="198"/>
+      <c r="D188" s="209"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
       <c r="G188" s="63" t="s">
@@ -7786,7 +7809,7 @@
       <c r="C189" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D189" s="198"/>
+      <c r="D189" s="209"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
       <c r="G189" s="63" t="s">
@@ -7810,7 +7833,7 @@
       <c r="C190" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D190" s="198"/>
+      <c r="D190" s="209"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
       <c r="G190" s="63" t="s">
@@ -7834,7 +7857,7 @@
       <c r="C191" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D191" s="198"/>
+      <c r="D191" s="209"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
       <c r="G191" s="63" t="s">
@@ -7858,7 +7881,7 @@
       <c r="C192" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="198"/>
+      <c r="D192" s="209"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
       <c r="G192" s="63" t="s">
@@ -7882,7 +7905,7 @@
       <c r="C193" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D193" s="198"/>
+      <c r="D193" s="209"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
       <c r="G193" s="63" t="s">
@@ -7906,7 +7929,7 @@
       <c r="C194" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D194" s="198"/>
+      <c r="D194" s="209"/>
       <c r="E194" s="59"/>
       <c r="F194" s="59"/>
       <c r="G194" s="63" t="s">
@@ -7930,7 +7953,7 @@
       <c r="C195" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D195" s="198"/>
+      <c r="D195" s="209"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
       <c r="G195" s="63" t="s">
@@ -7954,7 +7977,7 @@
       <c r="C196" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D196" s="198"/>
+      <c r="D196" s="209"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
       <c r="G196" s="63" t="s">
@@ -7978,7 +8001,7 @@
       <c r="C197" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D197" s="198"/>
+      <c r="D197" s="209"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
       <c r="G197" s="63" t="s">
@@ -8002,7 +8025,7 @@
       <c r="C198" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D198" s="198"/>
+      <c r="D198" s="209"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
       <c r="G198" s="63" t="s">
@@ -8026,7 +8049,7 @@
       <c r="C199" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D199" s="198"/>
+      <c r="D199" s="209"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
       <c r="G199" s="63" t="s">
@@ -8050,7 +8073,7 @@
       <c r="C200" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D200" s="198"/>
+      <c r="D200" s="209"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
       <c r="G200" s="63" t="s">
@@ -8074,7 +8097,7 @@
       <c r="C201" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="198"/>
+      <c r="D201" s="209"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
       <c r="G201" s="63" t="s">
@@ -8098,7 +8121,7 @@
       <c r="C202" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D202" s="198"/>
+      <c r="D202" s="209"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
       <c r="G202" s="63" t="s">
@@ -8122,7 +8145,7 @@
       <c r="C203" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D203" s="198"/>
+      <c r="D203" s="209"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
       <c r="G203" s="63" t="s">
@@ -8146,7 +8169,7 @@
       <c r="C204" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D204" s="198"/>
+      <c r="D204" s="209"/>
       <c r="E204" s="59"/>
       <c r="F204" s="59"/>
       <c r="G204" s="63" t="s">
@@ -8170,7 +8193,7 @@
       <c r="C205" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D205" s="198"/>
+      <c r="D205" s="209"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
       <c r="G205" s="63" t="s">
@@ -8194,7 +8217,7 @@
       <c r="C206" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D206" s="198"/>
+      <c r="D206" s="209"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
       <c r="G206" s="63" t="s">
@@ -8218,7 +8241,7 @@
       <c r="C207" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D207" s="198"/>
+      <c r="D207" s="209"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
       <c r="G207" s="63" t="s">
@@ -8242,7 +8265,7 @@
       <c r="C208" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D208" s="198"/>
+      <c r="D208" s="209"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
       <c r="G208" s="63" t="s">
@@ -8266,7 +8289,7 @@
       <c r="C209" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="198"/>
+      <c r="D209" s="209"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
       <c r="G209" s="63" t="s">
@@ -8290,7 +8313,7 @@
       <c r="C210" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D210" s="198"/>
+      <c r="D210" s="209"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
       <c r="G210" s="63" t="s">
@@ -8314,7 +8337,7 @@
       <c r="C211" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D211" s="198"/>
+      <c r="D211" s="209"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
       <c r="G211" s="63" t="s">
@@ -8395,7 +8418,7 @@
       <c r="C217" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="201" t="s">
+      <c r="D217" s="211" t="s">
         <v>280</v>
       </c>
       <c r="E217" s="47"/>
@@ -8420,7 +8443,7 @@
       <c r="C218" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D218" s="200"/>
+      <c r="D218" s="179"/>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
       <c r="G218" s="47" t="s">
@@ -8443,7 +8466,7 @@
       <c r="C219" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="D219" s="200"/>
+      <c r="D219" s="179"/>
       <c r="E219" s="47"/>
       <c r="F219" s="47"/>
       <c r="G219" s="47" t="s">
@@ -8466,7 +8489,7 @@
       <c r="C220" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D220" s="179"/>
+      <c r="D220" s="180"/>
       <c r="E220" s="47"/>
       <c r="F220" s="47"/>
       <c r="G220" s="47" t="s">
@@ -8489,7 +8512,7 @@
       <c r="C222" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D222" s="206" t="s">
+      <c r="D222" s="216" t="s">
         <v>323</v>
       </c>
       <c r="E222" s="6"/>
@@ -8515,7 +8538,7 @@
       <c r="C223" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D223" s="206"/>
+      <c r="D223" s="216"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -8543,7 +8566,7 @@
       <c r="C224" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D224" s="206"/>
+      <c r="D224" s="216"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -8571,7 +8594,7 @@
       <c r="C225" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D225" s="206"/>
+      <c r="D225" s="216"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8595,7 +8618,7 @@
       <c r="C226" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D226" s="206"/>
+      <c r="D226" s="216"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8623,7 +8646,7 @@
       <c r="C227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D227" s="206"/>
+      <c r="D227" s="216"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8651,7 +8674,7 @@
       <c r="C229" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="205" t="s">
+      <c r="D229" s="215" t="s">
         <v>307</v>
       </c>
       <c r="E229" s="48"/>
@@ -8685,7 +8708,7 @@
       <c r="C230" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D230" s="205"/>
+      <c r="D230" s="215"/>
       <c r="E230" s="48"/>
       <c r="F230" s="48"/>
       <c r="G230" s="48" t="s">
@@ -8717,7 +8740,7 @@
       <c r="C231" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D231" s="205"/>
+      <c r="D231" s="215"/>
       <c r="E231" s="48"/>
       <c r="F231" s="48"/>
       <c r="G231" s="48" t="s">
@@ -8749,7 +8772,7 @@
       <c r="C232" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D232" s="205"/>
+      <c r="D232" s="215"/>
       <c r="E232" s="48"/>
       <c r="F232" s="48"/>
       <c r="G232" s="48" t="s">
@@ -8781,7 +8804,7 @@
       <c r="C233" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="205"/>
+      <c r="D233" s="215"/>
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="G233" s="48" t="s">
@@ -8813,7 +8836,7 @@
       <c r="C234" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D234" s="205"/>
+      <c r="D234" s="215"/>
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="G234" s="48" t="s">
@@ -8845,7 +8868,7 @@
       <c r="C235" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D235" s="205"/>
+      <c r="D235" s="215"/>
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="G235" s="48" t="s">
@@ -8877,7 +8900,7 @@
       <c r="C236" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="205"/>
+      <c r="D236" s="215"/>
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="G236" s="48" t="s">
@@ -8909,7 +8932,7 @@
       <c r="C237" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D237" s="205"/>
+      <c r="D237" s="215"/>
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="G237" s="48" t="s">
@@ -8941,7 +8964,7 @@
       <c r="C238" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="205"/>
+      <c r="D238" s="215"/>
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="G238" s="48" t="s">
@@ -8973,7 +8996,7 @@
       <c r="C239" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D239" s="205"/>
+      <c r="D239" s="215"/>
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="G239" s="48" t="s">
@@ -9005,7 +9028,7 @@
       <c r="C240" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D240" s="205"/>
+      <c r="D240" s="215"/>
       <c r="E240" s="48"/>
       <c r="F240" s="48"/>
       <c r="G240" s="48" t="s">
@@ -9037,7 +9060,7 @@
       <c r="C241" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D241" s="205"/>
+      <c r="D241" s="215"/>
       <c r="E241" s="48"/>
       <c r="F241" s="48"/>
       <c r="G241" s="48" t="s">
@@ -9069,7 +9092,7 @@
       <c r="C242" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="205"/>
+      <c r="D242" s="215"/>
       <c r="E242" s="48"/>
       <c r="F242" s="48"/>
       <c r="G242" s="48" t="s">
@@ -9101,7 +9124,7 @@
       <c r="C243" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D243" s="205"/>
+      <c r="D243" s="215"/>
       <c r="E243" s="48"/>
       <c r="F243" s="48"/>
       <c r="G243" s="48" t="s">
@@ -9133,7 +9156,7 @@
       <c r="C244" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D244" s="205"/>
+      <c r="D244" s="215"/>
       <c r="E244" s="48"/>
       <c r="F244" s="48"/>
       <c r="G244" s="48" t="s">
@@ -9165,7 +9188,7 @@
       <c r="C245" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D245" s="205"/>
+      <c r="D245" s="215"/>
       <c r="E245" s="48" t="s">
         <v>145</v>
       </c>
@@ -9201,7 +9224,7 @@
       <c r="C247" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D247" s="208" t="s">
+      <c r="D247" s="218" t="s">
         <v>317</v>
       </c>
       <c r="E247" s="4"/>
@@ -9227,7 +9250,7 @@
       <c r="C248" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D248" s="208"/>
+      <c r="D248" s="218"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="114" t="s">
@@ -9251,7 +9274,7 @@
       <c r="C249" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D249" s="208"/>
+      <c r="D249" s="218"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="114" t="s">
@@ -9275,7 +9298,7 @@
       <c r="C251" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D251" s="178" t="s">
+      <c r="D251" s="194" t="s">
         <v>325</v>
       </c>
       <c r="E251" s="5"/>
@@ -9301,7 +9324,7 @@
       <c r="C252" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D252" s="179"/>
+      <c r="D252" s="180"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
@@ -9325,7 +9348,7 @@
       <c r="C254" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D254" s="198" t="s">
+      <c r="D254" s="209" t="s">
         <v>334</v>
       </c>
       <c r="E254" s="62"/>
@@ -9347,7 +9370,7 @@
       <c r="C255" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D255" s="198"/>
+      <c r="D255" s="209"/>
       <c r="E255" s="62"/>
       <c r="F255" s="62"/>
       <c r="G255" s="63" t="s">
@@ -9367,7 +9390,7 @@
       <c r="C256" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D256" s="198"/>
+      <c r="D256" s="209"/>
       <c r="E256" s="62"/>
       <c r="F256" s="62"/>
       <c r="G256" s="63" t="s">
@@ -9387,7 +9410,7 @@
       <c r="C257" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="198"/>
+      <c r="D257" s="209"/>
       <c r="E257" s="62"/>
       <c r="F257" s="62"/>
       <c r="G257" s="63" t="s">
@@ -9407,7 +9430,7 @@
       <c r="C258" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D258" s="198"/>
+      <c r="D258" s="209"/>
       <c r="E258" s="62"/>
       <c r="F258" s="62"/>
       <c r="G258" s="63" t="s">
@@ -9427,7 +9450,7 @@
       <c r="C259" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D259" s="198"/>
+      <c r="D259" s="209"/>
       <c r="E259" s="62"/>
       <c r="F259" s="62"/>
       <c r="G259" s="63" t="s">
@@ -9447,7 +9470,7 @@
       <c r="C260" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D260" s="198"/>
+      <c r="D260" s="209"/>
       <c r="E260" s="62"/>
       <c r="F260" s="62"/>
       <c r="G260" s="63" t="s">
@@ -9467,7 +9490,7 @@
       <c r="C261" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D261" s="198"/>
+      <c r="D261" s="209"/>
       <c r="E261" s="62"/>
       <c r="F261" s="62"/>
       <c r="G261" s="63" t="s">
@@ -9487,7 +9510,7 @@
       <c r="C262" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D262" s="198"/>
+      <c r="D262" s="209"/>
       <c r="E262" s="62"/>
       <c r="F262" s="62"/>
       <c r="G262" s="63" t="s">
@@ -9507,7 +9530,7 @@
       <c r="C263" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D263" s="198"/>
+      <c r="D263" s="209"/>
       <c r="E263" s="62"/>
       <c r="F263" s="62"/>
       <c r="G263" s="63" t="s">
@@ -9527,7 +9550,7 @@
       <c r="C264" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D264" s="198"/>
+      <c r="D264" s="209"/>
       <c r="E264" s="62"/>
       <c r="F264" s="62"/>
       <c r="G264" s="63" t="s">
@@ -9547,7 +9570,7 @@
       <c r="C265" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="D265" s="198"/>
+      <c r="D265" s="209"/>
       <c r="E265" s="62"/>
       <c r="F265" s="62"/>
       <c r="G265" s="63" t="s">
@@ -9567,7 +9590,7 @@
       <c r="C266" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D266" s="198"/>
+      <c r="D266" s="209"/>
       <c r="E266" s="62"/>
       <c r="F266" s="62"/>
       <c r="G266" s="63" t="s">
@@ -9587,7 +9610,7 @@
       <c r="C267" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D267" s="198"/>
+      <c r="D267" s="209"/>
       <c r="E267" s="62"/>
       <c r="F267" s="62"/>
       <c r="G267" s="63" t="s">
@@ -9607,7 +9630,7 @@
       <c r="C268" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D268" s="198"/>
+      <c r="D268" s="209"/>
       <c r="E268" s="62"/>
       <c r="F268" s="62"/>
       <c r="G268" s="63" t="s">
@@ -9627,7 +9650,7 @@
       <c r="C269" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D269" s="198"/>
+      <c r="D269" s="209"/>
       <c r="E269" s="62"/>
       <c r="F269" s="62"/>
       <c r="G269" s="63" t="s">
@@ -9647,7 +9670,7 @@
       <c r="C270" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D270" s="198"/>
+      <c r="D270" s="209"/>
       <c r="E270" s="62"/>
       <c r="F270" s="62"/>
       <c r="G270" s="63" t="s">
@@ -9667,7 +9690,7 @@
       <c r="C271" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D271" s="198"/>
+      <c r="D271" s="209"/>
       <c r="E271" s="62"/>
       <c r="F271" s="62"/>
       <c r="G271" s="63" t="s">
@@ -9687,7 +9710,7 @@
       <c r="C272" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D272" s="198"/>
+      <c r="D272" s="209"/>
       <c r="E272" s="62"/>
       <c r="F272" s="62"/>
       <c r="G272" s="63" t="s">
@@ -9707,7 +9730,7 @@
       <c r="C273" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="198"/>
+      <c r="D273" s="209"/>
       <c r="E273" s="62"/>
       <c r="F273" s="62"/>
       <c r="G273" s="63" t="s">
@@ -9727,7 +9750,7 @@
       <c r="C274" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D274" s="198"/>
+      <c r="D274" s="209"/>
       <c r="E274" s="62"/>
       <c r="F274" s="62"/>
       <c r="G274" s="63" t="s">
@@ -9747,7 +9770,7 @@
       <c r="C275" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D275" s="198"/>
+      <c r="D275" s="209"/>
       <c r="E275" s="62"/>
       <c r="F275" s="62"/>
       <c r="G275" s="63" t="s">
@@ -9767,7 +9790,7 @@
       <c r="C276" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D276" s="198"/>
+      <c r="D276" s="209"/>
       <c r="E276" s="62"/>
       <c r="F276" s="62"/>
       <c r="G276" s="63" t="s">
@@ -9787,7 +9810,7 @@
       <c r="C277" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D277" s="198"/>
+      <c r="D277" s="209"/>
       <c r="E277" s="62"/>
       <c r="F277" s="62"/>
       <c r="G277" s="63" t="s">
@@ -9807,7 +9830,7 @@
       <c r="C278" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D278" s="198"/>
+      <c r="D278" s="209"/>
       <c r="E278" s="62"/>
       <c r="F278" s="62"/>
       <c r="G278" s="63" t="s">
@@ -9827,7 +9850,7 @@
       <c r="C279" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="D279" s="198"/>
+      <c r="D279" s="209"/>
       <c r="E279" s="62"/>
       <c r="F279" s="62"/>
       <c r="G279" s="63" t="s">
@@ -9847,7 +9870,7 @@
       <c r="C280" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="198"/>
+      <c r="D280" s="209"/>
       <c r="E280" s="62"/>
       <c r="F280" s="62"/>
       <c r="G280" s="63" t="s">
@@ -9867,7 +9890,7 @@
       <c r="C281" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D281" s="198"/>
+      <c r="D281" s="209"/>
       <c r="E281" s="62"/>
       <c r="F281" s="62"/>
       <c r="G281" s="63" t="s">
@@ -9887,7 +9910,7 @@
       <c r="C282" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D282" s="198"/>
+      <c r="D282" s="209"/>
       <c r="E282" s="62"/>
       <c r="F282" s="62"/>
       <c r="G282" s="63" t="s">
@@ -9907,7 +9930,7 @@
       <c r="C283" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D283" s="198"/>
+      <c r="D283" s="209"/>
       <c r="E283" s="62"/>
       <c r="F283" s="62"/>
       <c r="G283" s="63" t="s">
@@ -9927,7 +9950,7 @@
       <c r="C284" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="198"/>
+      <c r="D284" s="209"/>
       <c r="E284" s="62"/>
       <c r="F284" s="62"/>
       <c r="G284" s="63" t="s">
@@ -9947,7 +9970,7 @@
       <c r="C285" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="198"/>
+      <c r="D285" s="209"/>
       <c r="E285" s="62"/>
       <c r="F285" s="62"/>
       <c r="G285" s="63" t="s">
@@ -9967,7 +9990,7 @@
       <c r="C286" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D286" s="198"/>
+      <c r="D286" s="209"/>
       <c r="E286" s="62"/>
       <c r="F286" s="62"/>
       <c r="G286" s="63" t="s">
@@ -9987,7 +10010,7 @@
       <c r="C287" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D287" s="198"/>
+      <c r="D287" s="209"/>
       <c r="E287" s="62"/>
       <c r="F287" s="62"/>
       <c r="G287" s="63" t="s">
@@ -10007,7 +10030,7 @@
       <c r="C288" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D288" s="198"/>
+      <c r="D288" s="209"/>
       <c r="E288" s="62"/>
       <c r="F288" s="62"/>
       <c r="G288" s="63" t="s">
@@ -10027,7 +10050,7 @@
       <c r="C289" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D289" s="198"/>
+      <c r="D289" s="209"/>
       <c r="E289" s="62"/>
       <c r="F289" s="62"/>
       <c r="G289" s="63" t="s">
@@ -10047,7 +10070,7 @@
       <c r="C290" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D290" s="198"/>
+      <c r="D290" s="209"/>
       <c r="E290" s="62"/>
       <c r="F290" s="62"/>
       <c r="G290" s="63" t="s">
@@ -10067,7 +10090,7 @@
       <c r="C291" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D291" s="198"/>
+      <c r="D291" s="209"/>
       <c r="E291" s="62"/>
       <c r="F291" s="62"/>
       <c r="G291" s="63" t="s">
@@ -10087,7 +10110,7 @@
       <c r="C292" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D292" s="198"/>
+      <c r="D292" s="209"/>
       <c r="E292" s="62"/>
       <c r="F292" s="62"/>
       <c r="G292" s="63" t="s">
@@ -10107,7 +10130,7 @@
       <c r="C293" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D293" s="198"/>
+      <c r="D293" s="209"/>
       <c r="E293" s="62"/>
       <c r="F293" s="62"/>
       <c r="G293" s="63" t="s">
@@ -10127,7 +10150,7 @@
       <c r="C294" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D294" s="198"/>
+      <c r="D294" s="209"/>
       <c r="E294" s="62"/>
       <c r="F294" s="62"/>
       <c r="G294" s="63" t="s">
@@ -10147,7 +10170,7 @@
       <c r="C295" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D295" s="198"/>
+      <c r="D295" s="209"/>
       <c r="E295" s="62"/>
       <c r="F295" s="62"/>
       <c r="G295" s="63" t="s">
@@ -10167,7 +10190,7 @@
       <c r="C296" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D296" s="198"/>
+      <c r="D296" s="209"/>
       <c r="E296" s="62"/>
       <c r="F296" s="62"/>
       <c r="G296" s="63" t="s">
@@ -10187,7 +10210,7 @@
       <c r="C297" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D297" s="198"/>
+      <c r="D297" s="209"/>
       <c r="E297" s="62"/>
       <c r="F297" s="62"/>
       <c r="G297" s="63" t="s">
@@ -10207,7 +10230,7 @@
       <c r="C298" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D298" s="198"/>
+      <c r="D298" s="209"/>
       <c r="E298" s="62"/>
       <c r="F298" s="62"/>
       <c r="G298" s="63" t="s">
@@ -10227,7 +10250,7 @@
       <c r="C299" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D299" s="198"/>
+      <c r="D299" s="209"/>
       <c r="E299" s="62"/>
       <c r="F299" s="62"/>
       <c r="G299" s="63" t="s">
@@ -10247,7 +10270,7 @@
       <c r="C300" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D300" s="198"/>
+      <c r="D300" s="209"/>
       <c r="E300" s="62"/>
       <c r="F300" s="62"/>
       <c r="G300" s="63" t="s">
@@ -10267,7 +10290,7 @@
       <c r="C301" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D301" s="198"/>
+      <c r="D301" s="209"/>
       <c r="E301" s="62"/>
       <c r="F301" s="62"/>
       <c r="G301" s="63" t="s">
@@ -10287,7 +10310,7 @@
       <c r="C302" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="D302" s="198"/>
+      <c r="D302" s="209"/>
       <c r="E302" s="59"/>
       <c r="F302" s="59"/>
       <c r="G302" s="63" t="s">
@@ -10307,7 +10330,7 @@
       <c r="C303" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="D303" s="198"/>
+      <c r="D303" s="209"/>
       <c r="E303" s="59"/>
       <c r="F303" s="59"/>
       <c r="G303" s="63" t="s">
@@ -10327,7 +10350,7 @@
       <c r="C304" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D304" s="198"/>
+      <c r="D304" s="209"/>
       <c r="E304" s="59"/>
       <c r="F304" s="59"/>
       <c r="G304" s="63" t="s">
@@ -10347,7 +10370,7 @@
       <c r="C305" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D305" s="198"/>
+      <c r="D305" s="209"/>
       <c r="E305" s="59"/>
       <c r="F305" s="59"/>
       <c r="G305" s="63" t="s">
@@ -10367,7 +10390,7 @@
       <c r="C306" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D306" s="198"/>
+      <c r="D306" s="209"/>
       <c r="E306" s="59"/>
       <c r="F306" s="59"/>
       <c r="G306" s="63" t="s">
@@ -10387,7 +10410,7 @@
       <c r="C307" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="D307" s="198"/>
+      <c r="D307" s="209"/>
       <c r="E307" s="59"/>
       <c r="F307" s="59"/>
       <c r="G307" s="63" t="s">
@@ -10407,7 +10430,7 @@
       <c r="C308" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D308" s="198"/>
+      <c r="D308" s="209"/>
       <c r="E308" s="59"/>
       <c r="F308" s="59"/>
       <c r="G308" s="63" t="s">
@@ -10427,7 +10450,7 @@
       <c r="C309" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D309" s="198"/>
+      <c r="D309" s="209"/>
       <c r="E309" s="59"/>
       <c r="F309" s="59"/>
       <c r="G309" s="63" t="s">
@@ -10447,7 +10470,7 @@
       <c r="C310" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="D310" s="198"/>
+      <c r="D310" s="209"/>
       <c r="E310" s="59"/>
       <c r="F310" s="59"/>
       <c r="G310" s="63" t="s">
@@ -10467,7 +10490,7 @@
       <c r="C311" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D311" s="198"/>
+      <c r="D311" s="209"/>
       <c r="E311" s="59"/>
       <c r="F311" s="59"/>
       <c r="G311" s="63" t="s">
@@ -10487,7 +10510,7 @@
       <c r="C312" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="198"/>
+      <c r="D312" s="209"/>
       <c r="E312" s="59"/>
       <c r="F312" s="59"/>
       <c r="G312" s="63" t="s">
@@ -10507,7 +10530,7 @@
       <c r="C313" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="198"/>
+      <c r="D313" s="209"/>
       <c r="E313" s="59"/>
       <c r="F313" s="59"/>
       <c r="G313" s="63" t="s">
@@ -10527,7 +10550,7 @@
       <c r="C314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D314" s="198"/>
+      <c r="D314" s="209"/>
       <c r="E314" s="59"/>
       <c r="F314" s="59"/>
       <c r="G314" s="63" t="s">
@@ -10547,7 +10570,7 @@
       <c r="C315" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D315" s="198"/>
+      <c r="D315" s="209"/>
       <c r="E315" s="59"/>
       <c r="F315" s="59"/>
       <c r="G315" s="63" t="s">
@@ -10567,7 +10590,7 @@
       <c r="C316" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D316" s="198"/>
+      <c r="D316" s="209"/>
       <c r="E316" s="59"/>
       <c r="F316" s="59"/>
       <c r="G316" s="63" t="s">
@@ -10587,7 +10610,7 @@
       <c r="C317" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D317" s="198"/>
+      <c r="D317" s="209"/>
       <c r="E317" s="59"/>
       <c r="F317" s="59"/>
       <c r="G317" s="63" t="s">
@@ -10607,7 +10630,7 @@
       <c r="C318" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D318" s="198"/>
+      <c r="D318" s="209"/>
       <c r="E318" s="59"/>
       <c r="F318" s="59"/>
       <c r="G318" s="63" t="s">
@@ -10627,7 +10650,7 @@
       <c r="C319" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D319" s="198"/>
+      <c r="D319" s="209"/>
       <c r="E319" s="59"/>
       <c r="F319" s="59"/>
       <c r="G319" s="63" t="s">
@@ -10647,7 +10670,7 @@
       <c r="C320" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D320" s="198"/>
+      <c r="D320" s="209"/>
       <c r="E320" s="59"/>
       <c r="F320" s="59"/>
       <c r="G320" s="63" t="s">
@@ -10667,7 +10690,7 @@
       <c r="C321" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D321" s="198"/>
+      <c r="D321" s="209"/>
       <c r="E321" s="59"/>
       <c r="F321" s="59"/>
       <c r="G321" s="63" t="s">
@@ -10687,7 +10710,7 @@
       <c r="C322" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="198"/>
+      <c r="D322" s="209"/>
       <c r="E322" s="59"/>
       <c r="F322" s="59"/>
       <c r="G322" s="63" t="s">
@@ -10707,7 +10730,7 @@
       <c r="C323" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D323" s="198"/>
+      <c r="D323" s="209"/>
       <c r="E323" s="59"/>
       <c r="F323" s="59"/>
       <c r="G323" s="63" t="s">
@@ -10727,7 +10750,7 @@
       <c r="C324" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="D324" s="198"/>
+      <c r="D324" s="209"/>
       <c r="E324" s="59"/>
       <c r="F324" s="59"/>
       <c r="G324" s="63" t="s">
@@ -10747,7 +10770,7 @@
       <c r="C325" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D325" s="198"/>
+      <c r="D325" s="209"/>
       <c r="E325" s="59"/>
       <c r="F325" s="59"/>
       <c r="G325" s="63" t="s">
@@ -10767,7 +10790,7 @@
       <c r="C328" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="D328" s="202" t="s">
+      <c r="D328" s="212" t="s">
         <v>307</v>
       </c>
       <c r="E328" s="116" t="s">
@@ -10794,7 +10817,7 @@
       <c r="C329" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="D329" s="203"/>
+      <c r="D329" s="213"/>
       <c r="E329" s="116" t="s">
         <v>144</v>
       </c>
@@ -10819,7 +10842,7 @@
       <c r="C330" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="D330" s="203"/>
+      <c r="D330" s="213"/>
       <c r="E330" s="116" t="s">
         <v>144</v>
       </c>
@@ -10844,7 +10867,7 @@
       <c r="C331" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="D331" s="203"/>
+      <c r="D331" s="213"/>
       <c r="E331" s="116" t="s">
         <v>144</v>
       </c>
@@ -10869,7 +10892,7 @@
       <c r="C332" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="D332" s="203"/>
+      <c r="D332" s="213"/>
       <c r="E332" s="116" t="s">
         <v>144</v>
       </c>
@@ -10894,7 +10917,7 @@
       <c r="C333" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="D333" s="203"/>
+      <c r="D333" s="213"/>
       <c r="E333" s="116" t="s">
         <v>144</v>
       </c>
@@ -10919,7 +10942,7 @@
       <c r="C334" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="D334" s="203"/>
+      <c r="D334" s="213"/>
       <c r="E334" s="116" t="s">
         <v>144</v>
       </c>
@@ -10944,7 +10967,7 @@
       <c r="C335" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D335" s="203"/>
+      <c r="D335" s="213"/>
       <c r="E335" s="116" t="s">
         <v>144</v>
       </c>
@@ -10969,7 +10992,7 @@
       <c r="C336" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="D336" s="179"/>
+      <c r="D336" s="180"/>
       <c r="E336" s="116" t="s">
         <v>144</v>
       </c>
@@ -10993,7 +11016,7 @@
       <c r="C338" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D338" s="187" t="s">
+      <c r="D338" s="226" t="s">
         <v>93</v>
       </c>
       <c r="E338" s="124" t="s">
@@ -11013,7 +11036,7 @@
       <c r="C339" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="D339" s="187"/>
+      <c r="D339" s="226"/>
       <c r="E339" s="124" t="s">
         <v>77</v>
       </c>
@@ -11031,7 +11054,7 @@
       <c r="C340" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="D340" s="187"/>
+      <c r="D340" s="226"/>
       <c r="E340" s="124" t="s">
         <v>77</v>
       </c>
@@ -11049,7 +11072,7 @@
       <c r="C341" s="126" t="s">
         <v>364</v>
       </c>
-      <c r="D341" s="187"/>
+      <c r="D341" s="226"/>
       <c r="E341" s="124" t="s">
         <v>77</v>
       </c>
@@ -11075,7 +11098,7 @@
       <c r="C343" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="D343" s="207" t="s">
+      <c r="D343" s="217" t="s">
         <v>354</v>
       </c>
       <c r="E343" s="128"/>
@@ -11097,7 +11120,7 @@
       <c r="C344" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="D344" s="207"/>
+      <c r="D344" s="217"/>
       <c r="E344" s="128"/>
       <c r="F344" s="128"/>
       <c r="G344" s="129" t="s">
@@ -11112,7 +11135,7 @@
       <c r="D345" s="58"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A346" s="184" t="s">
+      <c r="A346" s="223" t="s">
         <v>267</v>
       </c>
       <c r="B346" s="122">
@@ -11121,7 +11144,7 @@
       <c r="C346" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D346" s="202" t="s">
+      <c r="D346" s="212" t="s">
         <v>374</v>
       </c>
       <c r="E346" s="122"/>
@@ -11136,14 +11159,14 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A347" s="185"/>
+      <c r="A347" s="224"/>
       <c r="B347" s="122">
         <v>298</v>
       </c>
       <c r="C347" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="D347" s="203"/>
+      <c r="D347" s="213"/>
       <c r="E347" s="122"/>
       <c r="F347" s="122"/>
       <c r="I347" s="122"/>
@@ -11156,14 +11179,14 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A348" s="185"/>
+      <c r="A348" s="224"/>
       <c r="B348" s="122">
         <v>299</v>
       </c>
       <c r="C348" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="D348" s="203"/>
+      <c r="D348" s="213"/>
       <c r="E348" s="122"/>
       <c r="F348" s="122"/>
       <c r="I348" s="122"/>
@@ -11176,14 +11199,14 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A349" s="185"/>
+      <c r="A349" s="224"/>
       <c r="B349" s="122">
         <v>300</v>
       </c>
       <c r="C349" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="D349" s="203"/>
+      <c r="D349" s="213"/>
       <c r="E349" s="122"/>
       <c r="F349" s="122"/>
       <c r="I349" s="122"/>
@@ -11196,14 +11219,14 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A350" s="185"/>
+      <c r="A350" s="224"/>
       <c r="B350" s="122">
         <v>301</v>
       </c>
       <c r="C350" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D350" s="203"/>
+      <c r="D350" s="213"/>
       <c r="E350" s="122"/>
       <c r="F350" s="122"/>
       <c r="I350" s="122"/>
@@ -11216,14 +11239,14 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A351" s="185"/>
+      <c r="A351" s="224"/>
       <c r="B351" s="122">
         <v>302</v>
       </c>
       <c r="C351" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="D351" s="203"/>
+      <c r="D351" s="213"/>
       <c r="E351" s="122"/>
       <c r="F351" s="122"/>
       <c r="I351" s="122"/>
@@ -11236,14 +11259,14 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A352" s="185"/>
+      <c r="A352" s="224"/>
       <c r="B352" s="122">
         <v>303</v>
       </c>
       <c r="C352" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="D352" s="203"/>
+      <c r="D352" s="213"/>
       <c r="E352" s="122"/>
       <c r="F352" s="122"/>
       <c r="I352" s="122"/>
@@ -11256,14 +11279,14 @@
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A353" s="186"/>
+      <c r="A353" s="225"/>
       <c r="B353" s="122">
         <v>304</v>
       </c>
       <c r="C353" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="D353" s="204"/>
+      <c r="D353" s="214"/>
       <c r="E353" s="122"/>
       <c r="F353" s="122"/>
       <c r="I353" s="122"/>
@@ -11285,7 +11308,7 @@
       <c r="C355" s="131" t="s">
         <v>366</v>
       </c>
-      <c r="D355" s="196" t="s">
+      <c r="D355" s="207" t="s">
         <v>367</v>
       </c>
       <c r="E355" s="127" t="s">
@@ -11305,7 +11328,7 @@
       <c r="C356" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="D356" s="196"/>
+      <c r="D356" s="207"/>
       <c r="E356" s="127" t="s">
         <v>368</v>
       </c>
@@ -11323,7 +11346,7 @@
       <c r="C357" s="131" t="s">
         <v>371</v>
       </c>
-      <c r="D357" s="196"/>
+      <c r="D357" s="207"/>
       <c r="E357" s="127" t="s">
         <v>372</v>
       </c>
@@ -11341,7 +11364,7 @@
       <c r="C358" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="D358" s="196"/>
+      <c r="D358" s="207"/>
       <c r="E358" s="127" t="s">
         <v>372</v>
       </c>
@@ -11419,7 +11442,7 @@
       <c r="C362" s="133" t="s">
         <v>380</v>
       </c>
-      <c r="D362" s="195" t="s">
+      <c r="D362" s="206" t="s">
         <v>388</v>
       </c>
       <c r="E362" s="132"/>
@@ -11445,7 +11468,7 @@
       <c r="C363" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D363" s="195"/>
+      <c r="D363" s="206"/>
       <c r="E363" s="132"/>
       <c r="F363" s="132"/>
       <c r="G363" s="132"/>
@@ -12010,7 +12033,7 @@
       <c r="C387" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D387" s="182" t="s">
+      <c r="D387" s="221" t="s">
         <v>430</v>
       </c>
       <c r="E387" s="164"/>
@@ -12044,7 +12067,7 @@
       <c r="C388" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="D388" s="183"/>
+      <c r="D388" s="222"/>
       <c r="E388" s="164"/>
       <c r="F388" s="164"/>
       <c r="G388" s="124" t="s">
@@ -12076,7 +12099,7 @@
       <c r="C389" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="D389" s="183"/>
+      <c r="D389" s="222"/>
       <c r="E389" s="164"/>
       <c r="F389" s="164"/>
       <c r="G389" s="164"/>
@@ -12104,7 +12127,7 @@
       <c r="C390" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="D390" s="183"/>
+      <c r="D390" s="222"/>
       <c r="E390" s="164"/>
       <c r="F390" s="164"/>
       <c r="G390" s="164"/>
@@ -12132,7 +12155,7 @@
       <c r="C391" s="161" t="s">
         <v>436</v>
       </c>
-      <c r="D391" s="181" t="s">
+      <c r="D391" s="220" t="s">
         <v>438</v>
       </c>
       <c r="E391" s="145" t="s">
@@ -12162,7 +12185,7 @@
       <c r="C392" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="D392" s="181"/>
+      <c r="D392" s="220"/>
       <c r="E392" s="145" t="s">
         <v>77</v>
       </c>
@@ -12294,7 +12317,7 @@
       <c r="C398" s="173" t="s">
         <v>453</v>
       </c>
-      <c r="D398" s="180" t="s">
+      <c r="D398" s="219" t="s">
         <v>452</v>
       </c>
       <c r="E398" s="174"/>
@@ -12321,7 +12344,7 @@
       <c r="C399" s="173" t="s">
         <v>454</v>
       </c>
-      <c r="D399" s="180"/>
+      <c r="D399" s="219"/>
       <c r="E399" s="174"/>
       <c r="F399" s="174"/>
       <c r="G399" s="174"/>
@@ -12346,7 +12369,7 @@
       <c r="C400" s="173" t="s">
         <v>456</v>
       </c>
-      <c r="D400" s="180"/>
+      <c r="D400" s="219"/>
       <c r="E400" s="174"/>
       <c r="F400" s="174"/>
       <c r="G400" s="174"/>
@@ -12371,7 +12394,7 @@
       <c r="C401" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="180"/>
+      <c r="D401" s="219"/>
       <c r="E401" s="174"/>
       <c r="F401" s="174"/>
       <c r="G401" s="174"/>
@@ -12400,7 +12423,7 @@
       <c r="C402" s="173" t="s">
         <v>457</v>
       </c>
-      <c r="D402" s="180"/>
+      <c r="D402" s="219"/>
       <c r="E402" s="174"/>
       <c r="F402" s="174"/>
       <c r="G402" s="174"/>
@@ -13424,7 +13447,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B481" s="122">
         <v>402</v>
       </c>
@@ -13435,7 +13458,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B482" s="122">
         <v>403</v>
       </c>
@@ -13443,23 +13466,70 @@
         <v>537</v>
       </c>
       <c r="D482" s="175" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="484" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B484" s="122">
+        <v>404</v>
+      </c>
+      <c r="C484" s="122" t="s">
+        <v>538</v>
+      </c>
+      <c r="D484" s="175"/>
+      <c r="E484" s="122" t="s">
+        <v>540</v>
+      </c>
+      <c r="F484" s="122" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="485" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B485" s="122">
+        <v>405</v>
+      </c>
+      <c r="C485" s="153" t="s">
+        <v>541</v>
+      </c>
+      <c r="D485" s="175"/>
+      <c r="E485" s="122" t="s">
+        <v>540</v>
+      </c>
+      <c r="F485" s="122" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="487" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B487" s="122">
+        <v>406</v>
+      </c>
+      <c r="C487" s="122" t="s">
+        <v>542</v>
+      </c>
+      <c r="D487" s="175" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="488" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B488" s="122">
+        <v>407</v>
+      </c>
+      <c r="C488" s="122" t="s">
+        <v>543</v>
+      </c>
+      <c r="D488" s="175" t="s">
         <v>505</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="D398:D402"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="D387:D390"/>
+    <mergeCell ref="A346:A353"/>
+    <mergeCell ref="D338:D341"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="D119:D134"/>
     <mergeCell ref="D96:D103"/>
@@ -13476,12 +13546,17 @@
     <mergeCell ref="D343:D344"/>
     <mergeCell ref="D328:D336"/>
     <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="D398:D402"/>
-    <mergeCell ref="D391:D392"/>
-    <mergeCell ref="D387:D390"/>
-    <mergeCell ref="A346:A353"/>
-    <mergeCell ref="D338:D341"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataweb/data_type说明文档.xlsx
+++ b/dataweb/data_type说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{43EE1685-08AA-4ACC-8A23-C262199712CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC694D42-7159-4088-B783-CC79E9E4A05C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="552">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2006,6 +2006,38 @@
   </si>
   <si>
     <t>名企各会员无报价的会员量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费会员PV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费会员uv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费会员的询盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各会员类型的pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各会员类型的询盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各会员类型的UV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2586,7 +2618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2855,13 +2887,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2903,9 +3022,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2918,90 +3034,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3385,11 +3418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M488"/>
+  <dimension ref="A1:M496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E474" sqref="E474"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C496" sqref="C496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3455,7 +3488,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="209" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3485,7 +3518,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="179"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
@@ -3513,7 +3546,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="179"/>
       <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
@@ -3556,7 +3589,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="226" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3582,7 +3615,7 @@
       <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="181"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
@@ -3606,7 +3639,7 @@
       <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="181"/>
+      <c r="D8" s="210"/>
       <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
@@ -3630,7 +3663,7 @@
       <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
@@ -3654,7 +3687,7 @@
       <c r="C10" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="181"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
@@ -3696,7 +3729,7 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="178" t="s">
         <v>93</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3722,7 +3755,7 @@
       <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="179"/>
+      <c r="D13" s="200"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
@@ -3746,7 +3779,7 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="179"/>
+      <c r="D14" s="200"/>
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
@@ -3770,7 +3803,7 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="179"/>
+      <c r="D15" s="200"/>
       <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3794,7 +3827,7 @@
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="179"/>
+      <c r="D16" s="200"/>
       <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3818,7 +3851,7 @@
       <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="200"/>
       <c r="E17" s="5" t="s">
         <v>90</v>
       </c>
@@ -3842,7 +3875,7 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="179"/>
+      <c r="D18" s="200"/>
       <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
@@ -3866,7 +3899,7 @@
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="179"/>
+      <c r="D19" s="200"/>
       <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3890,7 +3923,7 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="179"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3914,7 +3947,7 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="180"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
@@ -3952,7 +3985,7 @@
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="195" t="s">
+      <c r="D23" s="223" t="s">
         <v>249</v>
       </c>
       <c r="E23" s="1"/>
@@ -3974,7 +4007,7 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="196"/>
+      <c r="D24" s="224"/>
       <c r="E24" s="7" t="s">
         <v>77</v>
       </c>
@@ -4002,7 +4035,7 @@
       <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="196"/>
+      <c r="D25" s="224"/>
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
@@ -4030,7 +4063,7 @@
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="196"/>
+      <c r="D26" s="224"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -4050,7 +4083,7 @@
       <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="196"/>
+      <c r="D27" s="224"/>
       <c r="E27" s="7" t="s">
         <v>77</v>
       </c>
@@ -4078,7 +4111,7 @@
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="196"/>
+      <c r="D28" s="224"/>
       <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
@@ -4106,7 +4139,7 @@
       <c r="C29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="196"/>
+      <c r="D29" s="224"/>
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
@@ -4134,7 +4167,7 @@
       <c r="C30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="197"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
@@ -4240,7 +4273,7 @@
       <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="179" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="36"/>
@@ -4260,7 +4293,7 @@
       <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="181"/>
+      <c r="D36" s="210"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4278,7 +4311,7 @@
       <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="210"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4296,7 +4329,7 @@
       <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="181"/>
+      <c r="D38" s="210"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4330,7 +4363,7 @@
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="186" t="s">
+      <c r="D40" s="215" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
@@ -4356,7 +4389,7 @@
       <c r="C41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="187"/>
+      <c r="D41" s="216"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
@@ -4380,7 +4413,7 @@
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="187"/>
+      <c r="D42" s="216"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
@@ -4404,7 +4437,7 @@
       <c r="C43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="188"/>
+      <c r="D43" s="217"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -4442,7 +4475,7 @@
       <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="211" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="11"/>
@@ -4468,7 +4501,7 @@
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="183"/>
+      <c r="D46" s="212"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -4492,7 +4525,7 @@
       <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="183"/>
+      <c r="D47" s="212"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -4516,7 +4549,7 @@
       <c r="C48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="183"/>
+      <c r="D48" s="212"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -4540,7 +4573,7 @@
       <c r="C49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="183"/>
+      <c r="D49" s="212"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -4564,7 +4597,7 @@
       <c r="C50" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="183"/>
+      <c r="D50" s="212"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -4588,7 +4621,7 @@
       <c r="C51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="183"/>
+      <c r="D51" s="212"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4612,7 +4645,7 @@
       <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="183"/>
+      <c r="D52" s="212"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4636,7 +4669,7 @@
       <c r="C53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="183"/>
+      <c r="D53" s="212"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -4660,7 +4693,7 @@
       <c r="C54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="183"/>
+      <c r="D54" s="212"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -4684,7 +4717,7 @@
       <c r="C55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="183"/>
+      <c r="D55" s="212"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -4708,7 +4741,7 @@
       <c r="C56" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="184"/>
+      <c r="D56" s="213"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -4790,7 +4823,7 @@
       <c r="C60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="185" t="s">
+      <c r="D60" s="214" t="s">
         <v>254</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4820,7 +4853,7 @@
       <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="179"/>
+      <c r="D61" s="200"/>
       <c r="E61" s="1" t="s">
         <v>74</v>
       </c>
@@ -4848,7 +4881,7 @@
       <c r="C62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="179"/>
+      <c r="D62" s="200"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -4876,7 +4909,7 @@
       <c r="C63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="179"/>
+      <c r="D63" s="200"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -4900,7 +4933,7 @@
       <c r="C64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="179"/>
+      <c r="D64" s="200"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -4924,7 +4957,7 @@
       <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="180"/>
+      <c r="D65" s="179"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -4962,7 +4995,7 @@
       <c r="C67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="189" t="s">
+      <c r="D67" s="218" t="s">
         <v>250</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4992,7 +5025,7 @@
       <c r="C68" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="190"/>
+      <c r="D68" s="219"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -5020,7 +5053,7 @@
       <c r="C69" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="191"/>
+      <c r="D69" s="220"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -5062,7 +5095,7 @@
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="192" t="s">
+      <c r="D71" s="221" t="s">
         <v>251</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -5092,7 +5125,7 @@
       <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="193"/>
+      <c r="D72" s="222"/>
       <c r="E72" s="15" t="s">
         <v>80</v>
       </c>
@@ -5120,7 +5153,7 @@
       <c r="C73" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="193"/>
+      <c r="D73" s="222"/>
       <c r="E73" s="15" t="s">
         <v>80</v>
       </c>
@@ -5148,7 +5181,7 @@
       <c r="C74" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="193"/>
+      <c r="D74" s="222"/>
       <c r="E74" s="15" t="s">
         <v>80</v>
       </c>
@@ -5176,7 +5209,7 @@
       <c r="C75" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="181"/>
+      <c r="D75" s="210"/>
       <c r="E75" s="15" t="s">
         <v>80</v>
       </c>
@@ -5204,7 +5237,7 @@
       <c r="C76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="181"/>
+      <c r="D76" s="210"/>
       <c r="E76" s="15" t="s">
         <v>80</v>
       </c>
@@ -5290,7 +5323,7 @@
       <c r="C80" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="182" t="s">
+      <c r="D80" s="211" t="s">
         <v>252</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -5320,7 +5353,7 @@
       <c r="C81" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="183"/>
+      <c r="D81" s="212"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17" t="s">
@@ -5344,7 +5377,7 @@
       <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="183"/>
+      <c r="D82" s="212"/>
       <c r="E82" s="17" t="s">
         <v>74</v>
       </c>
@@ -5372,7 +5405,7 @@
       <c r="C83" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="183"/>
+      <c r="D83" s="212"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17" t="s">
@@ -5396,7 +5429,7 @@
       <c r="C84" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="183"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="17" t="s">
         <v>74</v>
       </c>
@@ -5424,7 +5457,7 @@
       <c r="C85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="184"/>
+      <c r="D85" s="213"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17" t="s">
@@ -5506,7 +5539,7 @@
       <c r="C89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="199" t="s">
+      <c r="D89" s="188" t="s">
         <v>253</v>
       </c>
       <c r="E89" s="18" t="s">
@@ -5536,7 +5569,7 @@
       <c r="C90" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="200"/>
+      <c r="D90" s="189"/>
       <c r="E90" s="18" t="s">
         <v>74</v>
       </c>
@@ -5564,7 +5597,7 @@
       <c r="C91" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="200"/>
+      <c r="D91" s="189"/>
       <c r="E91" s="18" t="s">
         <v>74</v>
       </c>
@@ -5592,7 +5625,7 @@
       <c r="C92" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="200"/>
+      <c r="D92" s="189"/>
       <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
@@ -5620,7 +5653,7 @@
       <c r="C93" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="200"/>
+      <c r="D93" s="189"/>
       <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
@@ -5648,7 +5681,7 @@
       <c r="C94" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="201"/>
+      <c r="D94" s="190"/>
       <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
@@ -5690,7 +5723,7 @@
       <c r="C96" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D96" s="203" t="s">
+      <c r="D96" s="192" t="s">
         <v>261</v>
       </c>
       <c r="E96" s="20"/>
@@ -5716,7 +5749,7 @@
       <c r="C97" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="204"/>
+      <c r="D97" s="193"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="G97" s="1"/>
@@ -5740,7 +5773,7 @@
       <c r="C98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="204"/>
+      <c r="D98" s="193"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="G98" s="1"/>
@@ -5764,7 +5797,7 @@
       <c r="C99" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="204"/>
+      <c r="D99" s="193"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="G99" s="1"/>
@@ -5788,7 +5821,7 @@
       <c r="C100" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="204"/>
+      <c r="D100" s="193"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="1"/>
@@ -5812,7 +5845,7 @@
       <c r="C101" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="204"/>
+      <c r="D101" s="193"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="1"/>
@@ -5836,7 +5869,7 @@
       <c r="C102" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="204"/>
+      <c r="D102" s="193"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="1"/>
@@ -5860,7 +5893,7 @@
       <c r="C103" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="205"/>
+      <c r="D103" s="194"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="1"/>
@@ -5887,7 +5920,7 @@
       <c r="C105" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="208" t="s">
+      <c r="D105" s="197" t="s">
         <v>255</v>
       </c>
       <c r="E105" s="42"/>
@@ -5913,7 +5946,7 @@
       <c r="C106" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="208"/>
+      <c r="D106" s="197"/>
       <c r="E